--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84918BB3-1D48-4777-B935-538364068CEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654394FD-AE16-4D81-8B7D-894D2D03E57C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16560" yWindow="2897" windowWidth="16663" windowHeight="8863" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
     <sheet name="LoganPluginCore调用" sheetId="4" r:id="rId2"/>
     <sheet name="HMI Event注册" sheetId="5" r:id="rId3"/>
     <sheet name="HMI Event调用" sheetId="6" r:id="rId4"/>
+    <sheet name="main" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="164">
   <si>
     <t>EventBusService::registerForEvent&lt;TnGetCountryListEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::AddressCaptureQueryCountry);</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1303,6 +1304,15 @@
   </si>
   <si>
     <t>return true;</t>
+  </si>
+  <si>
+    <t>controller.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        state = State::ptr(new InitState(mStateMachine, *this));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mStateMachine-&gt;addState(state);</t>
   </si>
 </sst>
 </file>
@@ -5608,12 +5618,12 @@
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" customWidth="1"/>
-    <col min="14" max="14" width="9.90625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:22">
@@ -6321,13 +6331,13 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="9.36328125" customWidth="1"/>
-    <col min="11" max="11" width="12.36328125" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" customWidth="1"/>
-    <col min="14" max="14" width="9.36328125" customWidth="1"/>
-    <col min="19" max="19" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -7243,7 +7253,7 @@
       <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="2:31">
       <c r="P3" s="124" t="s">
@@ -7577,11 +7587,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7754FD7-EB22-45A5-83A3-D06171DD59DD}">
   <dimension ref="D7:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
@@ -7661,4 +7671,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B18AC38-2CD7-4E1F-8C90-FD21FDB0FAC4}">
+  <dimension ref="B2:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654394FD-AE16-4D81-8B7D-894D2D03E57C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261F7506-88E9-4A6D-8D68-AB46BD90B76B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16560" yWindow="2897" windowWidth="16663" windowHeight="8863" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
     <sheet name="LoganPluginCore调用" sheetId="4" r:id="rId2"/>
     <sheet name="HMI Event注册" sheetId="5" r:id="rId3"/>
-    <sheet name="HMI Event调用" sheetId="6" r:id="rId4"/>
-    <sheet name="main" sheetId="7" r:id="rId5"/>
+    <sheet name="HMI Event注册！！！" sheetId="8" r:id="rId4"/>
+    <sheet name="HMI Event调用" sheetId="6" r:id="rId5"/>
+    <sheet name="main" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
   <si>
     <t>EventBusService::registerForEvent&lt;TnGetCountryListEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::AddressCaptureQueryCountry);</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -925,8 +926,86 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">template &lt;class </t>
+    <t>void NavProxy::processRespRouteCalculationPercentageEvent(TnRouteCalculationPercentageEvent::ptr const &amp;resp)</t>
+  </si>
+  <si>
+    <t>EventHandlerAdapterBase(wpHandler.lock().get(), typeid(func).name(), pQueue),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_func(func), </t>
+  </si>
+  <si>
+    <t>m_wpHandler(wpHandler)</t>
+  </si>
+  <si>
+    <t>template&lt;class EventT, class T&gt;</t>
+  </si>
+  <si>
+    <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;EventT, T&gt;(obj, memberFunction, this));</t>
+  </si>
+  <si>
+    <t>EventT0</t>
+  </si>
+  <si>
+    <t>EventT1</t>
+  </si>
+  <si>
+    <t>EventHandlerAdapter0</t>
+  </si>
+  <si>
+    <t>EventHandlerAdapter1</t>
+  </si>
+  <si>
+    <t>std::string</t>
+  </si>
+  <si>
+    <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt;</t>
+  </si>
+  <si>
+    <t>m_handlers</t>
+  </si>
+  <si>
+    <t>m_eventListeners</t>
+  </si>
+  <si>
+    <t>TnSharedPtr&lt;void&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explicit EventListener(TnEventQueue * pQueue) : </t>
+  </si>
+  <si>
+    <t>m_pQueue(pQueue) {</t>
+  </si>
+  <si>
+    <t>// used for supporting broadcastEventToQueue</t>
+  </si>
+  <si>
+    <t>template &lt;class EventT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">void subscribe( boost::function&lt;void(const EventT&amp;)&gt; handler, void* tag = NULL ) { </t>
+  </si>
+  <si>
+    <t>assert( handler &amp;&amp; "Event handler must not be an empty function" );</t>
+  </si>
+  <si>
+    <t>unique_lock&lt;mutex&gt; lock(subscribers_mutex);</t>
+  </si>
+  <si>
+    <t>boost::shared_ptr&lt;SubscriberForEvent&lt;EventT&gt; &gt; s = boost::make_shared&lt;SubscriberForEvent&lt;EventT&gt; &gt;();</t>
+  </si>
+  <si>
+    <t>s-&gt;handler = handler;</t>
+  </si>
+  <si>
+    <t>s-&gt;tag = tag;</t>
+  </si>
+  <si>
+    <t>subscribers.insert( SubscriberMapT::value_type( typeName&lt;EventT&gt;(), s ));</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template&lt;class </t>
     </r>
     <r>
       <rPr>
@@ -946,6 +1025,156 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventT&amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;EventAdapter&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventAdapter&lt;EventT&gt; &amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
+    </r>
+  </si>
+  <si>
+    <t>EventListener0</t>
+  </si>
+  <si>
+    <t>EventListener1</t>
+  </si>
+  <si>
+    <t>使用智能指针时，如果需要进行类层次上的上下行转换时，可以使用boost::static_pointer_cast和boost::dynamic_pointer_cast</t>
+  </si>
+  <si>
+    <t>m_events</t>
+  </si>
+  <si>
+    <t>void LoganPluginCore::Run()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>//Call Run Function (will quit when quit event is received)</t>
+  </si>
+  <si>
+    <t>//guomin: we should make sure the scheduler and event manager run in the same thread, otherwise, we will have lots of thread confision issues.</t>
+  </si>
+  <si>
+    <t>MSG msg;</t>
+  </si>
+  <si>
+    <t>while (GetMessage(&amp;msg, NULL, 0, 0))</t>
+  </si>
+  <si>
+    <t>DispatchMessage(&amp;msg);</t>
+  </si>
+  <si>
+    <t>if (m_bShouldQuit || (!m_pBusService-&gt;ProcessEvents(100)))</t>
+  </si>
+  <si>
+    <t>bool TnEventQueue::run() {</t>
+  </si>
+  <si>
+    <t>while(!m_isCanceled) {</t>
+  </si>
+  <si>
+    <t>ProcessEvents(0);</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>controller.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        state = State::ptr(new InitState(mStateMachine, *this));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mStateMachine-&gt;addState(state);</t>
+  </si>
+  <si>
+    <t>mCurrentState-&gt;onEnterState(previousStateName, false, command);</t>
+  </si>
+  <si>
+    <t>null，false，init</t>
+  </si>
+  <si>
+    <t>mController.activateController(EntityName::Init, command, isBack);</t>
+  </si>
+  <si>
+    <t>init，false</t>
+  </si>
+  <si>
+    <t>IController::ptr controller = this-&gt;getController(name, useExist);</t>
+  </si>
+  <si>
+    <t>AutoSDKService::eventQueue()-&gt;registerForEvent&lt;TnTrafficStationInfoChangeEvent&gt;(boost::weak_ptr&lt;TrafficService&gt;(mTrafficService), &amp;TrafficService::handleTnTrafficStationInfoChangeEvent);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template &lt;class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">, class </t>
     </r>
     <r>
@@ -971,49 +1200,6 @@
   </si>
   <si>
     <r>
-      <t>pQueue-&gt;registerForEvent&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TnRouteCalculationPercentageEvent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(wpNavProxy, &amp;NavProxy::processRespRouteCalculationPercentageEvent);</t>
-    </r>
-  </si>
-  <si>
-    <t>void NavProxy::processRespRouteCalculationPercentageEvent(TnRouteCalculationPercentageEvent::ptr const &amp;resp)</t>
-  </si>
-  <si>
-    <t>EventHandlerAdapterBase(wpHandler.lock().get(), typeid(func).name(), pQueue),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_func(func), </t>
-  </si>
-  <si>
-    <t>m_wpHandler(wpHandler)</t>
-  </si>
-  <si>
-    <t>template&lt;class EventT, class T&gt;</t>
-  </si>
-  <si>
-    <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;EventT, T&gt;(obj, memberFunction, this));</t>
-  </si>
-  <si>
-    <r>
       <t>bool registerForEvent(TnWeakPtr&lt;</t>
     </r>
     <r>
@@ -1039,7 +1225,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1104,7 +1290,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1121,198 +1307,6 @@
       </rPr>
       <t xml:space="preserve">&gt;&amp;), TnEventQueue * pQueue) : </t>
     </r>
-  </si>
-  <si>
-    <t>EventT0</t>
-  </si>
-  <si>
-    <t>EventT1</t>
-  </si>
-  <si>
-    <t>EventHandlerAdapter0</t>
-  </si>
-  <si>
-    <t>EventHandlerAdapter1</t>
-  </si>
-  <si>
-    <t>std::string</t>
-  </si>
-  <si>
-    <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt;</t>
-  </si>
-  <si>
-    <t>m_handlers</t>
-  </si>
-  <si>
-    <t>m_eventListeners</t>
-  </si>
-  <si>
-    <t>TnSharedPtr&lt;void&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explicit EventListener(TnEventQueue * pQueue) : </t>
-  </si>
-  <si>
-    <t>m_pQueue(pQueue) {</t>
-  </si>
-  <si>
-    <t>// used for supporting broadcastEventToQueue</t>
-  </si>
-  <si>
-    <t>template &lt;class EventT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void subscribe( boost::function&lt;void(const EventT&amp;)&gt; handler, void* tag = NULL ) { </t>
-  </si>
-  <si>
-    <t>assert( handler &amp;&amp; "Event handler must not be an empty function" );</t>
-  </si>
-  <si>
-    <t>unique_lock&lt;mutex&gt; lock(subscribers_mutex);</t>
-  </si>
-  <si>
-    <t>boost::shared_ptr&lt;SubscriberForEvent&lt;EventT&gt; &gt; s = boost::make_shared&lt;SubscriberForEvent&lt;EventT&gt; &gt;();</t>
-  </si>
-  <si>
-    <t>s-&gt;handler = handler;</t>
-  </si>
-  <si>
-    <t>s-&gt;tag = tag;</t>
-  </si>
-  <si>
-    <t>subscribers.insert( SubscriberMapT::value_type( typeName&lt;EventT&gt;(), s ));</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">template&lt;class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventT&amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;EventAdapter&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; &gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventAdapter&lt;EventT&gt; &amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
-    </r>
-  </si>
-  <si>
-    <t>EventListener0</t>
-  </si>
-  <si>
-    <t>EventListener1</t>
-  </si>
-  <si>
-    <t>使用智能指针时，如果需要进行类层次上的上下行转换时，可以使用boost::static_pointer_cast和boost::dynamic_pointer_cast</t>
-  </si>
-  <si>
-    <t>m_events</t>
-  </si>
-  <si>
-    <t>void LoganPluginCore::Run()</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>//Call Run Function (will quit when quit event is received)</t>
-  </si>
-  <si>
-    <t>//guomin: we should make sure the scheduler and event manager run in the same thread, otherwise, we will have lots of thread confision issues.</t>
-  </si>
-  <si>
-    <t>MSG msg;</t>
-  </si>
-  <si>
-    <t>while (GetMessage(&amp;msg, NULL, 0, 0))</t>
-  </si>
-  <si>
-    <t>DispatchMessage(&amp;msg);</t>
-  </si>
-  <si>
-    <t>if (m_bShouldQuit || (!m_pBusService-&gt;ProcessEvents(100)))</t>
-  </si>
-  <si>
-    <t>bool TnEventQueue::run() {</t>
-  </si>
-  <si>
-    <t>while(!m_isCanceled) {</t>
-  </si>
-  <si>
-    <t>ProcessEvents(0);</t>
-  </si>
-  <si>
-    <t>return true;</t>
-  </si>
-  <si>
-    <t>controller.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        state = State::ptr(new InitState(mStateMachine, *this));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        mStateMachine-&gt;addState(state);</t>
   </si>
 </sst>
 </file>
@@ -7249,8 +7243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF00E54-7E76-42E3-9E4D-458C7D7154B7}">
   <dimension ref="B3:AE49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7266,7 +7260,7 @@
       <c r="U3" s="124"/>
       <c r="V3" s="124"/>
       <c r="X3" s="124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y3" s="124"/>
       <c r="Z3" s="124"/>
@@ -7278,7 +7272,7 @@
     </row>
     <row r="4" spans="2:31">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="T4" s="125"/>
       <c r="U4" s="125"/>
@@ -7291,10 +7285,10 @@
     </row>
     <row r="5" spans="2:31">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="P5" s="124" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="124"/>
       <c r="R5" s="124"/>
@@ -7312,15 +7306,15 @@
     </row>
     <row r="7" spans="2:31">
       <c r="C7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:31">
       <c r="C8" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="P8" s="124" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="124"/>
       <c r="R8" s="124"/>
@@ -7338,82 +7332,82 @@
     </row>
     <row r="9" spans="2:31">
       <c r="D9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:31">
       <c r="D10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:31">
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="3:28" ht="15" thickBot="1">
       <c r="C22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="3:28">
       <c r="C23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="V23" s="126" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="W23" s="127" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="X23" s="128"/>
       <c r="Y23" s="129"/>
       <c r="Z23" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="3:28">
       <c r="D24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="V24" s="130" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W24" s="131" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X24" s="132"/>
       <c r="Y24" s="133"/>
     </row>
     <row r="25" spans="3:28">
       <c r="D25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V25" s="130" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W25" s="131" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X25" s="132"/>
       <c r="Y25" s="133"/>
     </row>
     <row r="26" spans="3:28" ht="15" thickBot="1">
       <c r="D26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="V26" s="134" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W26" s="138" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="X26" s="139"/>
       <c r="Y26" s="140"/>
     </row>
     <row r="27" spans="3:28">
       <c r="D27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="V27" s="92"/>
       <c r="W27" s="92"/>
@@ -7427,40 +7421,40 @@
     </row>
     <row r="29" spans="3:28" ht="15" thickBot="1">
       <c r="D29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="3:28">
       <c r="D30" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="T30" s="120"/>
       <c r="U30" s="120"/>
       <c r="V30" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="W30" s="127" t="s">
         <v>126</v>
-      </c>
-      <c r="W30" s="127" t="s">
-        <v>130</v>
       </c>
       <c r="X30" s="128"/>
       <c r="Y30" s="129"/>
       <c r="Z30" s="120" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AA30" s="120"/>
       <c r="AB30" s="120"/>
     </row>
     <row r="31" spans="3:28">
       <c r="E31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="T31" s="120"/>
       <c r="U31" s="120"/>
       <c r="V31" s="130" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W31" s="131" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="X31" s="132"/>
       <c r="Y31" s="133"/>
@@ -7470,15 +7464,15 @@
     </row>
     <row r="32" spans="3:28">
       <c r="E32" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T32" s="120"/>
       <c r="U32" s="120"/>
       <c r="V32" s="130" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W32" s="131" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="X32" s="132"/>
       <c r="Y32" s="133"/>
@@ -7488,7 +7482,7 @@
     </row>
     <row r="33" spans="4:28" ht="15" thickBot="1">
       <c r="E33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="T33" s="120"/>
       <c r="U33" s="120"/>
@@ -7502,7 +7496,7 @@
     </row>
     <row r="34" spans="4:28">
       <c r="E34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="T34" s="120"/>
       <c r="U34" s="120"/>
@@ -7516,23 +7510,23 @@
     </row>
     <row r="35" spans="4:28" ht="15" thickBot="1">
       <c r="E35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="4:28">
       <c r="E36" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V36" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="W36" s="127" t="s">
         <v>126</v>
-      </c>
-      <c r="W36" s="127" t="s">
-        <v>130</v>
       </c>
       <c r="X36" s="128"/>
       <c r="Y36" s="129"/>
       <c r="Z36" s="120" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AA36" s="120"/>
     </row>
@@ -7541,10 +7535,10 @@
         <v>14</v>
       </c>
       <c r="V37" s="130" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W37" s="131" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="X37" s="132"/>
       <c r="Y37" s="133"/>
@@ -7553,10 +7547,10 @@
     </row>
     <row r="38" spans="4:28">
       <c r="V38" s="130" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="W38" s="131" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="X38" s="132"/>
       <c r="Y38" s="133"/>
@@ -7573,7 +7567,7 @@
     </row>
     <row r="49" spans="18:18">
       <c r="R49" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -7584,6 +7578,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5E174E-DA76-4C1A-9737-D65674081A15}">
+  <dimension ref="D3:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="4:5">
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5">
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7754FD7-EB22-45A5-83A3-D06171DD59DD}">
   <dimension ref="D7:F27"/>
   <sheetViews>
@@ -7595,62 +7614,62 @@
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="E9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="E10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="E11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="E12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="E13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="F14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="F15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="4:6">
       <c r="E23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="F24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="4:6">
@@ -7660,7 +7679,7 @@
     </row>
     <row r="26" spans="4:6">
       <c r="E26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="4:6">
@@ -7673,26 +7692,56 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B18AC38-2CD7-4E1F-8C90-FD21FDB0FAC4}">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="D5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="G6" t="s">
         <v>161</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="8" spans="2:9">
+      <c r="D8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="D3" t="s">
+    <row r="9" spans="2:9">
+      <c r="I9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="I11" t="s">
         <v>163</v>
       </c>
     </row>

--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261F7506-88E9-4A6D-8D68-AB46BD90B76B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E13469-C3CA-40FC-99F6-925C89ABC029}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="530" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="177">
   <si>
     <t>EventBusService::registerForEvent&lt;TnGetCountryListEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::AddressCaptureQueryCountry);</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1307,6 +1307,162 @@
       </rPr>
       <t xml:space="preserve">&gt;&amp;), TnEventQueue * pQueue) : </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>AutoSDKService::eventQueue()-&gt;registerForEvent&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TnCommonPluginInitializedEvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(boost::weak_ptr&lt;AutoSDKService&gt;(mAutoSDKService), &amp;AutoSDKService::handleCommonPluginInitCompleteEvent);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template &lt;class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bool registerForEvent(TnWeakPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; obj, void (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::*memberFunction)(const TnSharedPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&amp;))</t>
+    </r>
+  </si>
+  <si>
+    <t>EventHandlerAdapterBase(void * pHandler, std::string funcName, TnEventQueue *pQueue) :</t>
+  </si>
+  <si>
+    <t>m_handlerPtr(pHandler),</t>
+  </si>
+  <si>
+    <t>m_handleFuncId(funcName),</t>
+  </si>
+  <si>
+    <t>m_pQueue(pQueue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explicit EventHandlerAdapter(TnWeakPtr&lt;T&gt; wpHandler, void (T::*func)(const TnSharedPtr&lt;EventT&gt;&amp;), TnEventQueue * pQueue) : </t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2231,6 +2387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7243,8 +7400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF00E54-7E76-42E3-9E4D-458C7D7154B7}">
   <dimension ref="B3:AE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7579,26 +7736,2085 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5E174E-DA76-4C1A-9737-D65674081A15}">
-  <dimension ref="D3:E5"/>
+  <dimension ref="B2:N679"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" spans="4:5">
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5">
-      <c r="E5" t="s">
+    <row r="2" spans="2:14">
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N2" s="81"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="N4" s="81"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="N5" s="81" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="81"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="81"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="81"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="N9" s="81"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="N10" s="81"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+      <c r="N11" s="81"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N12" s="81"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="N13" s="81"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="N14" s="81"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="N15" s="81"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="N16" s="81"/>
+    </row>
+    <row r="17" spans="14:14">
+      <c r="N17" s="81"/>
+    </row>
+    <row r="18" spans="14:14">
+      <c r="N18" s="81"/>
+    </row>
+    <row r="19" spans="14:14">
+      <c r="N19" s="81"/>
+    </row>
+    <row r="20" spans="14:14">
+      <c r="N20" s="81"/>
+    </row>
+    <row r="21" spans="14:14">
+      <c r="N21" s="81"/>
+    </row>
+    <row r="22" spans="14:14">
+      <c r="N22" s="81"/>
+    </row>
+    <row r="23" spans="14:14">
+      <c r="N23" s="81"/>
+    </row>
+    <row r="24" spans="14:14">
+      <c r="N24" s="81"/>
+    </row>
+    <row r="25" spans="14:14">
+      <c r="N25" s="81"/>
+    </row>
+    <row r="26" spans="14:14">
+      <c r="N26" s="81"/>
+    </row>
+    <row r="27" spans="14:14">
+      <c r="N27" s="81"/>
+    </row>
+    <row r="28" spans="14:14">
+      <c r="N28" s="81"/>
+    </row>
+    <row r="29" spans="14:14">
+      <c r="N29" s="81"/>
+    </row>
+    <row r="30" spans="14:14">
+      <c r="N30" s="81"/>
+    </row>
+    <row r="31" spans="14:14">
+      <c r="N31" s="81"/>
+    </row>
+    <row r="32" spans="14:14">
+      <c r="N32" s="81"/>
+    </row>
+    <row r="33" spans="14:14">
+      <c r="N33" s="81"/>
+    </row>
+    <row r="34" spans="14:14">
+      <c r="N34" s="81"/>
+    </row>
+    <row r="35" spans="14:14">
+      <c r="N35" s="81"/>
+    </row>
+    <row r="36" spans="14:14">
+      <c r="N36" s="81"/>
+    </row>
+    <row r="37" spans="14:14">
+      <c r="N37" s="81"/>
+    </row>
+    <row r="38" spans="14:14">
+      <c r="N38" s="81"/>
+    </row>
+    <row r="39" spans="14:14">
+      <c r="N39" s="81"/>
+    </row>
+    <row r="40" spans="14:14">
+      <c r="N40" s="81"/>
+    </row>
+    <row r="41" spans="14:14">
+      <c r="N41" s="81"/>
+    </row>
+    <row r="42" spans="14:14">
+      <c r="N42" s="81"/>
+    </row>
+    <row r="43" spans="14:14">
+      <c r="N43" s="81"/>
+    </row>
+    <row r="44" spans="14:14">
+      <c r="N44" s="81"/>
+    </row>
+    <row r="45" spans="14:14">
+      <c r="N45" s="81"/>
+    </row>
+    <row r="46" spans="14:14">
+      <c r="N46" s="81"/>
+    </row>
+    <row r="47" spans="14:14">
+      <c r="N47" s="81"/>
+    </row>
+    <row r="48" spans="14:14">
+      <c r="N48" s="81"/>
+    </row>
+    <row r="49" spans="14:14">
+      <c r="N49" s="81"/>
+    </row>
+    <row r="50" spans="14:14">
+      <c r="N50" s="81"/>
+    </row>
+    <row r="51" spans="14:14">
+      <c r="N51" s="81"/>
+    </row>
+    <row r="52" spans="14:14">
+      <c r="N52" s="81"/>
+    </row>
+    <row r="53" spans="14:14">
+      <c r="N53" s="81"/>
+    </row>
+    <row r="54" spans="14:14">
+      <c r="N54" s="81"/>
+    </row>
+    <row r="55" spans="14:14">
+      <c r="N55" s="81"/>
+    </row>
+    <row r="56" spans="14:14">
+      <c r="N56" s="81"/>
+    </row>
+    <row r="57" spans="14:14">
+      <c r="N57" s="81"/>
+    </row>
+    <row r="58" spans="14:14">
+      <c r="N58" s="81"/>
+    </row>
+    <row r="59" spans="14:14">
+      <c r="N59" s="81"/>
+    </row>
+    <row r="60" spans="14:14">
+      <c r="N60" s="81"/>
+    </row>
+    <row r="61" spans="14:14">
+      <c r="N61" s="81"/>
+    </row>
+    <row r="62" spans="14:14">
+      <c r="N62" s="81"/>
+    </row>
+    <row r="63" spans="14:14">
+      <c r="N63" s="81"/>
+    </row>
+    <row r="64" spans="14:14">
+      <c r="N64" s="81"/>
+    </row>
+    <row r="65" spans="14:14">
+      <c r="N65" s="81"/>
+    </row>
+    <row r="66" spans="14:14">
+      <c r="N66" s="81"/>
+    </row>
+    <row r="67" spans="14:14">
+      <c r="N67" s="81"/>
+    </row>
+    <row r="68" spans="14:14">
+      <c r="N68" s="81"/>
+    </row>
+    <row r="69" spans="14:14">
+      <c r="N69" s="81"/>
+    </row>
+    <row r="70" spans="14:14">
+      <c r="N70" s="81"/>
+    </row>
+    <row r="71" spans="14:14">
+      <c r="N71" s="81"/>
+    </row>
+    <row r="72" spans="14:14">
+      <c r="N72" s="81"/>
+    </row>
+    <row r="73" spans="14:14">
+      <c r="N73" s="81"/>
+    </row>
+    <row r="74" spans="14:14">
+      <c r="N74" s="81"/>
+    </row>
+    <row r="75" spans="14:14">
+      <c r="N75" s="81"/>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" s="81"/>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" s="81"/>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" s="81"/>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" s="81"/>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" s="81"/>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" s="81"/>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" s="81"/>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" s="81"/>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" s="81"/>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" s="81"/>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" s="81"/>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" s="81"/>
+    </row>
+    <row r="88" spans="14:14">
+      <c r="N88" s="81"/>
+    </row>
+    <row r="89" spans="14:14">
+      <c r="N89" s="81"/>
+    </row>
+    <row r="90" spans="14:14">
+      <c r="N90" s="81"/>
+    </row>
+    <row r="91" spans="14:14">
+      <c r="N91" s="81"/>
+    </row>
+    <row r="92" spans="14:14">
+      <c r="N92" s="81"/>
+    </row>
+    <row r="93" spans="14:14">
+      <c r="N93" s="81"/>
+    </row>
+    <row r="94" spans="14:14">
+      <c r="N94" s="81"/>
+    </row>
+    <row r="95" spans="14:14">
+      <c r="N95" s="81"/>
+    </row>
+    <row r="96" spans="14:14">
+      <c r="N96" s="81"/>
+    </row>
+    <row r="97" spans="14:14">
+      <c r="N97" s="81"/>
+    </row>
+    <row r="98" spans="14:14">
+      <c r="N98" s="81"/>
+    </row>
+    <row r="99" spans="14:14">
+      <c r="N99" s="81"/>
+    </row>
+    <row r="100" spans="14:14">
+      <c r="N100" s="81"/>
+    </row>
+    <row r="101" spans="14:14">
+      <c r="N101" s="81"/>
+    </row>
+    <row r="102" spans="14:14">
+      <c r="N102" s="81"/>
+    </row>
+    <row r="103" spans="14:14">
+      <c r="N103" s="81"/>
+    </row>
+    <row r="104" spans="14:14">
+      <c r="N104" s="81"/>
+    </row>
+    <row r="105" spans="14:14">
+      <c r="N105" s="81"/>
+    </row>
+    <row r="106" spans="14:14">
+      <c r="N106" s="81"/>
+    </row>
+    <row r="107" spans="14:14">
+      <c r="N107" s="81"/>
+    </row>
+    <row r="108" spans="14:14">
+      <c r="N108" s="81"/>
+    </row>
+    <row r="109" spans="14:14">
+      <c r="N109" s="81"/>
+    </row>
+    <row r="110" spans="14:14">
+      <c r="N110" s="81"/>
+    </row>
+    <row r="111" spans="14:14">
+      <c r="N111" s="81"/>
+    </row>
+    <row r="112" spans="14:14">
+      <c r="N112" s="81"/>
+    </row>
+    <row r="113" spans="14:14">
+      <c r="N113" s="81"/>
+    </row>
+    <row r="114" spans="14:14">
+      <c r="N114" s="81"/>
+    </row>
+    <row r="115" spans="14:14">
+      <c r="N115" s="81"/>
+    </row>
+    <row r="116" spans="14:14">
+      <c r="N116" s="81"/>
+    </row>
+    <row r="117" spans="14:14">
+      <c r="N117" s="81"/>
+    </row>
+    <row r="118" spans="14:14">
+      <c r="N118" s="81"/>
+    </row>
+    <row r="119" spans="14:14">
+      <c r="N119" s="81"/>
+    </row>
+    <row r="120" spans="14:14">
+      <c r="N120" s="81"/>
+    </row>
+    <row r="121" spans="14:14">
+      <c r="N121" s="81"/>
+    </row>
+    <row r="122" spans="14:14">
+      <c r="N122" s="81"/>
+    </row>
+    <row r="123" spans="14:14">
+      <c r="N123" s="81"/>
+    </row>
+    <row r="124" spans="14:14">
+      <c r="N124" s="81"/>
+    </row>
+    <row r="125" spans="14:14">
+      <c r="N125" s="81"/>
+    </row>
+    <row r="126" spans="14:14">
+      <c r="N126" s="81"/>
+    </row>
+    <row r="127" spans="14:14">
+      <c r="N127" s="81"/>
+    </row>
+    <row r="128" spans="14:14">
+      <c r="N128" s="81"/>
+    </row>
+    <row r="129" spans="14:14">
+      <c r="N129" s="81"/>
+    </row>
+    <row r="130" spans="14:14">
+      <c r="N130" s="81"/>
+    </row>
+    <row r="131" spans="14:14">
+      <c r="N131" s="81"/>
+    </row>
+    <row r="132" spans="14:14">
+      <c r="N132" s="81"/>
+    </row>
+    <row r="133" spans="14:14">
+      <c r="N133" s="81"/>
+    </row>
+    <row r="134" spans="14:14">
+      <c r="N134" s="81"/>
+    </row>
+    <row r="135" spans="14:14">
+      <c r="N135" s="81"/>
+    </row>
+    <row r="136" spans="14:14">
+      <c r="N136" s="81"/>
+    </row>
+    <row r="137" spans="14:14">
+      <c r="N137" s="81"/>
+    </row>
+    <row r="138" spans="14:14">
+      <c r="N138" s="81"/>
+    </row>
+    <row r="139" spans="14:14">
+      <c r="N139" s="81"/>
+    </row>
+    <row r="140" spans="14:14">
+      <c r="N140" s="81"/>
+    </row>
+    <row r="141" spans="14:14">
+      <c r="N141" s="81"/>
+    </row>
+    <row r="142" spans="14:14">
+      <c r="N142" s="81"/>
+    </row>
+    <row r="143" spans="14:14">
+      <c r="N143" s="81"/>
+    </row>
+    <row r="144" spans="14:14">
+      <c r="N144" s="81"/>
+    </row>
+    <row r="145" spans="14:14">
+      <c r="N145" s="81"/>
+    </row>
+    <row r="146" spans="14:14">
+      <c r="N146" s="81"/>
+    </row>
+    <row r="147" spans="14:14">
+      <c r="N147" s="81"/>
+    </row>
+    <row r="148" spans="14:14">
+      <c r="N148" s="81"/>
+    </row>
+    <row r="149" spans="14:14">
+      <c r="N149" s="81"/>
+    </row>
+    <row r="150" spans="14:14">
+      <c r="N150" s="81"/>
+    </row>
+    <row r="151" spans="14:14">
+      <c r="N151" s="81"/>
+    </row>
+    <row r="152" spans="14:14">
+      <c r="N152" s="81"/>
+    </row>
+    <row r="153" spans="14:14">
+      <c r="N153" s="81"/>
+    </row>
+    <row r="154" spans="14:14">
+      <c r="N154" s="81"/>
+    </row>
+    <row r="155" spans="14:14">
+      <c r="N155" s="81"/>
+    </row>
+    <row r="156" spans="14:14">
+      <c r="N156" s="81"/>
+    </row>
+    <row r="157" spans="14:14">
+      <c r="N157" s="81"/>
+    </row>
+    <row r="158" spans="14:14">
+      <c r="N158" s="81"/>
+    </row>
+    <row r="159" spans="14:14">
+      <c r="N159" s="81"/>
+    </row>
+    <row r="160" spans="14:14">
+      <c r="N160" s="81"/>
+    </row>
+    <row r="161" spans="14:14">
+      <c r="N161" s="81"/>
+    </row>
+    <row r="162" spans="14:14">
+      <c r="N162" s="81"/>
+    </row>
+    <row r="163" spans="14:14">
+      <c r="N163" s="81"/>
+    </row>
+    <row r="164" spans="14:14">
+      <c r="N164" s="81"/>
+    </row>
+    <row r="165" spans="14:14">
+      <c r="N165" s="81"/>
+    </row>
+    <row r="166" spans="14:14">
+      <c r="N166" s="81"/>
+    </row>
+    <row r="167" spans="14:14">
+      <c r="N167" s="81"/>
+    </row>
+    <row r="168" spans="14:14">
+      <c r="N168" s="81"/>
+    </row>
+    <row r="169" spans="14:14">
+      <c r="N169" s="81"/>
+    </row>
+    <row r="170" spans="14:14">
+      <c r="N170" s="81"/>
+    </row>
+    <row r="171" spans="14:14">
+      <c r="N171" s="81"/>
+    </row>
+    <row r="172" spans="14:14">
+      <c r="N172" s="81"/>
+    </row>
+    <row r="173" spans="14:14">
+      <c r="N173" s="81"/>
+    </row>
+    <row r="174" spans="14:14">
+      <c r="N174" s="81"/>
+    </row>
+    <row r="175" spans="14:14">
+      <c r="N175" s="81"/>
+    </row>
+    <row r="176" spans="14:14">
+      <c r="N176" s="81"/>
+    </row>
+    <row r="177" spans="14:14">
+      <c r="N177" s="81"/>
+    </row>
+    <row r="178" spans="14:14">
+      <c r="N178" s="81"/>
+    </row>
+    <row r="179" spans="14:14">
+      <c r="N179" s="81"/>
+    </row>
+    <row r="180" spans="14:14">
+      <c r="N180" s="81"/>
+    </row>
+    <row r="181" spans="14:14">
+      <c r="N181" s="81"/>
+    </row>
+    <row r="182" spans="14:14">
+      <c r="N182" s="81"/>
+    </row>
+    <row r="183" spans="14:14">
+      <c r="N183" s="81"/>
+    </row>
+    <row r="184" spans="14:14">
+      <c r="N184" s="81"/>
+    </row>
+    <row r="185" spans="14:14">
+      <c r="N185" s="81"/>
+    </row>
+    <row r="186" spans="14:14">
+      <c r="N186" s="81"/>
+    </row>
+    <row r="187" spans="14:14">
+      <c r="N187" s="81"/>
+    </row>
+    <row r="188" spans="14:14">
+      <c r="N188" s="81"/>
+    </row>
+    <row r="189" spans="14:14">
+      <c r="N189" s="81"/>
+    </row>
+    <row r="190" spans="14:14">
+      <c r="N190" s="81"/>
+    </row>
+    <row r="191" spans="14:14">
+      <c r="N191" s="81"/>
+    </row>
+    <row r="192" spans="14:14">
+      <c r="N192" s="81"/>
+    </row>
+    <row r="193" spans="14:14">
+      <c r="N193" s="81"/>
+    </row>
+    <row r="194" spans="14:14">
+      <c r="N194" s="81"/>
+    </row>
+    <row r="195" spans="14:14">
+      <c r="N195" s="81"/>
+    </row>
+    <row r="196" spans="14:14">
+      <c r="N196" s="81"/>
+    </row>
+    <row r="197" spans="14:14">
+      <c r="N197" s="81"/>
+    </row>
+    <row r="198" spans="14:14">
+      <c r="N198" s="81"/>
+    </row>
+    <row r="199" spans="14:14">
+      <c r="N199" s="81"/>
+    </row>
+    <row r="200" spans="14:14">
+      <c r="N200" s="81"/>
+    </row>
+    <row r="201" spans="14:14">
+      <c r="N201" s="81"/>
+    </row>
+    <row r="202" spans="14:14">
+      <c r="N202" s="81"/>
+    </row>
+    <row r="203" spans="14:14">
+      <c r="N203" s="81"/>
+    </row>
+    <row r="204" spans="14:14">
+      <c r="N204" s="81"/>
+    </row>
+    <row r="205" spans="14:14">
+      <c r="N205" s="81"/>
+    </row>
+    <row r="206" spans="14:14">
+      <c r="N206" s="81"/>
+    </row>
+    <row r="207" spans="14:14">
+      <c r="N207" s="81"/>
+    </row>
+    <row r="208" spans="14:14">
+      <c r="N208" s="81"/>
+    </row>
+    <row r="209" spans="14:14">
+      <c r="N209" s="81"/>
+    </row>
+    <row r="210" spans="14:14">
+      <c r="N210" s="81"/>
+    </row>
+    <row r="211" spans="14:14">
+      <c r="N211" s="81"/>
+    </row>
+    <row r="212" spans="14:14">
+      <c r="N212" s="81"/>
+    </row>
+    <row r="213" spans="14:14">
+      <c r="N213" s="81"/>
+    </row>
+    <row r="214" spans="14:14">
+      <c r="N214" s="81"/>
+    </row>
+    <row r="215" spans="14:14">
+      <c r="N215" s="81"/>
+    </row>
+    <row r="216" spans="14:14">
+      <c r="N216" s="81"/>
+    </row>
+    <row r="217" spans="14:14">
+      <c r="N217" s="81"/>
+    </row>
+    <row r="218" spans="14:14">
+      <c r="N218" s="81"/>
+    </row>
+    <row r="219" spans="14:14">
+      <c r="N219" s="81"/>
+    </row>
+    <row r="220" spans="14:14">
+      <c r="N220" s="81"/>
+    </row>
+    <row r="221" spans="14:14">
+      <c r="N221" s="81"/>
+    </row>
+    <row r="222" spans="14:14">
+      <c r="N222" s="81"/>
+    </row>
+    <row r="223" spans="14:14">
+      <c r="N223" s="81"/>
+    </row>
+    <row r="224" spans="14:14">
+      <c r="N224" s="81"/>
+    </row>
+    <row r="225" spans="14:14">
+      <c r="N225" s="81"/>
+    </row>
+    <row r="226" spans="14:14">
+      <c r="N226" s="81"/>
+    </row>
+    <row r="227" spans="14:14">
+      <c r="N227" s="81"/>
+    </row>
+    <row r="228" spans="14:14">
+      <c r="N228" s="81"/>
+    </row>
+    <row r="229" spans="14:14">
+      <c r="N229" s="81"/>
+    </row>
+    <row r="230" spans="14:14">
+      <c r="N230" s="81"/>
+    </row>
+    <row r="231" spans="14:14">
+      <c r="N231" s="81"/>
+    </row>
+    <row r="232" spans="14:14">
+      <c r="N232" s="81"/>
+    </row>
+    <row r="233" spans="14:14">
+      <c r="N233" s="81"/>
+    </row>
+    <row r="234" spans="14:14">
+      <c r="N234" s="81"/>
+    </row>
+    <row r="235" spans="14:14">
+      <c r="N235" s="81"/>
+    </row>
+    <row r="236" spans="14:14">
+      <c r="N236" s="81"/>
+    </row>
+    <row r="237" spans="14:14">
+      <c r="N237" s="81"/>
+    </row>
+    <row r="238" spans="14:14">
+      <c r="N238" s="81"/>
+    </row>
+    <row r="239" spans="14:14">
+      <c r="N239" s="81"/>
+    </row>
+    <row r="240" spans="14:14">
+      <c r="N240" s="81"/>
+    </row>
+    <row r="241" spans="14:14">
+      <c r="N241" s="81"/>
+    </row>
+    <row r="242" spans="14:14">
+      <c r="N242" s="81"/>
+    </row>
+    <row r="243" spans="14:14">
+      <c r="N243" s="81"/>
+    </row>
+    <row r="244" spans="14:14">
+      <c r="N244" s="81"/>
+    </row>
+    <row r="245" spans="14:14">
+      <c r="N245" s="81"/>
+    </row>
+    <row r="246" spans="14:14">
+      <c r="N246" s="81"/>
+    </row>
+    <row r="247" spans="14:14">
+      <c r="N247" s="81"/>
+    </row>
+    <row r="248" spans="14:14">
+      <c r="N248" s="81"/>
+    </row>
+    <row r="249" spans="14:14">
+      <c r="N249" s="81"/>
+    </row>
+    <row r="250" spans="14:14">
+      <c r="N250" s="81"/>
+    </row>
+    <row r="251" spans="14:14">
+      <c r="N251" s="81"/>
+    </row>
+    <row r="252" spans="14:14">
+      <c r="N252" s="81"/>
+    </row>
+    <row r="253" spans="14:14">
+      <c r="N253" s="81"/>
+    </row>
+    <row r="254" spans="14:14">
+      <c r="N254" s="81"/>
+    </row>
+    <row r="255" spans="14:14">
+      <c r="N255" s="81"/>
+    </row>
+    <row r="256" spans="14:14">
+      <c r="N256" s="81"/>
+    </row>
+    <row r="257" spans="14:14">
+      <c r="N257" s="81"/>
+    </row>
+    <row r="258" spans="14:14">
+      <c r="N258" s="81"/>
+    </row>
+    <row r="259" spans="14:14">
+      <c r="N259" s="81"/>
+    </row>
+    <row r="260" spans="14:14">
+      <c r="N260" s="81"/>
+    </row>
+    <row r="261" spans="14:14">
+      <c r="N261" s="81"/>
+    </row>
+    <row r="262" spans="14:14">
+      <c r="N262" s="81"/>
+    </row>
+    <row r="263" spans="14:14">
+      <c r="N263" s="81"/>
+    </row>
+    <row r="264" spans="14:14">
+      <c r="N264" s="81"/>
+    </row>
+    <row r="265" spans="14:14">
+      <c r="N265" s="81"/>
+    </row>
+    <row r="266" spans="14:14">
+      <c r="N266" s="81"/>
+    </row>
+    <row r="267" spans="14:14">
+      <c r="N267" s="81"/>
+    </row>
+    <row r="268" spans="14:14">
+      <c r="N268" s="81"/>
+    </row>
+    <row r="269" spans="14:14">
+      <c r="N269" s="81"/>
+    </row>
+    <row r="270" spans="14:14">
+      <c r="N270" s="81"/>
+    </row>
+    <row r="271" spans="14:14">
+      <c r="N271" s="81"/>
+    </row>
+    <row r="272" spans="14:14">
+      <c r="N272" s="81"/>
+    </row>
+    <row r="273" spans="14:14">
+      <c r="N273" s="81"/>
+    </row>
+    <row r="274" spans="14:14">
+      <c r="N274" s="81"/>
+    </row>
+    <row r="275" spans="14:14">
+      <c r="N275" s="81"/>
+    </row>
+    <row r="276" spans="14:14">
+      <c r="N276" s="81"/>
+    </row>
+    <row r="277" spans="14:14">
+      <c r="N277" s="81"/>
+    </row>
+    <row r="278" spans="14:14">
+      <c r="N278" s="81"/>
+    </row>
+    <row r="279" spans="14:14">
+      <c r="N279" s="81"/>
+    </row>
+    <row r="280" spans="14:14">
+      <c r="N280" s="81"/>
+    </row>
+    <row r="281" spans="14:14">
+      <c r="N281" s="81"/>
+    </row>
+    <row r="282" spans="14:14">
+      <c r="N282" s="81"/>
+    </row>
+    <row r="283" spans="14:14">
+      <c r="N283" s="81"/>
+    </row>
+    <row r="284" spans="14:14">
+      <c r="N284" s="81"/>
+    </row>
+    <row r="285" spans="14:14">
+      <c r="N285" s="81"/>
+    </row>
+    <row r="286" spans="14:14">
+      <c r="N286" s="81"/>
+    </row>
+    <row r="287" spans="14:14">
+      <c r="N287" s="81"/>
+    </row>
+    <row r="288" spans="14:14">
+      <c r="N288" s="81"/>
+    </row>
+    <row r="289" spans="14:14">
+      <c r="N289" s="81"/>
+    </row>
+    <row r="290" spans="14:14">
+      <c r="N290" s="81"/>
+    </row>
+    <row r="291" spans="14:14">
+      <c r="N291" s="81"/>
+    </row>
+    <row r="292" spans="14:14">
+      <c r="N292" s="81"/>
+    </row>
+    <row r="293" spans="14:14">
+      <c r="N293" s="81"/>
+    </row>
+    <row r="294" spans="14:14">
+      <c r="N294" s="81"/>
+    </row>
+    <row r="295" spans="14:14">
+      <c r="N295" s="81"/>
+    </row>
+    <row r="296" spans="14:14">
+      <c r="N296" s="81"/>
+    </row>
+    <row r="297" spans="14:14">
+      <c r="N297" s="81"/>
+    </row>
+    <row r="298" spans="14:14">
+      <c r="N298" s="81"/>
+    </row>
+    <row r="299" spans="14:14">
+      <c r="N299" s="81"/>
+    </row>
+    <row r="300" spans="14:14">
+      <c r="N300" s="81"/>
+    </row>
+    <row r="301" spans="14:14">
+      <c r="N301" s="81"/>
+    </row>
+    <row r="302" spans="14:14">
+      <c r="N302" s="81"/>
+    </row>
+    <row r="303" spans="14:14">
+      <c r="N303" s="81"/>
+    </row>
+    <row r="304" spans="14:14">
+      <c r="N304" s="81"/>
+    </row>
+    <row r="305" spans="14:14">
+      <c r="N305" s="81"/>
+    </row>
+    <row r="306" spans="14:14">
+      <c r="N306" s="81"/>
+    </row>
+    <row r="307" spans="14:14">
+      <c r="N307" s="81"/>
+    </row>
+    <row r="308" spans="14:14">
+      <c r="N308" s="81"/>
+    </row>
+    <row r="309" spans="14:14">
+      <c r="N309" s="81"/>
+    </row>
+    <row r="310" spans="14:14">
+      <c r="N310" s="81"/>
+    </row>
+    <row r="311" spans="14:14">
+      <c r="N311" s="81"/>
+    </row>
+    <row r="312" spans="14:14">
+      <c r="N312" s="81"/>
+    </row>
+    <row r="313" spans="14:14">
+      <c r="N313" s="81"/>
+    </row>
+    <row r="314" spans="14:14">
+      <c r="N314" s="81"/>
+    </row>
+    <row r="315" spans="14:14">
+      <c r="N315" s="81"/>
+    </row>
+    <row r="316" spans="14:14">
+      <c r="N316" s="81"/>
+    </row>
+    <row r="317" spans="14:14">
+      <c r="N317" s="81"/>
+    </row>
+    <row r="318" spans="14:14">
+      <c r="N318" s="81"/>
+    </row>
+    <row r="319" spans="14:14">
+      <c r="N319" s="81"/>
+    </row>
+    <row r="320" spans="14:14">
+      <c r="N320" s="81"/>
+    </row>
+    <row r="321" spans="14:14">
+      <c r="N321" s="81"/>
+    </row>
+    <row r="322" spans="14:14">
+      <c r="N322" s="81"/>
+    </row>
+    <row r="323" spans="14:14">
+      <c r="N323" s="81"/>
+    </row>
+    <row r="324" spans="14:14">
+      <c r="N324" s="81"/>
+    </row>
+    <row r="325" spans="14:14">
+      <c r="N325" s="81"/>
+    </row>
+    <row r="326" spans="14:14">
+      <c r="N326" s="81"/>
+    </row>
+    <row r="327" spans="14:14">
+      <c r="N327" s="81"/>
+    </row>
+    <row r="328" spans="14:14">
+      <c r="N328" s="81"/>
+    </row>
+    <row r="329" spans="14:14">
+      <c r="N329" s="81"/>
+    </row>
+    <row r="330" spans="14:14">
+      <c r="N330" s="81"/>
+    </row>
+    <row r="331" spans="14:14">
+      <c r="N331" s="81"/>
+    </row>
+    <row r="332" spans="14:14">
+      <c r="N332" s="81"/>
+    </row>
+    <row r="333" spans="14:14">
+      <c r="N333" s="81"/>
+    </row>
+    <row r="334" spans="14:14">
+      <c r="N334" s="81"/>
+    </row>
+    <row r="335" spans="14:14">
+      <c r="N335" s="81"/>
+    </row>
+    <row r="336" spans="14:14">
+      <c r="N336" s="81"/>
+    </row>
+    <row r="337" spans="14:14">
+      <c r="N337" s="81"/>
+    </row>
+    <row r="338" spans="14:14">
+      <c r="N338" s="81"/>
+    </row>
+    <row r="339" spans="14:14">
+      <c r="N339" s="81"/>
+    </row>
+    <row r="340" spans="14:14">
+      <c r="N340" s="81"/>
+    </row>
+    <row r="341" spans="14:14">
+      <c r="N341" s="81"/>
+    </row>
+    <row r="342" spans="14:14">
+      <c r="N342" s="81"/>
+    </row>
+    <row r="343" spans="14:14">
+      <c r="N343" s="81"/>
+    </row>
+    <row r="344" spans="14:14">
+      <c r="N344" s="81"/>
+    </row>
+    <row r="345" spans="14:14">
+      <c r="N345" s="81"/>
+    </row>
+    <row r="346" spans="14:14">
+      <c r="N346" s="81"/>
+    </row>
+    <row r="347" spans="14:14">
+      <c r="N347" s="81"/>
+    </row>
+    <row r="348" spans="14:14">
+      <c r="N348" s="81"/>
+    </row>
+    <row r="349" spans="14:14">
+      <c r="N349" s="81"/>
+    </row>
+    <row r="350" spans="14:14">
+      <c r="N350" s="81"/>
+    </row>
+    <row r="351" spans="14:14">
+      <c r="N351" s="81"/>
+    </row>
+    <row r="352" spans="14:14">
+      <c r="N352" s="81"/>
+    </row>
+    <row r="353" spans="14:14">
+      <c r="N353" s="81"/>
+    </row>
+    <row r="354" spans="14:14">
+      <c r="N354" s="81"/>
+    </row>
+    <row r="355" spans="14:14">
+      <c r="N355" s="81"/>
+    </row>
+    <row r="356" spans="14:14">
+      <c r="N356" s="81"/>
+    </row>
+    <row r="357" spans="14:14">
+      <c r="N357" s="81"/>
+    </row>
+    <row r="358" spans="14:14">
+      <c r="N358" s="81"/>
+    </row>
+    <row r="359" spans="14:14">
+      <c r="N359" s="81"/>
+    </row>
+    <row r="360" spans="14:14">
+      <c r="N360" s="81"/>
+    </row>
+    <row r="361" spans="14:14">
+      <c r="N361" s="81"/>
+    </row>
+    <row r="362" spans="14:14">
+      <c r="N362" s="81"/>
+    </row>
+    <row r="363" spans="14:14">
+      <c r="N363" s="81"/>
+    </row>
+    <row r="364" spans="14:14">
+      <c r="N364" s="81"/>
+    </row>
+    <row r="365" spans="14:14">
+      <c r="N365" s="81"/>
+    </row>
+    <row r="366" spans="14:14">
+      <c r="N366" s="81"/>
+    </row>
+    <row r="367" spans="14:14">
+      <c r="N367" s="81"/>
+    </row>
+    <row r="368" spans="14:14">
+      <c r="N368" s="81"/>
+    </row>
+    <row r="369" spans="14:14">
+      <c r="N369" s="81"/>
+    </row>
+    <row r="370" spans="14:14">
+      <c r="N370" s="81"/>
+    </row>
+    <row r="371" spans="14:14">
+      <c r="N371" s="81"/>
+    </row>
+    <row r="372" spans="14:14">
+      <c r="N372" s="81"/>
+    </row>
+    <row r="373" spans="14:14">
+      <c r="N373" s="81"/>
+    </row>
+    <row r="374" spans="14:14">
+      <c r="N374" s="81"/>
+    </row>
+    <row r="375" spans="14:14">
+      <c r="N375" s="81"/>
+    </row>
+    <row r="376" spans="14:14">
+      <c r="N376" s="81"/>
+    </row>
+    <row r="377" spans="14:14">
+      <c r="N377" s="81"/>
+    </row>
+    <row r="378" spans="14:14">
+      <c r="N378" s="81"/>
+    </row>
+    <row r="379" spans="14:14">
+      <c r="N379" s="81"/>
+    </row>
+    <row r="380" spans="14:14">
+      <c r="N380" s="81"/>
+    </row>
+    <row r="381" spans="14:14">
+      <c r="N381" s="81"/>
+    </row>
+    <row r="382" spans="14:14">
+      <c r="N382" s="81"/>
+    </row>
+    <row r="383" spans="14:14">
+      <c r="N383" s="81"/>
+    </row>
+    <row r="384" spans="14:14">
+      <c r="N384" s="81"/>
+    </row>
+    <row r="385" spans="14:14">
+      <c r="N385" s="81"/>
+    </row>
+    <row r="386" spans="14:14">
+      <c r="N386" s="81"/>
+    </row>
+    <row r="387" spans="14:14">
+      <c r="N387" s="81"/>
+    </row>
+    <row r="388" spans="14:14">
+      <c r="N388" s="81"/>
+    </row>
+    <row r="389" spans="14:14">
+      <c r="N389" s="81"/>
+    </row>
+    <row r="390" spans="14:14">
+      <c r="N390" s="81"/>
+    </row>
+    <row r="391" spans="14:14">
+      <c r="N391" s="81"/>
+    </row>
+    <row r="392" spans="14:14">
+      <c r="N392" s="81"/>
+    </row>
+    <row r="393" spans="14:14">
+      <c r="N393" s="81"/>
+    </row>
+    <row r="394" spans="14:14">
+      <c r="N394" s="81"/>
+    </row>
+    <row r="395" spans="14:14">
+      <c r="N395" s="81"/>
+    </row>
+    <row r="396" spans="14:14">
+      <c r="N396" s="81"/>
+    </row>
+    <row r="397" spans="14:14">
+      <c r="N397" s="81"/>
+    </row>
+    <row r="398" spans="14:14">
+      <c r="N398" s="81"/>
+    </row>
+    <row r="399" spans="14:14">
+      <c r="N399" s="81"/>
+    </row>
+    <row r="400" spans="14:14">
+      <c r="N400" s="81"/>
+    </row>
+    <row r="401" spans="14:14">
+      <c r="N401" s="81"/>
+    </row>
+    <row r="402" spans="14:14">
+      <c r="N402" s="81"/>
+    </row>
+    <row r="403" spans="14:14">
+      <c r="N403" s="81"/>
+    </row>
+    <row r="404" spans="14:14">
+      <c r="N404" s="81"/>
+    </row>
+    <row r="405" spans="14:14">
+      <c r="N405" s="143"/>
+    </row>
+    <row r="406" spans="14:14">
+      <c r="N406" s="143"/>
+    </row>
+    <row r="407" spans="14:14">
+      <c r="N407" s="143"/>
+    </row>
+    <row r="408" spans="14:14">
+      <c r="N408" s="143"/>
+    </row>
+    <row r="409" spans="14:14">
+      <c r="N409" s="143"/>
+    </row>
+    <row r="410" spans="14:14">
+      <c r="N410" s="143"/>
+    </row>
+    <row r="411" spans="14:14">
+      <c r="N411" s="143"/>
+    </row>
+    <row r="412" spans="14:14">
+      <c r="N412" s="143"/>
+    </row>
+    <row r="413" spans="14:14">
+      <c r="N413" s="143"/>
+    </row>
+    <row r="414" spans="14:14">
+      <c r="N414" s="143"/>
+    </row>
+    <row r="415" spans="14:14">
+      <c r="N415" s="143"/>
+    </row>
+    <row r="416" spans="14:14">
+      <c r="N416" s="143"/>
+    </row>
+    <row r="417" spans="14:14">
+      <c r="N417" s="143"/>
+    </row>
+    <row r="418" spans="14:14">
+      <c r="N418" s="143"/>
+    </row>
+    <row r="419" spans="14:14">
+      <c r="N419" s="143"/>
+    </row>
+    <row r="420" spans="14:14">
+      <c r="N420" s="143"/>
+    </row>
+    <row r="421" spans="14:14">
+      <c r="N421" s="143"/>
+    </row>
+    <row r="422" spans="14:14">
+      <c r="N422" s="143"/>
+    </row>
+    <row r="423" spans="14:14">
+      <c r="N423" s="143"/>
+    </row>
+    <row r="424" spans="14:14">
+      <c r="N424" s="143"/>
+    </row>
+    <row r="425" spans="14:14">
+      <c r="N425" s="143"/>
+    </row>
+    <row r="426" spans="14:14">
+      <c r="N426" s="143"/>
+    </row>
+    <row r="427" spans="14:14">
+      <c r="N427" s="143"/>
+    </row>
+    <row r="428" spans="14:14">
+      <c r="N428" s="143"/>
+    </row>
+    <row r="429" spans="14:14">
+      <c r="N429" s="143"/>
+    </row>
+    <row r="430" spans="14:14">
+      <c r="N430" s="143"/>
+    </row>
+    <row r="431" spans="14:14">
+      <c r="N431" s="143"/>
+    </row>
+    <row r="432" spans="14:14">
+      <c r="N432" s="143"/>
+    </row>
+    <row r="433" spans="14:14">
+      <c r="N433" s="143"/>
+    </row>
+    <row r="434" spans="14:14">
+      <c r="N434" s="143"/>
+    </row>
+    <row r="435" spans="14:14">
+      <c r="N435" s="143"/>
+    </row>
+    <row r="436" spans="14:14">
+      <c r="N436" s="143"/>
+    </row>
+    <row r="437" spans="14:14">
+      <c r="N437" s="143"/>
+    </row>
+    <row r="438" spans="14:14">
+      <c r="N438" s="143"/>
+    </row>
+    <row r="439" spans="14:14">
+      <c r="N439" s="143"/>
+    </row>
+    <row r="440" spans="14:14">
+      <c r="N440" s="143"/>
+    </row>
+    <row r="441" spans="14:14">
+      <c r="N441" s="143"/>
+    </row>
+    <row r="442" spans="14:14">
+      <c r="N442" s="143"/>
+    </row>
+    <row r="443" spans="14:14">
+      <c r="N443" s="143"/>
+    </row>
+    <row r="444" spans="14:14">
+      <c r="N444" s="143"/>
+    </row>
+    <row r="445" spans="14:14">
+      <c r="N445" s="143"/>
+    </row>
+    <row r="446" spans="14:14">
+      <c r="N446" s="143"/>
+    </row>
+    <row r="447" spans="14:14">
+      <c r="N447" s="143"/>
+    </row>
+    <row r="448" spans="14:14">
+      <c r="N448" s="143"/>
+    </row>
+    <row r="449" spans="14:14">
+      <c r="N449" s="143"/>
+    </row>
+    <row r="450" spans="14:14">
+      <c r="N450" s="143"/>
+    </row>
+    <row r="451" spans="14:14">
+      <c r="N451" s="143"/>
+    </row>
+    <row r="452" spans="14:14">
+      <c r="N452" s="143"/>
+    </row>
+    <row r="453" spans="14:14">
+      <c r="N453" s="143"/>
+    </row>
+    <row r="454" spans="14:14">
+      <c r="N454" s="143"/>
+    </row>
+    <row r="455" spans="14:14">
+      <c r="N455" s="143"/>
+    </row>
+    <row r="456" spans="14:14">
+      <c r="N456" s="143"/>
+    </row>
+    <row r="457" spans="14:14">
+      <c r="N457" s="143"/>
+    </row>
+    <row r="458" spans="14:14">
+      <c r="N458" s="143"/>
+    </row>
+    <row r="459" spans="14:14">
+      <c r="N459" s="143"/>
+    </row>
+    <row r="460" spans="14:14">
+      <c r="N460" s="143"/>
+    </row>
+    <row r="461" spans="14:14">
+      <c r="N461" s="143"/>
+    </row>
+    <row r="462" spans="14:14">
+      <c r="N462" s="143"/>
+    </row>
+    <row r="463" spans="14:14">
+      <c r="N463" s="143"/>
+    </row>
+    <row r="464" spans="14:14">
+      <c r="N464" s="143"/>
+    </row>
+    <row r="465" spans="14:14">
+      <c r="N465" s="143"/>
+    </row>
+    <row r="466" spans="14:14">
+      <c r="N466" s="143"/>
+    </row>
+    <row r="467" spans="14:14">
+      <c r="N467" s="143"/>
+    </row>
+    <row r="468" spans="14:14">
+      <c r="N468" s="143"/>
+    </row>
+    <row r="469" spans="14:14">
+      <c r="N469" s="143"/>
+    </row>
+    <row r="470" spans="14:14">
+      <c r="N470" s="143"/>
+    </row>
+    <row r="471" spans="14:14">
+      <c r="N471" s="143"/>
+    </row>
+    <row r="472" spans="14:14">
+      <c r="N472" s="143"/>
+    </row>
+    <row r="473" spans="14:14">
+      <c r="N473" s="143"/>
+    </row>
+    <row r="474" spans="14:14">
+      <c r="N474" s="143"/>
+    </row>
+    <row r="475" spans="14:14">
+      <c r="N475" s="143"/>
+    </row>
+    <row r="476" spans="14:14">
+      <c r="N476" s="143"/>
+    </row>
+    <row r="477" spans="14:14">
+      <c r="N477" s="143"/>
+    </row>
+    <row r="478" spans="14:14">
+      <c r="N478" s="143"/>
+    </row>
+    <row r="479" spans="14:14">
+      <c r="N479" s="143"/>
+    </row>
+    <row r="480" spans="14:14">
+      <c r="N480" s="143"/>
+    </row>
+    <row r="481" spans="14:14">
+      <c r="N481" s="143"/>
+    </row>
+    <row r="482" spans="14:14">
+      <c r="N482" s="143"/>
+    </row>
+    <row r="483" spans="14:14">
+      <c r="N483" s="143"/>
+    </row>
+    <row r="484" spans="14:14">
+      <c r="N484" s="143"/>
+    </row>
+    <row r="485" spans="14:14">
+      <c r="N485" s="143"/>
+    </row>
+    <row r="486" spans="14:14">
+      <c r="N486" s="143"/>
+    </row>
+    <row r="487" spans="14:14">
+      <c r="N487" s="143"/>
+    </row>
+    <row r="488" spans="14:14">
+      <c r="N488" s="143"/>
+    </row>
+    <row r="489" spans="14:14">
+      <c r="N489" s="143"/>
+    </row>
+    <row r="490" spans="14:14">
+      <c r="N490" s="143"/>
+    </row>
+    <row r="491" spans="14:14">
+      <c r="N491" s="143"/>
+    </row>
+    <row r="492" spans="14:14">
+      <c r="N492" s="143"/>
+    </row>
+    <row r="493" spans="14:14">
+      <c r="N493" s="143"/>
+    </row>
+    <row r="494" spans="14:14">
+      <c r="N494" s="143"/>
+    </row>
+    <row r="495" spans="14:14">
+      <c r="N495" s="143"/>
+    </row>
+    <row r="496" spans="14:14">
+      <c r="N496" s="143"/>
+    </row>
+    <row r="497" spans="14:14">
+      <c r="N497" s="143"/>
+    </row>
+    <row r="498" spans="14:14">
+      <c r="N498" s="143"/>
+    </row>
+    <row r="499" spans="14:14">
+      <c r="N499" s="143"/>
+    </row>
+    <row r="500" spans="14:14">
+      <c r="N500" s="143"/>
+    </row>
+    <row r="501" spans="14:14">
+      <c r="N501" s="143"/>
+    </row>
+    <row r="502" spans="14:14">
+      <c r="N502" s="143"/>
+    </row>
+    <row r="503" spans="14:14">
+      <c r="N503" s="143"/>
+    </row>
+    <row r="504" spans="14:14">
+      <c r="N504" s="143"/>
+    </row>
+    <row r="505" spans="14:14">
+      <c r="N505" s="143"/>
+    </row>
+    <row r="506" spans="14:14">
+      <c r="N506" s="143"/>
+    </row>
+    <row r="507" spans="14:14">
+      <c r="N507" s="143"/>
+    </row>
+    <row r="508" spans="14:14">
+      <c r="N508" s="143"/>
+    </row>
+    <row r="509" spans="14:14">
+      <c r="N509" s="143"/>
+    </row>
+    <row r="510" spans="14:14">
+      <c r="N510" s="143"/>
+    </row>
+    <row r="511" spans="14:14">
+      <c r="N511" s="143"/>
+    </row>
+    <row r="512" spans="14:14">
+      <c r="N512" s="143"/>
+    </row>
+    <row r="513" spans="14:14">
+      <c r="N513" s="143"/>
+    </row>
+    <row r="514" spans="14:14">
+      <c r="N514" s="143"/>
+    </row>
+    <row r="515" spans="14:14">
+      <c r="N515" s="143"/>
+    </row>
+    <row r="516" spans="14:14">
+      <c r="N516" s="143"/>
+    </row>
+    <row r="517" spans="14:14">
+      <c r="N517" s="143"/>
+    </row>
+    <row r="518" spans="14:14">
+      <c r="N518" s="143"/>
+    </row>
+    <row r="519" spans="14:14">
+      <c r="N519" s="143"/>
+    </row>
+    <row r="520" spans="14:14">
+      <c r="N520" s="143"/>
+    </row>
+    <row r="521" spans="14:14">
+      <c r="N521" s="143"/>
+    </row>
+    <row r="522" spans="14:14">
+      <c r="N522" s="143"/>
+    </row>
+    <row r="523" spans="14:14">
+      <c r="N523" s="143"/>
+    </row>
+    <row r="524" spans="14:14">
+      <c r="N524" s="143"/>
+    </row>
+    <row r="525" spans="14:14">
+      <c r="N525" s="143"/>
+    </row>
+    <row r="526" spans="14:14">
+      <c r="N526" s="143"/>
+    </row>
+    <row r="527" spans="14:14">
+      <c r="N527" s="143"/>
+    </row>
+    <row r="528" spans="14:14">
+      <c r="N528" s="143"/>
+    </row>
+    <row r="529" spans="14:14">
+      <c r="N529" s="143"/>
+    </row>
+    <row r="530" spans="14:14">
+      <c r="N530" s="143"/>
+    </row>
+    <row r="531" spans="14:14">
+      <c r="N531" s="143"/>
+    </row>
+    <row r="532" spans="14:14">
+      <c r="N532" s="143"/>
+    </row>
+    <row r="533" spans="14:14">
+      <c r="N533" s="143"/>
+    </row>
+    <row r="534" spans="14:14">
+      <c r="N534" s="143"/>
+    </row>
+    <row r="535" spans="14:14">
+      <c r="N535" s="143"/>
+    </row>
+    <row r="536" spans="14:14">
+      <c r="N536" s="143"/>
+    </row>
+    <row r="537" spans="14:14">
+      <c r="N537" s="143"/>
+    </row>
+    <row r="538" spans="14:14">
+      <c r="N538" s="143"/>
+    </row>
+    <row r="539" spans="14:14">
+      <c r="N539" s="143"/>
+    </row>
+    <row r="540" spans="14:14">
+      <c r="N540" s="143"/>
+    </row>
+    <row r="541" spans="14:14">
+      <c r="N541" s="143"/>
+    </row>
+    <row r="542" spans="14:14">
+      <c r="N542" s="143"/>
+    </row>
+    <row r="543" spans="14:14">
+      <c r="N543" s="143"/>
+    </row>
+    <row r="544" spans="14:14">
+      <c r="N544" s="143"/>
+    </row>
+    <row r="545" spans="14:14">
+      <c r="N545" s="143"/>
+    </row>
+    <row r="546" spans="14:14">
+      <c r="N546" s="143"/>
+    </row>
+    <row r="547" spans="14:14">
+      <c r="N547" s="143"/>
+    </row>
+    <row r="548" spans="14:14">
+      <c r="N548" s="143"/>
+    </row>
+    <row r="549" spans="14:14">
+      <c r="N549" s="143"/>
+    </row>
+    <row r="550" spans="14:14">
+      <c r="N550" s="143"/>
+    </row>
+    <row r="551" spans="14:14">
+      <c r="N551" s="143"/>
+    </row>
+    <row r="552" spans="14:14">
+      <c r="N552" s="143"/>
+    </row>
+    <row r="553" spans="14:14">
+      <c r="N553" s="143"/>
+    </row>
+    <row r="554" spans="14:14">
+      <c r="N554" s="143"/>
+    </row>
+    <row r="555" spans="14:14">
+      <c r="N555" s="143"/>
+    </row>
+    <row r="556" spans="14:14">
+      <c r="N556" s="143"/>
+    </row>
+    <row r="557" spans="14:14">
+      <c r="N557" s="143"/>
+    </row>
+    <row r="558" spans="14:14">
+      <c r="N558" s="143"/>
+    </row>
+    <row r="559" spans="14:14">
+      <c r="N559" s="143"/>
+    </row>
+    <row r="560" spans="14:14">
+      <c r="N560" s="143"/>
+    </row>
+    <row r="561" spans="14:14">
+      <c r="N561" s="143"/>
+    </row>
+    <row r="562" spans="14:14">
+      <c r="N562" s="143"/>
+    </row>
+    <row r="563" spans="14:14">
+      <c r="N563" s="143"/>
+    </row>
+    <row r="564" spans="14:14">
+      <c r="N564" s="143"/>
+    </row>
+    <row r="565" spans="14:14">
+      <c r="N565" s="143"/>
+    </row>
+    <row r="566" spans="14:14">
+      <c r="N566" s="143"/>
+    </row>
+    <row r="567" spans="14:14">
+      <c r="N567" s="143"/>
+    </row>
+    <row r="568" spans="14:14">
+      <c r="N568" s="143"/>
+    </row>
+    <row r="569" spans="14:14">
+      <c r="N569" s="143"/>
+    </row>
+    <row r="570" spans="14:14">
+      <c r="N570" s="143"/>
+    </row>
+    <row r="571" spans="14:14">
+      <c r="N571" s="143"/>
+    </row>
+    <row r="572" spans="14:14">
+      <c r="N572" s="143"/>
+    </row>
+    <row r="573" spans="14:14">
+      <c r="N573" s="143"/>
+    </row>
+    <row r="574" spans="14:14">
+      <c r="N574" s="143"/>
+    </row>
+    <row r="575" spans="14:14">
+      <c r="N575" s="143"/>
+    </row>
+    <row r="576" spans="14:14">
+      <c r="N576" s="143"/>
+    </row>
+    <row r="577" spans="14:14">
+      <c r="N577" s="143"/>
+    </row>
+    <row r="578" spans="14:14">
+      <c r="N578" s="143"/>
+    </row>
+    <row r="579" spans="14:14">
+      <c r="N579" s="143"/>
+    </row>
+    <row r="580" spans="14:14">
+      <c r="N580" s="143"/>
+    </row>
+    <row r="581" spans="14:14">
+      <c r="N581" s="143"/>
+    </row>
+    <row r="582" spans="14:14">
+      <c r="N582" s="143"/>
+    </row>
+    <row r="583" spans="14:14">
+      <c r="N583" s="143"/>
+    </row>
+    <row r="584" spans="14:14">
+      <c r="N584" s="143"/>
+    </row>
+    <row r="585" spans="14:14">
+      <c r="N585" s="143"/>
+    </row>
+    <row r="586" spans="14:14">
+      <c r="N586" s="143"/>
+    </row>
+    <row r="587" spans="14:14">
+      <c r="N587" s="143"/>
+    </row>
+    <row r="588" spans="14:14">
+      <c r="N588" s="143"/>
+    </row>
+    <row r="589" spans="14:14">
+      <c r="N589" s="143"/>
+    </row>
+    <row r="590" spans="14:14">
+      <c r="N590" s="143"/>
+    </row>
+    <row r="591" spans="14:14">
+      <c r="N591" s="143"/>
+    </row>
+    <row r="592" spans="14:14">
+      <c r="N592" s="143"/>
+    </row>
+    <row r="593" spans="14:14">
+      <c r="N593" s="143"/>
+    </row>
+    <row r="594" spans="14:14">
+      <c r="N594" s="143"/>
+    </row>
+    <row r="595" spans="14:14">
+      <c r="N595" s="143"/>
+    </row>
+    <row r="596" spans="14:14">
+      <c r="N596" s="143"/>
+    </row>
+    <row r="597" spans="14:14">
+      <c r="N597" s="143"/>
+    </row>
+    <row r="598" spans="14:14">
+      <c r="N598" s="143"/>
+    </row>
+    <row r="599" spans="14:14">
+      <c r="N599" s="143"/>
+    </row>
+    <row r="600" spans="14:14">
+      <c r="N600" s="143"/>
+    </row>
+    <row r="601" spans="14:14">
+      <c r="N601" s="143"/>
+    </row>
+    <row r="602" spans="14:14">
+      <c r="N602" s="143"/>
+    </row>
+    <row r="603" spans="14:14">
+      <c r="N603" s="143"/>
+    </row>
+    <row r="604" spans="14:14">
+      <c r="N604" s="143"/>
+    </row>
+    <row r="605" spans="14:14">
+      <c r="N605" s="143"/>
+    </row>
+    <row r="606" spans="14:14">
+      <c r="N606" s="143"/>
+    </row>
+    <row r="607" spans="14:14">
+      <c r="N607" s="143"/>
+    </row>
+    <row r="608" spans="14:14">
+      <c r="N608" s="143"/>
+    </row>
+    <row r="609" spans="14:14">
+      <c r="N609" s="143"/>
+    </row>
+    <row r="610" spans="14:14">
+      <c r="N610" s="143"/>
+    </row>
+    <row r="611" spans="14:14">
+      <c r="N611" s="143"/>
+    </row>
+    <row r="612" spans="14:14">
+      <c r="N612" s="143"/>
+    </row>
+    <row r="613" spans="14:14">
+      <c r="N613" s="143"/>
+    </row>
+    <row r="614" spans="14:14">
+      <c r="N614" s="143"/>
+    </row>
+    <row r="615" spans="14:14">
+      <c r="N615" s="143"/>
+    </row>
+    <row r="616" spans="14:14">
+      <c r="N616" s="143"/>
+    </row>
+    <row r="617" spans="14:14">
+      <c r="N617" s="143"/>
+    </row>
+    <row r="618" spans="14:14">
+      <c r="N618" s="143"/>
+    </row>
+    <row r="619" spans="14:14">
+      <c r="N619" s="143"/>
+    </row>
+    <row r="620" spans="14:14">
+      <c r="N620" s="143"/>
+    </row>
+    <row r="621" spans="14:14">
+      <c r="N621" s="143"/>
+    </row>
+    <row r="622" spans="14:14">
+      <c r="N622" s="143"/>
+    </row>
+    <row r="623" spans="14:14">
+      <c r="N623" s="143"/>
+    </row>
+    <row r="624" spans="14:14">
+      <c r="N624" s="143"/>
+    </row>
+    <row r="625" spans="14:14">
+      <c r="N625" s="143"/>
+    </row>
+    <row r="626" spans="14:14">
+      <c r="N626" s="143"/>
+    </row>
+    <row r="627" spans="14:14">
+      <c r="N627" s="143"/>
+    </row>
+    <row r="628" spans="14:14">
+      <c r="N628" s="143"/>
+    </row>
+    <row r="629" spans="14:14">
+      <c r="N629" s="143"/>
+    </row>
+    <row r="630" spans="14:14">
+      <c r="N630" s="143"/>
+    </row>
+    <row r="631" spans="14:14">
+      <c r="N631" s="143"/>
+    </row>
+    <row r="632" spans="14:14">
+      <c r="N632" s="143"/>
+    </row>
+    <row r="633" spans="14:14">
+      <c r="N633" s="143"/>
+    </row>
+    <row r="634" spans="14:14">
+      <c r="N634" s="143"/>
+    </row>
+    <row r="635" spans="14:14">
+      <c r="N635" s="143"/>
+    </row>
+    <row r="636" spans="14:14">
+      <c r="N636" s="143"/>
+    </row>
+    <row r="637" spans="14:14">
+      <c r="N637" s="143"/>
+    </row>
+    <row r="638" spans="14:14">
+      <c r="N638" s="143"/>
+    </row>
+    <row r="639" spans="14:14">
+      <c r="N639" s="143"/>
+    </row>
+    <row r="640" spans="14:14">
+      <c r="N640" s="143"/>
+    </row>
+    <row r="641" spans="14:14">
+      <c r="N641" s="143"/>
+    </row>
+    <row r="642" spans="14:14">
+      <c r="N642" s="143"/>
+    </row>
+    <row r="643" spans="14:14">
+      <c r="N643" s="143"/>
+    </row>
+    <row r="644" spans="14:14">
+      <c r="N644" s="143"/>
+    </row>
+    <row r="645" spans="14:14">
+      <c r="N645" s="143"/>
+    </row>
+    <row r="646" spans="14:14">
+      <c r="N646" s="143"/>
+    </row>
+    <row r="647" spans="14:14">
+      <c r="N647" s="143"/>
+    </row>
+    <row r="648" spans="14:14">
+      <c r="N648" s="143"/>
+    </row>
+    <row r="649" spans="14:14">
+      <c r="N649" s="143"/>
+    </row>
+    <row r="650" spans="14:14">
+      <c r="N650" s="143"/>
+    </row>
+    <row r="651" spans="14:14">
+      <c r="N651" s="143"/>
+    </row>
+    <row r="652" spans="14:14">
+      <c r="N652" s="143"/>
+    </row>
+    <row r="653" spans="14:14">
+      <c r="N653" s="143"/>
+    </row>
+    <row r="654" spans="14:14">
+      <c r="N654" s="143"/>
+    </row>
+    <row r="655" spans="14:14">
+      <c r="N655" s="143"/>
+    </row>
+    <row r="656" spans="14:14">
+      <c r="N656" s="143"/>
+    </row>
+    <row r="657" spans="14:14">
+      <c r="N657" s="143"/>
+    </row>
+    <row r="658" spans="14:14">
+      <c r="N658" s="143"/>
+    </row>
+    <row r="659" spans="14:14">
+      <c r="N659" s="143"/>
+    </row>
+    <row r="660" spans="14:14">
+      <c r="N660" s="143"/>
+    </row>
+    <row r="661" spans="14:14">
+      <c r="N661" s="143"/>
+    </row>
+    <row r="662" spans="14:14">
+      <c r="N662" s="143"/>
+    </row>
+    <row r="663" spans="14:14">
+      <c r="N663" s="143"/>
+    </row>
+    <row r="664" spans="14:14">
+      <c r="N664" s="143"/>
+    </row>
+    <row r="665" spans="14:14">
+      <c r="N665" s="143"/>
+    </row>
+    <row r="666" spans="14:14">
+      <c r="N666" s="143"/>
+    </row>
+    <row r="667" spans="14:14">
+      <c r="N667" s="143"/>
+    </row>
+    <row r="668" spans="14:14">
+      <c r="N668" s="143"/>
+    </row>
+    <row r="669" spans="14:14">
+      <c r="N669" s="143"/>
+    </row>
+    <row r="670" spans="14:14">
+      <c r="N670" s="143"/>
+    </row>
+    <row r="671" spans="14:14">
+      <c r="N671" s="143"/>
+    </row>
+    <row r="672" spans="14:14">
+      <c r="N672" s="143"/>
+    </row>
+    <row r="673" spans="14:14">
+      <c r="N673" s="143"/>
+    </row>
+    <row r="674" spans="14:14">
+      <c r="N674" s="143"/>
+    </row>
+    <row r="675" spans="14:14">
+      <c r="N675" s="143"/>
+    </row>
+    <row r="676" spans="14:14">
+      <c r="N676" s="143"/>
+    </row>
+    <row r="677" spans="14:14">
+      <c r="N677" s="143"/>
+    </row>
+    <row r="678" spans="14:14">
+      <c r="N678" s="143"/>
+    </row>
+    <row r="679" spans="14:14">
+      <c r="N679" s="143"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E13469-C3CA-40FC-99F6-925C89ABC029}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="530" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="29040" windowHeight="16440" tabRatio="530" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
@@ -16,8 +15,8 @@
     <sheet name="main" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="178">
   <si>
     <t>EventBusService::registerForEvent&lt;TnGetCountryListEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::AddressCaptureQueryCountry);</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,7 +163,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,7 +183,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -194,7 +193,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -212,7 +211,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -222,7 +221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,7 +231,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -242,7 +241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,7 +256,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,7 +266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,7 +276,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +305,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -316,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -334,7 +333,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -344,7 +343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -384,7 +383,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +394,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -411,7 +410,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -422,7 +421,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -481,8 +480,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Event</t>
@@ -491,7 +490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -502,8 +501,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>m_keys</t>
@@ -518,7 +517,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -528,7 +527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,7 +537,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,7 +547,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -558,7 +557,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -568,7 +567,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -638,7 +637,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -648,7 +647,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -668,7 +667,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,7 +677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,7 +687,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,7 +697,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -708,7 +707,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -718,7 +717,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -735,7 +734,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -746,7 +745,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -757,7 +756,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -768,7 +767,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -864,7 +863,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -908,7 +907,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -918,7 +917,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1011,7 +1010,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1021,7 +1020,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1036,7 +1035,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1046,7 +1045,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1061,7 +1060,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1071,7 +1070,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1161,7 +1160,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1171,7 +1170,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1181,7 +1180,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1191,7 +1190,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1206,7 +1205,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1216,7 +1215,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1226,7 +1225,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,7 +1235,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1251,7 +1250,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1261,7 +1260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1271,7 +1270,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1281,7 +1280,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1291,7 +1290,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1301,7 +1300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1309,15 +1308,155 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>AutoSDKService::eventQueue()-&gt;registerForEvent&lt;</t>
+    <t>EventHandlerAdapterBase(void * pHandler, std::string funcName, TnEventQueue *pQueue) :</t>
+  </si>
+  <si>
+    <t>m_handlerPtr(pHandler),</t>
+  </si>
+  <si>
+    <t>m_handleFuncId(funcName),</t>
+  </si>
+  <si>
+    <t>m_pQueue(pQueue)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template &lt;class </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bool registerForEvent(TnWeakPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; obj, void (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::*memberFunction)(const TnSharedPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&amp;))</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AutoSDKService::eventQueue()-&gt;registerForEvent&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1327,166 +1466,175 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt;(boost::weak_ptr&lt;AutoSDKService&gt;(mAutoSDKService), &amp;AutoSDKService::handleCommonPluginInitCompleteEvent);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">template &lt;class </t>
+      <t>&gt;(boost::weak_ptr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AutoSDKService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(mAutoSDKService), &amp;AutoSDKService::handleCommonPluginInitCompleteEvent);</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>EventT</t>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, class</t>
+      <t>&gt;(obj, memberFunction, this));</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>explicit EventHandlerAdapter(TnWeakPtr&lt;</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> T</t>
+      <t>&gt; wpHandler, void (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>bool registerForEvent(TnWeakPtr&lt;</t>
+      <t>::*func)(const TnSharedPtr&lt;</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; obj, void (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>::*memberFunction)(const TnSharedPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;&amp;))</t>
-    </r>
-  </si>
-  <si>
-    <t>EventHandlerAdapterBase(void * pHandler, std::string funcName, TnEventQueue *pQueue) :</t>
-  </si>
-  <si>
-    <t>m_handlerPtr(pHandler),</t>
-  </si>
-  <si>
-    <t>m_handleFuncId(funcName),</t>
-  </si>
-  <si>
-    <t>m_pQueue(pQueue)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explicit EventHandlerAdapter(TnWeakPtr&lt;T&gt; wpHandler, void (T::*func)(const TnSharedPtr&lt;EventT&gt;&amp;), TnEventQueue * pQueue) : </t>
+      <t xml:space="preserve">&gt;&amp;), TnEventQueue * pQueue) : </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1494,7 +1642,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1502,21 +1650,21 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1524,21 +1672,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1546,14 +1694,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1561,29 +1709,45 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2390,10 +2554,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2425,7 +2657,7 @@
         <xdr:cNvPr id="2" name="矩形标注 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2731,7 @@
         <xdr:cNvPr id="3" name="矩形标注 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2805,7 @@
         <xdr:cNvPr id="4" name="矩形标注 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2879,7 @@
         <xdr:cNvPr id="5" name="矩形标注 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2953,7 @@
         <xdr:cNvPr id="6" name="左大括号 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2782,7 +3014,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +3067,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +3120,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +3173,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +3226,7 @@
         <xdr:cNvPr id="15" name="直接箭头连接符 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3279,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3332,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3385,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3438,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3491,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3312,7 +3544,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3365,7 +3597,7 @@
         <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3677,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3520,7 +3752,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3573,7 +3805,7 @@
         <xdr:cNvPr id="7" name="Arrow: Right 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +3865,7 @@
         <xdr:cNvPr id="9" name="Arrow: Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3693,7 +3925,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3746,7 +3978,7 @@
         <xdr:cNvPr id="14" name="Arrow: Right 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +4038,7 @@
         <xdr:cNvPr id="15" name="Arrow: Right 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3866,7 +4098,7 @@
         <xdr:cNvPr id="18" name="Right Brace 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3924,7 +4156,7 @@
         <xdr:cNvPr id="40" name="Right Brace 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3985,7 +4217,7 @@
         <xdr:cNvPr id="43" name="Right Brace 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4046,7 +4278,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4099,7 +4331,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4152,7 +4384,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4205,7 +4437,7 @@
         <xdr:cNvPr id="47" name="直接箭头连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4258,7 +4490,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4311,7 +4543,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4364,7 +4596,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4417,7 +4649,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4470,7 +4702,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4523,7 +4755,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4576,7 +4808,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4629,7 +4861,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4682,7 +4914,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4735,7 +4967,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4788,7 +5020,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4841,7 +5073,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4894,7 +5126,7 @@
         <xdr:cNvPr id="66" name="直角上箭头 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4963,7 +5195,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921BC473-6720-41EF-ACF7-B9258C144252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{921BC473-6720-41EF-ACF7-B9258C144252}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4972,10 +5204,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4995,7 +5227,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5024,7 +5256,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC0FF07-20B3-483A-8B2D-4F19603AAA91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BC0FF07-20B3-483A-8B2D-4F19603AAA91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5077,7 +5309,7 @@
         <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34691D4F-1076-41E8-9828-D0BBB8EF9EFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34691D4F-1076-41E8-9828-D0BBB8EF9EFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5362,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323A11EB-C53C-4F80-82A7-9D6D0077F70A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{323A11EB-C53C-4F80-82A7-9D6D0077F70A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5183,7 +5415,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A99077-2B43-4B3F-9244-0FD569A57458}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50A99077-2B43-4B3F-9244-0FD569A57458}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5236,7 +5468,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276D1B9A-3EEE-4AD2-A9B1-9DBF950C4F28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276D1B9A-3EEE-4AD2-A9B1-9DBF950C4F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5289,7 +5521,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CDD7A3-DBE1-4036-BF00-7CB930A380FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05CDD7A3-DBE1-4036-BF00-7CB930A380FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5342,7 +5574,7 @@
         <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154F55F8-D64E-4F9A-B4E3-57A2FD5D7989}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{154F55F8-D64E-4F9A-B4E3-57A2FD5D7989}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5395,7 +5627,7 @@
         <xdr:cNvPr id="43" name="Arrow: Down 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641AABB8-487B-47A4-A499-F5074503539C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{641AABB8-487B-47A4-A499-F5074503539C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5455,7 +5687,7 @@
         <xdr:cNvPr id="47" name="Arrow: Down 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16869762-F3D4-444B-A6B5-2FCEDA47C949}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16869762-F3D4-444B-A6B5-2FCEDA47C949}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5500,6 +5732,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>308721</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="280147" y="3294529"/>
+          <a:ext cx="13016192" cy="4484594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5508,7 +5785,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5755,26 +6032,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:V69"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:22">
@@ -5937,7 +6214,7 @@
       </c>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="3:22" ht="15" thickBot="1">
+    <row r="19" spans="3:22" ht="14.25" thickBot="1">
       <c r="C19" s="1"/>
       <c r="G19" s="10"/>
       <c r="H19" s="19"/>
@@ -6050,7 +6327,7 @@
       <c r="U23" s="30"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="3:22" ht="15" thickBot="1">
+    <row r="24" spans="3:22" ht="14.25" thickBot="1">
       <c r="C24" s="1"/>
       <c r="G24" s="10"/>
       <c r="H24" s="19"/>
@@ -6199,7 +6476,7 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
     </row>
-    <row r="33" spans="5:21" ht="15" thickBot="1">
+    <row r="33" spans="5:21" ht="14.25" thickBot="1">
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
@@ -6305,7 +6582,7 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
     </row>
-    <row r="38" spans="5:21" ht="15" thickBot="1">
+    <row r="38" spans="5:21" ht="14.25" thickBot="1">
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -6323,7 +6600,7 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
     </row>
-    <row r="43" spans="5:21" ht="15" hidden="1" thickBot="1"/>
+    <row r="43" spans="5:21" ht="14.25" hidden="1" thickBot="1"/>
     <row r="44" spans="5:21" hidden="1">
       <c r="F44" s="79" t="s">
         <v>67</v>
@@ -6362,7 +6639,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="82"/>
     </row>
-    <row r="50" spans="6:12" ht="15" hidden="1" thickBot="1">
+    <row r="50" spans="6:12" ht="14.25" hidden="1" thickBot="1">
       <c r="F50" s="81"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -6432,7 +6709,7 @@
       <c r="K57" s="81"/>
       <c r="L57" s="96"/>
     </row>
-    <row r="58" spans="6:12" ht="15" hidden="1" thickBot="1">
+    <row r="58" spans="6:12" ht="14.25" hidden="1" thickBot="1">
       <c r="F58" s="83"/>
       <c r="G58" s="94"/>
       <c r="H58" s="83"/>
@@ -6475,20 +6752,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AB80"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="9.375" customWidth="1"/>
+    <col min="19" max="19" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -6924,7 +7201,7 @@
       <c r="Q39" s="77"/>
       <c r="R39" s="77"/>
     </row>
-    <row r="40" spans="4:28" ht="15" thickBot="1">
+    <row r="40" spans="4:28" ht="14.25" thickBot="1">
       <c r="H40" t="s">
         <v>85</v>
       </c>
@@ -6935,7 +7212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="4:28" ht="15" thickBot="1">
+    <row r="41" spans="4:28" ht="14.25" thickBot="1">
       <c r="O41" s="73"/>
       <c r="P41" s="74" t="s">
         <v>64</v>
@@ -6953,7 +7230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="4:28" ht="15" thickBot="1"/>
+    <row r="42" spans="4:28" ht="14.25" thickBot="1"/>
     <row r="43" spans="4:28">
       <c r="P43" t="s">
         <v>54</v>
@@ -6969,13 +7246,13 @@
       </c>
       <c r="R44" s="87"/>
     </row>
-    <row r="45" spans="4:28" ht="15" thickBot="1">
+    <row r="45" spans="4:28" ht="14.25" thickBot="1">
       <c r="Q45" s="88" t="s">
         <v>57</v>
       </c>
       <c r="R45" s="89"/>
     </row>
-    <row r="47" spans="4:28" ht="15" thickBot="1">
+    <row r="47" spans="4:28" ht="14.25" thickBot="1">
       <c r="F47" t="s">
         <v>90</v>
       </c>
@@ -7017,7 +7294,7 @@
       <c r="R50" s="63"/>
       <c r="S50" s="64"/>
     </row>
-    <row r="51" spans="4:21" ht="15" thickBot="1">
+    <row r="51" spans="4:21" ht="14.25" thickBot="1">
       <c r="P51" s="65"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="67"/>
@@ -7169,7 +7446,7 @@
       <c r="R68" s="81"/>
       <c r="T68" s="82"/>
     </row>
-    <row r="69" spans="4:23" ht="15" thickBot="1">
+    <row r="69" spans="4:23" ht="14.25" thickBot="1">
       <c r="D69" s="106"/>
       <c r="E69" s="106" t="s">
         <v>59</v>
@@ -7193,7 +7470,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="4:23" ht="15" thickBot="1">
+    <row r="70" spans="4:23" ht="14.25" thickBot="1">
       <c r="D70" s="114" t="s">
         <v>58</v>
       </c>
@@ -7397,14 +7674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF00E54-7E76-42E3-9E4D-458C7D7154B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:AE49"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="2:31">
       <c r="P3" s="124" t="s">
@@ -7502,7 +7779,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="3:28" ht="15" thickBot="1">
+    <row r="22" spans="3:28" ht="14.25" thickBot="1">
       <c r="C22" t="s">
         <v>138</v>
       </c>
@@ -7549,7 +7826,7 @@
       <c r="X25" s="132"/>
       <c r="Y25" s="133"/>
     </row>
-    <row r="26" spans="3:28" ht="15" thickBot="1">
+    <row r="26" spans="3:28" ht="14.25" thickBot="1">
       <c r="D26" t="s">
         <v>129</v>
       </c>
@@ -7576,7 +7853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="3:28" ht="15" thickBot="1">
+    <row r="29" spans="3:28" ht="14.25" thickBot="1">
       <c r="D29" t="s">
         <v>130</v>
       </c>
@@ -7637,7 +7914,7 @@
       <c r="AA32" s="120"/>
       <c r="AB32" s="120"/>
     </row>
-    <row r="33" spans="4:28" ht="15" thickBot="1">
+    <row r="33" spans="4:28" ht="14.25" thickBot="1">
       <c r="E33" t="s">
         <v>134</v>
       </c>
@@ -7665,7 +7942,7 @@
       <c r="AA34" s="120"/>
       <c r="AB34" s="120"/>
     </row>
-    <row r="35" spans="4:28" ht="15" thickBot="1">
+    <row r="35" spans="4:28" ht="14.25" thickBot="1">
       <c r="E35" t="s">
         <v>136</v>
       </c>
@@ -7714,7 +7991,7 @@
       <c r="Z38" s="120"/>
       <c r="AA38" s="120"/>
     </row>
-    <row r="39" spans="4:28" ht="15" thickBot="1">
+    <row r="39" spans="4:28" ht="14.25" thickBot="1">
       <c r="V39" s="134"/>
       <c r="W39" s="135"/>
       <c r="X39" s="136"/>
@@ -7728,6 +8005,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7735,2098 +8013,2104 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5E174E-DA76-4C1A-9737-D65674081A15}">
-  <dimension ref="B2:N679"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:Q679"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:17">
       <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="81"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P3" s="81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="P4" s="81"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="81"/>
+      <c r="Q5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="P6" s="81"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="81"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="81"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" s="81"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="P10" s="81"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="P11" s="81"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="81"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="E13" t="s">
         <v>170</v>
       </c>
-      <c r="N2" s="81"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" t="s">
+      <c r="P13" s="81"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="E14" t="s">
         <v>171</v>
       </c>
-      <c r="N3" s="81" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="N4" s="81"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" t="s">
-        <v>176</v>
-      </c>
-      <c r="N5" s="81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="E6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="81"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="E7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="81"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="E8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N8" s="81"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="N9" s="81"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="D10" t="s">
+      <c r="P14" s="81"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="E15" t="s">
         <v>172</v>
       </c>
-      <c r="N10" s="81"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="E11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N11" s="81"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="E12" t="s">
-        <v>174</v>
-      </c>
-      <c r="N12" s="81"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="E13" t="s">
-        <v>175</v>
-      </c>
-      <c r="N13" s="81"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="N14" s="81"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="N15" s="81"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="N16" s="81"/>
-    </row>
-    <row r="17" spans="14:14">
-      <c r="N17" s="81"/>
-    </row>
-    <row r="18" spans="14:14">
-      <c r="N18" s="81"/>
-    </row>
-    <row r="19" spans="14:14">
-      <c r="N19" s="81"/>
-    </row>
-    <row r="20" spans="14:14">
-      <c r="N20" s="81"/>
-    </row>
-    <row r="21" spans="14:14">
-      <c r="N21" s="81"/>
-    </row>
-    <row r="22" spans="14:14">
-      <c r="N22" s="81"/>
-    </row>
-    <row r="23" spans="14:14">
-      <c r="N23" s="81"/>
-    </row>
-    <row r="24" spans="14:14">
-      <c r="N24" s="81"/>
-    </row>
-    <row r="25" spans="14:14">
-      <c r="N25" s="81"/>
-    </row>
-    <row r="26" spans="14:14">
-      <c r="N26" s="81"/>
-    </row>
-    <row r="27" spans="14:14">
-      <c r="N27" s="81"/>
-    </row>
-    <row r="28" spans="14:14">
-      <c r="N28" s="81"/>
-    </row>
-    <row r="29" spans="14:14">
-      <c r="N29" s="81"/>
-    </row>
-    <row r="30" spans="14:14">
-      <c r="N30" s="81"/>
-    </row>
-    <row r="31" spans="14:14">
-      <c r="N31" s="81"/>
-    </row>
-    <row r="32" spans="14:14">
-      <c r="N32" s="81"/>
-    </row>
-    <row r="33" spans="14:14">
-      <c r="N33" s="81"/>
-    </row>
-    <row r="34" spans="14:14">
-      <c r="N34" s="81"/>
-    </row>
-    <row r="35" spans="14:14">
-      <c r="N35" s="81"/>
-    </row>
-    <row r="36" spans="14:14">
-      <c r="N36" s="81"/>
-    </row>
-    <row r="37" spans="14:14">
-      <c r="N37" s="81"/>
-    </row>
-    <row r="38" spans="14:14">
-      <c r="N38" s="81"/>
-    </row>
-    <row r="39" spans="14:14">
-      <c r="N39" s="81"/>
-    </row>
-    <row r="40" spans="14:14">
-      <c r="N40" s="81"/>
-    </row>
-    <row r="41" spans="14:14">
-      <c r="N41" s="81"/>
-    </row>
-    <row r="42" spans="14:14">
-      <c r="N42" s="81"/>
-    </row>
-    <row r="43" spans="14:14">
-      <c r="N43" s="81"/>
-    </row>
-    <row r="44" spans="14:14">
-      <c r="N44" s="81"/>
-    </row>
-    <row r="45" spans="14:14">
-      <c r="N45" s="81"/>
-    </row>
-    <row r="46" spans="14:14">
-      <c r="N46" s="81"/>
-    </row>
-    <row r="47" spans="14:14">
-      <c r="N47" s="81"/>
-    </row>
-    <row r="48" spans="14:14">
-      <c r="N48" s="81"/>
-    </row>
-    <row r="49" spans="14:14">
-      <c r="N49" s="81"/>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" s="81"/>
-    </row>
-    <row r="51" spans="14:14">
-      <c r="N51" s="81"/>
-    </row>
-    <row r="52" spans="14:14">
-      <c r="N52" s="81"/>
-    </row>
-    <row r="53" spans="14:14">
-      <c r="N53" s="81"/>
-    </row>
-    <row r="54" spans="14:14">
-      <c r="N54" s="81"/>
-    </row>
-    <row r="55" spans="14:14">
-      <c r="N55" s="81"/>
-    </row>
-    <row r="56" spans="14:14">
-      <c r="N56" s="81"/>
-    </row>
-    <row r="57" spans="14:14">
-      <c r="N57" s="81"/>
-    </row>
-    <row r="58" spans="14:14">
-      <c r="N58" s="81"/>
-    </row>
-    <row r="59" spans="14:14">
-      <c r="N59" s="81"/>
-    </row>
-    <row r="60" spans="14:14">
-      <c r="N60" s="81"/>
-    </row>
-    <row r="61" spans="14:14">
-      <c r="N61" s="81"/>
-    </row>
-    <row r="62" spans="14:14">
-      <c r="N62" s="81"/>
-    </row>
-    <row r="63" spans="14:14">
-      <c r="N63" s="81"/>
-    </row>
-    <row r="64" spans="14:14">
-      <c r="N64" s="81"/>
-    </row>
-    <row r="65" spans="14:14">
-      <c r="N65" s="81"/>
-    </row>
-    <row r="66" spans="14:14">
-      <c r="N66" s="81"/>
-    </row>
-    <row r="67" spans="14:14">
-      <c r="N67" s="81"/>
-    </row>
-    <row r="68" spans="14:14">
-      <c r="N68" s="81"/>
-    </row>
-    <row r="69" spans="14:14">
-      <c r="N69" s="81"/>
-    </row>
-    <row r="70" spans="14:14">
-      <c r="N70" s="81"/>
-    </row>
-    <row r="71" spans="14:14">
-      <c r="N71" s="81"/>
-    </row>
-    <row r="72" spans="14:14">
-      <c r="N72" s="81"/>
-    </row>
-    <row r="73" spans="14:14">
-      <c r="N73" s="81"/>
-    </row>
-    <row r="74" spans="14:14">
-      <c r="N74" s="81"/>
-    </row>
-    <row r="75" spans="14:14">
-      <c r="N75" s="81"/>
-    </row>
-    <row r="76" spans="14:14">
-      <c r="N76" s="81"/>
-    </row>
-    <row r="77" spans="14:14">
-      <c r="N77" s="81"/>
-    </row>
-    <row r="78" spans="14:14">
-      <c r="N78" s="81"/>
-    </row>
-    <row r="79" spans="14:14">
-      <c r="N79" s="81"/>
-    </row>
-    <row r="80" spans="14:14">
-      <c r="N80" s="81"/>
-    </row>
-    <row r="81" spans="14:14">
-      <c r="N81" s="81"/>
-    </row>
-    <row r="82" spans="14:14">
-      <c r="N82" s="81"/>
-    </row>
-    <row r="83" spans="14:14">
-      <c r="N83" s="81"/>
-    </row>
-    <row r="84" spans="14:14">
-      <c r="N84" s="81"/>
-    </row>
-    <row r="85" spans="14:14">
-      <c r="N85" s="81"/>
-    </row>
-    <row r="86" spans="14:14">
-      <c r="N86" s="81"/>
-    </row>
-    <row r="87" spans="14:14">
-      <c r="N87" s="81"/>
-    </row>
-    <row r="88" spans="14:14">
-      <c r="N88" s="81"/>
-    </row>
-    <row r="89" spans="14:14">
-      <c r="N89" s="81"/>
-    </row>
-    <row r="90" spans="14:14">
-      <c r="N90" s="81"/>
-    </row>
-    <row r="91" spans="14:14">
-      <c r="N91" s="81"/>
-    </row>
-    <row r="92" spans="14:14">
-      <c r="N92" s="81"/>
-    </row>
-    <row r="93" spans="14:14">
-      <c r="N93" s="81"/>
-    </row>
-    <row r="94" spans="14:14">
-      <c r="N94" s="81"/>
-    </row>
-    <row r="95" spans="14:14">
-      <c r="N95" s="81"/>
-    </row>
-    <row r="96" spans="14:14">
-      <c r="N96" s="81"/>
-    </row>
-    <row r="97" spans="14:14">
-      <c r="N97" s="81"/>
-    </row>
-    <row r="98" spans="14:14">
-      <c r="N98" s="81"/>
-    </row>
-    <row r="99" spans="14:14">
-      <c r="N99" s="81"/>
-    </row>
-    <row r="100" spans="14:14">
-      <c r="N100" s="81"/>
-    </row>
-    <row r="101" spans="14:14">
-      <c r="N101" s="81"/>
-    </row>
-    <row r="102" spans="14:14">
-      <c r="N102" s="81"/>
-    </row>
-    <row r="103" spans="14:14">
-      <c r="N103" s="81"/>
-    </row>
-    <row r="104" spans="14:14">
-      <c r="N104" s="81"/>
-    </row>
-    <row r="105" spans="14:14">
-      <c r="N105" s="81"/>
-    </row>
-    <row r="106" spans="14:14">
-      <c r="N106" s="81"/>
-    </row>
-    <row r="107" spans="14:14">
-      <c r="N107" s="81"/>
-    </row>
-    <row r="108" spans="14:14">
-      <c r="N108" s="81"/>
-    </row>
-    <row r="109" spans="14:14">
-      <c r="N109" s="81"/>
-    </row>
-    <row r="110" spans="14:14">
-      <c r="N110" s="81"/>
-    </row>
-    <row r="111" spans="14:14">
-      <c r="N111" s="81"/>
-    </row>
-    <row r="112" spans="14:14">
-      <c r="N112" s="81"/>
-    </row>
-    <row r="113" spans="14:14">
-      <c r="N113" s="81"/>
-    </row>
-    <row r="114" spans="14:14">
-      <c r="N114" s="81"/>
-    </row>
-    <row r="115" spans="14:14">
-      <c r="N115" s="81"/>
-    </row>
-    <row r="116" spans="14:14">
-      <c r="N116" s="81"/>
-    </row>
-    <row r="117" spans="14:14">
-      <c r="N117" s="81"/>
-    </row>
-    <row r="118" spans="14:14">
-      <c r="N118" s="81"/>
-    </row>
-    <row r="119" spans="14:14">
-      <c r="N119" s="81"/>
-    </row>
-    <row r="120" spans="14:14">
-      <c r="N120" s="81"/>
-    </row>
-    <row r="121" spans="14:14">
-      <c r="N121" s="81"/>
-    </row>
-    <row r="122" spans="14:14">
-      <c r="N122" s="81"/>
-    </row>
-    <row r="123" spans="14:14">
-      <c r="N123" s="81"/>
-    </row>
-    <row r="124" spans="14:14">
-      <c r="N124" s="81"/>
-    </row>
-    <row r="125" spans="14:14">
-      <c r="N125" s="81"/>
-    </row>
-    <row r="126" spans="14:14">
-      <c r="N126" s="81"/>
-    </row>
-    <row r="127" spans="14:14">
-      <c r="N127" s="81"/>
-    </row>
-    <row r="128" spans="14:14">
-      <c r="N128" s="81"/>
-    </row>
-    <row r="129" spans="14:14">
-      <c r="N129" s="81"/>
-    </row>
-    <row r="130" spans="14:14">
-      <c r="N130" s="81"/>
-    </row>
-    <row r="131" spans="14:14">
-      <c r="N131" s="81"/>
-    </row>
-    <row r="132" spans="14:14">
-      <c r="N132" s="81"/>
-    </row>
-    <row r="133" spans="14:14">
-      <c r="N133" s="81"/>
-    </row>
-    <row r="134" spans="14:14">
-      <c r="N134" s="81"/>
-    </row>
-    <row r="135" spans="14:14">
-      <c r="N135" s="81"/>
-    </row>
-    <row r="136" spans="14:14">
-      <c r="N136" s="81"/>
-    </row>
-    <row r="137" spans="14:14">
-      <c r="N137" s="81"/>
-    </row>
-    <row r="138" spans="14:14">
-      <c r="N138" s="81"/>
-    </row>
-    <row r="139" spans="14:14">
-      <c r="N139" s="81"/>
-    </row>
-    <row r="140" spans="14:14">
-      <c r="N140" s="81"/>
-    </row>
-    <row r="141" spans="14:14">
-      <c r="N141" s="81"/>
-    </row>
-    <row r="142" spans="14:14">
-      <c r="N142" s="81"/>
-    </row>
-    <row r="143" spans="14:14">
-      <c r="N143" s="81"/>
-    </row>
-    <row r="144" spans="14:14">
-      <c r="N144" s="81"/>
-    </row>
-    <row r="145" spans="14:14">
-      <c r="N145" s="81"/>
-    </row>
-    <row r="146" spans="14:14">
-      <c r="N146" s="81"/>
-    </row>
-    <row r="147" spans="14:14">
-      <c r="N147" s="81"/>
-    </row>
-    <row r="148" spans="14:14">
-      <c r="N148" s="81"/>
-    </row>
-    <row r="149" spans="14:14">
-      <c r="N149" s="81"/>
-    </row>
-    <row r="150" spans="14:14">
-      <c r="N150" s="81"/>
-    </row>
-    <row r="151" spans="14:14">
-      <c r="N151" s="81"/>
-    </row>
-    <row r="152" spans="14:14">
-      <c r="N152" s="81"/>
-    </row>
-    <row r="153" spans="14:14">
-      <c r="N153" s="81"/>
-    </row>
-    <row r="154" spans="14:14">
-      <c r="N154" s="81"/>
-    </row>
-    <row r="155" spans="14:14">
-      <c r="N155" s="81"/>
-    </row>
-    <row r="156" spans="14:14">
-      <c r="N156" s="81"/>
-    </row>
-    <row r="157" spans="14:14">
-      <c r="N157" s="81"/>
-    </row>
-    <row r="158" spans="14:14">
-      <c r="N158" s="81"/>
-    </row>
-    <row r="159" spans="14:14">
-      <c r="N159" s="81"/>
-    </row>
-    <row r="160" spans="14:14">
-      <c r="N160" s="81"/>
-    </row>
-    <row r="161" spans="14:14">
-      <c r="N161" s="81"/>
-    </row>
-    <row r="162" spans="14:14">
-      <c r="N162" s="81"/>
-    </row>
-    <row r="163" spans="14:14">
-      <c r="N163" s="81"/>
-    </row>
-    <row r="164" spans="14:14">
-      <c r="N164" s="81"/>
-    </row>
-    <row r="165" spans="14:14">
-      <c r="N165" s="81"/>
-    </row>
-    <row r="166" spans="14:14">
-      <c r="N166" s="81"/>
-    </row>
-    <row r="167" spans="14:14">
-      <c r="N167" s="81"/>
-    </row>
-    <row r="168" spans="14:14">
-      <c r="N168" s="81"/>
-    </row>
-    <row r="169" spans="14:14">
-      <c r="N169" s="81"/>
-    </row>
-    <row r="170" spans="14:14">
-      <c r="N170" s="81"/>
-    </row>
-    <row r="171" spans="14:14">
-      <c r="N171" s="81"/>
-    </row>
-    <row r="172" spans="14:14">
-      <c r="N172" s="81"/>
-    </row>
-    <row r="173" spans="14:14">
-      <c r="N173" s="81"/>
-    </row>
-    <row r="174" spans="14:14">
-      <c r="N174" s="81"/>
-    </row>
-    <row r="175" spans="14:14">
-      <c r="N175" s="81"/>
-    </row>
-    <row r="176" spans="14:14">
-      <c r="N176" s="81"/>
-    </row>
-    <row r="177" spans="14:14">
-      <c r="N177" s="81"/>
-    </row>
-    <row r="178" spans="14:14">
-      <c r="N178" s="81"/>
-    </row>
-    <row r="179" spans="14:14">
-      <c r="N179" s="81"/>
-    </row>
-    <row r="180" spans="14:14">
-      <c r="N180" s="81"/>
-    </row>
-    <row r="181" spans="14:14">
-      <c r="N181" s="81"/>
-    </row>
-    <row r="182" spans="14:14">
-      <c r="N182" s="81"/>
-    </row>
-    <row r="183" spans="14:14">
-      <c r="N183" s="81"/>
-    </row>
-    <row r="184" spans="14:14">
-      <c r="N184" s="81"/>
-    </row>
-    <row r="185" spans="14:14">
-      <c r="N185" s="81"/>
-    </row>
-    <row r="186" spans="14:14">
-      <c r="N186" s="81"/>
-    </row>
-    <row r="187" spans="14:14">
-      <c r="N187" s="81"/>
-    </row>
-    <row r="188" spans="14:14">
-      <c r="N188" s="81"/>
-    </row>
-    <row r="189" spans="14:14">
-      <c r="N189" s="81"/>
-    </row>
-    <row r="190" spans="14:14">
-      <c r="N190" s="81"/>
-    </row>
-    <row r="191" spans="14:14">
-      <c r="N191" s="81"/>
-    </row>
-    <row r="192" spans="14:14">
-      <c r="N192" s="81"/>
-    </row>
-    <row r="193" spans="14:14">
-      <c r="N193" s="81"/>
-    </row>
-    <row r="194" spans="14:14">
-      <c r="N194" s="81"/>
-    </row>
-    <row r="195" spans="14:14">
-      <c r="N195" s="81"/>
-    </row>
-    <row r="196" spans="14:14">
-      <c r="N196" s="81"/>
-    </row>
-    <row r="197" spans="14:14">
-      <c r="N197" s="81"/>
-    </row>
-    <row r="198" spans="14:14">
-      <c r="N198" s="81"/>
-    </row>
-    <row r="199" spans="14:14">
-      <c r="N199" s="81"/>
-    </row>
-    <row r="200" spans="14:14">
-      <c r="N200" s="81"/>
-    </row>
-    <row r="201" spans="14:14">
-      <c r="N201" s="81"/>
-    </row>
-    <row r="202" spans="14:14">
-      <c r="N202" s="81"/>
-    </row>
-    <row r="203" spans="14:14">
-      <c r="N203" s="81"/>
-    </row>
-    <row r="204" spans="14:14">
-      <c r="N204" s="81"/>
-    </row>
-    <row r="205" spans="14:14">
-      <c r="N205" s="81"/>
-    </row>
-    <row r="206" spans="14:14">
-      <c r="N206" s="81"/>
-    </row>
-    <row r="207" spans="14:14">
-      <c r="N207" s="81"/>
-    </row>
-    <row r="208" spans="14:14">
-      <c r="N208" s="81"/>
-    </row>
-    <row r="209" spans="14:14">
-      <c r="N209" s="81"/>
-    </row>
-    <row r="210" spans="14:14">
-      <c r="N210" s="81"/>
-    </row>
-    <row r="211" spans="14:14">
-      <c r="N211" s="81"/>
-    </row>
-    <row r="212" spans="14:14">
-      <c r="N212" s="81"/>
-    </row>
-    <row r="213" spans="14:14">
-      <c r="N213" s="81"/>
-    </row>
-    <row r="214" spans="14:14">
-      <c r="N214" s="81"/>
-    </row>
-    <row r="215" spans="14:14">
-      <c r="N215" s="81"/>
-    </row>
-    <row r="216" spans="14:14">
-      <c r="N216" s="81"/>
-    </row>
-    <row r="217" spans="14:14">
-      <c r="N217" s="81"/>
-    </row>
-    <row r="218" spans="14:14">
-      <c r="N218" s="81"/>
-    </row>
-    <row r="219" spans="14:14">
-      <c r="N219" s="81"/>
-    </row>
-    <row r="220" spans="14:14">
-      <c r="N220" s="81"/>
-    </row>
-    <row r="221" spans="14:14">
-      <c r="N221" s="81"/>
-    </row>
-    <row r="222" spans="14:14">
-      <c r="N222" s="81"/>
-    </row>
-    <row r="223" spans="14:14">
-      <c r="N223" s="81"/>
-    </row>
-    <row r="224" spans="14:14">
-      <c r="N224" s="81"/>
-    </row>
-    <row r="225" spans="14:14">
-      <c r="N225" s="81"/>
-    </row>
-    <row r="226" spans="14:14">
-      <c r="N226" s="81"/>
-    </row>
-    <row r="227" spans="14:14">
-      <c r="N227" s="81"/>
-    </row>
-    <row r="228" spans="14:14">
-      <c r="N228" s="81"/>
-    </row>
-    <row r="229" spans="14:14">
-      <c r="N229" s="81"/>
-    </row>
-    <row r="230" spans="14:14">
-      <c r="N230" s="81"/>
-    </row>
-    <row r="231" spans="14:14">
-      <c r="N231" s="81"/>
-    </row>
-    <row r="232" spans="14:14">
-      <c r="N232" s="81"/>
-    </row>
-    <row r="233" spans="14:14">
-      <c r="N233" s="81"/>
-    </row>
-    <row r="234" spans="14:14">
-      <c r="N234" s="81"/>
-    </row>
-    <row r="235" spans="14:14">
-      <c r="N235" s="81"/>
-    </row>
-    <row r="236" spans="14:14">
-      <c r="N236" s="81"/>
-    </row>
-    <row r="237" spans="14:14">
-      <c r="N237" s="81"/>
-    </row>
-    <row r="238" spans="14:14">
-      <c r="N238" s="81"/>
-    </row>
-    <row r="239" spans="14:14">
-      <c r="N239" s="81"/>
-    </row>
-    <row r="240" spans="14:14">
-      <c r="N240" s="81"/>
-    </row>
-    <row r="241" spans="14:14">
-      <c r="N241" s="81"/>
-    </row>
-    <row r="242" spans="14:14">
-      <c r="N242" s="81"/>
-    </row>
-    <row r="243" spans="14:14">
-      <c r="N243" s="81"/>
-    </row>
-    <row r="244" spans="14:14">
-      <c r="N244" s="81"/>
-    </row>
-    <row r="245" spans="14:14">
-      <c r="N245" s="81"/>
-    </row>
-    <row r="246" spans="14:14">
-      <c r="N246" s="81"/>
-    </row>
-    <row r="247" spans="14:14">
-      <c r="N247" s="81"/>
-    </row>
-    <row r="248" spans="14:14">
-      <c r="N248" s="81"/>
-    </row>
-    <row r="249" spans="14:14">
-      <c r="N249" s="81"/>
-    </row>
-    <row r="250" spans="14:14">
-      <c r="N250" s="81"/>
-    </row>
-    <row r="251" spans="14:14">
-      <c r="N251" s="81"/>
-    </row>
-    <row r="252" spans="14:14">
-      <c r="N252" s="81"/>
-    </row>
-    <row r="253" spans="14:14">
-      <c r="N253" s="81"/>
-    </row>
-    <row r="254" spans="14:14">
-      <c r="N254" s="81"/>
-    </row>
-    <row r="255" spans="14:14">
-      <c r="N255" s="81"/>
-    </row>
-    <row r="256" spans="14:14">
-      <c r="N256" s="81"/>
-    </row>
-    <row r="257" spans="14:14">
-      <c r="N257" s="81"/>
-    </row>
-    <row r="258" spans="14:14">
-      <c r="N258" s="81"/>
-    </row>
-    <row r="259" spans="14:14">
-      <c r="N259" s="81"/>
-    </row>
-    <row r="260" spans="14:14">
-      <c r="N260" s="81"/>
-    </row>
-    <row r="261" spans="14:14">
-      <c r="N261" s="81"/>
-    </row>
-    <row r="262" spans="14:14">
-      <c r="N262" s="81"/>
-    </row>
-    <row r="263" spans="14:14">
-      <c r="N263" s="81"/>
-    </row>
-    <row r="264" spans="14:14">
-      <c r="N264" s="81"/>
-    </row>
-    <row r="265" spans="14:14">
-      <c r="N265" s="81"/>
-    </row>
-    <row r="266" spans="14:14">
-      <c r="N266" s="81"/>
-    </row>
-    <row r="267" spans="14:14">
-      <c r="N267" s="81"/>
-    </row>
-    <row r="268" spans="14:14">
-      <c r="N268" s="81"/>
-    </row>
-    <row r="269" spans="14:14">
-      <c r="N269" s="81"/>
-    </row>
-    <row r="270" spans="14:14">
-      <c r="N270" s="81"/>
-    </row>
-    <row r="271" spans="14:14">
-      <c r="N271" s="81"/>
-    </row>
-    <row r="272" spans="14:14">
-      <c r="N272" s="81"/>
-    </row>
-    <row r="273" spans="14:14">
-      <c r="N273" s="81"/>
-    </row>
-    <row r="274" spans="14:14">
-      <c r="N274" s="81"/>
-    </row>
-    <row r="275" spans="14:14">
-      <c r="N275" s="81"/>
-    </row>
-    <row r="276" spans="14:14">
-      <c r="N276" s="81"/>
-    </row>
-    <row r="277" spans="14:14">
-      <c r="N277" s="81"/>
-    </row>
-    <row r="278" spans="14:14">
-      <c r="N278" s="81"/>
-    </row>
-    <row r="279" spans="14:14">
-      <c r="N279" s="81"/>
-    </row>
-    <row r="280" spans="14:14">
-      <c r="N280" s="81"/>
-    </row>
-    <row r="281" spans="14:14">
-      <c r="N281" s="81"/>
-    </row>
-    <row r="282" spans="14:14">
-      <c r="N282" s="81"/>
-    </row>
-    <row r="283" spans="14:14">
-      <c r="N283" s="81"/>
-    </row>
-    <row r="284" spans="14:14">
-      <c r="N284" s="81"/>
-    </row>
-    <row r="285" spans="14:14">
-      <c r="N285" s="81"/>
-    </row>
-    <row r="286" spans="14:14">
-      <c r="N286" s="81"/>
-    </row>
-    <row r="287" spans="14:14">
-      <c r="N287" s="81"/>
-    </row>
-    <row r="288" spans="14:14">
-      <c r="N288" s="81"/>
-    </row>
-    <row r="289" spans="14:14">
-      <c r="N289" s="81"/>
-    </row>
-    <row r="290" spans="14:14">
-      <c r="N290" s="81"/>
-    </row>
-    <row r="291" spans="14:14">
-      <c r="N291" s="81"/>
-    </row>
-    <row r="292" spans="14:14">
-      <c r="N292" s="81"/>
-    </row>
-    <row r="293" spans="14:14">
-      <c r="N293" s="81"/>
-    </row>
-    <row r="294" spans="14:14">
-      <c r="N294" s="81"/>
-    </row>
-    <row r="295" spans="14:14">
-      <c r="N295" s="81"/>
-    </row>
-    <row r="296" spans="14:14">
-      <c r="N296" s="81"/>
-    </row>
-    <row r="297" spans="14:14">
-      <c r="N297" s="81"/>
-    </row>
-    <row r="298" spans="14:14">
-      <c r="N298" s="81"/>
-    </row>
-    <row r="299" spans="14:14">
-      <c r="N299" s="81"/>
-    </row>
-    <row r="300" spans="14:14">
-      <c r="N300" s="81"/>
-    </row>
-    <row r="301" spans="14:14">
-      <c r="N301" s="81"/>
-    </row>
-    <row r="302" spans="14:14">
-      <c r="N302" s="81"/>
-    </row>
-    <row r="303" spans="14:14">
-      <c r="N303" s="81"/>
-    </row>
-    <row r="304" spans="14:14">
-      <c r="N304" s="81"/>
-    </row>
-    <row r="305" spans="14:14">
-      <c r="N305" s="81"/>
-    </row>
-    <row r="306" spans="14:14">
-      <c r="N306" s="81"/>
-    </row>
-    <row r="307" spans="14:14">
-      <c r="N307" s="81"/>
-    </row>
-    <row r="308" spans="14:14">
-      <c r="N308" s="81"/>
-    </row>
-    <row r="309" spans="14:14">
-      <c r="N309" s="81"/>
-    </row>
-    <row r="310" spans="14:14">
-      <c r="N310" s="81"/>
-    </row>
-    <row r="311" spans="14:14">
-      <c r="N311" s="81"/>
-    </row>
-    <row r="312" spans="14:14">
-      <c r="N312" s="81"/>
-    </row>
-    <row r="313" spans="14:14">
-      <c r="N313" s="81"/>
-    </row>
-    <row r="314" spans="14:14">
-      <c r="N314" s="81"/>
-    </row>
-    <row r="315" spans="14:14">
-      <c r="N315" s="81"/>
-    </row>
-    <row r="316" spans="14:14">
-      <c r="N316" s="81"/>
-    </row>
-    <row r="317" spans="14:14">
-      <c r="N317" s="81"/>
-    </row>
-    <row r="318" spans="14:14">
-      <c r="N318" s="81"/>
-    </row>
-    <row r="319" spans="14:14">
-      <c r="N319" s="81"/>
-    </row>
-    <row r="320" spans="14:14">
-      <c r="N320" s="81"/>
-    </row>
-    <row r="321" spans="14:14">
-      <c r="N321" s="81"/>
-    </row>
-    <row r="322" spans="14:14">
-      <c r="N322" s="81"/>
-    </row>
-    <row r="323" spans="14:14">
-      <c r="N323" s="81"/>
-    </row>
-    <row r="324" spans="14:14">
-      <c r="N324" s="81"/>
-    </row>
-    <row r="325" spans="14:14">
-      <c r="N325" s="81"/>
-    </row>
-    <row r="326" spans="14:14">
-      <c r="N326" s="81"/>
-    </row>
-    <row r="327" spans="14:14">
-      <c r="N327" s="81"/>
-    </row>
-    <row r="328" spans="14:14">
-      <c r="N328" s="81"/>
-    </row>
-    <row r="329" spans="14:14">
-      <c r="N329" s="81"/>
-    </row>
-    <row r="330" spans="14:14">
-      <c r="N330" s="81"/>
-    </row>
-    <row r="331" spans="14:14">
-      <c r="N331" s="81"/>
-    </row>
-    <row r="332" spans="14:14">
-      <c r="N332" s="81"/>
-    </row>
-    <row r="333" spans="14:14">
-      <c r="N333" s="81"/>
-    </row>
-    <row r="334" spans="14:14">
-      <c r="N334" s="81"/>
-    </row>
-    <row r="335" spans="14:14">
-      <c r="N335" s="81"/>
-    </row>
-    <row r="336" spans="14:14">
-      <c r="N336" s="81"/>
-    </row>
-    <row r="337" spans="14:14">
-      <c r="N337" s="81"/>
-    </row>
-    <row r="338" spans="14:14">
-      <c r="N338" s="81"/>
-    </row>
-    <row r="339" spans="14:14">
-      <c r="N339" s="81"/>
-    </row>
-    <row r="340" spans="14:14">
-      <c r="N340" s="81"/>
-    </row>
-    <row r="341" spans="14:14">
-      <c r="N341" s="81"/>
-    </row>
-    <row r="342" spans="14:14">
-      <c r="N342" s="81"/>
-    </row>
-    <row r="343" spans="14:14">
-      <c r="N343" s="81"/>
-    </row>
-    <row r="344" spans="14:14">
-      <c r="N344" s="81"/>
-    </row>
-    <row r="345" spans="14:14">
-      <c r="N345" s="81"/>
-    </row>
-    <row r="346" spans="14:14">
-      <c r="N346" s="81"/>
-    </row>
-    <row r="347" spans="14:14">
-      <c r="N347" s="81"/>
-    </row>
-    <row r="348" spans="14:14">
-      <c r="N348" s="81"/>
-    </row>
-    <row r="349" spans="14:14">
-      <c r="N349" s="81"/>
-    </row>
-    <row r="350" spans="14:14">
-      <c r="N350" s="81"/>
-    </row>
-    <row r="351" spans="14:14">
-      <c r="N351" s="81"/>
-    </row>
-    <row r="352" spans="14:14">
-      <c r="N352" s="81"/>
-    </row>
-    <row r="353" spans="14:14">
-      <c r="N353" s="81"/>
-    </row>
-    <row r="354" spans="14:14">
-      <c r="N354" s="81"/>
-    </row>
-    <row r="355" spans="14:14">
-      <c r="N355" s="81"/>
-    </row>
-    <row r="356" spans="14:14">
-      <c r="N356" s="81"/>
-    </row>
-    <row r="357" spans="14:14">
-      <c r="N357" s="81"/>
-    </row>
-    <row r="358" spans="14:14">
-      <c r="N358" s="81"/>
-    </row>
-    <row r="359" spans="14:14">
-      <c r="N359" s="81"/>
-    </row>
-    <row r="360" spans="14:14">
-      <c r="N360" s="81"/>
-    </row>
-    <row r="361" spans="14:14">
-      <c r="N361" s="81"/>
-    </row>
-    <row r="362" spans="14:14">
-      <c r="N362" s="81"/>
-    </row>
-    <row r="363" spans="14:14">
-      <c r="N363" s="81"/>
-    </row>
-    <row r="364" spans="14:14">
-      <c r="N364" s="81"/>
-    </row>
-    <row r="365" spans="14:14">
-      <c r="N365" s="81"/>
-    </row>
-    <row r="366" spans="14:14">
-      <c r="N366" s="81"/>
-    </row>
-    <row r="367" spans="14:14">
-      <c r="N367" s="81"/>
-    </row>
-    <row r="368" spans="14:14">
-      <c r="N368" s="81"/>
-    </row>
-    <row r="369" spans="14:14">
-      <c r="N369" s="81"/>
-    </row>
-    <row r="370" spans="14:14">
-      <c r="N370" s="81"/>
-    </row>
-    <row r="371" spans="14:14">
-      <c r="N371" s="81"/>
-    </row>
-    <row r="372" spans="14:14">
-      <c r="N372" s="81"/>
-    </row>
-    <row r="373" spans="14:14">
-      <c r="N373" s="81"/>
-    </row>
-    <row r="374" spans="14:14">
-      <c r="N374" s="81"/>
-    </row>
-    <row r="375" spans="14:14">
-      <c r="N375" s="81"/>
-    </row>
-    <row r="376" spans="14:14">
-      <c r="N376" s="81"/>
-    </row>
-    <row r="377" spans="14:14">
-      <c r="N377" s="81"/>
-    </row>
-    <row r="378" spans="14:14">
-      <c r="N378" s="81"/>
-    </row>
-    <row r="379" spans="14:14">
-      <c r="N379" s="81"/>
-    </row>
-    <row r="380" spans="14:14">
-      <c r="N380" s="81"/>
-    </row>
-    <row r="381" spans="14:14">
-      <c r="N381" s="81"/>
-    </row>
-    <row r="382" spans="14:14">
-      <c r="N382" s="81"/>
-    </row>
-    <row r="383" spans="14:14">
-      <c r="N383" s="81"/>
-    </row>
-    <row r="384" spans="14:14">
-      <c r="N384" s="81"/>
-    </row>
-    <row r="385" spans="14:14">
-      <c r="N385" s="81"/>
-    </row>
-    <row r="386" spans="14:14">
-      <c r="N386" s="81"/>
-    </row>
-    <row r="387" spans="14:14">
-      <c r="N387" s="81"/>
-    </row>
-    <row r="388" spans="14:14">
-      <c r="N388" s="81"/>
-    </row>
-    <row r="389" spans="14:14">
-      <c r="N389" s="81"/>
-    </row>
-    <row r="390" spans="14:14">
-      <c r="N390" s="81"/>
-    </row>
-    <row r="391" spans="14:14">
-      <c r="N391" s="81"/>
-    </row>
-    <row r="392" spans="14:14">
-      <c r="N392" s="81"/>
-    </row>
-    <row r="393" spans="14:14">
-      <c r="N393" s="81"/>
-    </row>
-    <row r="394" spans="14:14">
-      <c r="N394" s="81"/>
-    </row>
-    <row r="395" spans="14:14">
-      <c r="N395" s="81"/>
-    </row>
-    <row r="396" spans="14:14">
-      <c r="N396" s="81"/>
-    </row>
-    <row r="397" spans="14:14">
-      <c r="N397" s="81"/>
-    </row>
-    <row r="398" spans="14:14">
-      <c r="N398" s="81"/>
-    </row>
-    <row r="399" spans="14:14">
-      <c r="N399" s="81"/>
-    </row>
-    <row r="400" spans="14:14">
-      <c r="N400" s="81"/>
-    </row>
-    <row r="401" spans="14:14">
-      <c r="N401" s="81"/>
-    </row>
-    <row r="402" spans="14:14">
-      <c r="N402" s="81"/>
-    </row>
-    <row r="403" spans="14:14">
-      <c r="N403" s="81"/>
-    </row>
-    <row r="404" spans="14:14">
-      <c r="N404" s="81"/>
-    </row>
-    <row r="405" spans="14:14">
-      <c r="N405" s="143"/>
-    </row>
-    <row r="406" spans="14:14">
-      <c r="N406" s="143"/>
-    </row>
-    <row r="407" spans="14:14">
-      <c r="N407" s="143"/>
-    </row>
-    <row r="408" spans="14:14">
-      <c r="N408" s="143"/>
-    </row>
-    <row r="409" spans="14:14">
-      <c r="N409" s="143"/>
-    </row>
-    <row r="410" spans="14:14">
-      <c r="N410" s="143"/>
-    </row>
-    <row r="411" spans="14:14">
-      <c r="N411" s="143"/>
-    </row>
-    <row r="412" spans="14:14">
-      <c r="N412" s="143"/>
-    </row>
-    <row r="413" spans="14:14">
-      <c r="N413" s="143"/>
-    </row>
-    <row r="414" spans="14:14">
-      <c r="N414" s="143"/>
-    </row>
-    <row r="415" spans="14:14">
-      <c r="N415" s="143"/>
-    </row>
-    <row r="416" spans="14:14">
-      <c r="N416" s="143"/>
-    </row>
-    <row r="417" spans="14:14">
-      <c r="N417" s="143"/>
-    </row>
-    <row r="418" spans="14:14">
-      <c r="N418" s="143"/>
-    </row>
-    <row r="419" spans="14:14">
-      <c r="N419" s="143"/>
-    </row>
-    <row r="420" spans="14:14">
-      <c r="N420" s="143"/>
-    </row>
-    <row r="421" spans="14:14">
-      <c r="N421" s="143"/>
-    </row>
-    <row r="422" spans="14:14">
-      <c r="N422" s="143"/>
-    </row>
-    <row r="423" spans="14:14">
-      <c r="N423" s="143"/>
-    </row>
-    <row r="424" spans="14:14">
-      <c r="N424" s="143"/>
-    </row>
-    <row r="425" spans="14:14">
-      <c r="N425" s="143"/>
-    </row>
-    <row r="426" spans="14:14">
-      <c r="N426" s="143"/>
-    </row>
-    <row r="427" spans="14:14">
-      <c r="N427" s="143"/>
-    </row>
-    <row r="428" spans="14:14">
-      <c r="N428" s="143"/>
-    </row>
-    <row r="429" spans="14:14">
-      <c r="N429" s="143"/>
-    </row>
-    <row r="430" spans="14:14">
-      <c r="N430" s="143"/>
-    </row>
-    <row r="431" spans="14:14">
-      <c r="N431" s="143"/>
-    </row>
-    <row r="432" spans="14:14">
-      <c r="N432" s="143"/>
-    </row>
-    <row r="433" spans="14:14">
-      <c r="N433" s="143"/>
-    </row>
-    <row r="434" spans="14:14">
-      <c r="N434" s="143"/>
-    </row>
-    <row r="435" spans="14:14">
-      <c r="N435" s="143"/>
-    </row>
-    <row r="436" spans="14:14">
-      <c r="N436" s="143"/>
-    </row>
-    <row r="437" spans="14:14">
-      <c r="N437" s="143"/>
-    </row>
-    <row r="438" spans="14:14">
-      <c r="N438" s="143"/>
-    </row>
-    <row r="439" spans="14:14">
-      <c r="N439" s="143"/>
-    </row>
-    <row r="440" spans="14:14">
-      <c r="N440" s="143"/>
-    </row>
-    <row r="441" spans="14:14">
-      <c r="N441" s="143"/>
-    </row>
-    <row r="442" spans="14:14">
-      <c r="N442" s="143"/>
-    </row>
-    <row r="443" spans="14:14">
-      <c r="N443" s="143"/>
-    </row>
-    <row r="444" spans="14:14">
-      <c r="N444" s="143"/>
-    </row>
-    <row r="445" spans="14:14">
-      <c r="N445" s="143"/>
-    </row>
-    <row r="446" spans="14:14">
-      <c r="N446" s="143"/>
-    </row>
-    <row r="447" spans="14:14">
-      <c r="N447" s="143"/>
-    </row>
-    <row r="448" spans="14:14">
-      <c r="N448" s="143"/>
-    </row>
-    <row r="449" spans="14:14">
-      <c r="N449" s="143"/>
-    </row>
-    <row r="450" spans="14:14">
-      <c r="N450" s="143"/>
-    </row>
-    <row r="451" spans="14:14">
-      <c r="N451" s="143"/>
-    </row>
-    <row r="452" spans="14:14">
-      <c r="N452" s="143"/>
-    </row>
-    <row r="453" spans="14:14">
-      <c r="N453" s="143"/>
-    </row>
-    <row r="454" spans="14:14">
-      <c r="N454" s="143"/>
-    </row>
-    <row r="455" spans="14:14">
-      <c r="N455" s="143"/>
-    </row>
-    <row r="456" spans="14:14">
-      <c r="N456" s="143"/>
-    </row>
-    <row r="457" spans="14:14">
-      <c r="N457" s="143"/>
-    </row>
-    <row r="458" spans="14:14">
-      <c r="N458" s="143"/>
-    </row>
-    <row r="459" spans="14:14">
-      <c r="N459" s="143"/>
-    </row>
-    <row r="460" spans="14:14">
-      <c r="N460" s="143"/>
-    </row>
-    <row r="461" spans="14:14">
-      <c r="N461" s="143"/>
-    </row>
-    <row r="462" spans="14:14">
-      <c r="N462" s="143"/>
-    </row>
-    <row r="463" spans="14:14">
-      <c r="N463" s="143"/>
-    </row>
-    <row r="464" spans="14:14">
-      <c r="N464" s="143"/>
-    </row>
-    <row r="465" spans="14:14">
-      <c r="N465" s="143"/>
-    </row>
-    <row r="466" spans="14:14">
-      <c r="N466" s="143"/>
-    </row>
-    <row r="467" spans="14:14">
-      <c r="N467" s="143"/>
-    </row>
-    <row r="468" spans="14:14">
-      <c r="N468" s="143"/>
-    </row>
-    <row r="469" spans="14:14">
-      <c r="N469" s="143"/>
-    </row>
-    <row r="470" spans="14:14">
-      <c r="N470" s="143"/>
-    </row>
-    <row r="471" spans="14:14">
-      <c r="N471" s="143"/>
-    </row>
-    <row r="472" spans="14:14">
-      <c r="N472" s="143"/>
-    </row>
-    <row r="473" spans="14:14">
-      <c r="N473" s="143"/>
-    </row>
-    <row r="474" spans="14:14">
-      <c r="N474" s="143"/>
-    </row>
-    <row r="475" spans="14:14">
-      <c r="N475" s="143"/>
-    </row>
-    <row r="476" spans="14:14">
-      <c r="N476" s="143"/>
-    </row>
-    <row r="477" spans="14:14">
-      <c r="N477" s="143"/>
-    </row>
-    <row r="478" spans="14:14">
-      <c r="N478" s="143"/>
-    </row>
-    <row r="479" spans="14:14">
-      <c r="N479" s="143"/>
-    </row>
-    <row r="480" spans="14:14">
-      <c r="N480" s="143"/>
-    </row>
-    <row r="481" spans="14:14">
-      <c r="N481" s="143"/>
-    </row>
-    <row r="482" spans="14:14">
-      <c r="N482" s="143"/>
-    </row>
-    <row r="483" spans="14:14">
-      <c r="N483" s="143"/>
-    </row>
-    <row r="484" spans="14:14">
-      <c r="N484" s="143"/>
-    </row>
-    <row r="485" spans="14:14">
-      <c r="N485" s="143"/>
-    </row>
-    <row r="486" spans="14:14">
-      <c r="N486" s="143"/>
-    </row>
-    <row r="487" spans="14:14">
-      <c r="N487" s="143"/>
-    </row>
-    <row r="488" spans="14:14">
-      <c r="N488" s="143"/>
-    </row>
-    <row r="489" spans="14:14">
-      <c r="N489" s="143"/>
-    </row>
-    <row r="490" spans="14:14">
-      <c r="N490" s="143"/>
-    </row>
-    <row r="491" spans="14:14">
-      <c r="N491" s="143"/>
-    </row>
-    <row r="492" spans="14:14">
-      <c r="N492" s="143"/>
-    </row>
-    <row r="493" spans="14:14">
-      <c r="N493" s="143"/>
-    </row>
-    <row r="494" spans="14:14">
-      <c r="N494" s="143"/>
-    </row>
-    <row r="495" spans="14:14">
-      <c r="N495" s="143"/>
-    </row>
-    <row r="496" spans="14:14">
-      <c r="N496" s="143"/>
-    </row>
-    <row r="497" spans="14:14">
-      <c r="N497" s="143"/>
-    </row>
-    <row r="498" spans="14:14">
-      <c r="N498" s="143"/>
-    </row>
-    <row r="499" spans="14:14">
-      <c r="N499" s="143"/>
-    </row>
-    <row r="500" spans="14:14">
-      <c r="N500" s="143"/>
-    </row>
-    <row r="501" spans="14:14">
-      <c r="N501" s="143"/>
-    </row>
-    <row r="502" spans="14:14">
-      <c r="N502" s="143"/>
-    </row>
-    <row r="503" spans="14:14">
-      <c r="N503" s="143"/>
-    </row>
-    <row r="504" spans="14:14">
-      <c r="N504" s="143"/>
-    </row>
-    <row r="505" spans="14:14">
-      <c r="N505" s="143"/>
-    </row>
-    <row r="506" spans="14:14">
-      <c r="N506" s="143"/>
-    </row>
-    <row r="507" spans="14:14">
-      <c r="N507" s="143"/>
-    </row>
-    <row r="508" spans="14:14">
-      <c r="N508" s="143"/>
-    </row>
-    <row r="509" spans="14:14">
-      <c r="N509" s="143"/>
-    </row>
-    <row r="510" spans="14:14">
-      <c r="N510" s="143"/>
-    </row>
-    <row r="511" spans="14:14">
-      <c r="N511" s="143"/>
-    </row>
-    <row r="512" spans="14:14">
-      <c r="N512" s="143"/>
-    </row>
-    <row r="513" spans="14:14">
-      <c r="N513" s="143"/>
-    </row>
-    <row r="514" spans="14:14">
-      <c r="N514" s="143"/>
-    </row>
-    <row r="515" spans="14:14">
-      <c r="N515" s="143"/>
-    </row>
-    <row r="516" spans="14:14">
-      <c r="N516" s="143"/>
-    </row>
-    <row r="517" spans="14:14">
-      <c r="N517" s="143"/>
-    </row>
-    <row r="518" spans="14:14">
-      <c r="N518" s="143"/>
-    </row>
-    <row r="519" spans="14:14">
-      <c r="N519" s="143"/>
-    </row>
-    <row r="520" spans="14:14">
-      <c r="N520" s="143"/>
-    </row>
-    <row r="521" spans="14:14">
-      <c r="N521" s="143"/>
-    </row>
-    <row r="522" spans="14:14">
-      <c r="N522" s="143"/>
-    </row>
-    <row r="523" spans="14:14">
-      <c r="N523" s="143"/>
-    </row>
-    <row r="524" spans="14:14">
-      <c r="N524" s="143"/>
-    </row>
-    <row r="525" spans="14:14">
-      <c r="N525" s="143"/>
-    </row>
-    <row r="526" spans="14:14">
-      <c r="N526" s="143"/>
-    </row>
-    <row r="527" spans="14:14">
-      <c r="N527" s="143"/>
-    </row>
-    <row r="528" spans="14:14">
-      <c r="N528" s="143"/>
-    </row>
-    <row r="529" spans="14:14">
-      <c r="N529" s="143"/>
-    </row>
-    <row r="530" spans="14:14">
-      <c r="N530" s="143"/>
-    </row>
-    <row r="531" spans="14:14">
-      <c r="N531" s="143"/>
-    </row>
-    <row r="532" spans="14:14">
-      <c r="N532" s="143"/>
-    </row>
-    <row r="533" spans="14:14">
-      <c r="N533" s="143"/>
-    </row>
-    <row r="534" spans="14:14">
-      <c r="N534" s="143"/>
-    </row>
-    <row r="535" spans="14:14">
-      <c r="N535" s="143"/>
-    </row>
-    <row r="536" spans="14:14">
-      <c r="N536" s="143"/>
-    </row>
-    <row r="537" spans="14:14">
-      <c r="N537" s="143"/>
-    </row>
-    <row r="538" spans="14:14">
-      <c r="N538" s="143"/>
-    </row>
-    <row r="539" spans="14:14">
-      <c r="N539" s="143"/>
-    </row>
-    <row r="540" spans="14:14">
-      <c r="N540" s="143"/>
-    </row>
-    <row r="541" spans="14:14">
-      <c r="N541" s="143"/>
-    </row>
-    <row r="542" spans="14:14">
-      <c r="N542" s="143"/>
-    </row>
-    <row r="543" spans="14:14">
-      <c r="N543" s="143"/>
-    </row>
-    <row r="544" spans="14:14">
-      <c r="N544" s="143"/>
-    </row>
-    <row r="545" spans="14:14">
-      <c r="N545" s="143"/>
-    </row>
-    <row r="546" spans="14:14">
-      <c r="N546" s="143"/>
-    </row>
-    <row r="547" spans="14:14">
-      <c r="N547" s="143"/>
-    </row>
-    <row r="548" spans="14:14">
-      <c r="N548" s="143"/>
-    </row>
-    <row r="549" spans="14:14">
-      <c r="N549" s="143"/>
-    </row>
-    <row r="550" spans="14:14">
-      <c r="N550" s="143"/>
-    </row>
-    <row r="551" spans="14:14">
-      <c r="N551" s="143"/>
-    </row>
-    <row r="552" spans="14:14">
-      <c r="N552" s="143"/>
-    </row>
-    <row r="553" spans="14:14">
-      <c r="N553" s="143"/>
-    </row>
-    <row r="554" spans="14:14">
-      <c r="N554" s="143"/>
-    </row>
-    <row r="555" spans="14:14">
-      <c r="N555" s="143"/>
-    </row>
-    <row r="556" spans="14:14">
-      <c r="N556" s="143"/>
-    </row>
-    <row r="557" spans="14:14">
-      <c r="N557" s="143"/>
-    </row>
-    <row r="558" spans="14:14">
-      <c r="N558" s="143"/>
-    </row>
-    <row r="559" spans="14:14">
-      <c r="N559" s="143"/>
-    </row>
-    <row r="560" spans="14:14">
-      <c r="N560" s="143"/>
-    </row>
-    <row r="561" spans="14:14">
-      <c r="N561" s="143"/>
-    </row>
-    <row r="562" spans="14:14">
-      <c r="N562" s="143"/>
-    </row>
-    <row r="563" spans="14:14">
-      <c r="N563" s="143"/>
-    </row>
-    <row r="564" spans="14:14">
-      <c r="N564" s="143"/>
-    </row>
-    <row r="565" spans="14:14">
-      <c r="N565" s="143"/>
-    </row>
-    <row r="566" spans="14:14">
-      <c r="N566" s="143"/>
-    </row>
-    <row r="567" spans="14:14">
-      <c r="N567" s="143"/>
-    </row>
-    <row r="568" spans="14:14">
-      <c r="N568" s="143"/>
-    </row>
-    <row r="569" spans="14:14">
-      <c r="N569" s="143"/>
-    </row>
-    <row r="570" spans="14:14">
-      <c r="N570" s="143"/>
-    </row>
-    <row r="571" spans="14:14">
-      <c r="N571" s="143"/>
-    </row>
-    <row r="572" spans="14:14">
-      <c r="N572" s="143"/>
-    </row>
-    <row r="573" spans="14:14">
-      <c r="N573" s="143"/>
-    </row>
-    <row r="574" spans="14:14">
-      <c r="N574" s="143"/>
-    </row>
-    <row r="575" spans="14:14">
-      <c r="N575" s="143"/>
-    </row>
-    <row r="576" spans="14:14">
-      <c r="N576" s="143"/>
-    </row>
-    <row r="577" spans="14:14">
-      <c r="N577" s="143"/>
-    </row>
-    <row r="578" spans="14:14">
-      <c r="N578" s="143"/>
-    </row>
-    <row r="579" spans="14:14">
-      <c r="N579" s="143"/>
-    </row>
-    <row r="580" spans="14:14">
-      <c r="N580" s="143"/>
-    </row>
-    <row r="581" spans="14:14">
-      <c r="N581" s="143"/>
-    </row>
-    <row r="582" spans="14:14">
-      <c r="N582" s="143"/>
-    </row>
-    <row r="583" spans="14:14">
-      <c r="N583" s="143"/>
-    </row>
-    <row r="584" spans="14:14">
-      <c r="N584" s="143"/>
-    </row>
-    <row r="585" spans="14:14">
-      <c r="N585" s="143"/>
-    </row>
-    <row r="586" spans="14:14">
-      <c r="N586" s="143"/>
-    </row>
-    <row r="587" spans="14:14">
-      <c r="N587" s="143"/>
-    </row>
-    <row r="588" spans="14:14">
-      <c r="N588" s="143"/>
-    </row>
-    <row r="589" spans="14:14">
-      <c r="N589" s="143"/>
-    </row>
-    <row r="590" spans="14:14">
-      <c r="N590" s="143"/>
-    </row>
-    <row r="591" spans="14:14">
-      <c r="N591" s="143"/>
-    </row>
-    <row r="592" spans="14:14">
-      <c r="N592" s="143"/>
-    </row>
-    <row r="593" spans="14:14">
-      <c r="N593" s="143"/>
-    </row>
-    <row r="594" spans="14:14">
-      <c r="N594" s="143"/>
-    </row>
-    <row r="595" spans="14:14">
-      <c r="N595" s="143"/>
-    </row>
-    <row r="596" spans="14:14">
-      <c r="N596" s="143"/>
-    </row>
-    <row r="597" spans="14:14">
-      <c r="N597" s="143"/>
-    </row>
-    <row r="598" spans="14:14">
-      <c r="N598" s="143"/>
-    </row>
-    <row r="599" spans="14:14">
-      <c r="N599" s="143"/>
-    </row>
-    <row r="600" spans="14:14">
-      <c r="N600" s="143"/>
-    </row>
-    <row r="601" spans="14:14">
-      <c r="N601" s="143"/>
-    </row>
-    <row r="602" spans="14:14">
-      <c r="N602" s="143"/>
-    </row>
-    <row r="603" spans="14:14">
-      <c r="N603" s="143"/>
-    </row>
-    <row r="604" spans="14:14">
-      <c r="N604" s="143"/>
-    </row>
-    <row r="605" spans="14:14">
-      <c r="N605" s="143"/>
-    </row>
-    <row r="606" spans="14:14">
-      <c r="N606" s="143"/>
-    </row>
-    <row r="607" spans="14:14">
-      <c r="N607" s="143"/>
-    </row>
-    <row r="608" spans="14:14">
-      <c r="N608" s="143"/>
-    </row>
-    <row r="609" spans="14:14">
-      <c r="N609" s="143"/>
-    </row>
-    <row r="610" spans="14:14">
-      <c r="N610" s="143"/>
-    </row>
-    <row r="611" spans="14:14">
-      <c r="N611" s="143"/>
-    </row>
-    <row r="612" spans="14:14">
-      <c r="N612" s="143"/>
-    </row>
-    <row r="613" spans="14:14">
-      <c r="N613" s="143"/>
-    </row>
-    <row r="614" spans="14:14">
-      <c r="N614" s="143"/>
-    </row>
-    <row r="615" spans="14:14">
-      <c r="N615" s="143"/>
-    </row>
-    <row r="616" spans="14:14">
-      <c r="N616" s="143"/>
-    </row>
-    <row r="617" spans="14:14">
-      <c r="N617" s="143"/>
-    </row>
-    <row r="618" spans="14:14">
-      <c r="N618" s="143"/>
-    </row>
-    <row r="619" spans="14:14">
-      <c r="N619" s="143"/>
-    </row>
-    <row r="620" spans="14:14">
-      <c r="N620" s="143"/>
-    </row>
-    <row r="621" spans="14:14">
-      <c r="N621" s="143"/>
-    </row>
-    <row r="622" spans="14:14">
-      <c r="N622" s="143"/>
-    </row>
-    <row r="623" spans="14:14">
-      <c r="N623" s="143"/>
-    </row>
-    <row r="624" spans="14:14">
-      <c r="N624" s="143"/>
-    </row>
-    <row r="625" spans="14:14">
-      <c r="N625" s="143"/>
-    </row>
-    <row r="626" spans="14:14">
-      <c r="N626" s="143"/>
-    </row>
-    <row r="627" spans="14:14">
-      <c r="N627" s="143"/>
-    </row>
-    <row r="628" spans="14:14">
-      <c r="N628" s="143"/>
-    </row>
-    <row r="629" spans="14:14">
-      <c r="N629" s="143"/>
-    </row>
-    <row r="630" spans="14:14">
-      <c r="N630" s="143"/>
-    </row>
-    <row r="631" spans="14:14">
-      <c r="N631" s="143"/>
-    </row>
-    <row r="632" spans="14:14">
-      <c r="N632" s="143"/>
-    </row>
-    <row r="633" spans="14:14">
-      <c r="N633" s="143"/>
-    </row>
-    <row r="634" spans="14:14">
-      <c r="N634" s="143"/>
-    </row>
-    <row r="635" spans="14:14">
-      <c r="N635" s="143"/>
-    </row>
-    <row r="636" spans="14:14">
-      <c r="N636" s="143"/>
-    </row>
-    <row r="637" spans="14:14">
-      <c r="N637" s="143"/>
-    </row>
-    <row r="638" spans="14:14">
-      <c r="N638" s="143"/>
-    </row>
-    <row r="639" spans="14:14">
-      <c r="N639" s="143"/>
-    </row>
-    <row r="640" spans="14:14">
-      <c r="N640" s="143"/>
-    </row>
-    <row r="641" spans="14:14">
-      <c r="N641" s="143"/>
-    </row>
-    <row r="642" spans="14:14">
-      <c r="N642" s="143"/>
-    </row>
-    <row r="643" spans="14:14">
-      <c r="N643" s="143"/>
-    </row>
-    <row r="644" spans="14:14">
-      <c r="N644" s="143"/>
-    </row>
-    <row r="645" spans="14:14">
-      <c r="N645" s="143"/>
-    </row>
-    <row r="646" spans="14:14">
-      <c r="N646" s="143"/>
-    </row>
-    <row r="647" spans="14:14">
-      <c r="N647" s="143"/>
-    </row>
-    <row r="648" spans="14:14">
-      <c r="N648" s="143"/>
-    </row>
-    <row r="649" spans="14:14">
-      <c r="N649" s="143"/>
-    </row>
-    <row r="650" spans="14:14">
-      <c r="N650" s="143"/>
-    </row>
-    <row r="651" spans="14:14">
-      <c r="N651" s="143"/>
-    </row>
-    <row r="652" spans="14:14">
-      <c r="N652" s="143"/>
-    </row>
-    <row r="653" spans="14:14">
-      <c r="N653" s="143"/>
-    </row>
-    <row r="654" spans="14:14">
-      <c r="N654" s="143"/>
-    </row>
-    <row r="655" spans="14:14">
-      <c r="N655" s="143"/>
-    </row>
-    <row r="656" spans="14:14">
-      <c r="N656" s="143"/>
-    </row>
-    <row r="657" spans="14:14">
-      <c r="N657" s="143"/>
-    </row>
-    <row r="658" spans="14:14">
-      <c r="N658" s="143"/>
-    </row>
-    <row r="659" spans="14:14">
-      <c r="N659" s="143"/>
-    </row>
-    <row r="660" spans="14:14">
-      <c r="N660" s="143"/>
-    </row>
-    <row r="661" spans="14:14">
-      <c r="N661" s="143"/>
-    </row>
-    <row r="662" spans="14:14">
-      <c r="N662" s="143"/>
-    </row>
-    <row r="663" spans="14:14">
-      <c r="N663" s="143"/>
-    </row>
-    <row r="664" spans="14:14">
-      <c r="N664" s="143"/>
-    </row>
-    <row r="665" spans="14:14">
-      <c r="N665" s="143"/>
-    </row>
-    <row r="666" spans="14:14">
-      <c r="N666" s="143"/>
-    </row>
-    <row r="667" spans="14:14">
-      <c r="N667" s="143"/>
-    </row>
-    <row r="668" spans="14:14">
-      <c r="N668" s="143"/>
-    </row>
-    <row r="669" spans="14:14">
-      <c r="N669" s="143"/>
-    </row>
-    <row r="670" spans="14:14">
-      <c r="N670" s="143"/>
-    </row>
-    <row r="671" spans="14:14">
-      <c r="N671" s="143"/>
-    </row>
-    <row r="672" spans="14:14">
-      <c r="N672" s="143"/>
-    </row>
-    <row r="673" spans="14:14">
-      <c r="N673" s="143"/>
-    </row>
-    <row r="674" spans="14:14">
-      <c r="N674" s="143"/>
-    </row>
-    <row r="675" spans="14:14">
-      <c r="N675" s="143"/>
-    </row>
-    <row r="676" spans="14:14">
+      <c r="P15" s="81"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="P16" s="81"/>
+    </row>
+    <row r="17" spans="16:16">
+      <c r="P17" s="81"/>
+    </row>
+    <row r="18" spans="16:16">
+      <c r="P18" s="81"/>
+    </row>
+    <row r="19" spans="16:16">
+      <c r="P19" s="81"/>
+    </row>
+    <row r="20" spans="16:16">
+      <c r="P20" s="81"/>
+    </row>
+    <row r="21" spans="16:16">
+      <c r="P21" s="81"/>
+    </row>
+    <row r="22" spans="16:16">
+      <c r="P22" s="81"/>
+    </row>
+    <row r="23" spans="16:16">
+      <c r="P23" s="81"/>
+    </row>
+    <row r="24" spans="16:16">
+      <c r="P24" s="81"/>
+    </row>
+    <row r="25" spans="16:16">
+      <c r="P25" s="81"/>
+    </row>
+    <row r="26" spans="16:16">
+      <c r="P26" s="81"/>
+    </row>
+    <row r="27" spans="16:16">
+      <c r="P27" s="81"/>
+    </row>
+    <row r="28" spans="16:16">
+      <c r="P28" s="81"/>
+    </row>
+    <row r="29" spans="16:16">
+      <c r="P29" s="81"/>
+    </row>
+    <row r="30" spans="16:16">
+      <c r="P30" s="81"/>
+    </row>
+    <row r="31" spans="16:16">
+      <c r="P31" s="81"/>
+    </row>
+    <row r="32" spans="16:16">
+      <c r="P32" s="81"/>
+    </row>
+    <row r="33" spans="16:16">
+      <c r="P33" s="81"/>
+    </row>
+    <row r="34" spans="16:16">
+      <c r="P34" s="81"/>
+    </row>
+    <row r="35" spans="16:16">
+      <c r="P35" s="81"/>
+    </row>
+    <row r="36" spans="16:16">
+      <c r="P36" s="81"/>
+    </row>
+    <row r="37" spans="16:16">
+      <c r="P37" s="81"/>
+    </row>
+    <row r="38" spans="16:16">
+      <c r="P38" s="81"/>
+    </row>
+    <row r="39" spans="16:16">
+      <c r="P39" s="81"/>
+    </row>
+    <row r="40" spans="16:16">
+      <c r="P40" s="81"/>
+    </row>
+    <row r="41" spans="16:16">
+      <c r="P41" s="81"/>
+    </row>
+    <row r="42" spans="16:16">
+      <c r="P42" s="81"/>
+    </row>
+    <row r="43" spans="16:16">
+      <c r="P43" s="81"/>
+    </row>
+    <row r="44" spans="16:16">
+      <c r="P44" s="81"/>
+    </row>
+    <row r="45" spans="16:16">
+      <c r="P45" s="81"/>
+    </row>
+    <row r="46" spans="16:16">
+      <c r="P46" s="81"/>
+    </row>
+    <row r="47" spans="16:16">
+      <c r="P47" s="81"/>
+    </row>
+    <row r="48" spans="16:16">
+      <c r="P48" s="81"/>
+    </row>
+    <row r="49" spans="16:16">
+      <c r="P49" s="81"/>
+    </row>
+    <row r="50" spans="16:16">
+      <c r="P50" s="81"/>
+    </row>
+    <row r="51" spans="16:16">
+      <c r="P51" s="81"/>
+    </row>
+    <row r="52" spans="16:16">
+      <c r="P52" s="81"/>
+    </row>
+    <row r="53" spans="16:16">
+      <c r="P53" s="81"/>
+    </row>
+    <row r="54" spans="16:16">
+      <c r="P54" s="81"/>
+    </row>
+    <row r="55" spans="16:16">
+      <c r="P55" s="81"/>
+    </row>
+    <row r="56" spans="16:16">
+      <c r="P56" s="81"/>
+    </row>
+    <row r="57" spans="16:16">
+      <c r="P57" s="81"/>
+    </row>
+    <row r="58" spans="16:16">
+      <c r="P58" s="81"/>
+    </row>
+    <row r="59" spans="16:16">
+      <c r="P59" s="81"/>
+    </row>
+    <row r="60" spans="16:16">
+      <c r="P60" s="81"/>
+    </row>
+    <row r="61" spans="16:16">
+      <c r="P61" s="81"/>
+    </row>
+    <row r="62" spans="16:16">
+      <c r="P62" s="81"/>
+    </row>
+    <row r="63" spans="16:16">
+      <c r="P63" s="81"/>
+    </row>
+    <row r="64" spans="16:16">
+      <c r="P64" s="81"/>
+    </row>
+    <row r="65" spans="16:16">
+      <c r="P65" s="81"/>
+    </row>
+    <row r="66" spans="16:16">
+      <c r="P66" s="81"/>
+    </row>
+    <row r="67" spans="16:16">
+      <c r="P67" s="81"/>
+    </row>
+    <row r="68" spans="16:16">
+      <c r="P68" s="81"/>
+    </row>
+    <row r="69" spans="16:16">
+      <c r="P69" s="81"/>
+    </row>
+    <row r="70" spans="16:16">
+      <c r="P70" s="81"/>
+    </row>
+    <row r="71" spans="16:16">
+      <c r="P71" s="81"/>
+    </row>
+    <row r="72" spans="16:16">
+      <c r="P72" s="81"/>
+    </row>
+    <row r="73" spans="16:16">
+      <c r="P73" s="81"/>
+    </row>
+    <row r="74" spans="16:16">
+      <c r="P74" s="81"/>
+    </row>
+    <row r="75" spans="16:16">
+      <c r="P75" s="81"/>
+    </row>
+    <row r="76" spans="16:16">
+      <c r="P76" s="81"/>
+    </row>
+    <row r="77" spans="16:16">
+      <c r="P77" s="81"/>
+    </row>
+    <row r="78" spans="16:16">
+      <c r="P78" s="81"/>
+    </row>
+    <row r="79" spans="16:16">
+      <c r="P79" s="81"/>
+    </row>
+    <row r="80" spans="16:16">
+      <c r="P80" s="81"/>
+    </row>
+    <row r="81" spans="16:16">
+      <c r="P81" s="81"/>
+    </row>
+    <row r="82" spans="16:16">
+      <c r="P82" s="81"/>
+    </row>
+    <row r="83" spans="16:16">
+      <c r="P83" s="81"/>
+    </row>
+    <row r="84" spans="16:16">
+      <c r="P84" s="81"/>
+    </row>
+    <row r="85" spans="16:16">
+      <c r="P85" s="81"/>
+    </row>
+    <row r="86" spans="16:16">
+      <c r="P86" s="81"/>
+    </row>
+    <row r="87" spans="16:16">
+      <c r="P87" s="81"/>
+    </row>
+    <row r="88" spans="16:16">
+      <c r="P88" s="81"/>
+    </row>
+    <row r="89" spans="16:16">
+      <c r="P89" s="81"/>
+    </row>
+    <row r="90" spans="16:16">
+      <c r="P90" s="81"/>
+    </row>
+    <row r="91" spans="16:16">
+      <c r="P91" s="81"/>
+    </row>
+    <row r="92" spans="16:16">
+      <c r="P92" s="81"/>
+    </row>
+    <row r="93" spans="16:16">
+      <c r="P93" s="81"/>
+    </row>
+    <row r="94" spans="16:16">
+      <c r="P94" s="81"/>
+    </row>
+    <row r="95" spans="16:16">
+      <c r="P95" s="81"/>
+    </row>
+    <row r="96" spans="16:16">
+      <c r="P96" s="81"/>
+    </row>
+    <row r="97" spans="16:16">
+      <c r="P97" s="81"/>
+    </row>
+    <row r="98" spans="16:16">
+      <c r="P98" s="81"/>
+    </row>
+    <row r="99" spans="16:16">
+      <c r="P99" s="81"/>
+    </row>
+    <row r="100" spans="16:16">
+      <c r="P100" s="81"/>
+    </row>
+    <row r="101" spans="16:16">
+      <c r="P101" s="81"/>
+    </row>
+    <row r="102" spans="16:16">
+      <c r="P102" s="81"/>
+    </row>
+    <row r="103" spans="16:16">
+      <c r="P103" s="81"/>
+    </row>
+    <row r="104" spans="16:16">
+      <c r="P104" s="81"/>
+    </row>
+    <row r="105" spans="16:16">
+      <c r="P105" s="81"/>
+    </row>
+    <row r="106" spans="16:16">
+      <c r="P106" s="81"/>
+    </row>
+    <row r="107" spans="16:16">
+      <c r="P107" s="81"/>
+    </row>
+    <row r="108" spans="16:16">
+      <c r="P108" s="81"/>
+    </row>
+    <row r="109" spans="16:16">
+      <c r="P109" s="81"/>
+    </row>
+    <row r="110" spans="16:16">
+      <c r="P110" s="81"/>
+    </row>
+    <row r="111" spans="16:16">
+      <c r="P111" s="81"/>
+    </row>
+    <row r="112" spans="16:16">
+      <c r="P112" s="81"/>
+    </row>
+    <row r="113" spans="16:16">
+      <c r="P113" s="81"/>
+    </row>
+    <row r="114" spans="16:16">
+      <c r="P114" s="81"/>
+    </row>
+    <row r="115" spans="16:16">
+      <c r="P115" s="81"/>
+    </row>
+    <row r="116" spans="16:16">
+      <c r="P116" s="81"/>
+    </row>
+    <row r="117" spans="16:16">
+      <c r="P117" s="81"/>
+    </row>
+    <row r="118" spans="16:16">
+      <c r="P118" s="81"/>
+    </row>
+    <row r="119" spans="16:16">
+      <c r="P119" s="81"/>
+    </row>
+    <row r="120" spans="16:16">
+      <c r="P120" s="81"/>
+    </row>
+    <row r="121" spans="16:16">
+      <c r="P121" s="81"/>
+    </row>
+    <row r="122" spans="16:16">
+      <c r="P122" s="81"/>
+    </row>
+    <row r="123" spans="16:16">
+      <c r="P123" s="81"/>
+    </row>
+    <row r="124" spans="16:16">
+      <c r="P124" s="81"/>
+    </row>
+    <row r="125" spans="16:16">
+      <c r="P125" s="81"/>
+    </row>
+    <row r="126" spans="16:16">
+      <c r="P126" s="81"/>
+    </row>
+    <row r="127" spans="16:16">
+      <c r="P127" s="81"/>
+    </row>
+    <row r="128" spans="16:16">
+      <c r="P128" s="81"/>
+    </row>
+    <row r="129" spans="16:16">
+      <c r="P129" s="81"/>
+    </row>
+    <row r="130" spans="16:16">
+      <c r="P130" s="81"/>
+    </row>
+    <row r="131" spans="16:16">
+      <c r="P131" s="81"/>
+    </row>
+    <row r="132" spans="16:16">
+      <c r="P132" s="81"/>
+    </row>
+    <row r="133" spans="16:16">
+      <c r="P133" s="81"/>
+    </row>
+    <row r="134" spans="16:16">
+      <c r="P134" s="81"/>
+    </row>
+    <row r="135" spans="16:16">
+      <c r="P135" s="81"/>
+    </row>
+    <row r="136" spans="16:16">
+      <c r="P136" s="81"/>
+    </row>
+    <row r="137" spans="16:16">
+      <c r="P137" s="81"/>
+    </row>
+    <row r="138" spans="16:16">
+      <c r="P138" s="81"/>
+    </row>
+    <row r="139" spans="16:16">
+      <c r="P139" s="81"/>
+    </row>
+    <row r="140" spans="16:16">
+      <c r="P140" s="81"/>
+    </row>
+    <row r="141" spans="16:16">
+      <c r="P141" s="81"/>
+    </row>
+    <row r="142" spans="16:16">
+      <c r="P142" s="81"/>
+    </row>
+    <row r="143" spans="16:16">
+      <c r="P143" s="81"/>
+    </row>
+    <row r="144" spans="16:16">
+      <c r="P144" s="81"/>
+    </row>
+    <row r="145" spans="16:16">
+      <c r="P145" s="81"/>
+    </row>
+    <row r="146" spans="16:16">
+      <c r="P146" s="81"/>
+    </row>
+    <row r="147" spans="16:16">
+      <c r="P147" s="81"/>
+    </row>
+    <row r="148" spans="16:16">
+      <c r="P148" s="81"/>
+    </row>
+    <row r="149" spans="16:16">
+      <c r="P149" s="81"/>
+    </row>
+    <row r="150" spans="16:16">
+      <c r="P150" s="81"/>
+    </row>
+    <row r="151" spans="16:16">
+      <c r="P151" s="81"/>
+    </row>
+    <row r="152" spans="16:16">
+      <c r="P152" s="81"/>
+    </row>
+    <row r="153" spans="16:16">
+      <c r="P153" s="81"/>
+    </row>
+    <row r="154" spans="16:16">
+      <c r="P154" s="81"/>
+    </row>
+    <row r="155" spans="16:16">
+      <c r="P155" s="81"/>
+    </row>
+    <row r="156" spans="16:16">
+      <c r="P156" s="81"/>
+    </row>
+    <row r="157" spans="16:16">
+      <c r="P157" s="81"/>
+    </row>
+    <row r="158" spans="16:16">
+      <c r="P158" s="81"/>
+    </row>
+    <row r="159" spans="16:16">
+      <c r="P159" s="81"/>
+    </row>
+    <row r="160" spans="16:16">
+      <c r="P160" s="81"/>
+    </row>
+    <row r="161" spans="16:16">
+      <c r="P161" s="81"/>
+    </row>
+    <row r="162" spans="16:16">
+      <c r="P162" s="81"/>
+    </row>
+    <row r="163" spans="16:16">
+      <c r="P163" s="81"/>
+    </row>
+    <row r="164" spans="16:16">
+      <c r="P164" s="81"/>
+    </row>
+    <row r="165" spans="16:16">
+      <c r="P165" s="81"/>
+    </row>
+    <row r="166" spans="16:16">
+      <c r="P166" s="81"/>
+    </row>
+    <row r="167" spans="16:16">
+      <c r="P167" s="81"/>
+    </row>
+    <row r="168" spans="16:16">
+      <c r="P168" s="81"/>
+    </row>
+    <row r="169" spans="16:16">
+      <c r="P169" s="81"/>
+    </row>
+    <row r="170" spans="16:16">
+      <c r="P170" s="81"/>
+    </row>
+    <row r="171" spans="16:16">
+      <c r="P171" s="81"/>
+    </row>
+    <row r="172" spans="16:16">
+      <c r="P172" s="81"/>
+    </row>
+    <row r="173" spans="16:16">
+      <c r="P173" s="81"/>
+    </row>
+    <row r="174" spans="16:16">
+      <c r="P174" s="81"/>
+    </row>
+    <row r="175" spans="16:16">
+      <c r="P175" s="81"/>
+    </row>
+    <row r="176" spans="16:16">
+      <c r="P176" s="81"/>
+    </row>
+    <row r="177" spans="16:16">
+      <c r="P177" s="81"/>
+    </row>
+    <row r="178" spans="16:16">
+      <c r="P178" s="81"/>
+    </row>
+    <row r="179" spans="16:16">
+      <c r="P179" s="81"/>
+    </row>
+    <row r="180" spans="16:16">
+      <c r="P180" s="81"/>
+    </row>
+    <row r="181" spans="16:16">
+      <c r="P181" s="81"/>
+    </row>
+    <row r="182" spans="16:16">
+      <c r="P182" s="81"/>
+    </row>
+    <row r="183" spans="16:16">
+      <c r="P183" s="81"/>
+    </row>
+    <row r="184" spans="16:16">
+      <c r="P184" s="81"/>
+    </row>
+    <row r="185" spans="16:16">
+      <c r="P185" s="81"/>
+    </row>
+    <row r="186" spans="16:16">
+      <c r="P186" s="81"/>
+    </row>
+    <row r="187" spans="16:16">
+      <c r="P187" s="81"/>
+    </row>
+    <row r="188" spans="16:16">
+      <c r="P188" s="81"/>
+    </row>
+    <row r="189" spans="16:16">
+      <c r="P189" s="81"/>
+    </row>
+    <row r="190" spans="16:16">
+      <c r="P190" s="81"/>
+    </row>
+    <row r="191" spans="16:16">
+      <c r="P191" s="81"/>
+    </row>
+    <row r="192" spans="16:16">
+      <c r="P192" s="81"/>
+    </row>
+    <row r="193" spans="16:16">
+      <c r="P193" s="81"/>
+    </row>
+    <row r="194" spans="16:16">
+      <c r="P194" s="81"/>
+    </row>
+    <row r="195" spans="16:16">
+      <c r="P195" s="81"/>
+    </row>
+    <row r="196" spans="16:16">
+      <c r="P196" s="81"/>
+    </row>
+    <row r="197" spans="16:16">
+      <c r="P197" s="81"/>
+    </row>
+    <row r="198" spans="16:16">
+      <c r="P198" s="81"/>
+    </row>
+    <row r="199" spans="16:16">
+      <c r="P199" s="81"/>
+    </row>
+    <row r="200" spans="16:16">
+      <c r="P200" s="81"/>
+    </row>
+    <row r="201" spans="16:16">
+      <c r="P201" s="81"/>
+    </row>
+    <row r="202" spans="16:16">
+      <c r="P202" s="81"/>
+    </row>
+    <row r="203" spans="16:16">
+      <c r="P203" s="81"/>
+    </row>
+    <row r="204" spans="16:16">
+      <c r="P204" s="81"/>
+    </row>
+    <row r="205" spans="16:16">
+      <c r="P205" s="81"/>
+    </row>
+    <row r="206" spans="16:16">
+      <c r="P206" s="81"/>
+    </row>
+    <row r="207" spans="16:16">
+      <c r="P207" s="81"/>
+    </row>
+    <row r="208" spans="16:16">
+      <c r="P208" s="81"/>
+    </row>
+    <row r="209" spans="16:16">
+      <c r="P209" s="81"/>
+    </row>
+    <row r="210" spans="16:16">
+      <c r="P210" s="81"/>
+    </row>
+    <row r="211" spans="16:16">
+      <c r="P211" s="81"/>
+    </row>
+    <row r="212" spans="16:16">
+      <c r="P212" s="81"/>
+    </row>
+    <row r="213" spans="16:16">
+      <c r="P213" s="81"/>
+    </row>
+    <row r="214" spans="16:16">
+      <c r="P214" s="81"/>
+    </row>
+    <row r="215" spans="16:16">
+      <c r="P215" s="81"/>
+    </row>
+    <row r="216" spans="16:16">
+      <c r="P216" s="81"/>
+    </row>
+    <row r="217" spans="16:16">
+      <c r="P217" s="81"/>
+    </row>
+    <row r="218" spans="16:16">
+      <c r="P218" s="81"/>
+    </row>
+    <row r="219" spans="16:16">
+      <c r="P219" s="81"/>
+    </row>
+    <row r="220" spans="16:16">
+      <c r="P220" s="81"/>
+    </row>
+    <row r="221" spans="16:16">
+      <c r="P221" s="81"/>
+    </row>
+    <row r="222" spans="16:16">
+      <c r="P222" s="81"/>
+    </row>
+    <row r="223" spans="16:16">
+      <c r="P223" s="81"/>
+    </row>
+    <row r="224" spans="16:16">
+      <c r="P224" s="81"/>
+    </row>
+    <row r="225" spans="16:16">
+      <c r="P225" s="81"/>
+    </row>
+    <row r="226" spans="16:16">
+      <c r="P226" s="81"/>
+    </row>
+    <row r="227" spans="16:16">
+      <c r="P227" s="81"/>
+    </row>
+    <row r="228" spans="16:16">
+      <c r="P228" s="81"/>
+    </row>
+    <row r="229" spans="16:16">
+      <c r="P229" s="81"/>
+    </row>
+    <row r="230" spans="16:16">
+      <c r="P230" s="81"/>
+    </row>
+    <row r="231" spans="16:16">
+      <c r="P231" s="81"/>
+    </row>
+    <row r="232" spans="16:16">
+      <c r="P232" s="81"/>
+    </row>
+    <row r="233" spans="16:16">
+      <c r="P233" s="81"/>
+    </row>
+    <row r="234" spans="16:16">
+      <c r="P234" s="81"/>
+    </row>
+    <row r="235" spans="16:16">
+      <c r="P235" s="81"/>
+    </row>
+    <row r="236" spans="16:16">
+      <c r="P236" s="81"/>
+    </row>
+    <row r="237" spans="16:16">
+      <c r="P237" s="81"/>
+    </row>
+    <row r="238" spans="16:16">
+      <c r="P238" s="81"/>
+    </row>
+    <row r="239" spans="16:16">
+      <c r="P239" s="81"/>
+    </row>
+    <row r="240" spans="16:16">
+      <c r="P240" s="81"/>
+    </row>
+    <row r="241" spans="16:16">
+      <c r="P241" s="81"/>
+    </row>
+    <row r="242" spans="16:16">
+      <c r="P242" s="81"/>
+    </row>
+    <row r="243" spans="16:16">
+      <c r="P243" s="81"/>
+    </row>
+    <row r="244" spans="16:16">
+      <c r="P244" s="81"/>
+    </row>
+    <row r="245" spans="16:16">
+      <c r="P245" s="81"/>
+    </row>
+    <row r="246" spans="16:16">
+      <c r="P246" s="81"/>
+    </row>
+    <row r="247" spans="16:16">
+      <c r="P247" s="81"/>
+    </row>
+    <row r="248" spans="16:16">
+      <c r="P248" s="81"/>
+    </row>
+    <row r="249" spans="16:16">
+      <c r="P249" s="81"/>
+    </row>
+    <row r="250" spans="16:16">
+      <c r="P250" s="81"/>
+    </row>
+    <row r="251" spans="16:16">
+      <c r="P251" s="81"/>
+    </row>
+    <row r="252" spans="16:16">
+      <c r="P252" s="81"/>
+    </row>
+    <row r="253" spans="16:16">
+      <c r="P253" s="81"/>
+    </row>
+    <row r="254" spans="16:16">
+      <c r="P254" s="81"/>
+    </row>
+    <row r="255" spans="16:16">
+      <c r="P255" s="81"/>
+    </row>
+    <row r="256" spans="16:16">
+      <c r="P256" s="81"/>
+    </row>
+    <row r="257" spans="16:16">
+      <c r="P257" s="81"/>
+    </row>
+    <row r="258" spans="16:16">
+      <c r="P258" s="81"/>
+    </row>
+    <row r="259" spans="16:16">
+      <c r="P259" s="81"/>
+    </row>
+    <row r="260" spans="16:16">
+      <c r="P260" s="81"/>
+    </row>
+    <row r="261" spans="16:16">
+      <c r="P261" s="81"/>
+    </row>
+    <row r="262" spans="16:16">
+      <c r="P262" s="81"/>
+    </row>
+    <row r="263" spans="16:16">
+      <c r="P263" s="81"/>
+    </row>
+    <row r="264" spans="16:16">
+      <c r="P264" s="81"/>
+    </row>
+    <row r="265" spans="16:16">
+      <c r="P265" s="81"/>
+    </row>
+    <row r="266" spans="16:16">
+      <c r="P266" s="81"/>
+    </row>
+    <row r="267" spans="16:16">
+      <c r="P267" s="81"/>
+    </row>
+    <row r="268" spans="16:16">
+      <c r="P268" s="81"/>
+    </row>
+    <row r="269" spans="16:16">
+      <c r="P269" s="81"/>
+    </row>
+    <row r="270" spans="16:16">
+      <c r="P270" s="81"/>
+    </row>
+    <row r="271" spans="16:16">
+      <c r="P271" s="81"/>
+    </row>
+    <row r="272" spans="16:16">
+      <c r="P272" s="81"/>
+    </row>
+    <row r="273" spans="16:16">
+      <c r="P273" s="81"/>
+    </row>
+    <row r="274" spans="16:16">
+      <c r="P274" s="81"/>
+    </row>
+    <row r="275" spans="16:16">
+      <c r="P275" s="81"/>
+    </row>
+    <row r="276" spans="16:16">
+      <c r="P276" s="81"/>
+    </row>
+    <row r="277" spans="16:16">
+      <c r="P277" s="81"/>
+    </row>
+    <row r="278" spans="16:16">
+      <c r="P278" s="81"/>
+    </row>
+    <row r="279" spans="16:16">
+      <c r="P279" s="81"/>
+    </row>
+    <row r="280" spans="16:16">
+      <c r="P280" s="81"/>
+    </row>
+    <row r="281" spans="16:16">
+      <c r="P281" s="81"/>
+    </row>
+    <row r="282" spans="16:16">
+      <c r="P282" s="81"/>
+    </row>
+    <row r="283" spans="16:16">
+      <c r="P283" s="81"/>
+    </row>
+    <row r="284" spans="16:16">
+      <c r="P284" s="81"/>
+    </row>
+    <row r="285" spans="16:16">
+      <c r="P285" s="81"/>
+    </row>
+    <row r="286" spans="16:16">
+      <c r="P286" s="81"/>
+    </row>
+    <row r="287" spans="16:16">
+      <c r="P287" s="81"/>
+    </row>
+    <row r="288" spans="16:16">
+      <c r="P288" s="81"/>
+    </row>
+    <row r="289" spans="16:16">
+      <c r="P289" s="81"/>
+    </row>
+    <row r="290" spans="16:16">
+      <c r="P290" s="81"/>
+    </row>
+    <row r="291" spans="16:16">
+      <c r="P291" s="81"/>
+    </row>
+    <row r="292" spans="16:16">
+      <c r="P292" s="81"/>
+    </row>
+    <row r="293" spans="16:16">
+      <c r="P293" s="81"/>
+    </row>
+    <row r="294" spans="16:16">
+      <c r="P294" s="81"/>
+    </row>
+    <row r="295" spans="16:16">
+      <c r="P295" s="81"/>
+    </row>
+    <row r="296" spans="16:16">
+      <c r="P296" s="81"/>
+    </row>
+    <row r="297" spans="16:16">
+      <c r="P297" s="81"/>
+    </row>
+    <row r="298" spans="16:16">
+      <c r="P298" s="81"/>
+    </row>
+    <row r="299" spans="16:16">
+      <c r="P299" s="81"/>
+    </row>
+    <row r="300" spans="16:16">
+      <c r="P300" s="81"/>
+    </row>
+    <row r="301" spans="16:16">
+      <c r="P301" s="81"/>
+    </row>
+    <row r="302" spans="16:16">
+      <c r="P302" s="81"/>
+    </row>
+    <row r="303" spans="16:16">
+      <c r="P303" s="81"/>
+    </row>
+    <row r="304" spans="16:16">
+      <c r="P304" s="81"/>
+    </row>
+    <row r="305" spans="16:16">
+      <c r="P305" s="81"/>
+    </row>
+    <row r="306" spans="16:16">
+      <c r="P306" s="81"/>
+    </row>
+    <row r="307" spans="16:16">
+      <c r="P307" s="81"/>
+    </row>
+    <row r="308" spans="16:16">
+      <c r="P308" s="81"/>
+    </row>
+    <row r="309" spans="16:16">
+      <c r="P309" s="81"/>
+    </row>
+    <row r="310" spans="16:16">
+      <c r="P310" s="81"/>
+    </row>
+    <row r="311" spans="16:16">
+      <c r="P311" s="81"/>
+    </row>
+    <row r="312" spans="16:16">
+      <c r="P312" s="81"/>
+    </row>
+    <row r="313" spans="16:16">
+      <c r="P313" s="81"/>
+    </row>
+    <row r="314" spans="16:16">
+      <c r="P314" s="81"/>
+    </row>
+    <row r="315" spans="16:16">
+      <c r="P315" s="81"/>
+    </row>
+    <row r="316" spans="16:16">
+      <c r="P316" s="81"/>
+    </row>
+    <row r="317" spans="16:16">
+      <c r="P317" s="81"/>
+    </row>
+    <row r="318" spans="16:16">
+      <c r="P318" s="81"/>
+    </row>
+    <row r="319" spans="16:16">
+      <c r="P319" s="81"/>
+    </row>
+    <row r="320" spans="16:16">
+      <c r="P320" s="81"/>
+    </row>
+    <row r="321" spans="16:16">
+      <c r="P321" s="81"/>
+    </row>
+    <row r="322" spans="16:16">
+      <c r="P322" s="81"/>
+    </row>
+    <row r="323" spans="16:16">
+      <c r="P323" s="81"/>
+    </row>
+    <row r="324" spans="16:16">
+      <c r="P324" s="81"/>
+    </row>
+    <row r="325" spans="16:16">
+      <c r="P325" s="81"/>
+    </row>
+    <row r="326" spans="16:16">
+      <c r="P326" s="81"/>
+    </row>
+    <row r="327" spans="16:16">
+      <c r="P327" s="81"/>
+    </row>
+    <row r="328" spans="16:16">
+      <c r="P328" s="81"/>
+    </row>
+    <row r="329" spans="16:16">
+      <c r="P329" s="81"/>
+    </row>
+    <row r="330" spans="16:16">
+      <c r="P330" s="81"/>
+    </row>
+    <row r="331" spans="16:16">
+      <c r="P331" s="81"/>
+    </row>
+    <row r="332" spans="16:16">
+      <c r="P332" s="81"/>
+    </row>
+    <row r="333" spans="16:16">
+      <c r="P333" s="81"/>
+    </row>
+    <row r="334" spans="16:16">
+      <c r="P334" s="81"/>
+    </row>
+    <row r="335" spans="16:16">
+      <c r="P335" s="81"/>
+    </row>
+    <row r="336" spans="16:16">
+      <c r="P336" s="81"/>
+    </row>
+    <row r="337" spans="16:16">
+      <c r="P337" s="81"/>
+    </row>
+    <row r="338" spans="16:16">
+      <c r="P338" s="81"/>
+    </row>
+    <row r="339" spans="16:16">
+      <c r="P339" s="81"/>
+    </row>
+    <row r="340" spans="16:16">
+      <c r="P340" s="81"/>
+    </row>
+    <row r="341" spans="16:16">
+      <c r="P341" s="81"/>
+    </row>
+    <row r="342" spans="16:16">
+      <c r="P342" s="81"/>
+    </row>
+    <row r="343" spans="16:16">
+      <c r="P343" s="81"/>
+    </row>
+    <row r="344" spans="16:16">
+      <c r="P344" s="81"/>
+    </row>
+    <row r="345" spans="16:16">
+      <c r="P345" s="81"/>
+    </row>
+    <row r="346" spans="16:16">
+      <c r="P346" s="81"/>
+    </row>
+    <row r="347" spans="16:16">
+      <c r="P347" s="81"/>
+    </row>
+    <row r="348" spans="16:16">
+      <c r="P348" s="81"/>
+    </row>
+    <row r="349" spans="16:16">
+      <c r="P349" s="81"/>
+    </row>
+    <row r="350" spans="16:16">
+      <c r="P350" s="81"/>
+    </row>
+    <row r="351" spans="16:16">
+      <c r="P351" s="81"/>
+    </row>
+    <row r="352" spans="16:16">
+      <c r="P352" s="81"/>
+    </row>
+    <row r="353" spans="16:16">
+      <c r="P353" s="81"/>
+    </row>
+    <row r="354" spans="16:16">
+      <c r="P354" s="81"/>
+    </row>
+    <row r="355" spans="16:16">
+      <c r="P355" s="81"/>
+    </row>
+    <row r="356" spans="16:16">
+      <c r="P356" s="81"/>
+    </row>
+    <row r="357" spans="16:16">
+      <c r="P357" s="81"/>
+    </row>
+    <row r="358" spans="16:16">
+      <c r="P358" s="81"/>
+    </row>
+    <row r="359" spans="16:16">
+      <c r="P359" s="81"/>
+    </row>
+    <row r="360" spans="16:16">
+      <c r="P360" s="81"/>
+    </row>
+    <row r="361" spans="16:16">
+      <c r="P361" s="81"/>
+    </row>
+    <row r="362" spans="16:16">
+      <c r="P362" s="81"/>
+    </row>
+    <row r="363" spans="16:16">
+      <c r="P363" s="81"/>
+    </row>
+    <row r="364" spans="16:16">
+      <c r="P364" s="81"/>
+    </row>
+    <row r="365" spans="16:16">
+      <c r="P365" s="81"/>
+    </row>
+    <row r="366" spans="16:16">
+      <c r="P366" s="81"/>
+    </row>
+    <row r="367" spans="16:16">
+      <c r="P367" s="81"/>
+    </row>
+    <row r="368" spans="16:16">
+      <c r="P368" s="81"/>
+    </row>
+    <row r="369" spans="16:16">
+      <c r="P369" s="81"/>
+    </row>
+    <row r="370" spans="16:16">
+      <c r="P370" s="81"/>
+    </row>
+    <row r="371" spans="16:16">
+      <c r="P371" s="81"/>
+    </row>
+    <row r="372" spans="16:16">
+      <c r="P372" s="81"/>
+    </row>
+    <row r="373" spans="16:16">
+      <c r="P373" s="81"/>
+    </row>
+    <row r="374" spans="16:16">
+      <c r="P374" s="81"/>
+    </row>
+    <row r="375" spans="16:16">
+      <c r="P375" s="81"/>
+    </row>
+    <row r="376" spans="16:16">
+      <c r="P376" s="81"/>
+    </row>
+    <row r="377" spans="16:16">
+      <c r="P377" s="81"/>
+    </row>
+    <row r="378" spans="16:16">
+      <c r="P378" s="81"/>
+    </row>
+    <row r="379" spans="16:16">
+      <c r="P379" s="81"/>
+    </row>
+    <row r="380" spans="16:16">
+      <c r="P380" s="81"/>
+    </row>
+    <row r="381" spans="16:16">
+      <c r="P381" s="81"/>
+    </row>
+    <row r="382" spans="16:16">
+      <c r="P382" s="81"/>
+    </row>
+    <row r="383" spans="16:16">
+      <c r="P383" s="81"/>
+    </row>
+    <row r="384" spans="16:16">
+      <c r="P384" s="81"/>
+    </row>
+    <row r="385" spans="16:16">
+      <c r="P385" s="81"/>
+    </row>
+    <row r="386" spans="16:16">
+      <c r="P386" s="81"/>
+    </row>
+    <row r="387" spans="16:16">
+      <c r="P387" s="81"/>
+    </row>
+    <row r="388" spans="16:16">
+      <c r="P388" s="81"/>
+    </row>
+    <row r="389" spans="16:16">
+      <c r="P389" s="81"/>
+    </row>
+    <row r="390" spans="16:16">
+      <c r="P390" s="81"/>
+    </row>
+    <row r="391" spans="16:16">
+      <c r="P391" s="81"/>
+    </row>
+    <row r="392" spans="16:16">
+      <c r="P392" s="81"/>
+    </row>
+    <row r="393" spans="16:16">
+      <c r="P393" s="81"/>
+    </row>
+    <row r="394" spans="16:16">
+      <c r="P394" s="81"/>
+    </row>
+    <row r="395" spans="16:16">
+      <c r="P395" s="81"/>
+    </row>
+    <row r="396" spans="16:16">
+      <c r="P396" s="81"/>
+    </row>
+    <row r="397" spans="16:16">
+      <c r="P397" s="81"/>
+    </row>
+    <row r="398" spans="16:16">
+      <c r="P398" s="81"/>
+    </row>
+    <row r="399" spans="16:16">
+      <c r="P399" s="81"/>
+    </row>
+    <row r="400" spans="16:16">
+      <c r="P400" s="81"/>
+    </row>
+    <row r="401" spans="16:16">
+      <c r="P401" s="81"/>
+    </row>
+    <row r="402" spans="16:16">
+      <c r="P402" s="81"/>
+    </row>
+    <row r="403" spans="16:16">
+      <c r="P403" s="81"/>
+    </row>
+    <row r="404" spans="16:16">
+      <c r="P404" s="81"/>
+    </row>
+    <row r="405" spans="16:16">
+      <c r="P405" s="143"/>
+    </row>
+    <row r="406" spans="16:16">
+      <c r="P406" s="143"/>
+    </row>
+    <row r="407" spans="16:16">
+      <c r="P407" s="143"/>
+    </row>
+    <row r="408" spans="16:16">
+      <c r="P408" s="143"/>
+    </row>
+    <row r="409" spans="16:16">
+      <c r="P409" s="143"/>
+    </row>
+    <row r="410" spans="16:16">
+      <c r="P410" s="143"/>
+    </row>
+    <row r="411" spans="16:16">
+      <c r="P411" s="143"/>
+    </row>
+    <row r="412" spans="16:16">
+      <c r="P412" s="143"/>
+    </row>
+    <row r="413" spans="16:16">
+      <c r="P413" s="143"/>
+    </row>
+    <row r="414" spans="16:16">
+      <c r="P414" s="143"/>
+    </row>
+    <row r="415" spans="16:16">
+      <c r="P415" s="143"/>
+    </row>
+    <row r="416" spans="16:16">
+      <c r="P416" s="143"/>
+    </row>
+    <row r="417" spans="16:16">
+      <c r="P417" s="143"/>
+    </row>
+    <row r="418" spans="16:16">
+      <c r="P418" s="143"/>
+    </row>
+    <row r="419" spans="16:16">
+      <c r="P419" s="143"/>
+    </row>
+    <row r="420" spans="16:16">
+      <c r="P420" s="143"/>
+    </row>
+    <row r="421" spans="16:16">
+      <c r="P421" s="143"/>
+    </row>
+    <row r="422" spans="16:16">
+      <c r="P422" s="143"/>
+    </row>
+    <row r="423" spans="16:16">
+      <c r="P423" s="143"/>
+    </row>
+    <row r="424" spans="16:16">
+      <c r="P424" s="143"/>
+    </row>
+    <row r="425" spans="16:16">
+      <c r="P425" s="143"/>
+    </row>
+    <row r="426" spans="16:16">
+      <c r="P426" s="143"/>
+    </row>
+    <row r="427" spans="16:16">
+      <c r="P427" s="143"/>
+    </row>
+    <row r="428" spans="16:16">
+      <c r="P428" s="143"/>
+    </row>
+    <row r="429" spans="16:16">
+      <c r="P429" s="143"/>
+    </row>
+    <row r="430" spans="16:16">
+      <c r="P430" s="143"/>
+    </row>
+    <row r="431" spans="16:16">
+      <c r="P431" s="143"/>
+    </row>
+    <row r="432" spans="16:16">
+      <c r="P432" s="143"/>
+    </row>
+    <row r="433" spans="16:16">
+      <c r="P433" s="143"/>
+    </row>
+    <row r="434" spans="16:16">
+      <c r="P434" s="143"/>
+    </row>
+    <row r="435" spans="16:16">
+      <c r="P435" s="143"/>
+    </row>
+    <row r="436" spans="16:16">
+      <c r="P436" s="143"/>
+    </row>
+    <row r="437" spans="16:16">
+      <c r="P437" s="143"/>
+    </row>
+    <row r="438" spans="16:16">
+      <c r="P438" s="143"/>
+    </row>
+    <row r="439" spans="16:16">
+      <c r="P439" s="143"/>
+    </row>
+    <row r="440" spans="16:16">
+      <c r="P440" s="143"/>
+    </row>
+    <row r="441" spans="16:16">
+      <c r="P441" s="143"/>
+    </row>
+    <row r="442" spans="16:16">
+      <c r="P442" s="143"/>
+    </row>
+    <row r="443" spans="16:16">
+      <c r="P443" s="143"/>
+    </row>
+    <row r="444" spans="16:16">
+      <c r="P444" s="143"/>
+    </row>
+    <row r="445" spans="16:16">
+      <c r="P445" s="143"/>
+    </row>
+    <row r="446" spans="16:16">
+      <c r="P446" s="143"/>
+    </row>
+    <row r="447" spans="16:16">
+      <c r="P447" s="143"/>
+    </row>
+    <row r="448" spans="16:16">
+      <c r="P448" s="143"/>
+    </row>
+    <row r="449" spans="16:16">
+      <c r="P449" s="143"/>
+    </row>
+    <row r="450" spans="16:16">
+      <c r="P450" s="143"/>
+    </row>
+    <row r="451" spans="16:16">
+      <c r="P451" s="143"/>
+    </row>
+    <row r="452" spans="16:16">
+      <c r="P452" s="143"/>
+    </row>
+    <row r="453" spans="16:16">
+      <c r="P453" s="143"/>
+    </row>
+    <row r="454" spans="16:16">
+      <c r="P454" s="143"/>
+    </row>
+    <row r="455" spans="16:16">
+      <c r="P455" s="143"/>
+    </row>
+    <row r="456" spans="16:16">
+      <c r="P456" s="143"/>
+    </row>
+    <row r="457" spans="16:16">
+      <c r="P457" s="143"/>
+    </row>
+    <row r="458" spans="16:16">
+      <c r="P458" s="143"/>
+    </row>
+    <row r="459" spans="16:16">
+      <c r="P459" s="143"/>
+    </row>
+    <row r="460" spans="16:16">
+      <c r="P460" s="143"/>
+    </row>
+    <row r="461" spans="16:16">
+      <c r="P461" s="143"/>
+    </row>
+    <row r="462" spans="16:16">
+      <c r="P462" s="143"/>
+    </row>
+    <row r="463" spans="16:16">
+      <c r="P463" s="143"/>
+    </row>
+    <row r="464" spans="16:16">
+      <c r="P464" s="143"/>
+    </row>
+    <row r="465" spans="16:16">
+      <c r="P465" s="143"/>
+    </row>
+    <row r="466" spans="16:16">
+      <c r="P466" s="143"/>
+    </row>
+    <row r="467" spans="16:16">
+      <c r="P467" s="143"/>
+    </row>
+    <row r="468" spans="16:16">
+      <c r="P468" s="143"/>
+    </row>
+    <row r="469" spans="16:16">
+      <c r="P469" s="143"/>
+    </row>
+    <row r="470" spans="16:16">
+      <c r="P470" s="143"/>
+    </row>
+    <row r="471" spans="16:16">
+      <c r="P471" s="143"/>
+    </row>
+    <row r="472" spans="16:16">
+      <c r="P472" s="143"/>
+    </row>
+    <row r="473" spans="16:16">
+      <c r="P473" s="143"/>
+    </row>
+    <row r="474" spans="16:16">
+      <c r="P474" s="143"/>
+    </row>
+    <row r="475" spans="16:16">
+      <c r="P475" s="143"/>
+    </row>
+    <row r="476" spans="16:16">
+      <c r="P476" s="143"/>
+    </row>
+    <row r="477" spans="16:16">
+      <c r="P477" s="143"/>
+    </row>
+    <row r="478" spans="16:16">
+      <c r="P478" s="143"/>
+    </row>
+    <row r="479" spans="16:16">
+      <c r="P479" s="143"/>
+    </row>
+    <row r="480" spans="16:16">
+      <c r="P480" s="143"/>
+    </row>
+    <row r="481" spans="16:16">
+      <c r="P481" s="143"/>
+    </row>
+    <row r="482" spans="16:16">
+      <c r="P482" s="143"/>
+    </row>
+    <row r="483" spans="16:16">
+      <c r="P483" s="143"/>
+    </row>
+    <row r="484" spans="16:16">
+      <c r="P484" s="143"/>
+    </row>
+    <row r="485" spans="16:16">
+      <c r="P485" s="143"/>
+    </row>
+    <row r="486" spans="16:16">
+      <c r="P486" s="143"/>
+    </row>
+    <row r="487" spans="16:16">
+      <c r="P487" s="143"/>
+    </row>
+    <row r="488" spans="16:16">
+      <c r="P488" s="143"/>
+    </row>
+    <row r="489" spans="16:16">
+      <c r="P489" s="143"/>
+    </row>
+    <row r="490" spans="16:16">
+      <c r="P490" s="143"/>
+    </row>
+    <row r="491" spans="16:16">
+      <c r="P491" s="143"/>
+    </row>
+    <row r="492" spans="16:16">
+      <c r="P492" s="143"/>
+    </row>
+    <row r="493" spans="16:16">
+      <c r="P493" s="143"/>
+    </row>
+    <row r="494" spans="16:16">
+      <c r="P494" s="143"/>
+    </row>
+    <row r="495" spans="16:16">
+      <c r="P495" s="143"/>
+    </row>
+    <row r="496" spans="16:16">
+      <c r="P496" s="143"/>
+    </row>
+    <row r="497" spans="16:16">
+      <c r="P497" s="143"/>
+    </row>
+    <row r="498" spans="16:16">
+      <c r="P498" s="143"/>
+    </row>
+    <row r="499" spans="16:16">
+      <c r="P499" s="143"/>
+    </row>
+    <row r="500" spans="16:16">
+      <c r="P500" s="143"/>
+    </row>
+    <row r="501" spans="16:16">
+      <c r="P501" s="143"/>
+    </row>
+    <row r="502" spans="16:16">
+      <c r="P502" s="143"/>
+    </row>
+    <row r="503" spans="16:16">
+      <c r="P503" s="143"/>
+    </row>
+    <row r="504" spans="16:16">
+      <c r="P504" s="143"/>
+    </row>
+    <row r="505" spans="16:16">
+      <c r="P505" s="143"/>
+    </row>
+    <row r="506" spans="16:16">
+      <c r="P506" s="143"/>
+    </row>
+    <row r="507" spans="16:16">
+      <c r="P507" s="143"/>
+    </row>
+    <row r="508" spans="16:16">
+      <c r="P508" s="143"/>
+    </row>
+    <row r="509" spans="16:16">
+      <c r="P509" s="143"/>
+    </row>
+    <row r="510" spans="16:16">
+      <c r="P510" s="143"/>
+    </row>
+    <row r="511" spans="16:16">
+      <c r="P511" s="143"/>
+    </row>
+    <row r="512" spans="16:16">
+      <c r="P512" s="143"/>
+    </row>
+    <row r="513" spans="16:16">
+      <c r="P513" s="143"/>
+    </row>
+    <row r="514" spans="16:16">
+      <c r="P514" s="143"/>
+    </row>
+    <row r="515" spans="16:16">
+      <c r="P515" s="143"/>
+    </row>
+    <row r="516" spans="16:16">
+      <c r="P516" s="143"/>
+    </row>
+    <row r="517" spans="16:16">
+      <c r="P517" s="143"/>
+    </row>
+    <row r="518" spans="16:16">
+      <c r="P518" s="143"/>
+    </row>
+    <row r="519" spans="16:16">
+      <c r="P519" s="143"/>
+    </row>
+    <row r="520" spans="16:16">
+      <c r="P520" s="143"/>
+    </row>
+    <row r="521" spans="16:16">
+      <c r="P521" s="143"/>
+    </row>
+    <row r="522" spans="16:16">
+      <c r="P522" s="143"/>
+    </row>
+    <row r="523" spans="16:16">
+      <c r="P523" s="143"/>
+    </row>
+    <row r="524" spans="16:16">
+      <c r="P524" s="143"/>
+    </row>
+    <row r="525" spans="16:16">
+      <c r="P525" s="143"/>
+    </row>
+    <row r="526" spans="16:16">
+      <c r="P526" s="143"/>
+    </row>
+    <row r="527" spans="16:16">
+      <c r="P527" s="143"/>
+    </row>
+    <row r="528" spans="16:16">
+      <c r="P528" s="143"/>
+    </row>
+    <row r="529" spans="16:16">
+      <c r="P529" s="143"/>
+    </row>
+    <row r="530" spans="16:16">
+      <c r="P530" s="143"/>
+    </row>
+    <row r="531" spans="16:16">
+      <c r="P531" s="143"/>
+    </row>
+    <row r="532" spans="16:16">
+      <c r="P532" s="143"/>
+    </row>
+    <row r="533" spans="16:16">
+      <c r="P533" s="143"/>
+    </row>
+    <row r="534" spans="16:16">
+      <c r="P534" s="143"/>
+    </row>
+    <row r="535" spans="16:16">
+      <c r="P535" s="143"/>
+    </row>
+    <row r="536" spans="16:16">
+      <c r="P536" s="143"/>
+    </row>
+    <row r="537" spans="16:16">
+      <c r="P537" s="143"/>
+    </row>
+    <row r="538" spans="16:16">
+      <c r="P538" s="143"/>
+    </row>
+    <row r="539" spans="16:16">
+      <c r="P539" s="143"/>
+    </row>
+    <row r="540" spans="16:16">
+      <c r="P540" s="143"/>
+    </row>
+    <row r="541" spans="16:16">
+      <c r="P541" s="143"/>
+    </row>
+    <row r="542" spans="16:16">
+      <c r="P542" s="143"/>
+    </row>
+    <row r="543" spans="16:16">
+      <c r="P543" s="143"/>
+    </row>
+    <row r="544" spans="16:16">
+      <c r="P544" s="143"/>
+    </row>
+    <row r="545" spans="16:16">
+      <c r="P545" s="143"/>
+    </row>
+    <row r="546" spans="16:16">
+      <c r="P546" s="143"/>
+    </row>
+    <row r="547" spans="16:16">
+      <c r="P547" s="143"/>
+    </row>
+    <row r="548" spans="16:16">
+      <c r="P548" s="143"/>
+    </row>
+    <row r="549" spans="16:16">
+      <c r="P549" s="143"/>
+    </row>
+    <row r="550" spans="16:16">
+      <c r="P550" s="143"/>
+    </row>
+    <row r="551" spans="16:16">
+      <c r="P551" s="143"/>
+    </row>
+    <row r="552" spans="16:16">
+      <c r="P552" s="143"/>
+    </row>
+    <row r="553" spans="16:16">
+      <c r="P553" s="143"/>
+    </row>
+    <row r="554" spans="16:16">
+      <c r="P554" s="143"/>
+    </row>
+    <row r="555" spans="16:16">
+      <c r="P555" s="143"/>
+    </row>
+    <row r="556" spans="16:16">
+      <c r="P556" s="143"/>
+    </row>
+    <row r="557" spans="16:16">
+      <c r="P557" s="143"/>
+    </row>
+    <row r="558" spans="16:16">
+      <c r="P558" s="143"/>
+    </row>
+    <row r="559" spans="16:16">
+      <c r="P559" s="143"/>
+    </row>
+    <row r="560" spans="16:16">
+      <c r="P560" s="143"/>
+    </row>
+    <row r="561" spans="16:16">
+      <c r="P561" s="143"/>
+    </row>
+    <row r="562" spans="16:16">
+      <c r="P562" s="143"/>
+    </row>
+    <row r="563" spans="16:16">
+      <c r="P563" s="143"/>
+    </row>
+    <row r="564" spans="16:16">
+      <c r="P564" s="143"/>
+    </row>
+    <row r="565" spans="16:16">
+      <c r="P565" s="143"/>
+    </row>
+    <row r="566" spans="16:16">
+      <c r="P566" s="143"/>
+    </row>
+    <row r="567" spans="16:16">
+      <c r="P567" s="143"/>
+    </row>
+    <row r="568" spans="16:16">
+      <c r="P568" s="143"/>
+    </row>
+    <row r="569" spans="16:16">
+      <c r="P569" s="143"/>
+    </row>
+    <row r="570" spans="16:16">
+      <c r="P570" s="143"/>
+    </row>
+    <row r="571" spans="16:16">
+      <c r="P571" s="143"/>
+    </row>
+    <row r="572" spans="16:16">
+      <c r="P572" s="143"/>
+    </row>
+    <row r="573" spans="16:16">
+      <c r="P573" s="143"/>
+    </row>
+    <row r="574" spans="16:16">
+      <c r="P574" s="143"/>
+    </row>
+    <row r="575" spans="16:16">
+      <c r="P575" s="143"/>
+    </row>
+    <row r="576" spans="16:16">
+      <c r="P576" s="143"/>
+    </row>
+    <row r="577" spans="16:16">
+      <c r="P577" s="143"/>
+    </row>
+    <row r="578" spans="16:16">
+      <c r="P578" s="143"/>
+    </row>
+    <row r="579" spans="16:16">
+      <c r="P579" s="143"/>
+    </row>
+    <row r="580" spans="16:16">
+      <c r="P580" s="143"/>
+    </row>
+    <row r="581" spans="16:16">
+      <c r="P581" s="143"/>
+    </row>
+    <row r="582" spans="16:16">
+      <c r="P582" s="143"/>
+    </row>
+    <row r="583" spans="16:16">
+      <c r="P583" s="143"/>
+    </row>
+    <row r="584" spans="16:16">
+      <c r="P584" s="143"/>
+    </row>
+    <row r="585" spans="16:16">
+      <c r="P585" s="143"/>
+    </row>
+    <row r="586" spans="16:16">
+      <c r="P586" s="143"/>
+    </row>
+    <row r="587" spans="16:16">
+      <c r="P587" s="143"/>
+    </row>
+    <row r="588" spans="16:16">
+      <c r="P588" s="143"/>
+    </row>
+    <row r="589" spans="16:16">
+      <c r="P589" s="143"/>
+    </row>
+    <row r="590" spans="16:16">
+      <c r="P590" s="143"/>
+    </row>
+    <row r="591" spans="16:16">
+      <c r="P591" s="143"/>
+    </row>
+    <row r="592" spans="16:16">
+      <c r="P592" s="143"/>
+    </row>
+    <row r="593" spans="16:16">
+      <c r="P593" s="143"/>
+    </row>
+    <row r="594" spans="16:16">
+      <c r="P594" s="143"/>
+    </row>
+    <row r="595" spans="16:16">
+      <c r="P595" s="143"/>
+    </row>
+    <row r="596" spans="16:16">
+      <c r="P596" s="143"/>
+    </row>
+    <row r="597" spans="16:16">
+      <c r="P597" s="143"/>
+    </row>
+    <row r="598" spans="16:16">
+      <c r="P598" s="143"/>
+    </row>
+    <row r="599" spans="16:16">
+      <c r="P599" s="143"/>
+    </row>
+    <row r="600" spans="16:16">
+      <c r="P600" s="143"/>
+    </row>
+    <row r="601" spans="16:16">
+      <c r="P601" s="143"/>
+    </row>
+    <row r="602" spans="16:16">
+      <c r="P602" s="143"/>
+    </row>
+    <row r="603" spans="16:16">
+      <c r="P603" s="143"/>
+    </row>
+    <row r="604" spans="16:16">
+      <c r="P604" s="143"/>
+    </row>
+    <row r="605" spans="16:16">
+      <c r="P605" s="143"/>
+    </row>
+    <row r="606" spans="16:16">
+      <c r="P606" s="143"/>
+    </row>
+    <row r="607" spans="16:16">
+      <c r="P607" s="143"/>
+    </row>
+    <row r="608" spans="16:16">
+      <c r="P608" s="143"/>
+    </row>
+    <row r="609" spans="16:16">
+      <c r="P609" s="143"/>
+    </row>
+    <row r="610" spans="16:16">
+      <c r="P610" s="143"/>
+    </row>
+    <row r="611" spans="16:16">
+      <c r="P611" s="143"/>
+    </row>
+    <row r="612" spans="16:16">
+      <c r="P612" s="143"/>
+    </row>
+    <row r="613" spans="16:16">
+      <c r="P613" s="143"/>
+    </row>
+    <row r="614" spans="16:16">
+      <c r="P614" s="143"/>
+    </row>
+    <row r="615" spans="16:16">
+      <c r="P615" s="143"/>
+    </row>
+    <row r="616" spans="16:16">
+      <c r="P616" s="143"/>
+    </row>
+    <row r="617" spans="16:16">
+      <c r="P617" s="143"/>
+    </row>
+    <row r="618" spans="16:16">
+      <c r="P618" s="143"/>
+    </row>
+    <row r="619" spans="16:16">
+      <c r="P619" s="143"/>
+    </row>
+    <row r="620" spans="16:16">
+      <c r="P620" s="143"/>
+    </row>
+    <row r="621" spans="16:16">
+      <c r="P621" s="143"/>
+    </row>
+    <row r="622" spans="16:16">
+      <c r="P622" s="143"/>
+    </row>
+    <row r="623" spans="16:16">
+      <c r="P623" s="143"/>
+    </row>
+    <row r="624" spans="16:16">
+      <c r="P624" s="143"/>
+    </row>
+    <row r="625" spans="16:16">
+      <c r="P625" s="143"/>
+    </row>
+    <row r="626" spans="16:16">
+      <c r="P626" s="143"/>
+    </row>
+    <row r="627" spans="16:16">
+      <c r="P627" s="143"/>
+    </row>
+    <row r="628" spans="16:16">
+      <c r="P628" s="143"/>
+    </row>
+    <row r="629" spans="16:16">
+      <c r="P629" s="143"/>
+    </row>
+    <row r="630" spans="16:16">
+      <c r="P630" s="143"/>
+    </row>
+    <row r="631" spans="16:16">
+      <c r="P631" s="143"/>
+    </row>
+    <row r="632" spans="16:16">
+      <c r="P632" s="143"/>
+    </row>
+    <row r="633" spans="16:16">
+      <c r="P633" s="143"/>
+    </row>
+    <row r="634" spans="16:16">
+      <c r="P634" s="143"/>
+    </row>
+    <row r="635" spans="16:16">
+      <c r="P635" s="143"/>
+    </row>
+    <row r="636" spans="16:16">
+      <c r="P636" s="143"/>
+    </row>
+    <row r="637" spans="16:16">
+      <c r="P637" s="143"/>
+    </row>
+    <row r="638" spans="16:16">
+      <c r="P638" s="143"/>
+    </row>
+    <row r="639" spans="16:16">
+      <c r="P639" s="143"/>
+    </row>
+    <row r="640" spans="16:16">
+      <c r="P640" s="143"/>
+    </row>
+    <row r="641" spans="16:16">
+      <c r="P641" s="143"/>
+    </row>
+    <row r="642" spans="16:16">
+      <c r="P642" s="143"/>
+    </row>
+    <row r="643" spans="16:16">
+      <c r="P643" s="143"/>
+    </row>
+    <row r="644" spans="16:16">
+      <c r="P644" s="143"/>
+    </row>
+    <row r="645" spans="16:16">
+      <c r="P645" s="143"/>
+    </row>
+    <row r="646" spans="16:16">
+      <c r="P646" s="143"/>
+    </row>
+    <row r="647" spans="16:16">
+      <c r="P647" s="143"/>
+    </row>
+    <row r="648" spans="16:16">
+      <c r="P648" s="143"/>
+    </row>
+    <row r="649" spans="16:16">
+      <c r="P649" s="143"/>
+    </row>
+    <row r="650" spans="16:16">
+      <c r="P650" s="143"/>
+    </row>
+    <row r="651" spans="16:16">
+      <c r="P651" s="143"/>
+    </row>
+    <row r="652" spans="16:16">
+      <c r="P652" s="143"/>
+    </row>
+    <row r="653" spans="16:16">
+      <c r="P653" s="143"/>
+    </row>
+    <row r="654" spans="16:16">
+      <c r="P654" s="143"/>
+    </row>
+    <row r="655" spans="16:16">
+      <c r="P655" s="143"/>
+    </row>
+    <row r="656" spans="16:16">
+      <c r="P656" s="143"/>
+    </row>
+    <row r="657" spans="16:16">
+      <c r="P657" s="143"/>
+    </row>
+    <row r="658" spans="16:16">
+      <c r="P658" s="143"/>
+    </row>
+    <row r="659" spans="16:16">
+      <c r="P659" s="143"/>
+    </row>
+    <row r="660" spans="16:16">
+      <c r="P660" s="143"/>
+    </row>
+    <row r="661" spans="16:16">
+      <c r="P661" s="143"/>
+    </row>
+    <row r="662" spans="16:16">
+      <c r="P662" s="143"/>
+    </row>
+    <row r="663" spans="16:16">
+      <c r="P663" s="143"/>
+    </row>
+    <row r="664" spans="16:16">
+      <c r="P664" s="143"/>
+    </row>
+    <row r="665" spans="16:16">
+      <c r="P665" s="143"/>
+    </row>
+    <row r="666" spans="16:16">
+      <c r="P666" s="143"/>
+    </row>
+    <row r="667" spans="16:16">
+      <c r="P667" s="143"/>
+    </row>
+    <row r="668" spans="16:16">
+      <c r="P668" s="143"/>
+    </row>
+    <row r="669" spans="16:16">
+      <c r="P669" s="143"/>
+    </row>
+    <row r="670" spans="16:16">
+      <c r="P670" s="143"/>
+    </row>
+    <row r="671" spans="16:16">
+      <c r="P671" s="143"/>
+    </row>
+    <row r="672" spans="16:16">
+      <c r="P672" s="143"/>
+    </row>
+    <row r="673" spans="14:16">
+      <c r="P673" s="143"/>
+    </row>
+    <row r="674" spans="14:16">
+      <c r="P674" s="143"/>
+    </row>
+    <row r="675" spans="14:16">
+      <c r="P675" s="143"/>
+    </row>
+    <row r="676" spans="14:16">
       <c r="N676" s="143"/>
     </row>
-    <row r="677" spans="14:14">
+    <row r="677" spans="14:16">
       <c r="N677" s="143"/>
     </row>
-    <row r="678" spans="14:14">
+    <row r="678" spans="14:16">
       <c r="N678" s="143"/>
     </row>
-    <row r="679" spans="14:14">
+    <row r="679" spans="14:16">
       <c r="N679" s="143"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7754FD7-EB22-45A5-83A3-D06171DD59DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D7:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
@@ -9904,19 +10188,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B18AC38-2CD7-4E1F-8C90-FD21FDB0FAC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
@@ -9962,6 +10247,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138AA5D2-12BE-42D7-AB82-E1C468B7657D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="29040" windowHeight="16440" tabRatio="530" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
     <sheet name="LoganPluginCore调用" sheetId="4" r:id="rId2"/>
-    <sheet name="HMI Event注册" sheetId="5" r:id="rId3"/>
-    <sheet name="HMI Event注册！！！" sheetId="8" r:id="rId4"/>
-    <sheet name="HMI Event调用" sheetId="6" r:id="rId5"/>
-    <sheet name="main" sheetId="7" r:id="rId6"/>
+    <sheet name="HMI Event注册" sheetId="8" r:id="rId3"/>
+    <sheet name="HMI Event调用" sheetId="6" r:id="rId4"/>
+    <sheet name="main" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="166">
   <si>
     <t>EventBusService::registerForEvent&lt;TnGetCountryListEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::AddressCaptureQueryCountry);</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,7 +163,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -173,7 +173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -183,7 +183,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -193,7 +193,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,7 +211,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -221,7 +221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -231,7 +231,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -241,7 +241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -256,7 +256,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -266,7 +266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,7 +276,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -286,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,7 +305,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,7 +333,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -343,7 +343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -383,7 +383,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,7 +394,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -410,7 +410,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -421,7 +421,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -480,7 +480,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -490,7 +490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,7 +501,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -517,7 +517,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -527,7 +527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -537,7 +537,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -547,7 +547,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -557,7 +557,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -567,7 +567,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -637,7 +637,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -647,7 +647,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -667,7 +667,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,7 +677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,7 +687,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -697,7 +697,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -707,7 +707,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -717,7 +717,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -734,7 +734,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -745,7 +745,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -756,7 +756,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -767,7 +767,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -863,7 +863,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -900,117 +900,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>NavProxy::wptr wpNavProxy = NavProxy::wptr(</t>
+    <t>EventHandlerAdapterBase(wpHandler.lock().get(), typeid(func).name(), pQueue),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_func(func), </t>
+  </si>
+  <si>
+    <t>m_wpHandler(wpHandler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explicit EventListener(TnEventQueue * pQueue) : </t>
+  </si>
+  <si>
+    <t>// used for supporting broadcastEventToQueue</t>
+  </si>
+  <si>
+    <t>s-&gt;handler = handler;</t>
+  </si>
+  <si>
+    <t>s-&gt;tag = tag;</t>
+  </si>
+  <si>
+    <t>subscribers.insert( SubscriberMapT::value_type( typeName&lt;EventT&gt;(), s ));</t>
+  </si>
+  <si>
+    <t>void LoganPluginCore::Run()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>//Call Run Function (will quit when quit event is received)</t>
+  </si>
+  <si>
+    <t>//guomin: we should make sure the scheduler and event manager run in the same thread, otherwise, we will have lots of thread confision issues.</t>
+  </si>
+  <si>
+    <t>MSG msg;</t>
+  </si>
+  <si>
+    <t>while (GetMessage(&amp;msg, NULL, 0, 0))</t>
+  </si>
+  <si>
+    <t>DispatchMessage(&amp;msg);</t>
+  </si>
+  <si>
+    <t>if (m_bShouldQuit || (!m_pBusService-&gt;ProcessEvents(100)))</t>
+  </si>
+  <si>
+    <t>bool TnEventQueue::run() {</t>
+  </si>
+  <si>
+    <t>while(!m_isCanceled) {</t>
+  </si>
+  <si>
+    <t>ProcessEvents(0);</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>controller.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        state = State::ptr(new InitState(mStateMachine, *this));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        mStateMachine-&gt;addState(state);</t>
+  </si>
+  <si>
+    <t>mCurrentState-&gt;onEnterState(previousStateName, false, command);</t>
+  </si>
+  <si>
+    <t>null，false，init</t>
+  </si>
+  <si>
+    <t>mController.activateController(EntityName::Init, command, isBack);</t>
+  </si>
+  <si>
+    <t>init，false</t>
+  </si>
+  <si>
+    <t>IController::ptr controller = this-&gt;getController(name, useExist);</t>
+  </si>
+  <si>
+    <t>EventHandlerAdapterBase(void * pHandler, std::string funcName, TnEventQueue *pQueue) :</t>
+  </si>
+  <si>
+    <t>m_handlerPtr(pHandler),</t>
+  </si>
+  <si>
+    <t>m_handleFuncId(funcName),</t>
+  </si>
+  <si>
+    <t>m_pQueue(pQueue)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template &lt;class </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NavProxy::getInstance()</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <t>void NavProxy::processRespRouteCalculationPercentageEvent(TnRouteCalculationPercentageEvent::ptr const &amp;resp)</t>
-  </si>
-  <si>
-    <t>EventHandlerAdapterBase(wpHandler.lock().get(), typeid(func).name(), pQueue),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m_func(func), </t>
-  </si>
-  <si>
-    <t>m_wpHandler(wpHandler)</t>
-  </si>
-  <si>
-    <t>template&lt;class EventT, class T&gt;</t>
-  </si>
-  <si>
-    <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;EventT, T&gt;(obj, memberFunction, this));</t>
-  </si>
-  <si>
-    <t>EventT0</t>
-  </si>
-  <si>
-    <t>EventT1</t>
-  </si>
-  <si>
-    <t>EventHandlerAdapter0</t>
-  </si>
-  <si>
-    <t>EventHandlerAdapter1</t>
-  </si>
-  <si>
-    <t>std::string</t>
-  </si>
-  <si>
-    <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt;</t>
-  </si>
-  <si>
-    <t>m_handlers</t>
-  </si>
-  <si>
-    <t>m_eventListeners</t>
-  </si>
-  <si>
-    <t>TnSharedPtr&lt;void&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explicit EventListener(TnEventQueue * pQueue) : </t>
-  </si>
-  <si>
-    <t>m_pQueue(pQueue) {</t>
-  </si>
-  <si>
-    <t>// used for supporting broadcastEventToQueue</t>
-  </si>
-  <si>
-    <t>template &lt;class EventT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">void subscribe( boost::function&lt;void(const EventT&amp;)&gt; handler, void* tag = NULL ) { </t>
-  </si>
-  <si>
-    <t>assert( handler &amp;&amp; "Event handler must not be an empty function" );</t>
-  </si>
-  <si>
-    <t>unique_lock&lt;mutex&gt; lock(subscribers_mutex);</t>
-  </si>
-  <si>
-    <t>boost::shared_ptr&lt;SubscriberForEvent&lt;EventT&gt; &gt; s = boost::make_shared&lt;SubscriberForEvent&lt;EventT&gt; &gt;();</t>
-  </si>
-  <si>
-    <t>s-&gt;handler = handler;</t>
-  </si>
-  <si>
-    <t>s-&gt;tag = tag;</t>
-  </si>
-  <si>
-    <t>subscribers.insert( SubscriberMapT::value_type( typeName&lt;EventT&gt;(), s ));</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">template&lt;class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1020,22 +1014,98 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&gt;</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bool registerForEvent(TnWeakPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; obj, void (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::*memberFunction)(const TnSharedPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1045,22 +1115,147 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventT&amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;EventAdapter&lt;</t>
+      <t>&gt;&amp;))</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AutoSDKService::eventQueue()-&gt;registerForEvent&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TnCommonPluginInitializedEvent</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="等线"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(boost::weak_ptr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AutoSDKService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(mAutoSDKService), &amp;AutoSDKService::handleCommonPluginInitCompleteEvent);</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>explicit EventHandlerAdapter(TnWeakPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; wpHandler, void (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::*func)(const TnSharedPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&amp;), TnEventQueue * pQueue) : </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_handlers.insert(std::pair&lt;const std::string, TnSharedPtr&lt;EventHandlerAdapterBase&gt; &gt;(key, pAdapter));</t>
+  </si>
+  <si>
+    <t>m_eventListeners.insert(std::map&lt;std::string, TnSharedPtr&lt;void&gt; &gt;::value_type(key, pListener));</t>
+  </si>
+  <si>
+    <r>
+      <t>std::string key = typeid(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1070,97 +1265,23 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt; &gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventAdapter&lt;EventT&gt; &amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
-    </r>
-  </si>
-  <si>
-    <t>EventListener0</t>
-  </si>
-  <si>
-    <t>EventListener1</t>
-  </si>
-  <si>
-    <t>使用智能指针时，如果需要进行类层次上的上下行转换时，可以使用boost::static_pointer_cast和boost::dynamic_pointer_cast</t>
-  </si>
-  <si>
-    <t>m_events</t>
-  </si>
-  <si>
-    <t>void LoganPluginCore::Run()</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>//Call Run Function (will quit when quit event is received)</t>
-  </si>
-  <si>
-    <t>//guomin: we should make sure the scheduler and event manager run in the same thread, otherwise, we will have lots of thread confision issues.</t>
-  </si>
-  <si>
-    <t>MSG msg;</t>
-  </si>
-  <si>
-    <t>while (GetMessage(&amp;msg, NULL, 0, 0))</t>
-  </si>
-  <si>
-    <t>DispatchMessage(&amp;msg);</t>
-  </si>
-  <si>
-    <t>if (m_bShouldQuit || (!m_pBusService-&gt;ProcessEvents(100)))</t>
-  </si>
-  <si>
-    <t>bool TnEventQueue::run() {</t>
-  </si>
-  <si>
-    <t>while(!m_isCanceled) {</t>
-  </si>
-  <si>
-    <t>ProcessEvents(0);</t>
-  </si>
-  <si>
-    <t>return true;</t>
-  </si>
-  <si>
-    <t>controller.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        state = State::ptr(new InitState(mStateMachine, *this));</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        mStateMachine-&gt;addState(state);</t>
-  </si>
-  <si>
-    <t>mCurrentState-&gt;onEnterState(previousStateName, false, command);</t>
-  </si>
-  <si>
-    <t>null，false，init</t>
-  </si>
-  <si>
-    <t>mController.activateController(EntityName::Init, command, isBack);</t>
-  </si>
-  <si>
-    <t>init，false</t>
-  </si>
-  <si>
-    <t>IController::ptr controller = this-&gt;getController(name, useExist);</t>
-  </si>
-  <si>
-    <t>AutoSDKService::eventQueue()-&gt;registerForEvent&lt;TnTrafficStationInfoChangeEvent&gt;(boost::weak_ptr&lt;TrafficService&gt;(mTrafficService), &amp;TrafficService::handleTnTrafficStationInfoChangeEvent);</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">template &lt;class </t>
+      <t>).name();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TnSharedPtr&lt;void&gt; pListener(new EventListener&lt;</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1170,27 +1291,36 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, class </t>
+      <t>&gt;(this));</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pQueue(pQueue) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template &lt;class </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>T</t>
+      <t>EventT</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1199,33 +1329,14 @@
   </si>
   <si>
     <r>
-      <t>bool registerForEvent(TnWeakPtr&lt;</t>
+      <t xml:space="preserve">void subscribe( tn::function&lt;void(const </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; obj, void (T::*memberFunction)(const TnSharedPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1235,62 +1346,23 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt;&amp;))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>explicit EventHandlerAdapter(TnWeakPtr&lt;</t>
+      <t xml:space="preserve">&amp;)&gt; handler, void* tag = NULL ) { </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tn::shared_ptr&lt;SubscriberForEvent&lt;</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; wpHandler, void (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>::*func)(const TnSharedPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1300,35 +1372,18 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">&gt;&amp;), TnEventQueue * pQueue) : </t>
-    </r>
-  </si>
-  <si>
-    <t>EventHandlerAdapterBase(void * pHandler, std::string funcName, TnEventQueue *pQueue) :</t>
-  </si>
-  <si>
-    <t>m_handlerPtr(pHandler),</t>
-  </si>
-  <si>
-    <t>m_handleFuncId(funcName),</t>
-  </si>
-  <si>
-    <t>m_pQueue(pQueue)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">template &lt;class </t>
+      <t>&gt; &gt; s = tn::make_shared&lt;SubscriberForEvent&lt;</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1338,29 +1393,144 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, class</t>
+      <t>&gt; &gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;(boost::bind(static_cast&lt;void (EventListener::*)(const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;EventAdapter&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventAdapter&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
+    </r>
+  </si>
+  <si>
+    <t>注册步骤：</t>
+  </si>
+  <si>
+    <t>1. 注册一个EventT事件，注册时传入参数为func指针和func所在对象的弱引用</t>
+  </si>
+  <si>
+    <r>
+      <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1370,271 +1540,54 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>bool registerForEvent(TnWeakPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; obj, void (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>::*memberFunction)(const TnSharedPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;&amp;))</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AutoSDKService::eventQueue()-&gt;registerForEvent&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TnCommonPluginInitializedEvent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(boost::weak_ptr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AutoSDKService</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(mAutoSDKService), &amp;AutoSDKService::handleCommonPluginInitCompleteEvent);</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&gt;(obj, memberFunction, this));</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>explicit EventHandlerAdapter(TnWeakPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; wpHandler, void (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>::*func)(const TnSharedPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;&amp;), TnEventQueue * pQueue) : </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. new一个EventHandlerAdapter对象的同时，以func指针、func所在对象的弱引用初始化其成员，并以func所在对象的句柄、func类型对应的str、EventQueue的this指针初始化其基类成员</t>
+  </si>
+  <si>
+    <t>3. 以EventT类型对应的str、刚才new的EventHandlerAdapter对象shareptr为键值对添加到multimap成员中</t>
+  </si>
+  <si>
+    <t>4. new一个EventListener对象的同时，以EventQueue的this指针初始化其成员</t>
+  </si>
+  <si>
+    <t>这里构建2个SubscriberForEvent，模板参数分别为EventT、EventAdapter&lt;EventT&gt;。后者所谓适配器是比前者多了EventQueue的this指针</t>
+  </si>
+  <si>
+    <t>4.1.在EventListener构造函数的内，调用Eventbus的subscribe方法以添加订阅者到subscriber中；订阅者为工厂函数创建的SubscriberForEvent，其成员指定为EventListener::handle和EventQueue的this指针</t>
+  </si>
+  <si>
+    <t>5. 以EventT类型对应的str、刚才new的EventListener对象ptr为键值对添加到map成员中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1642,7 +1595,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1650,21 +1603,21 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1672,21 +1625,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1694,14 +1647,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1709,28 +1662,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1738,7 +1684,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1746,12 +1692,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1800,20 +1746,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2350,48 +2284,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2532,100 +2429,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2657,7 +2470,7 @@
         <xdr:cNvPr id="2" name="矩形标注 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2544,7 @@
         <xdr:cNvPr id="3" name="矩形标注 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2618,7 @@
         <xdr:cNvPr id="4" name="矩形标注 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2692,7 @@
         <xdr:cNvPr id="5" name="矩形标注 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2766,7 @@
         <xdr:cNvPr id="6" name="左大括号 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +2827,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3067,7 +2880,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +2933,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +2986,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3226,7 +3039,7 @@
         <xdr:cNvPr id="15" name="直接箭头连接符 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3279,7 +3092,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3332,7 +3145,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,7 +3198,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3438,7 +3251,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3491,7 +3304,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3544,7 +3357,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3597,7 +3410,7 @@
         <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,7 +3490,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3752,7 +3565,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3805,7 +3618,7 @@
         <xdr:cNvPr id="7" name="Arrow: Right 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,7 +3678,7 @@
         <xdr:cNvPr id="9" name="Arrow: Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3925,7 +3738,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3978,7 +3791,7 @@
         <xdr:cNvPr id="14" name="Arrow: Right 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4038,7 +3851,7 @@
         <xdr:cNvPr id="15" name="Arrow: Right 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4098,7 +3911,7 @@
         <xdr:cNvPr id="18" name="Right Brace 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4156,7 +3969,7 @@
         <xdr:cNvPr id="40" name="Right Brace 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4217,7 +4030,7 @@
         <xdr:cNvPr id="43" name="Right Brace 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4278,7 +4091,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4331,7 +4144,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4384,7 +4197,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4437,7 +4250,7 @@
         <xdr:cNvPr id="47" name="直接箭头连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4490,7 +4303,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4543,7 +4356,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4596,7 +4409,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4649,7 +4462,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4702,7 +4515,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4755,7 +4568,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4808,7 +4621,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4861,7 +4674,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4914,7 +4727,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4967,7 +4780,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5020,7 +4833,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5073,7 +4886,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5126,7 +4939,7 @@
         <xdr:cNvPr id="66" name="直角上箭头 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5179,23 +4992,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>368299</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>482990</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{921BC473-6720-41EF-ACF7-B9258C144252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5204,10 +5017,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5218,8 +5031,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7656995" y="1616489"/>
-          <a:ext cx="6795995" cy="2097709"/>
+          <a:off x="0" y="4549140"/>
+          <a:ext cx="12329160" cy="3398521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5227,7 +5040,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5238,524 +5051,40 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>143290</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14909</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76648</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BC0FF07-20B3-483A-8B2D-4F19603AAA91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12944890" y="567359"/>
-          <a:ext cx="332960" cy="200991"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>216176</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>162615</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>472384</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>552</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34691D4F-1076-41E8-9828-D0BBB8EF9EFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14846576" y="530915"/>
-          <a:ext cx="256208" cy="206237"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{323A11EB-C53C-4F80-82A7-9D6D0077F70A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13525500" y="920750"/>
-          <a:ext cx="971550" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>211758</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50A99077-2B43-4B3F-9244-0FD569A57458}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14842158" y="914400"/>
-          <a:ext cx="4142" cy="374650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{276D1B9A-3EEE-4AD2-A9B1-9DBF950C4F28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="13919200" y="1460500"/>
-          <a:ext cx="647700" cy="2095500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>596906</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05CDD7A3-DBE1-4036-BF00-7CB930A380FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="13938250" y="1447800"/>
-          <a:ext cx="1898656" cy="869950"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{154F55F8-D64E-4F9A-B4E3-57A2FD5D7989}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="13648359" y="1495839"/>
-          <a:ext cx="1606274" cy="1822174"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>270889</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>598526</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>162562</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Arrow: Down 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{641AABB8-487B-47A4-A499-F5074503539C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="3208157" flipH="1">
-          <a:off x="14105847" y="1306432"/>
-          <a:ext cx="89722" cy="937237"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>433474</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>131120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>392024</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>21279</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Arrow: Down 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{16869762-F3D4-444B-A6B5-2FCEDA47C949}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="3208157" flipH="1">
-          <a:off x="14396394" y="1236750"/>
-          <a:ext cx="74309" cy="1177750"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>308721</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>47064</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5763,13 +5092,22 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="280147" y="3294529"/>
-          <a:ext cx="13016192" cy="4484594"/>
+          <a:off x="7802880" y="7208969"/>
+          <a:ext cx="9593580" cy="1828799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5785,7 +5123,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6032,26 +5370,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:V69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:22">
@@ -6214,7 +5552,7 @@
       </c>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="3:22" ht="14.25" thickBot="1">
+    <row r="19" spans="3:22" ht="15" thickBot="1">
       <c r="C19" s="1"/>
       <c r="G19" s="10"/>
       <c r="H19" s="19"/>
@@ -6327,7 +5665,7 @@
       <c r="U23" s="30"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="3:22" ht="14.25" thickBot="1">
+    <row r="24" spans="3:22" ht="15" thickBot="1">
       <c r="C24" s="1"/>
       <c r="G24" s="10"/>
       <c r="H24" s="19"/>
@@ -6476,7 +5814,7 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
     </row>
-    <row r="33" spans="5:21" ht="14.25" thickBot="1">
+    <row r="33" spans="5:21" ht="15" thickBot="1">
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
@@ -6582,7 +5920,7 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
     </row>
-    <row r="38" spans="5:21" ht="14.25" thickBot="1">
+    <row r="38" spans="5:21" ht="15" thickBot="1">
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -6600,7 +5938,7 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
     </row>
-    <row r="43" spans="5:21" ht="14.25" hidden="1" thickBot="1"/>
+    <row r="43" spans="5:21" ht="15" hidden="1" thickBot="1"/>
     <row r="44" spans="5:21" hidden="1">
       <c r="F44" s="79" t="s">
         <v>67</v>
@@ -6639,7 +5977,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="82"/>
     </row>
-    <row r="50" spans="6:12" ht="14.25" hidden="1" thickBot="1">
+    <row r="50" spans="6:12" ht="15" hidden="1" thickBot="1">
       <c r="F50" s="81"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -6709,7 +6047,7 @@
       <c r="K57" s="81"/>
       <c r="L57" s="96"/>
     </row>
-    <row r="58" spans="6:12" ht="14.25" hidden="1" thickBot="1">
+    <row r="58" spans="6:12" ht="15" hidden="1" thickBot="1">
       <c r="F58" s="83"/>
       <c r="G58" s="94"/>
       <c r="H58" s="83"/>
@@ -6733,15 +6071,15 @@
       </c>
     </row>
     <row r="69" spans="9:15">
-      <c r="I69" s="141"/>
+      <c r="I69" s="124"/>
       <c r="J69" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K69" s="142"/>
-      <c r="L69" s="141"/>
-      <c r="M69" s="142"/>
-      <c r="N69" s="142"/>
-      <c r="O69" s="141"/>
+      <c r="K69" s="125"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="125"/>
+      <c r="N69" s="125"/>
+      <c r="O69" s="124"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6752,20 +6090,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AB80"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="14" width="9.375" customWidth="1"/>
-    <col min="19" max="19" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -7201,7 +6539,7 @@
       <c r="Q39" s="77"/>
       <c r="R39" s="77"/>
     </row>
-    <row r="40" spans="4:28" ht="14.25" thickBot="1">
+    <row r="40" spans="4:28" ht="15" thickBot="1">
       <c r="H40" t="s">
         <v>85</v>
       </c>
@@ -7212,7 +6550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="4:28" ht="14.25" thickBot="1">
+    <row r="41" spans="4:28" ht="15" thickBot="1">
       <c r="O41" s="73"/>
       <c r="P41" s="74" t="s">
         <v>64</v>
@@ -7230,7 +6568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="4:28" ht="14.25" thickBot="1"/>
+    <row r="42" spans="4:28" ht="15" thickBot="1"/>
     <row r="43" spans="4:28">
       <c r="P43" t="s">
         <v>54</v>
@@ -7246,13 +6584,13 @@
       </c>
       <c r="R44" s="87"/>
     </row>
-    <row r="45" spans="4:28" ht="14.25" thickBot="1">
+    <row r="45" spans="4:28" ht="15" thickBot="1">
       <c r="Q45" s="88" t="s">
         <v>57</v>
       </c>
       <c r="R45" s="89"/>
     </row>
-    <row r="47" spans="4:28" ht="14.25" thickBot="1">
+    <row r="47" spans="4:28" ht="15" thickBot="1">
       <c r="F47" t="s">
         <v>90</v>
       </c>
@@ -7294,7 +6632,7 @@
       <c r="R50" s="63"/>
       <c r="S50" s="64"/>
     </row>
-    <row r="51" spans="4:21" ht="14.25" thickBot="1">
+    <row r="51" spans="4:21" ht="15" thickBot="1">
       <c r="P51" s="65"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="67"/>
@@ -7446,7 +6784,7 @@
       <c r="R68" s="81"/>
       <c r="T68" s="82"/>
     </row>
-    <row r="69" spans="4:23" ht="14.25" thickBot="1">
+    <row r="69" spans="4:23" ht="15" thickBot="1">
       <c r="D69" s="106"/>
       <c r="E69" s="106" t="s">
         <v>59</v>
@@ -7470,7 +6808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="4:23" ht="14.25" thickBot="1">
+    <row r="70" spans="4:23" ht="15" thickBot="1">
       <c r="D70" s="114" t="s">
         <v>58</v>
       </c>
@@ -7674,2425 +7012,2140 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:AE49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:P674"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" spans="2:31">
-      <c r="P3" s="124" t="s">
+    <row r="2" spans="2:16">
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="O4" s="81"/>
+      <c r="P4" s="127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="O5" s="81"/>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" s="81"/>
+      <c r="P6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" s="81"/>
+      <c r="P7" s="127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="E8" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="124"/>
-      <c r="X3" s="124" t="s">
+      <c r="O8" s="81"/>
+      <c r="P8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="E9" t="s">
         <v>112</v>
       </c>
-      <c r="Y3" s="124"/>
-      <c r="Z3" s="124"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="124"/>
-      <c r="AC3" s="124"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="124"/>
-    </row>
-    <row r="4" spans="2:31">
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-    </row>
-    <row r="5" spans="2:31">
-      <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="P5" s="124" t="s">
+      <c r="O9" s="81"/>
+      <c r="P9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="81"/>
+      <c r="P10" s="127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" s="81"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" s="81"/>
+      <c r="P13" s="127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" s="81"/>
+      <c r="P14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="O15" s="81"/>
+      <c r="P15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="81"/>
+      <c r="P16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="81"/>
+      <c r="P17" s="127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="O18" s="81"/>
+      <c r="P18" s="127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="81"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20" s="81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="C21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" s="81"/>
+      <c r="P21" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="124"/>
-      <c r="X5" s="124"/>
-      <c r="Y5" s="124"/>
-      <c r="Z5" s="124"/>
-      <c r="AA5" s="124"/>
-      <c r="AB5" s="124"/>
-      <c r="AC5" s="124"/>
-    </row>
-    <row r="7" spans="2:31">
-      <c r="C7" t="s">
+    </row>
+    <row r="22" spans="2:16">
+      <c r="C22" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="2:31">
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-      <c r="P8" s="124" t="s">
+      <c r="O22" s="81"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="124"/>
-      <c r="U8" s="124"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="124"/>
-      <c r="Y8" s="124"/>
-      <c r="Z8" s="124"/>
-      <c r="AA8" s="124"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="124"/>
-    </row>
-    <row r="9" spans="2:31">
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="2:31">
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31">
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" ht="14.25" thickBot="1">
-      <c r="C22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28">
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="V23" s="126" t="s">
-        <v>122</v>
-      </c>
-      <c r="W23" s="127" t="s">
-        <v>123</v>
-      </c>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="129"/>
-      <c r="Z23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28">
-      <c r="D24" t="s">
-        <v>128</v>
-      </c>
-      <c r="V24" s="130" t="s">
+      <c r="O23" s="81"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="C24" t="s">
         <v>118</v>
       </c>
-      <c r="W24" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="133"/>
-    </row>
-    <row r="25" spans="3:28">
-      <c r="D25" t="s">
-        <v>139</v>
-      </c>
-      <c r="V25" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="W25" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="133"/>
-    </row>
-    <row r="26" spans="3:28" ht="14.25" thickBot="1">
-      <c r="D26" t="s">
-        <v>129</v>
-      </c>
-      <c r="V26" s="134" t="s">
-        <v>119</v>
-      </c>
-      <c r="W26" s="138" t="s">
-        <v>121</v>
-      </c>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="140"/>
-    </row>
-    <row r="27" spans="3:28">
-      <c r="D27" t="s">
-        <v>140</v>
-      </c>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-    </row>
-    <row r="28" spans="3:28">
-      <c r="C28" t="s">
+      <c r="O24" s="81"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" ht="14.25" thickBot="1">
-      <c r="D29" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28">
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="126" t="s">
-        <v>122</v>
-      </c>
-      <c r="W30" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="129"/>
-      <c r="Z30" s="120" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
-    </row>
-    <row r="31" spans="3:28">
-      <c r="E31" t="s">
-        <v>132</v>
-      </c>
-      <c r="T31" s="120"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="W31" s="131" t="s">
-        <v>141</v>
-      </c>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="133"/>
-      <c r="Z31" s="120"/>
-      <c r="AA31" s="120"/>
-      <c r="AB31" s="120"/>
-    </row>
-    <row r="32" spans="3:28">
-      <c r="E32" t="s">
-        <v>133</v>
-      </c>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="130" t="s">
-        <v>119</v>
-      </c>
-      <c r="W32" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="133"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-    </row>
-    <row r="33" spans="4:28" ht="14.25" thickBot="1">
-      <c r="E33" t="s">
-        <v>134</v>
-      </c>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="136"/>
-      <c r="Y33" s="137"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
-      <c r="AB33" s="120"/>
-    </row>
-    <row r="34" spans="4:28">
-      <c r="E34" t="s">
-        <v>135</v>
-      </c>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="120"/>
-    </row>
-    <row r="35" spans="4:28" ht="14.25" thickBot="1">
-      <c r="E35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="4:28">
-      <c r="E36" t="s">
-        <v>137</v>
-      </c>
-      <c r="V36" s="126" t="s">
-        <v>122</v>
-      </c>
-      <c r="W36" s="127" t="s">
-        <v>126</v>
-      </c>
-      <c r="X36" s="128"/>
-      <c r="Y36" s="129"/>
-      <c r="Z36" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA36" s="120"/>
-    </row>
-    <row r="37" spans="4:28">
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="V37" s="130" t="s">
-        <v>118</v>
-      </c>
-      <c r="W37" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="X37" s="132"/>
-      <c r="Y37" s="133"/>
-      <c r="Z37" s="120"/>
-      <c r="AA37" s="120"/>
-    </row>
-    <row r="38" spans="4:28">
-      <c r="V38" s="130" t="s">
-        <v>119</v>
-      </c>
-      <c r="W38" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="X38" s="132"/>
-      <c r="Y38" s="133"/>
-      <c r="Z38" s="120"/>
-      <c r="AA38" s="120"/>
-    </row>
-    <row r="39" spans="4:28" ht="14.25" thickBot="1">
-      <c r="V39" s="134"/>
-      <c r="W39" s="135"/>
-      <c r="X39" s="136"/>
-      <c r="Y39" s="137"/>
-      <c r="Z39" s="120"/>
-      <c r="AA39" s="120"/>
-    </row>
-    <row r="49" spans="18:18">
-      <c r="R49" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q679"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:17">
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-      <c r="P2" s="81"/>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P3" s="81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="P4" s="81"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-      <c r="P5" s="81"/>
-      <c r="Q5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="P6" s="81"/>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="E7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P7" s="81"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="E8" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" s="81"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" s="81"/>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="P10" s="81"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="P11" s="81"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="D12" t="s">
-        <v>169</v>
-      </c>
-      <c r="P12" s="81"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="E13" t="s">
-        <v>170</v>
-      </c>
-      <c r="P13" s="81"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="E14" t="s">
-        <v>171</v>
-      </c>
-      <c r="P14" s="81"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="E15" t="s">
-        <v>172</v>
-      </c>
-      <c r="P15" s="81"/>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="P16" s="81"/>
-    </row>
-    <row r="17" spans="16:16">
-      <c r="P17" s="81"/>
-    </row>
-    <row r="18" spans="16:16">
-      <c r="P18" s="81"/>
-    </row>
-    <row r="19" spans="16:16">
-      <c r="P19" s="81"/>
-    </row>
-    <row r="20" spans="16:16">
-      <c r="P20" s="81"/>
-    </row>
-    <row r="21" spans="16:16">
-      <c r="P21" s="81"/>
-    </row>
-    <row r="22" spans="16:16">
-      <c r="P22" s="81"/>
-    </row>
-    <row r="23" spans="16:16">
-      <c r="P23" s="81"/>
-    </row>
-    <row r="24" spans="16:16">
-      <c r="P24" s="81"/>
-    </row>
-    <row r="25" spans="16:16">
-      <c r="P25" s="81"/>
-    </row>
-    <row r="26" spans="16:16">
-      <c r="P26" s="81"/>
-    </row>
-    <row r="27" spans="16:16">
-      <c r="P27" s="81"/>
-    </row>
-    <row r="28" spans="16:16">
-      <c r="P28" s="81"/>
-    </row>
-    <row r="29" spans="16:16">
-      <c r="P29" s="81"/>
-    </row>
-    <row r="30" spans="16:16">
-      <c r="P30" s="81"/>
-    </row>
-    <row r="31" spans="16:16">
-      <c r="P31" s="81"/>
-    </row>
-    <row r="32" spans="16:16">
-      <c r="P32" s="81"/>
-    </row>
-    <row r="33" spans="16:16">
-      <c r="P33" s="81"/>
-    </row>
-    <row r="34" spans="16:16">
-      <c r="P34" s="81"/>
-    </row>
-    <row r="35" spans="16:16">
-      <c r="P35" s="81"/>
-    </row>
-    <row r="36" spans="16:16">
-      <c r="P36" s="81"/>
-    </row>
-    <row r="37" spans="16:16">
-      <c r="P37" s="81"/>
-    </row>
-    <row r="38" spans="16:16">
-      <c r="P38" s="81"/>
-    </row>
-    <row r="39" spans="16:16">
-      <c r="P39" s="81"/>
-    </row>
-    <row r="40" spans="16:16">
-      <c r="P40" s="81"/>
-    </row>
-    <row r="41" spans="16:16">
-      <c r="P41" s="81"/>
-    </row>
-    <row r="42" spans="16:16">
-      <c r="P42" s="81"/>
-    </row>
-    <row r="43" spans="16:16">
-      <c r="P43" s="81"/>
-    </row>
-    <row r="44" spans="16:16">
-      <c r="P44" s="81"/>
-    </row>
-    <row r="45" spans="16:16">
-      <c r="P45" s="81"/>
-    </row>
-    <row r="46" spans="16:16">
-      <c r="P46" s="81"/>
-    </row>
-    <row r="47" spans="16:16">
-      <c r="P47" s="81"/>
-    </row>
-    <row r="48" spans="16:16">
-      <c r="P48" s="81"/>
-    </row>
-    <row r="49" spans="16:16">
-      <c r="P49" s="81"/>
-    </row>
-    <row r="50" spans="16:16">
-      <c r="P50" s="81"/>
-    </row>
-    <row r="51" spans="16:16">
-      <c r="P51" s="81"/>
-    </row>
-    <row r="52" spans="16:16">
-      <c r="P52" s="81"/>
-    </row>
-    <row r="53" spans="16:16">
-      <c r="P53" s="81"/>
-    </row>
-    <row r="54" spans="16:16">
-      <c r="P54" s="81"/>
-    </row>
-    <row r="55" spans="16:16">
-      <c r="P55" s="81"/>
-    </row>
-    <row r="56" spans="16:16">
-      <c r="P56" s="81"/>
-    </row>
-    <row r="57" spans="16:16">
-      <c r="P57" s="81"/>
-    </row>
-    <row r="58" spans="16:16">
-      <c r="P58" s="81"/>
-    </row>
-    <row r="59" spans="16:16">
-      <c r="P59" s="81"/>
-    </row>
-    <row r="60" spans="16:16">
-      <c r="P60" s="81"/>
-    </row>
-    <row r="61" spans="16:16">
-      <c r="P61" s="81"/>
-    </row>
-    <row r="62" spans="16:16">
-      <c r="P62" s="81"/>
-    </row>
-    <row r="63" spans="16:16">
-      <c r="P63" s="81"/>
-    </row>
-    <row r="64" spans="16:16">
-      <c r="P64" s="81"/>
-    </row>
-    <row r="65" spans="16:16">
-      <c r="P65" s="81"/>
-    </row>
-    <row r="66" spans="16:16">
-      <c r="P66" s="81"/>
-    </row>
-    <row r="67" spans="16:16">
-      <c r="P67" s="81"/>
-    </row>
-    <row r="68" spans="16:16">
-      <c r="P68" s="81"/>
-    </row>
-    <row r="69" spans="16:16">
-      <c r="P69" s="81"/>
-    </row>
-    <row r="70" spans="16:16">
-      <c r="P70" s="81"/>
-    </row>
-    <row r="71" spans="16:16">
-      <c r="P71" s="81"/>
-    </row>
-    <row r="72" spans="16:16">
-      <c r="P72" s="81"/>
-    </row>
-    <row r="73" spans="16:16">
-      <c r="P73" s="81"/>
-    </row>
-    <row r="74" spans="16:16">
-      <c r="P74" s="81"/>
-    </row>
-    <row r="75" spans="16:16">
-      <c r="P75" s="81"/>
-    </row>
-    <row r="76" spans="16:16">
-      <c r="P76" s="81"/>
-    </row>
-    <row r="77" spans="16:16">
-      <c r="P77" s="81"/>
-    </row>
-    <row r="78" spans="16:16">
-      <c r="P78" s="81"/>
-    </row>
-    <row r="79" spans="16:16">
-      <c r="P79" s="81"/>
-    </row>
-    <row r="80" spans="16:16">
-      <c r="P80" s="81"/>
-    </row>
-    <row r="81" spans="16:16">
-      <c r="P81" s="81"/>
-    </row>
-    <row r="82" spans="16:16">
-      <c r="P82" s="81"/>
-    </row>
-    <row r="83" spans="16:16">
-      <c r="P83" s="81"/>
-    </row>
-    <row r="84" spans="16:16">
-      <c r="P84" s="81"/>
-    </row>
-    <row r="85" spans="16:16">
-      <c r="P85" s="81"/>
-    </row>
-    <row r="86" spans="16:16">
-      <c r="P86" s="81"/>
-    </row>
-    <row r="87" spans="16:16">
-      <c r="P87" s="81"/>
-    </row>
-    <row r="88" spans="16:16">
-      <c r="P88" s="81"/>
-    </row>
-    <row r="89" spans="16:16">
-      <c r="P89" s="81"/>
-    </row>
-    <row r="90" spans="16:16">
-      <c r="P90" s="81"/>
-    </row>
-    <row r="91" spans="16:16">
-      <c r="P91" s="81"/>
-    </row>
-    <row r="92" spans="16:16">
-      <c r="P92" s="81"/>
-    </row>
-    <row r="93" spans="16:16">
-      <c r="P93" s="81"/>
-    </row>
-    <row r="94" spans="16:16">
-      <c r="P94" s="81"/>
-    </row>
-    <row r="95" spans="16:16">
-      <c r="P95" s="81"/>
-    </row>
-    <row r="96" spans="16:16">
-      <c r="P96" s="81"/>
-    </row>
-    <row r="97" spans="16:16">
-      <c r="P97" s="81"/>
-    </row>
-    <row r="98" spans="16:16">
-      <c r="P98" s="81"/>
-    </row>
-    <row r="99" spans="16:16">
-      <c r="P99" s="81"/>
-    </row>
-    <row r="100" spans="16:16">
-      <c r="P100" s="81"/>
-    </row>
-    <row r="101" spans="16:16">
-      <c r="P101" s="81"/>
-    </row>
-    <row r="102" spans="16:16">
-      <c r="P102" s="81"/>
-    </row>
-    <row r="103" spans="16:16">
-      <c r="P103" s="81"/>
-    </row>
-    <row r="104" spans="16:16">
-      <c r="P104" s="81"/>
-    </row>
-    <row r="105" spans="16:16">
-      <c r="P105" s="81"/>
-    </row>
-    <row r="106" spans="16:16">
-      <c r="P106" s="81"/>
-    </row>
-    <row r="107" spans="16:16">
-      <c r="P107" s="81"/>
-    </row>
-    <row r="108" spans="16:16">
-      <c r="P108" s="81"/>
-    </row>
-    <row r="109" spans="16:16">
-      <c r="P109" s="81"/>
-    </row>
-    <row r="110" spans="16:16">
-      <c r="P110" s="81"/>
-    </row>
-    <row r="111" spans="16:16">
-      <c r="P111" s="81"/>
-    </row>
-    <row r="112" spans="16:16">
-      <c r="P112" s="81"/>
-    </row>
-    <row r="113" spans="16:16">
-      <c r="P113" s="81"/>
-    </row>
-    <row r="114" spans="16:16">
-      <c r="P114" s="81"/>
-    </row>
-    <row r="115" spans="16:16">
-      <c r="P115" s="81"/>
-    </row>
-    <row r="116" spans="16:16">
-      <c r="P116" s="81"/>
-    </row>
-    <row r="117" spans="16:16">
-      <c r="P117" s="81"/>
-    </row>
-    <row r="118" spans="16:16">
-      <c r="P118" s="81"/>
-    </row>
-    <row r="119" spans="16:16">
-      <c r="P119" s="81"/>
-    </row>
-    <row r="120" spans="16:16">
-      <c r="P120" s="81"/>
-    </row>
-    <row r="121" spans="16:16">
-      <c r="P121" s="81"/>
-    </row>
-    <row r="122" spans="16:16">
-      <c r="P122" s="81"/>
-    </row>
-    <row r="123" spans="16:16">
-      <c r="P123" s="81"/>
-    </row>
-    <row r="124" spans="16:16">
-      <c r="P124" s="81"/>
-    </row>
-    <row r="125" spans="16:16">
-      <c r="P125" s="81"/>
-    </row>
-    <row r="126" spans="16:16">
-      <c r="P126" s="81"/>
-    </row>
-    <row r="127" spans="16:16">
-      <c r="P127" s="81"/>
-    </row>
-    <row r="128" spans="16:16">
-      <c r="P128" s="81"/>
-    </row>
-    <row r="129" spans="16:16">
-      <c r="P129" s="81"/>
-    </row>
-    <row r="130" spans="16:16">
-      <c r="P130" s="81"/>
-    </row>
-    <row r="131" spans="16:16">
-      <c r="P131" s="81"/>
-    </row>
-    <row r="132" spans="16:16">
-      <c r="P132" s="81"/>
-    </row>
-    <row r="133" spans="16:16">
-      <c r="P133" s="81"/>
-    </row>
-    <row r="134" spans="16:16">
-      <c r="P134" s="81"/>
-    </row>
-    <row r="135" spans="16:16">
-      <c r="P135" s="81"/>
-    </row>
-    <row r="136" spans="16:16">
-      <c r="P136" s="81"/>
-    </row>
-    <row r="137" spans="16:16">
-      <c r="P137" s="81"/>
-    </row>
-    <row r="138" spans="16:16">
-      <c r="P138" s="81"/>
-    </row>
-    <row r="139" spans="16:16">
-      <c r="P139" s="81"/>
-    </row>
-    <row r="140" spans="16:16">
-      <c r="P140" s="81"/>
-    </row>
-    <row r="141" spans="16:16">
-      <c r="P141" s="81"/>
-    </row>
-    <row r="142" spans="16:16">
-      <c r="P142" s="81"/>
-    </row>
-    <row r="143" spans="16:16">
-      <c r="P143" s="81"/>
-    </row>
-    <row r="144" spans="16:16">
-      <c r="P144" s="81"/>
-    </row>
-    <row r="145" spans="16:16">
-      <c r="P145" s="81"/>
-    </row>
-    <row r="146" spans="16:16">
-      <c r="P146" s="81"/>
-    </row>
-    <row r="147" spans="16:16">
-      <c r="P147" s="81"/>
-    </row>
-    <row r="148" spans="16:16">
-      <c r="P148" s="81"/>
-    </row>
-    <row r="149" spans="16:16">
-      <c r="P149" s="81"/>
-    </row>
-    <row r="150" spans="16:16">
-      <c r="P150" s="81"/>
-    </row>
-    <row r="151" spans="16:16">
-      <c r="P151" s="81"/>
-    </row>
-    <row r="152" spans="16:16">
-      <c r="P152" s="81"/>
-    </row>
-    <row r="153" spans="16:16">
-      <c r="P153" s="81"/>
-    </row>
-    <row r="154" spans="16:16">
-      <c r="P154" s="81"/>
-    </row>
-    <row r="155" spans="16:16">
-      <c r="P155" s="81"/>
-    </row>
-    <row r="156" spans="16:16">
-      <c r="P156" s="81"/>
-    </row>
-    <row r="157" spans="16:16">
-      <c r="P157" s="81"/>
-    </row>
-    <row r="158" spans="16:16">
-      <c r="P158" s="81"/>
-    </row>
-    <row r="159" spans="16:16">
-      <c r="P159" s="81"/>
-    </row>
-    <row r="160" spans="16:16">
-      <c r="P160" s="81"/>
-    </row>
-    <row r="161" spans="16:16">
-      <c r="P161" s="81"/>
-    </row>
-    <row r="162" spans="16:16">
-      <c r="P162" s="81"/>
-    </row>
-    <row r="163" spans="16:16">
-      <c r="P163" s="81"/>
-    </row>
-    <row r="164" spans="16:16">
-      <c r="P164" s="81"/>
-    </row>
-    <row r="165" spans="16:16">
-      <c r="P165" s="81"/>
-    </row>
-    <row r="166" spans="16:16">
-      <c r="P166" s="81"/>
-    </row>
-    <row r="167" spans="16:16">
-      <c r="P167" s="81"/>
-    </row>
-    <row r="168" spans="16:16">
-      <c r="P168" s="81"/>
-    </row>
-    <row r="169" spans="16:16">
-      <c r="P169" s="81"/>
-    </row>
-    <row r="170" spans="16:16">
-      <c r="P170" s="81"/>
-    </row>
-    <row r="171" spans="16:16">
-      <c r="P171" s="81"/>
-    </row>
-    <row r="172" spans="16:16">
-      <c r="P172" s="81"/>
-    </row>
-    <row r="173" spans="16:16">
-      <c r="P173" s="81"/>
-    </row>
-    <row r="174" spans="16:16">
-      <c r="P174" s="81"/>
-    </row>
-    <row r="175" spans="16:16">
-      <c r="P175" s="81"/>
-    </row>
-    <row r="176" spans="16:16">
-      <c r="P176" s="81"/>
-    </row>
-    <row r="177" spans="16:16">
-      <c r="P177" s="81"/>
-    </row>
-    <row r="178" spans="16:16">
-      <c r="P178" s="81"/>
-    </row>
-    <row r="179" spans="16:16">
-      <c r="P179" s="81"/>
-    </row>
-    <row r="180" spans="16:16">
-      <c r="P180" s="81"/>
-    </row>
-    <row r="181" spans="16:16">
-      <c r="P181" s="81"/>
-    </row>
-    <row r="182" spans="16:16">
-      <c r="P182" s="81"/>
-    </row>
-    <row r="183" spans="16:16">
-      <c r="P183" s="81"/>
-    </row>
-    <row r="184" spans="16:16">
-      <c r="P184" s="81"/>
-    </row>
-    <row r="185" spans="16:16">
-      <c r="P185" s="81"/>
-    </row>
-    <row r="186" spans="16:16">
-      <c r="P186" s="81"/>
-    </row>
-    <row r="187" spans="16:16">
-      <c r="P187" s="81"/>
-    </row>
-    <row r="188" spans="16:16">
-      <c r="P188" s="81"/>
-    </row>
-    <row r="189" spans="16:16">
-      <c r="P189" s="81"/>
-    </row>
-    <row r="190" spans="16:16">
-      <c r="P190" s="81"/>
-    </row>
-    <row r="191" spans="16:16">
-      <c r="P191" s="81"/>
-    </row>
-    <row r="192" spans="16:16">
-      <c r="P192" s="81"/>
-    </row>
-    <row r="193" spans="16:16">
-      <c r="P193" s="81"/>
-    </row>
-    <row r="194" spans="16:16">
-      <c r="P194" s="81"/>
-    </row>
-    <row r="195" spans="16:16">
-      <c r="P195" s="81"/>
-    </row>
-    <row r="196" spans="16:16">
-      <c r="P196" s="81"/>
-    </row>
-    <row r="197" spans="16:16">
-      <c r="P197" s="81"/>
-    </row>
-    <row r="198" spans="16:16">
-      <c r="P198" s="81"/>
-    </row>
-    <row r="199" spans="16:16">
-      <c r="P199" s="81"/>
-    </row>
-    <row r="200" spans="16:16">
-      <c r="P200" s="81"/>
-    </row>
-    <row r="201" spans="16:16">
-      <c r="P201" s="81"/>
-    </row>
-    <row r="202" spans="16:16">
-      <c r="P202" s="81"/>
-    </row>
-    <row r="203" spans="16:16">
-      <c r="P203" s="81"/>
-    </row>
-    <row r="204" spans="16:16">
-      <c r="P204" s="81"/>
-    </row>
-    <row r="205" spans="16:16">
-      <c r="P205" s="81"/>
-    </row>
-    <row r="206" spans="16:16">
-      <c r="P206" s="81"/>
-    </row>
-    <row r="207" spans="16:16">
-      <c r="P207" s="81"/>
-    </row>
-    <row r="208" spans="16:16">
-      <c r="P208" s="81"/>
-    </row>
-    <row r="209" spans="16:16">
-      <c r="P209" s="81"/>
-    </row>
-    <row r="210" spans="16:16">
-      <c r="P210" s="81"/>
-    </row>
-    <row r="211" spans="16:16">
-      <c r="P211" s="81"/>
-    </row>
-    <row r="212" spans="16:16">
-      <c r="P212" s="81"/>
-    </row>
-    <row r="213" spans="16:16">
-      <c r="P213" s="81"/>
-    </row>
-    <row r="214" spans="16:16">
-      <c r="P214" s="81"/>
-    </row>
-    <row r="215" spans="16:16">
-      <c r="P215" s="81"/>
-    </row>
-    <row r="216" spans="16:16">
-      <c r="P216" s="81"/>
-    </row>
-    <row r="217" spans="16:16">
-      <c r="P217" s="81"/>
-    </row>
-    <row r="218" spans="16:16">
-      <c r="P218" s="81"/>
-    </row>
-    <row r="219" spans="16:16">
-      <c r="P219" s="81"/>
-    </row>
-    <row r="220" spans="16:16">
-      <c r="P220" s="81"/>
-    </row>
-    <row r="221" spans="16:16">
-      <c r="P221" s="81"/>
-    </row>
-    <row r="222" spans="16:16">
-      <c r="P222" s="81"/>
-    </row>
-    <row r="223" spans="16:16">
-      <c r="P223" s="81"/>
-    </row>
-    <row r="224" spans="16:16">
-      <c r="P224" s="81"/>
-    </row>
-    <row r="225" spans="16:16">
-      <c r="P225" s="81"/>
-    </row>
-    <row r="226" spans="16:16">
-      <c r="P226" s="81"/>
-    </row>
-    <row r="227" spans="16:16">
-      <c r="P227" s="81"/>
-    </row>
-    <row r="228" spans="16:16">
-      <c r="P228" s="81"/>
-    </row>
-    <row r="229" spans="16:16">
-      <c r="P229" s="81"/>
-    </row>
-    <row r="230" spans="16:16">
-      <c r="P230" s="81"/>
-    </row>
-    <row r="231" spans="16:16">
-      <c r="P231" s="81"/>
-    </row>
-    <row r="232" spans="16:16">
-      <c r="P232" s="81"/>
-    </row>
-    <row r="233" spans="16:16">
-      <c r="P233" s="81"/>
-    </row>
-    <row r="234" spans="16:16">
-      <c r="P234" s="81"/>
-    </row>
-    <row r="235" spans="16:16">
-      <c r="P235" s="81"/>
-    </row>
-    <row r="236" spans="16:16">
-      <c r="P236" s="81"/>
-    </row>
-    <row r="237" spans="16:16">
-      <c r="P237" s="81"/>
-    </row>
-    <row r="238" spans="16:16">
-      <c r="P238" s="81"/>
-    </row>
-    <row r="239" spans="16:16">
-      <c r="P239" s="81"/>
-    </row>
-    <row r="240" spans="16:16">
-      <c r="P240" s="81"/>
-    </row>
-    <row r="241" spans="16:16">
-      <c r="P241" s="81"/>
-    </row>
-    <row r="242" spans="16:16">
-      <c r="P242" s="81"/>
-    </row>
-    <row r="243" spans="16:16">
-      <c r="P243" s="81"/>
-    </row>
-    <row r="244" spans="16:16">
-      <c r="P244" s="81"/>
-    </row>
-    <row r="245" spans="16:16">
-      <c r="P245" s="81"/>
-    </row>
-    <row r="246" spans="16:16">
-      <c r="P246" s="81"/>
-    </row>
-    <row r="247" spans="16:16">
-      <c r="P247" s="81"/>
-    </row>
-    <row r="248" spans="16:16">
-      <c r="P248" s="81"/>
-    </row>
-    <row r="249" spans="16:16">
-      <c r="P249" s="81"/>
-    </row>
-    <row r="250" spans="16:16">
-      <c r="P250" s="81"/>
-    </row>
-    <row r="251" spans="16:16">
-      <c r="P251" s="81"/>
-    </row>
-    <row r="252" spans="16:16">
-      <c r="P252" s="81"/>
-    </row>
-    <row r="253" spans="16:16">
-      <c r="P253" s="81"/>
-    </row>
-    <row r="254" spans="16:16">
-      <c r="P254" s="81"/>
-    </row>
-    <row r="255" spans="16:16">
-      <c r="P255" s="81"/>
-    </row>
-    <row r="256" spans="16:16">
-      <c r="P256" s="81"/>
-    </row>
-    <row r="257" spans="16:16">
-      <c r="P257" s="81"/>
-    </row>
-    <row r="258" spans="16:16">
-      <c r="P258" s="81"/>
-    </row>
-    <row r="259" spans="16:16">
-      <c r="P259" s="81"/>
-    </row>
-    <row r="260" spans="16:16">
-      <c r="P260" s="81"/>
-    </row>
-    <row r="261" spans="16:16">
-      <c r="P261" s="81"/>
-    </row>
-    <row r="262" spans="16:16">
-      <c r="P262" s="81"/>
-    </row>
-    <row r="263" spans="16:16">
-      <c r="P263" s="81"/>
-    </row>
-    <row r="264" spans="16:16">
-      <c r="P264" s="81"/>
-    </row>
-    <row r="265" spans="16:16">
-      <c r="P265" s="81"/>
-    </row>
-    <row r="266" spans="16:16">
-      <c r="P266" s="81"/>
-    </row>
-    <row r="267" spans="16:16">
-      <c r="P267" s="81"/>
-    </row>
-    <row r="268" spans="16:16">
-      <c r="P268" s="81"/>
-    </row>
-    <row r="269" spans="16:16">
-      <c r="P269" s="81"/>
-    </row>
-    <row r="270" spans="16:16">
-      <c r="P270" s="81"/>
-    </row>
-    <row r="271" spans="16:16">
-      <c r="P271" s="81"/>
-    </row>
-    <row r="272" spans="16:16">
-      <c r="P272" s="81"/>
-    </row>
-    <row r="273" spans="16:16">
-      <c r="P273" s="81"/>
-    </row>
-    <row r="274" spans="16:16">
-      <c r="P274" s="81"/>
-    </row>
-    <row r="275" spans="16:16">
-      <c r="P275" s="81"/>
-    </row>
-    <row r="276" spans="16:16">
-      <c r="P276" s="81"/>
-    </row>
-    <row r="277" spans="16:16">
-      <c r="P277" s="81"/>
-    </row>
-    <row r="278" spans="16:16">
-      <c r="P278" s="81"/>
-    </row>
-    <row r="279" spans="16:16">
-      <c r="P279" s="81"/>
-    </row>
-    <row r="280" spans="16:16">
-      <c r="P280" s="81"/>
-    </row>
-    <row r="281" spans="16:16">
-      <c r="P281" s="81"/>
-    </row>
-    <row r="282" spans="16:16">
-      <c r="P282" s="81"/>
-    </row>
-    <row r="283" spans="16:16">
-      <c r="P283" s="81"/>
-    </row>
-    <row r="284" spans="16:16">
-      <c r="P284" s="81"/>
-    </row>
-    <row r="285" spans="16:16">
-      <c r="P285" s="81"/>
-    </row>
-    <row r="286" spans="16:16">
-      <c r="P286" s="81"/>
-    </row>
-    <row r="287" spans="16:16">
-      <c r="P287" s="81"/>
-    </row>
-    <row r="288" spans="16:16">
-      <c r="P288" s="81"/>
-    </row>
-    <row r="289" spans="16:16">
-      <c r="P289" s="81"/>
-    </row>
-    <row r="290" spans="16:16">
-      <c r="P290" s="81"/>
-    </row>
-    <row r="291" spans="16:16">
-      <c r="P291" s="81"/>
-    </row>
-    <row r="292" spans="16:16">
-      <c r="P292" s="81"/>
-    </row>
-    <row r="293" spans="16:16">
-      <c r="P293" s="81"/>
-    </row>
-    <row r="294" spans="16:16">
-      <c r="P294" s="81"/>
-    </row>
-    <row r="295" spans="16:16">
-      <c r="P295" s="81"/>
-    </row>
-    <row r="296" spans="16:16">
-      <c r="P296" s="81"/>
-    </row>
-    <row r="297" spans="16:16">
-      <c r="P297" s="81"/>
-    </row>
-    <row r="298" spans="16:16">
-      <c r="P298" s="81"/>
-    </row>
-    <row r="299" spans="16:16">
-      <c r="P299" s="81"/>
-    </row>
-    <row r="300" spans="16:16">
-      <c r="P300" s="81"/>
-    </row>
-    <row r="301" spans="16:16">
-      <c r="P301" s="81"/>
-    </row>
-    <row r="302" spans="16:16">
-      <c r="P302" s="81"/>
-    </row>
-    <row r="303" spans="16:16">
-      <c r="P303" s="81"/>
-    </row>
-    <row r="304" spans="16:16">
-      <c r="P304" s="81"/>
-    </row>
-    <row r="305" spans="16:16">
-      <c r="P305" s="81"/>
-    </row>
-    <row r="306" spans="16:16">
-      <c r="P306" s="81"/>
-    </row>
-    <row r="307" spans="16:16">
-      <c r="P307" s="81"/>
-    </row>
-    <row r="308" spans="16:16">
-      <c r="P308" s="81"/>
-    </row>
-    <row r="309" spans="16:16">
-      <c r="P309" s="81"/>
-    </row>
-    <row r="310" spans="16:16">
-      <c r="P310" s="81"/>
-    </row>
-    <row r="311" spans="16:16">
-      <c r="P311" s="81"/>
-    </row>
-    <row r="312" spans="16:16">
-      <c r="P312" s="81"/>
-    </row>
-    <row r="313" spans="16:16">
-      <c r="P313" s="81"/>
-    </row>
-    <row r="314" spans="16:16">
-      <c r="P314" s="81"/>
-    </row>
-    <row r="315" spans="16:16">
-      <c r="P315" s="81"/>
-    </row>
-    <row r="316" spans="16:16">
-      <c r="P316" s="81"/>
-    </row>
-    <row r="317" spans="16:16">
-      <c r="P317" s="81"/>
-    </row>
-    <row r="318" spans="16:16">
-      <c r="P318" s="81"/>
-    </row>
-    <row r="319" spans="16:16">
-      <c r="P319" s="81"/>
-    </row>
-    <row r="320" spans="16:16">
-      <c r="P320" s="81"/>
-    </row>
-    <row r="321" spans="16:16">
-      <c r="P321" s="81"/>
-    </row>
-    <row r="322" spans="16:16">
-      <c r="P322" s="81"/>
-    </row>
-    <row r="323" spans="16:16">
-      <c r="P323" s="81"/>
-    </row>
-    <row r="324" spans="16:16">
-      <c r="P324" s="81"/>
-    </row>
-    <row r="325" spans="16:16">
-      <c r="P325" s="81"/>
-    </row>
-    <row r="326" spans="16:16">
-      <c r="P326" s="81"/>
-    </row>
-    <row r="327" spans="16:16">
-      <c r="P327" s="81"/>
-    </row>
-    <row r="328" spans="16:16">
-      <c r="P328" s="81"/>
-    </row>
-    <row r="329" spans="16:16">
-      <c r="P329" s="81"/>
-    </row>
-    <row r="330" spans="16:16">
-      <c r="P330" s="81"/>
-    </row>
-    <row r="331" spans="16:16">
-      <c r="P331" s="81"/>
-    </row>
-    <row r="332" spans="16:16">
-      <c r="P332" s="81"/>
-    </row>
-    <row r="333" spans="16:16">
-      <c r="P333" s="81"/>
-    </row>
-    <row r="334" spans="16:16">
-      <c r="P334" s="81"/>
-    </row>
-    <row r="335" spans="16:16">
-      <c r="P335" s="81"/>
-    </row>
-    <row r="336" spans="16:16">
-      <c r="P336" s="81"/>
-    </row>
-    <row r="337" spans="16:16">
-      <c r="P337" s="81"/>
-    </row>
-    <row r="338" spans="16:16">
-      <c r="P338" s="81"/>
-    </row>
-    <row r="339" spans="16:16">
-      <c r="P339" s="81"/>
-    </row>
-    <row r="340" spans="16:16">
-      <c r="P340" s="81"/>
-    </row>
-    <row r="341" spans="16:16">
-      <c r="P341" s="81"/>
-    </row>
-    <row r="342" spans="16:16">
-      <c r="P342" s="81"/>
-    </row>
-    <row r="343" spans="16:16">
-      <c r="P343" s="81"/>
-    </row>
-    <row r="344" spans="16:16">
-      <c r="P344" s="81"/>
-    </row>
-    <row r="345" spans="16:16">
-      <c r="P345" s="81"/>
-    </row>
-    <row r="346" spans="16:16">
-      <c r="P346" s="81"/>
-    </row>
-    <row r="347" spans="16:16">
-      <c r="P347" s="81"/>
-    </row>
-    <row r="348" spans="16:16">
-      <c r="P348" s="81"/>
-    </row>
-    <row r="349" spans="16:16">
-      <c r="P349" s="81"/>
-    </row>
-    <row r="350" spans="16:16">
-      <c r="P350" s="81"/>
-    </row>
-    <row r="351" spans="16:16">
-      <c r="P351" s="81"/>
-    </row>
-    <row r="352" spans="16:16">
-      <c r="P352" s="81"/>
-    </row>
-    <row r="353" spans="16:16">
-      <c r="P353" s="81"/>
-    </row>
-    <row r="354" spans="16:16">
-      <c r="P354" s="81"/>
-    </row>
-    <row r="355" spans="16:16">
-      <c r="P355" s="81"/>
-    </row>
-    <row r="356" spans="16:16">
-      <c r="P356" s="81"/>
-    </row>
-    <row r="357" spans="16:16">
-      <c r="P357" s="81"/>
-    </row>
-    <row r="358" spans="16:16">
-      <c r="P358" s="81"/>
-    </row>
-    <row r="359" spans="16:16">
-      <c r="P359" s="81"/>
-    </row>
-    <row r="360" spans="16:16">
-      <c r="P360" s="81"/>
-    </row>
-    <row r="361" spans="16:16">
-      <c r="P361" s="81"/>
-    </row>
-    <row r="362" spans="16:16">
-      <c r="P362" s="81"/>
-    </row>
-    <row r="363" spans="16:16">
-      <c r="P363" s="81"/>
-    </row>
-    <row r="364" spans="16:16">
-      <c r="P364" s="81"/>
-    </row>
-    <row r="365" spans="16:16">
-      <c r="P365" s="81"/>
-    </row>
-    <row r="366" spans="16:16">
-      <c r="P366" s="81"/>
-    </row>
-    <row r="367" spans="16:16">
-      <c r="P367" s="81"/>
-    </row>
-    <row r="368" spans="16:16">
-      <c r="P368" s="81"/>
-    </row>
-    <row r="369" spans="16:16">
-      <c r="P369" s="81"/>
-    </row>
-    <row r="370" spans="16:16">
-      <c r="P370" s="81"/>
-    </row>
-    <row r="371" spans="16:16">
-      <c r="P371" s="81"/>
-    </row>
-    <row r="372" spans="16:16">
-      <c r="P372" s="81"/>
-    </row>
-    <row r="373" spans="16:16">
-      <c r="P373" s="81"/>
-    </row>
-    <row r="374" spans="16:16">
-      <c r="P374" s="81"/>
-    </row>
-    <row r="375" spans="16:16">
-      <c r="P375" s="81"/>
-    </row>
-    <row r="376" spans="16:16">
-      <c r="P376" s="81"/>
-    </row>
-    <row r="377" spans="16:16">
-      <c r="P377" s="81"/>
-    </row>
-    <row r="378" spans="16:16">
-      <c r="P378" s="81"/>
-    </row>
-    <row r="379" spans="16:16">
-      <c r="P379" s="81"/>
-    </row>
-    <row r="380" spans="16:16">
-      <c r="P380" s="81"/>
-    </row>
-    <row r="381" spans="16:16">
-      <c r="P381" s="81"/>
-    </row>
-    <row r="382" spans="16:16">
-      <c r="P382" s="81"/>
-    </row>
-    <row r="383" spans="16:16">
-      <c r="P383" s="81"/>
-    </row>
-    <row r="384" spans="16:16">
-      <c r="P384" s="81"/>
-    </row>
-    <row r="385" spans="16:16">
-      <c r="P385" s="81"/>
-    </row>
-    <row r="386" spans="16:16">
-      <c r="P386" s="81"/>
-    </row>
-    <row r="387" spans="16:16">
-      <c r="P387" s="81"/>
-    </row>
-    <row r="388" spans="16:16">
-      <c r="P388" s="81"/>
-    </row>
-    <row r="389" spans="16:16">
-      <c r="P389" s="81"/>
-    </row>
-    <row r="390" spans="16:16">
-      <c r="P390" s="81"/>
-    </row>
-    <row r="391" spans="16:16">
-      <c r="P391" s="81"/>
-    </row>
-    <row r="392" spans="16:16">
-      <c r="P392" s="81"/>
-    </row>
-    <row r="393" spans="16:16">
-      <c r="P393" s="81"/>
-    </row>
-    <row r="394" spans="16:16">
-      <c r="P394" s="81"/>
-    </row>
-    <row r="395" spans="16:16">
-      <c r="P395" s="81"/>
-    </row>
-    <row r="396" spans="16:16">
-      <c r="P396" s="81"/>
-    </row>
-    <row r="397" spans="16:16">
-      <c r="P397" s="81"/>
-    </row>
-    <row r="398" spans="16:16">
-      <c r="P398" s="81"/>
-    </row>
-    <row r="399" spans="16:16">
-      <c r="P399" s="81"/>
-    </row>
-    <row r="400" spans="16:16">
-      <c r="P400" s="81"/>
-    </row>
-    <row r="401" spans="16:16">
-      <c r="P401" s="81"/>
-    </row>
-    <row r="402" spans="16:16">
-      <c r="P402" s="81"/>
-    </row>
-    <row r="403" spans="16:16">
-      <c r="P403" s="81"/>
-    </row>
-    <row r="404" spans="16:16">
-      <c r="P404" s="81"/>
-    </row>
-    <row r="405" spans="16:16">
-      <c r="P405" s="143"/>
-    </row>
-    <row r="406" spans="16:16">
-      <c r="P406" s="143"/>
-    </row>
-    <row r="407" spans="16:16">
-      <c r="P407" s="143"/>
-    </row>
-    <row r="408" spans="16:16">
-      <c r="P408" s="143"/>
-    </row>
-    <row r="409" spans="16:16">
-      <c r="P409" s="143"/>
-    </row>
-    <row r="410" spans="16:16">
-      <c r="P410" s="143"/>
-    </row>
-    <row r="411" spans="16:16">
-      <c r="P411" s="143"/>
-    </row>
-    <row r="412" spans="16:16">
-      <c r="P412" s="143"/>
-    </row>
-    <row r="413" spans="16:16">
-      <c r="P413" s="143"/>
-    </row>
-    <row r="414" spans="16:16">
-      <c r="P414" s="143"/>
-    </row>
-    <row r="415" spans="16:16">
-      <c r="P415" s="143"/>
-    </row>
-    <row r="416" spans="16:16">
-      <c r="P416" s="143"/>
-    </row>
-    <row r="417" spans="16:16">
-      <c r="P417" s="143"/>
-    </row>
-    <row r="418" spans="16:16">
-      <c r="P418" s="143"/>
-    </row>
-    <row r="419" spans="16:16">
-      <c r="P419" s="143"/>
-    </row>
-    <row r="420" spans="16:16">
-      <c r="P420" s="143"/>
-    </row>
-    <row r="421" spans="16:16">
-      <c r="P421" s="143"/>
-    </row>
-    <row r="422" spans="16:16">
-      <c r="P422" s="143"/>
-    </row>
-    <row r="423" spans="16:16">
-      <c r="P423" s="143"/>
-    </row>
-    <row r="424" spans="16:16">
-      <c r="P424" s="143"/>
-    </row>
-    <row r="425" spans="16:16">
-      <c r="P425" s="143"/>
-    </row>
-    <row r="426" spans="16:16">
-      <c r="P426" s="143"/>
-    </row>
-    <row r="427" spans="16:16">
-      <c r="P427" s="143"/>
-    </row>
-    <row r="428" spans="16:16">
-      <c r="P428" s="143"/>
-    </row>
-    <row r="429" spans="16:16">
-      <c r="P429" s="143"/>
-    </row>
-    <row r="430" spans="16:16">
-      <c r="P430" s="143"/>
-    </row>
-    <row r="431" spans="16:16">
-      <c r="P431" s="143"/>
-    </row>
-    <row r="432" spans="16:16">
-      <c r="P432" s="143"/>
-    </row>
-    <row r="433" spans="16:16">
-      <c r="P433" s="143"/>
-    </row>
-    <row r="434" spans="16:16">
-      <c r="P434" s="143"/>
-    </row>
-    <row r="435" spans="16:16">
-      <c r="P435" s="143"/>
-    </row>
-    <row r="436" spans="16:16">
-      <c r="P436" s="143"/>
-    </row>
-    <row r="437" spans="16:16">
-      <c r="P437" s="143"/>
-    </row>
-    <row r="438" spans="16:16">
-      <c r="P438" s="143"/>
-    </row>
-    <row r="439" spans="16:16">
-      <c r="P439" s="143"/>
-    </row>
-    <row r="440" spans="16:16">
-      <c r="P440" s="143"/>
-    </row>
-    <row r="441" spans="16:16">
-      <c r="P441" s="143"/>
-    </row>
-    <row r="442" spans="16:16">
-      <c r="P442" s="143"/>
-    </row>
-    <row r="443" spans="16:16">
-      <c r="P443" s="143"/>
-    </row>
-    <row r="444" spans="16:16">
-      <c r="P444" s="143"/>
-    </row>
-    <row r="445" spans="16:16">
-      <c r="P445" s="143"/>
-    </row>
-    <row r="446" spans="16:16">
-      <c r="P446" s="143"/>
-    </row>
-    <row r="447" spans="16:16">
-      <c r="P447" s="143"/>
-    </row>
-    <row r="448" spans="16:16">
-      <c r="P448" s="143"/>
-    </row>
-    <row r="449" spans="16:16">
-      <c r="P449" s="143"/>
-    </row>
-    <row r="450" spans="16:16">
-      <c r="P450" s="143"/>
-    </row>
-    <row r="451" spans="16:16">
-      <c r="P451" s="143"/>
-    </row>
-    <row r="452" spans="16:16">
-      <c r="P452" s="143"/>
-    </row>
-    <row r="453" spans="16:16">
-      <c r="P453" s="143"/>
-    </row>
-    <row r="454" spans="16:16">
-      <c r="P454" s="143"/>
-    </row>
-    <row r="455" spans="16:16">
-      <c r="P455" s="143"/>
-    </row>
-    <row r="456" spans="16:16">
-      <c r="P456" s="143"/>
-    </row>
-    <row r="457" spans="16:16">
-      <c r="P457" s="143"/>
-    </row>
-    <row r="458" spans="16:16">
-      <c r="P458" s="143"/>
-    </row>
-    <row r="459" spans="16:16">
-      <c r="P459" s="143"/>
-    </row>
-    <row r="460" spans="16:16">
-      <c r="P460" s="143"/>
-    </row>
-    <row r="461" spans="16:16">
-      <c r="P461" s="143"/>
-    </row>
-    <row r="462" spans="16:16">
-      <c r="P462" s="143"/>
-    </row>
-    <row r="463" spans="16:16">
-      <c r="P463" s="143"/>
-    </row>
-    <row r="464" spans="16:16">
-      <c r="P464" s="143"/>
-    </row>
-    <row r="465" spans="16:16">
-      <c r="P465" s="143"/>
-    </row>
-    <row r="466" spans="16:16">
-      <c r="P466" s="143"/>
-    </row>
-    <row r="467" spans="16:16">
-      <c r="P467" s="143"/>
-    </row>
-    <row r="468" spans="16:16">
-      <c r="P468" s="143"/>
-    </row>
-    <row r="469" spans="16:16">
-      <c r="P469" s="143"/>
-    </row>
-    <row r="470" spans="16:16">
-      <c r="P470" s="143"/>
-    </row>
-    <row r="471" spans="16:16">
-      <c r="P471" s="143"/>
-    </row>
-    <row r="472" spans="16:16">
-      <c r="P472" s="143"/>
-    </row>
-    <row r="473" spans="16:16">
-      <c r="P473" s="143"/>
-    </row>
-    <row r="474" spans="16:16">
-      <c r="P474" s="143"/>
-    </row>
-    <row r="475" spans="16:16">
-      <c r="P475" s="143"/>
-    </row>
-    <row r="476" spans="16:16">
-      <c r="P476" s="143"/>
-    </row>
-    <row r="477" spans="16:16">
-      <c r="P477" s="143"/>
-    </row>
-    <row r="478" spans="16:16">
-      <c r="P478" s="143"/>
-    </row>
-    <row r="479" spans="16:16">
-      <c r="P479" s="143"/>
-    </row>
-    <row r="480" spans="16:16">
-      <c r="P480" s="143"/>
-    </row>
-    <row r="481" spans="16:16">
-      <c r="P481" s="143"/>
-    </row>
-    <row r="482" spans="16:16">
-      <c r="P482" s="143"/>
-    </row>
-    <row r="483" spans="16:16">
-      <c r="P483" s="143"/>
-    </row>
-    <row r="484" spans="16:16">
-      <c r="P484" s="143"/>
-    </row>
-    <row r="485" spans="16:16">
-      <c r="P485" s="143"/>
-    </row>
-    <row r="486" spans="16:16">
-      <c r="P486" s="143"/>
-    </row>
-    <row r="487" spans="16:16">
-      <c r="P487" s="143"/>
-    </row>
-    <row r="488" spans="16:16">
-      <c r="P488" s="143"/>
-    </row>
-    <row r="489" spans="16:16">
-      <c r="P489" s="143"/>
-    </row>
-    <row r="490" spans="16:16">
-      <c r="P490" s="143"/>
-    </row>
-    <row r="491" spans="16:16">
-      <c r="P491" s="143"/>
-    </row>
-    <row r="492" spans="16:16">
-      <c r="P492" s="143"/>
-    </row>
-    <row r="493" spans="16:16">
-      <c r="P493" s="143"/>
-    </row>
-    <row r="494" spans="16:16">
-      <c r="P494" s="143"/>
-    </row>
-    <row r="495" spans="16:16">
-      <c r="P495" s="143"/>
-    </row>
-    <row r="496" spans="16:16">
-      <c r="P496" s="143"/>
-    </row>
-    <row r="497" spans="16:16">
-      <c r="P497" s="143"/>
-    </row>
-    <row r="498" spans="16:16">
-      <c r="P498" s="143"/>
-    </row>
-    <row r="499" spans="16:16">
-      <c r="P499" s="143"/>
-    </row>
-    <row r="500" spans="16:16">
-      <c r="P500" s="143"/>
-    </row>
-    <row r="501" spans="16:16">
-      <c r="P501" s="143"/>
-    </row>
-    <row r="502" spans="16:16">
-      <c r="P502" s="143"/>
-    </row>
-    <row r="503" spans="16:16">
-      <c r="P503" s="143"/>
-    </row>
-    <row r="504" spans="16:16">
-      <c r="P504" s="143"/>
-    </row>
-    <row r="505" spans="16:16">
-      <c r="P505" s="143"/>
-    </row>
-    <row r="506" spans="16:16">
-      <c r="P506" s="143"/>
-    </row>
-    <row r="507" spans="16:16">
-      <c r="P507" s="143"/>
-    </row>
-    <row r="508" spans="16:16">
-      <c r="P508" s="143"/>
-    </row>
-    <row r="509" spans="16:16">
-      <c r="P509" s="143"/>
-    </row>
-    <row r="510" spans="16:16">
-      <c r="P510" s="143"/>
-    </row>
-    <row r="511" spans="16:16">
-      <c r="P511" s="143"/>
-    </row>
-    <row r="512" spans="16:16">
-      <c r="P512" s="143"/>
-    </row>
-    <row r="513" spans="16:16">
-      <c r="P513" s="143"/>
-    </row>
-    <row r="514" spans="16:16">
-      <c r="P514" s="143"/>
-    </row>
-    <row r="515" spans="16:16">
-      <c r="P515" s="143"/>
-    </row>
-    <row r="516" spans="16:16">
-      <c r="P516" s="143"/>
-    </row>
-    <row r="517" spans="16:16">
-      <c r="P517" s="143"/>
-    </row>
-    <row r="518" spans="16:16">
-      <c r="P518" s="143"/>
-    </row>
-    <row r="519" spans="16:16">
-      <c r="P519" s="143"/>
-    </row>
-    <row r="520" spans="16:16">
-      <c r="P520" s="143"/>
-    </row>
-    <row r="521" spans="16:16">
-      <c r="P521" s="143"/>
-    </row>
-    <row r="522" spans="16:16">
-      <c r="P522" s="143"/>
-    </row>
-    <row r="523" spans="16:16">
-      <c r="P523" s="143"/>
-    </row>
-    <row r="524" spans="16:16">
-      <c r="P524" s="143"/>
-    </row>
-    <row r="525" spans="16:16">
-      <c r="P525" s="143"/>
-    </row>
-    <row r="526" spans="16:16">
-      <c r="P526" s="143"/>
-    </row>
-    <row r="527" spans="16:16">
-      <c r="P527" s="143"/>
-    </row>
-    <row r="528" spans="16:16">
-      <c r="P528" s="143"/>
-    </row>
-    <row r="529" spans="16:16">
-      <c r="P529" s="143"/>
-    </row>
-    <row r="530" spans="16:16">
-      <c r="P530" s="143"/>
-    </row>
-    <row r="531" spans="16:16">
-      <c r="P531" s="143"/>
-    </row>
-    <row r="532" spans="16:16">
-      <c r="P532" s="143"/>
-    </row>
-    <row r="533" spans="16:16">
-      <c r="P533" s="143"/>
-    </row>
-    <row r="534" spans="16:16">
-      <c r="P534" s="143"/>
-    </row>
-    <row r="535" spans="16:16">
-      <c r="P535" s="143"/>
-    </row>
-    <row r="536" spans="16:16">
-      <c r="P536" s="143"/>
-    </row>
-    <row r="537" spans="16:16">
-      <c r="P537" s="143"/>
-    </row>
-    <row r="538" spans="16:16">
-      <c r="P538" s="143"/>
-    </row>
-    <row r="539" spans="16:16">
-      <c r="P539" s="143"/>
-    </row>
-    <row r="540" spans="16:16">
-      <c r="P540" s="143"/>
-    </row>
-    <row r="541" spans="16:16">
-      <c r="P541" s="143"/>
-    </row>
-    <row r="542" spans="16:16">
-      <c r="P542" s="143"/>
-    </row>
-    <row r="543" spans="16:16">
-      <c r="P543" s="143"/>
-    </row>
-    <row r="544" spans="16:16">
-      <c r="P544" s="143"/>
-    </row>
-    <row r="545" spans="16:16">
-      <c r="P545" s="143"/>
-    </row>
-    <row r="546" spans="16:16">
-      <c r="P546" s="143"/>
-    </row>
-    <row r="547" spans="16:16">
-      <c r="P547" s="143"/>
-    </row>
-    <row r="548" spans="16:16">
-      <c r="P548" s="143"/>
-    </row>
-    <row r="549" spans="16:16">
-      <c r="P549" s="143"/>
-    </row>
-    <row r="550" spans="16:16">
-      <c r="P550" s="143"/>
-    </row>
-    <row r="551" spans="16:16">
-      <c r="P551" s="143"/>
-    </row>
-    <row r="552" spans="16:16">
-      <c r="P552" s="143"/>
-    </row>
-    <row r="553" spans="16:16">
-      <c r="P553" s="143"/>
-    </row>
-    <row r="554" spans="16:16">
-      <c r="P554" s="143"/>
-    </row>
-    <row r="555" spans="16:16">
-      <c r="P555" s="143"/>
-    </row>
-    <row r="556" spans="16:16">
-      <c r="P556" s="143"/>
-    </row>
-    <row r="557" spans="16:16">
-      <c r="P557" s="143"/>
-    </row>
-    <row r="558" spans="16:16">
-      <c r="P558" s="143"/>
-    </row>
-    <row r="559" spans="16:16">
-      <c r="P559" s="143"/>
-    </row>
-    <row r="560" spans="16:16">
-      <c r="P560" s="143"/>
-    </row>
-    <row r="561" spans="16:16">
-      <c r="P561" s="143"/>
-    </row>
-    <row r="562" spans="16:16">
-      <c r="P562" s="143"/>
-    </row>
-    <row r="563" spans="16:16">
-      <c r="P563" s="143"/>
-    </row>
-    <row r="564" spans="16:16">
-      <c r="P564" s="143"/>
-    </row>
-    <row r="565" spans="16:16">
-      <c r="P565" s="143"/>
-    </row>
-    <row r="566" spans="16:16">
-      <c r="P566" s="143"/>
-    </row>
-    <row r="567" spans="16:16">
-      <c r="P567" s="143"/>
-    </row>
-    <row r="568" spans="16:16">
-      <c r="P568" s="143"/>
-    </row>
-    <row r="569" spans="16:16">
-      <c r="P569" s="143"/>
-    </row>
-    <row r="570" spans="16:16">
-      <c r="P570" s="143"/>
-    </row>
-    <row r="571" spans="16:16">
-      <c r="P571" s="143"/>
-    </row>
-    <row r="572" spans="16:16">
-      <c r="P572" s="143"/>
-    </row>
-    <row r="573" spans="16:16">
-      <c r="P573" s="143"/>
-    </row>
-    <row r="574" spans="16:16">
-      <c r="P574" s="143"/>
-    </row>
-    <row r="575" spans="16:16">
-      <c r="P575" s="143"/>
-    </row>
-    <row r="576" spans="16:16">
-      <c r="P576" s="143"/>
-    </row>
-    <row r="577" spans="16:16">
-      <c r="P577" s="143"/>
-    </row>
-    <row r="578" spans="16:16">
-      <c r="P578" s="143"/>
-    </row>
-    <row r="579" spans="16:16">
-      <c r="P579" s="143"/>
-    </row>
-    <row r="580" spans="16:16">
-      <c r="P580" s="143"/>
-    </row>
-    <row r="581" spans="16:16">
-      <c r="P581" s="143"/>
-    </row>
-    <row r="582" spans="16:16">
-      <c r="P582" s="143"/>
-    </row>
-    <row r="583" spans="16:16">
-      <c r="P583" s="143"/>
-    </row>
-    <row r="584" spans="16:16">
-      <c r="P584" s="143"/>
-    </row>
-    <row r="585" spans="16:16">
-      <c r="P585" s="143"/>
-    </row>
-    <row r="586" spans="16:16">
-      <c r="P586" s="143"/>
-    </row>
-    <row r="587" spans="16:16">
-      <c r="P587" s="143"/>
-    </row>
-    <row r="588" spans="16:16">
-      <c r="P588" s="143"/>
-    </row>
-    <row r="589" spans="16:16">
-      <c r="P589" s="143"/>
-    </row>
-    <row r="590" spans="16:16">
-      <c r="P590" s="143"/>
-    </row>
-    <row r="591" spans="16:16">
-      <c r="P591" s="143"/>
-    </row>
-    <row r="592" spans="16:16">
-      <c r="P592" s="143"/>
-    </row>
-    <row r="593" spans="16:16">
-      <c r="P593" s="143"/>
-    </row>
-    <row r="594" spans="16:16">
-      <c r="P594" s="143"/>
-    </row>
-    <row r="595" spans="16:16">
-      <c r="P595" s="143"/>
-    </row>
-    <row r="596" spans="16:16">
-      <c r="P596" s="143"/>
-    </row>
-    <row r="597" spans="16:16">
-      <c r="P597" s="143"/>
-    </row>
-    <row r="598" spans="16:16">
-      <c r="P598" s="143"/>
-    </row>
-    <row r="599" spans="16:16">
-      <c r="P599" s="143"/>
-    </row>
-    <row r="600" spans="16:16">
-      <c r="P600" s="143"/>
-    </row>
-    <row r="601" spans="16:16">
-      <c r="P601" s="143"/>
-    </row>
-    <row r="602" spans="16:16">
-      <c r="P602" s="143"/>
-    </row>
-    <row r="603" spans="16:16">
-      <c r="P603" s="143"/>
-    </row>
-    <row r="604" spans="16:16">
-      <c r="P604" s="143"/>
-    </row>
-    <row r="605" spans="16:16">
-      <c r="P605" s="143"/>
-    </row>
-    <row r="606" spans="16:16">
-      <c r="P606" s="143"/>
-    </row>
-    <row r="607" spans="16:16">
-      <c r="P607" s="143"/>
-    </row>
-    <row r="608" spans="16:16">
-      <c r="P608" s="143"/>
-    </row>
-    <row r="609" spans="16:16">
-      <c r="P609" s="143"/>
-    </row>
-    <row r="610" spans="16:16">
-      <c r="P610" s="143"/>
-    </row>
-    <row r="611" spans="16:16">
-      <c r="P611" s="143"/>
-    </row>
-    <row r="612" spans="16:16">
-      <c r="P612" s="143"/>
-    </row>
-    <row r="613" spans="16:16">
-      <c r="P613" s="143"/>
-    </row>
-    <row r="614" spans="16:16">
-      <c r="P614" s="143"/>
-    </row>
-    <row r="615" spans="16:16">
-      <c r="P615" s="143"/>
-    </row>
-    <row r="616" spans="16:16">
-      <c r="P616" s="143"/>
-    </row>
-    <row r="617" spans="16:16">
-      <c r="P617" s="143"/>
-    </row>
-    <row r="618" spans="16:16">
-      <c r="P618" s="143"/>
-    </row>
-    <row r="619" spans="16:16">
-      <c r="P619" s="143"/>
-    </row>
-    <row r="620" spans="16:16">
-      <c r="P620" s="143"/>
-    </row>
-    <row r="621" spans="16:16">
-      <c r="P621" s="143"/>
-    </row>
-    <row r="622" spans="16:16">
-      <c r="P622" s="143"/>
-    </row>
-    <row r="623" spans="16:16">
-      <c r="P623" s="143"/>
-    </row>
-    <row r="624" spans="16:16">
-      <c r="P624" s="143"/>
-    </row>
-    <row r="625" spans="16:16">
-      <c r="P625" s="143"/>
-    </row>
-    <row r="626" spans="16:16">
-      <c r="P626" s="143"/>
-    </row>
-    <row r="627" spans="16:16">
-      <c r="P627" s="143"/>
-    </row>
-    <row r="628" spans="16:16">
-      <c r="P628" s="143"/>
-    </row>
-    <row r="629" spans="16:16">
-      <c r="P629" s="143"/>
-    </row>
-    <row r="630" spans="16:16">
-      <c r="P630" s="143"/>
-    </row>
-    <row r="631" spans="16:16">
-      <c r="P631" s="143"/>
-    </row>
-    <row r="632" spans="16:16">
-      <c r="P632" s="143"/>
-    </row>
-    <row r="633" spans="16:16">
-      <c r="P633" s="143"/>
-    </row>
-    <row r="634" spans="16:16">
-      <c r="P634" s="143"/>
-    </row>
-    <row r="635" spans="16:16">
-      <c r="P635" s="143"/>
-    </row>
-    <row r="636" spans="16:16">
-      <c r="P636" s="143"/>
-    </row>
-    <row r="637" spans="16:16">
-      <c r="P637" s="143"/>
-    </row>
-    <row r="638" spans="16:16">
-      <c r="P638" s="143"/>
-    </row>
-    <row r="639" spans="16:16">
-      <c r="P639" s="143"/>
-    </row>
-    <row r="640" spans="16:16">
-      <c r="P640" s="143"/>
-    </row>
-    <row r="641" spans="16:16">
-      <c r="P641" s="143"/>
-    </row>
-    <row r="642" spans="16:16">
-      <c r="P642" s="143"/>
-    </row>
-    <row r="643" spans="16:16">
-      <c r="P643" s="143"/>
-    </row>
-    <row r="644" spans="16:16">
-      <c r="P644" s="143"/>
-    </row>
-    <row r="645" spans="16:16">
-      <c r="P645" s="143"/>
-    </row>
-    <row r="646" spans="16:16">
-      <c r="P646" s="143"/>
-    </row>
-    <row r="647" spans="16:16">
-      <c r="P647" s="143"/>
-    </row>
-    <row r="648" spans="16:16">
-      <c r="P648" s="143"/>
-    </row>
-    <row r="649" spans="16:16">
-      <c r="P649" s="143"/>
-    </row>
-    <row r="650" spans="16:16">
-      <c r="P650" s="143"/>
-    </row>
-    <row r="651" spans="16:16">
-      <c r="P651" s="143"/>
-    </row>
-    <row r="652" spans="16:16">
-      <c r="P652" s="143"/>
-    </row>
-    <row r="653" spans="16:16">
-      <c r="P653" s="143"/>
-    </row>
-    <row r="654" spans="16:16">
-      <c r="P654" s="143"/>
-    </row>
-    <row r="655" spans="16:16">
-      <c r="P655" s="143"/>
-    </row>
-    <row r="656" spans="16:16">
-      <c r="P656" s="143"/>
-    </row>
-    <row r="657" spans="16:16">
-      <c r="P657" s="143"/>
-    </row>
-    <row r="658" spans="16:16">
-      <c r="P658" s="143"/>
-    </row>
-    <row r="659" spans="16:16">
-      <c r="P659" s="143"/>
-    </row>
-    <row r="660" spans="16:16">
-      <c r="P660" s="143"/>
-    </row>
-    <row r="661" spans="16:16">
-      <c r="P661" s="143"/>
-    </row>
-    <row r="662" spans="16:16">
-      <c r="P662" s="143"/>
-    </row>
-    <row r="663" spans="16:16">
-      <c r="P663" s="143"/>
-    </row>
-    <row r="664" spans="16:16">
-      <c r="P664" s="143"/>
-    </row>
-    <row r="665" spans="16:16">
-      <c r="P665" s="143"/>
-    </row>
-    <row r="666" spans="16:16">
-      <c r="P666" s="143"/>
-    </row>
-    <row r="667" spans="16:16">
-      <c r="P667" s="143"/>
-    </row>
-    <row r="668" spans="16:16">
-      <c r="P668" s="143"/>
-    </row>
-    <row r="669" spans="16:16">
-      <c r="P669" s="143"/>
-    </row>
-    <row r="670" spans="16:16">
-      <c r="P670" s="143"/>
-    </row>
-    <row r="671" spans="16:16">
-      <c r="P671" s="143"/>
-    </row>
-    <row r="672" spans="16:16">
-      <c r="P672" s="143"/>
-    </row>
-    <row r="673" spans="14:16">
-      <c r="P673" s="143"/>
-    </row>
-    <row r="674" spans="14:16">
-      <c r="P674" s="143"/>
-    </row>
-    <row r="675" spans="14:16">
-      <c r="P675" s="143"/>
-    </row>
-    <row r="676" spans="14:16">
-      <c r="N676" s="143"/>
-    </row>
-    <row r="677" spans="14:16">
-      <c r="N677" s="143"/>
-    </row>
-    <row r="678" spans="14:16">
-      <c r="N678" s="143"/>
-    </row>
-    <row r="679" spans="14:16">
-      <c r="N679" s="143"/>
+      <c r="O25" s="81"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="O26" s="81"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="O27" s="81"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="O28" s="81"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="O29" s="81"/>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="O30" s="81"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="O31" s="81"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="O32" s="81"/>
+    </row>
+    <row r="33" spans="15:15">
+      <c r="O33" s="81"/>
+    </row>
+    <row r="34" spans="15:15">
+      <c r="O34" s="81"/>
+    </row>
+    <row r="35" spans="15:15">
+      <c r="O35" s="81"/>
+    </row>
+    <row r="36" spans="15:15">
+      <c r="O36" s="81"/>
+    </row>
+    <row r="37" spans="15:15">
+      <c r="O37" s="81"/>
+    </row>
+    <row r="38" spans="15:15">
+      <c r="O38" s="81"/>
+    </row>
+    <row r="39" spans="15:15">
+      <c r="O39" s="81"/>
+    </row>
+    <row r="40" spans="15:15">
+      <c r="O40" s="81"/>
+    </row>
+    <row r="41" spans="15:15">
+      <c r="O41" s="81"/>
+    </row>
+    <row r="42" spans="15:15">
+      <c r="O42" s="81"/>
+    </row>
+    <row r="43" spans="15:15">
+      <c r="O43" s="81"/>
+    </row>
+    <row r="44" spans="15:15">
+      <c r="O44" s="81"/>
+    </row>
+    <row r="45" spans="15:15">
+      <c r="O45" s="81"/>
+    </row>
+    <row r="46" spans="15:15">
+      <c r="O46" s="81"/>
+    </row>
+    <row r="47" spans="15:15">
+      <c r="O47" s="81"/>
+    </row>
+    <row r="48" spans="15:15">
+      <c r="O48" s="81"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="81"/>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" s="81"/>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" s="81"/>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" s="81"/>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" s="81"/>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" s="81"/>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" s="81"/>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" s="81"/>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" s="81"/>
+    </row>
+    <row r="58" spans="15:15">
+      <c r="O58" s="81"/>
+    </row>
+    <row r="59" spans="15:15">
+      <c r="O59" s="81"/>
+    </row>
+    <row r="60" spans="15:15">
+      <c r="O60" s="81"/>
+    </row>
+    <row r="61" spans="15:15">
+      <c r="O61" s="81"/>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" s="81"/>
+    </row>
+    <row r="63" spans="15:15">
+      <c r="O63" s="81"/>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" s="81"/>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" s="81"/>
+    </row>
+    <row r="66" spans="15:15">
+      <c r="O66" s="81"/>
+    </row>
+    <row r="67" spans="15:15">
+      <c r="O67" s="81"/>
+    </row>
+    <row r="68" spans="15:15">
+      <c r="O68" s="81"/>
+    </row>
+    <row r="69" spans="15:15">
+      <c r="O69" s="81"/>
+    </row>
+    <row r="70" spans="15:15">
+      <c r="O70" s="81"/>
+    </row>
+    <row r="71" spans="15:15">
+      <c r="O71" s="81"/>
+    </row>
+    <row r="72" spans="15:15">
+      <c r="O72" s="81"/>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" s="81"/>
+    </row>
+    <row r="74" spans="15:15">
+      <c r="O74" s="81"/>
+    </row>
+    <row r="75" spans="15:15">
+      <c r="O75" s="81"/>
+    </row>
+    <row r="76" spans="15:15">
+      <c r="O76" s="81"/>
+    </row>
+    <row r="77" spans="15:15">
+      <c r="O77" s="81"/>
+    </row>
+    <row r="78" spans="15:15">
+      <c r="O78" s="81"/>
+    </row>
+    <row r="79" spans="15:15">
+      <c r="O79" s="81"/>
+    </row>
+    <row r="80" spans="15:15">
+      <c r="O80" s="81"/>
+    </row>
+    <row r="81" spans="15:15">
+      <c r="O81" s="81"/>
+    </row>
+    <row r="82" spans="15:15">
+      <c r="O82" s="81"/>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" s="81"/>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" s="81"/>
+    </row>
+    <row r="85" spans="15:15">
+      <c r="O85" s="81"/>
+    </row>
+    <row r="86" spans="15:15">
+      <c r="O86" s="81"/>
+    </row>
+    <row r="87" spans="15:15">
+      <c r="O87" s="81"/>
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" s="81"/>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" s="81"/>
+    </row>
+    <row r="90" spans="15:15">
+      <c r="O90" s="81"/>
+    </row>
+    <row r="91" spans="15:15">
+      <c r="O91" s="81"/>
+    </row>
+    <row r="92" spans="15:15">
+      <c r="O92" s="81"/>
+    </row>
+    <row r="93" spans="15:15">
+      <c r="O93" s="81"/>
+    </row>
+    <row r="94" spans="15:15">
+      <c r="O94" s="81"/>
+    </row>
+    <row r="95" spans="15:15">
+      <c r="O95" s="81"/>
+    </row>
+    <row r="96" spans="15:15">
+      <c r="O96" s="81"/>
+    </row>
+    <row r="97" spans="15:15">
+      <c r="O97" s="81"/>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" s="81"/>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" s="81"/>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" s="81"/>
+    </row>
+    <row r="101" spans="15:15">
+      <c r="O101" s="81"/>
+    </row>
+    <row r="102" spans="15:15">
+      <c r="O102" s="81"/>
+    </row>
+    <row r="103" spans="15:15">
+      <c r="O103" s="81"/>
+    </row>
+    <row r="104" spans="15:15">
+      <c r="O104" s="81"/>
+    </row>
+    <row r="105" spans="15:15">
+      <c r="O105" s="81"/>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" s="81"/>
+    </row>
+    <row r="107" spans="15:15">
+      <c r="O107" s="81"/>
+    </row>
+    <row r="108" spans="15:15">
+      <c r="O108" s="81"/>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" s="81"/>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" s="81"/>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" s="81"/>
+    </row>
+    <row r="112" spans="15:15">
+      <c r="O112" s="81"/>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" s="81"/>
+    </row>
+    <row r="114" spans="15:15">
+      <c r="O114" s="81"/>
+    </row>
+    <row r="115" spans="15:15">
+      <c r="O115" s="81"/>
+    </row>
+    <row r="116" spans="15:15">
+      <c r="O116" s="81"/>
+    </row>
+    <row r="117" spans="15:15">
+      <c r="O117" s="81"/>
+    </row>
+    <row r="118" spans="15:15">
+      <c r="O118" s="81"/>
+    </row>
+    <row r="119" spans="15:15">
+      <c r="O119" s="81"/>
+    </row>
+    <row r="120" spans="15:15">
+      <c r="O120" s="81"/>
+    </row>
+    <row r="121" spans="15:15">
+      <c r="O121" s="81"/>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" s="81"/>
+    </row>
+    <row r="123" spans="15:15">
+      <c r="O123" s="81"/>
+    </row>
+    <row r="124" spans="15:15">
+      <c r="O124" s="81"/>
+    </row>
+    <row r="125" spans="15:15">
+      <c r="O125" s="81"/>
+    </row>
+    <row r="126" spans="15:15">
+      <c r="O126" s="81"/>
+    </row>
+    <row r="127" spans="15:15">
+      <c r="O127" s="81"/>
+    </row>
+    <row r="128" spans="15:15">
+      <c r="O128" s="81"/>
+    </row>
+    <row r="129" spans="15:15">
+      <c r="O129" s="81"/>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" s="81"/>
+    </row>
+    <row r="131" spans="15:15">
+      <c r="O131" s="81"/>
+    </row>
+    <row r="132" spans="15:15">
+      <c r="O132" s="81"/>
+    </row>
+    <row r="133" spans="15:15">
+      <c r="O133" s="81"/>
+    </row>
+    <row r="134" spans="15:15">
+      <c r="O134" s="81"/>
+    </row>
+    <row r="135" spans="15:15">
+      <c r="O135" s="81"/>
+    </row>
+    <row r="136" spans="15:15">
+      <c r="O136" s="81"/>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" s="81"/>
+    </row>
+    <row r="138" spans="15:15">
+      <c r="O138" s="81"/>
+    </row>
+    <row r="139" spans="15:15">
+      <c r="O139" s="81"/>
+    </row>
+    <row r="140" spans="15:15">
+      <c r="O140" s="81"/>
+    </row>
+    <row r="141" spans="15:15">
+      <c r="O141" s="81"/>
+    </row>
+    <row r="142" spans="15:15">
+      <c r="O142" s="81"/>
+    </row>
+    <row r="143" spans="15:15">
+      <c r="O143" s="81"/>
+    </row>
+    <row r="144" spans="15:15">
+      <c r="O144" s="81"/>
+    </row>
+    <row r="145" spans="15:15">
+      <c r="O145" s="81"/>
+    </row>
+    <row r="146" spans="15:15">
+      <c r="O146" s="81"/>
+    </row>
+    <row r="147" spans="15:15">
+      <c r="O147" s="81"/>
+    </row>
+    <row r="148" spans="15:15">
+      <c r="O148" s="81"/>
+    </row>
+    <row r="149" spans="15:15">
+      <c r="O149" s="81"/>
+    </row>
+    <row r="150" spans="15:15">
+      <c r="O150" s="81"/>
+    </row>
+    <row r="151" spans="15:15">
+      <c r="O151" s="81"/>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" s="81"/>
+    </row>
+    <row r="153" spans="15:15">
+      <c r="O153" s="81"/>
+    </row>
+    <row r="154" spans="15:15">
+      <c r="O154" s="81"/>
+    </row>
+    <row r="155" spans="15:15">
+      <c r="O155" s="81"/>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" s="81"/>
+    </row>
+    <row r="157" spans="15:15">
+      <c r="O157" s="81"/>
+    </row>
+    <row r="158" spans="15:15">
+      <c r="O158" s="81"/>
+    </row>
+    <row r="159" spans="15:15">
+      <c r="O159" s="81"/>
+    </row>
+    <row r="160" spans="15:15">
+      <c r="O160" s="81"/>
+    </row>
+    <row r="161" spans="15:15">
+      <c r="O161" s="81"/>
+    </row>
+    <row r="162" spans="15:15">
+      <c r="O162" s="81"/>
+    </row>
+    <row r="163" spans="15:15">
+      <c r="O163" s="81"/>
+    </row>
+    <row r="164" spans="15:15">
+      <c r="O164" s="81"/>
+    </row>
+    <row r="165" spans="15:15">
+      <c r="O165" s="81"/>
+    </row>
+    <row r="166" spans="15:15">
+      <c r="O166" s="81"/>
+    </row>
+    <row r="167" spans="15:15">
+      <c r="O167" s="81"/>
+    </row>
+    <row r="168" spans="15:15">
+      <c r="O168" s="81"/>
+    </row>
+    <row r="169" spans="15:15">
+      <c r="O169" s="81"/>
+    </row>
+    <row r="170" spans="15:15">
+      <c r="O170" s="81"/>
+    </row>
+    <row r="171" spans="15:15">
+      <c r="O171" s="81"/>
+    </row>
+    <row r="172" spans="15:15">
+      <c r="O172" s="81"/>
+    </row>
+    <row r="173" spans="15:15">
+      <c r="O173" s="81"/>
+    </row>
+    <row r="174" spans="15:15">
+      <c r="O174" s="81"/>
+    </row>
+    <row r="175" spans="15:15">
+      <c r="O175" s="81"/>
+    </row>
+    <row r="176" spans="15:15">
+      <c r="O176" s="81"/>
+    </row>
+    <row r="177" spans="15:15">
+      <c r="O177" s="81"/>
+    </row>
+    <row r="178" spans="15:15">
+      <c r="O178" s="81"/>
+    </row>
+    <row r="179" spans="15:15">
+      <c r="O179" s="81"/>
+    </row>
+    <row r="180" spans="15:15">
+      <c r="O180" s="81"/>
+    </row>
+    <row r="181" spans="15:15">
+      <c r="O181" s="81"/>
+    </row>
+    <row r="182" spans="15:15">
+      <c r="O182" s="81"/>
+    </row>
+    <row r="183" spans="15:15">
+      <c r="O183" s="81"/>
+    </row>
+    <row r="184" spans="15:15">
+      <c r="O184" s="81"/>
+    </row>
+    <row r="185" spans="15:15">
+      <c r="O185" s="81"/>
+    </row>
+    <row r="186" spans="15:15">
+      <c r="O186" s="81"/>
+    </row>
+    <row r="187" spans="15:15">
+      <c r="O187" s="81"/>
+    </row>
+    <row r="188" spans="15:15">
+      <c r="O188" s="81"/>
+    </row>
+    <row r="189" spans="15:15">
+      <c r="O189" s="81"/>
+    </row>
+    <row r="190" spans="15:15">
+      <c r="O190" s="81"/>
+    </row>
+    <row r="191" spans="15:15">
+      <c r="O191" s="81"/>
+    </row>
+    <row r="192" spans="15:15">
+      <c r="O192" s="81"/>
+    </row>
+    <row r="193" spans="15:15">
+      <c r="O193" s="81"/>
+    </row>
+    <row r="194" spans="15:15">
+      <c r="O194" s="81"/>
+    </row>
+    <row r="195" spans="15:15">
+      <c r="O195" s="81"/>
+    </row>
+    <row r="196" spans="15:15">
+      <c r="O196" s="81"/>
+    </row>
+    <row r="197" spans="15:15">
+      <c r="O197" s="81"/>
+    </row>
+    <row r="198" spans="15:15">
+      <c r="O198" s="81"/>
+    </row>
+    <row r="199" spans="15:15">
+      <c r="O199" s="81"/>
+    </row>
+    <row r="200" spans="15:15">
+      <c r="O200" s="81"/>
+    </row>
+    <row r="201" spans="15:15">
+      <c r="O201" s="81"/>
+    </row>
+    <row r="202" spans="15:15">
+      <c r="O202" s="81"/>
+    </row>
+    <row r="203" spans="15:15">
+      <c r="O203" s="81"/>
+    </row>
+    <row r="204" spans="15:15">
+      <c r="O204" s="81"/>
+    </row>
+    <row r="205" spans="15:15">
+      <c r="O205" s="81"/>
+    </row>
+    <row r="206" spans="15:15">
+      <c r="O206" s="81"/>
+    </row>
+    <row r="207" spans="15:15">
+      <c r="O207" s="81"/>
+    </row>
+    <row r="208" spans="15:15">
+      <c r="O208" s="81"/>
+    </row>
+    <row r="209" spans="15:15">
+      <c r="O209" s="81"/>
+    </row>
+    <row r="210" spans="15:15">
+      <c r="O210" s="81"/>
+    </row>
+    <row r="211" spans="15:15">
+      <c r="O211" s="81"/>
+    </row>
+    <row r="212" spans="15:15">
+      <c r="O212" s="81"/>
+    </row>
+    <row r="213" spans="15:15">
+      <c r="O213" s="81"/>
+    </row>
+    <row r="214" spans="15:15">
+      <c r="O214" s="81"/>
+    </row>
+    <row r="215" spans="15:15">
+      <c r="O215" s="81"/>
+    </row>
+    <row r="216" spans="15:15">
+      <c r="O216" s="81"/>
+    </row>
+    <row r="217" spans="15:15">
+      <c r="O217" s="81"/>
+    </row>
+    <row r="218" spans="15:15">
+      <c r="O218" s="81"/>
+    </row>
+    <row r="219" spans="15:15">
+      <c r="O219" s="81"/>
+    </row>
+    <row r="220" spans="15:15">
+      <c r="O220" s="81"/>
+    </row>
+    <row r="221" spans="15:15">
+      <c r="O221" s="81"/>
+    </row>
+    <row r="222" spans="15:15">
+      <c r="O222" s="81"/>
+    </row>
+    <row r="223" spans="15:15">
+      <c r="O223" s="81"/>
+    </row>
+    <row r="224" spans="15:15">
+      <c r="O224" s="81"/>
+    </row>
+    <row r="225" spans="15:15">
+      <c r="O225" s="81"/>
+    </row>
+    <row r="226" spans="15:15">
+      <c r="O226" s="81"/>
+    </row>
+    <row r="227" spans="15:15">
+      <c r="O227" s="81"/>
+    </row>
+    <row r="228" spans="15:15">
+      <c r="O228" s="81"/>
+    </row>
+    <row r="229" spans="15:15">
+      <c r="O229" s="81"/>
+    </row>
+    <row r="230" spans="15:15">
+      <c r="O230" s="81"/>
+    </row>
+    <row r="231" spans="15:15">
+      <c r="O231" s="81"/>
+    </row>
+    <row r="232" spans="15:15">
+      <c r="O232" s="81"/>
+    </row>
+    <row r="233" spans="15:15">
+      <c r="O233" s="81"/>
+    </row>
+    <row r="234" spans="15:15">
+      <c r="O234" s="81"/>
+    </row>
+    <row r="235" spans="15:15">
+      <c r="O235" s="81"/>
+    </row>
+    <row r="236" spans="15:15">
+      <c r="O236" s="81"/>
+    </row>
+    <row r="237" spans="15:15">
+      <c r="O237" s="81"/>
+    </row>
+    <row r="238" spans="15:15">
+      <c r="O238" s="81"/>
+    </row>
+    <row r="239" spans="15:15">
+      <c r="O239" s="81"/>
+    </row>
+    <row r="240" spans="15:15">
+      <c r="O240" s="81"/>
+    </row>
+    <row r="241" spans="15:15">
+      <c r="O241" s="81"/>
+    </row>
+    <row r="242" spans="15:15">
+      <c r="O242" s="81"/>
+    </row>
+    <row r="243" spans="15:15">
+      <c r="O243" s="81"/>
+    </row>
+    <row r="244" spans="15:15">
+      <c r="O244" s="81"/>
+    </row>
+    <row r="245" spans="15:15">
+      <c r="O245" s="81"/>
+    </row>
+    <row r="246" spans="15:15">
+      <c r="O246" s="81"/>
+    </row>
+    <row r="247" spans="15:15">
+      <c r="O247" s="81"/>
+    </row>
+    <row r="248" spans="15:15">
+      <c r="O248" s="81"/>
+    </row>
+    <row r="249" spans="15:15">
+      <c r="O249" s="81"/>
+    </row>
+    <row r="250" spans="15:15">
+      <c r="O250" s="81"/>
+    </row>
+    <row r="251" spans="15:15">
+      <c r="O251" s="81"/>
+    </row>
+    <row r="252" spans="15:15">
+      <c r="O252" s="81"/>
+    </row>
+    <row r="253" spans="15:15">
+      <c r="O253" s="81"/>
+    </row>
+    <row r="254" spans="15:15">
+      <c r="O254" s="81"/>
+    </row>
+    <row r="255" spans="15:15">
+      <c r="O255" s="81"/>
+    </row>
+    <row r="256" spans="15:15">
+      <c r="O256" s="81"/>
+    </row>
+    <row r="257" spans="15:15">
+      <c r="O257" s="81"/>
+    </row>
+    <row r="258" spans="15:15">
+      <c r="O258" s="81"/>
+    </row>
+    <row r="259" spans="15:15">
+      <c r="O259" s="81"/>
+    </row>
+    <row r="260" spans="15:15">
+      <c r="O260" s="81"/>
+    </row>
+    <row r="261" spans="15:15">
+      <c r="O261" s="81"/>
+    </row>
+    <row r="262" spans="15:15">
+      <c r="O262" s="81"/>
+    </row>
+    <row r="263" spans="15:15">
+      <c r="O263" s="81"/>
+    </row>
+    <row r="264" spans="15:15">
+      <c r="O264" s="81"/>
+    </row>
+    <row r="265" spans="15:15">
+      <c r="O265" s="81"/>
+    </row>
+    <row r="266" spans="15:15">
+      <c r="O266" s="81"/>
+    </row>
+    <row r="267" spans="15:15">
+      <c r="O267" s="81"/>
+    </row>
+    <row r="268" spans="15:15">
+      <c r="O268" s="81"/>
+    </row>
+    <row r="269" spans="15:15">
+      <c r="O269" s="81"/>
+    </row>
+    <row r="270" spans="15:15">
+      <c r="O270" s="81"/>
+    </row>
+    <row r="271" spans="15:15">
+      <c r="O271" s="81"/>
+    </row>
+    <row r="272" spans="15:15">
+      <c r="O272" s="81"/>
+    </row>
+    <row r="273" spans="15:15">
+      <c r="O273" s="81"/>
+    </row>
+    <row r="274" spans="15:15">
+      <c r="O274" s="81"/>
+    </row>
+    <row r="275" spans="15:15">
+      <c r="O275" s="81"/>
+    </row>
+    <row r="276" spans="15:15">
+      <c r="O276" s="81"/>
+    </row>
+    <row r="277" spans="15:15">
+      <c r="O277" s="81"/>
+    </row>
+    <row r="278" spans="15:15">
+      <c r="O278" s="81"/>
+    </row>
+    <row r="279" spans="15:15">
+      <c r="O279" s="81"/>
+    </row>
+    <row r="280" spans="15:15">
+      <c r="O280" s="81"/>
+    </row>
+    <row r="281" spans="15:15">
+      <c r="O281" s="81"/>
+    </row>
+    <row r="282" spans="15:15">
+      <c r="O282" s="81"/>
+    </row>
+    <row r="283" spans="15:15">
+      <c r="O283" s="81"/>
+    </row>
+    <row r="284" spans="15:15">
+      <c r="O284" s="81"/>
+    </row>
+    <row r="285" spans="15:15">
+      <c r="O285" s="81"/>
+    </row>
+    <row r="286" spans="15:15">
+      <c r="O286" s="81"/>
+    </row>
+    <row r="287" spans="15:15">
+      <c r="O287" s="81"/>
+    </row>
+    <row r="288" spans="15:15">
+      <c r="O288" s="81"/>
+    </row>
+    <row r="289" spans="15:15">
+      <c r="O289" s="81"/>
+    </row>
+    <row r="290" spans="15:15">
+      <c r="O290" s="81"/>
+    </row>
+    <row r="291" spans="15:15">
+      <c r="O291" s="81"/>
+    </row>
+    <row r="292" spans="15:15">
+      <c r="O292" s="81"/>
+    </row>
+    <row r="293" spans="15:15">
+      <c r="O293" s="81"/>
+    </row>
+    <row r="294" spans="15:15">
+      <c r="O294" s="81"/>
+    </row>
+    <row r="295" spans="15:15">
+      <c r="O295" s="81"/>
+    </row>
+    <row r="296" spans="15:15">
+      <c r="O296" s="81"/>
+    </row>
+    <row r="297" spans="15:15">
+      <c r="O297" s="81"/>
+    </row>
+    <row r="298" spans="15:15">
+      <c r="O298" s="81"/>
+    </row>
+    <row r="299" spans="15:15">
+      <c r="O299" s="81"/>
+    </row>
+    <row r="300" spans="15:15">
+      <c r="O300" s="81"/>
+    </row>
+    <row r="301" spans="15:15">
+      <c r="O301" s="81"/>
+    </row>
+    <row r="302" spans="15:15">
+      <c r="O302" s="81"/>
+    </row>
+    <row r="303" spans="15:15">
+      <c r="O303" s="81"/>
+    </row>
+    <row r="304" spans="15:15">
+      <c r="O304" s="81"/>
+    </row>
+    <row r="305" spans="15:15">
+      <c r="O305" s="81"/>
+    </row>
+    <row r="306" spans="15:15">
+      <c r="O306" s="81"/>
+    </row>
+    <row r="307" spans="15:15">
+      <c r="O307" s="81"/>
+    </row>
+    <row r="308" spans="15:15">
+      <c r="O308" s="81"/>
+    </row>
+    <row r="309" spans="15:15">
+      <c r="O309" s="81"/>
+    </row>
+    <row r="310" spans="15:15">
+      <c r="O310" s="81"/>
+    </row>
+    <row r="311" spans="15:15">
+      <c r="O311" s="81"/>
+    </row>
+    <row r="312" spans="15:15">
+      <c r="O312" s="81"/>
+    </row>
+    <row r="313" spans="15:15">
+      <c r="O313" s="81"/>
+    </row>
+    <row r="314" spans="15:15">
+      <c r="O314" s="81"/>
+    </row>
+    <row r="315" spans="15:15">
+      <c r="O315" s="81"/>
+    </row>
+    <row r="316" spans="15:15">
+      <c r="O316" s="81"/>
+    </row>
+    <row r="317" spans="15:15">
+      <c r="O317" s="81"/>
+    </row>
+    <row r="318" spans="15:15">
+      <c r="O318" s="81"/>
+    </row>
+    <row r="319" spans="15:15">
+      <c r="O319" s="81"/>
+    </row>
+    <row r="320" spans="15:15">
+      <c r="O320" s="81"/>
+    </row>
+    <row r="321" spans="15:15">
+      <c r="O321" s="81"/>
+    </row>
+    <row r="322" spans="15:15">
+      <c r="O322" s="81"/>
+    </row>
+    <row r="323" spans="15:15">
+      <c r="O323" s="81"/>
+    </row>
+    <row r="324" spans="15:15">
+      <c r="O324" s="81"/>
+    </row>
+    <row r="325" spans="15:15">
+      <c r="O325" s="81"/>
+    </row>
+    <row r="326" spans="15:15">
+      <c r="O326" s="81"/>
+    </row>
+    <row r="327" spans="15:15">
+      <c r="O327" s="81"/>
+    </row>
+    <row r="328" spans="15:15">
+      <c r="O328" s="81"/>
+    </row>
+    <row r="329" spans="15:15">
+      <c r="O329" s="81"/>
+    </row>
+    <row r="330" spans="15:15">
+      <c r="O330" s="81"/>
+    </row>
+    <row r="331" spans="15:15">
+      <c r="O331" s="81"/>
+    </row>
+    <row r="332" spans="15:15">
+      <c r="O332" s="81"/>
+    </row>
+    <row r="333" spans="15:15">
+      <c r="O333" s="81"/>
+    </row>
+    <row r="334" spans="15:15">
+      <c r="O334" s="81"/>
+    </row>
+    <row r="335" spans="15:15">
+      <c r="O335" s="81"/>
+    </row>
+    <row r="336" spans="15:15">
+      <c r="O336" s="81"/>
+    </row>
+    <row r="337" spans="15:15">
+      <c r="O337" s="81"/>
+    </row>
+    <row r="338" spans="15:15">
+      <c r="O338" s="81"/>
+    </row>
+    <row r="339" spans="15:15">
+      <c r="O339" s="81"/>
+    </row>
+    <row r="340" spans="15:15">
+      <c r="O340" s="81"/>
+    </row>
+    <row r="341" spans="15:15">
+      <c r="O341" s="81"/>
+    </row>
+    <row r="342" spans="15:15">
+      <c r="O342" s="81"/>
+    </row>
+    <row r="343" spans="15:15">
+      <c r="O343" s="81"/>
+    </row>
+    <row r="344" spans="15:15">
+      <c r="O344" s="81"/>
+    </row>
+    <row r="345" spans="15:15">
+      <c r="O345" s="81"/>
+    </row>
+    <row r="346" spans="15:15">
+      <c r="O346" s="81"/>
+    </row>
+    <row r="347" spans="15:15">
+      <c r="O347" s="81"/>
+    </row>
+    <row r="348" spans="15:15">
+      <c r="O348" s="81"/>
+    </row>
+    <row r="349" spans="15:15">
+      <c r="O349" s="81"/>
+    </row>
+    <row r="350" spans="15:15">
+      <c r="O350" s="81"/>
+    </row>
+    <row r="351" spans="15:15">
+      <c r="O351" s="81"/>
+    </row>
+    <row r="352" spans="15:15">
+      <c r="O352" s="81"/>
+    </row>
+    <row r="353" spans="15:15">
+      <c r="O353" s="81"/>
+    </row>
+    <row r="354" spans="15:15">
+      <c r="O354" s="81"/>
+    </row>
+    <row r="355" spans="15:15">
+      <c r="O355" s="81"/>
+    </row>
+    <row r="356" spans="15:15">
+      <c r="O356" s="81"/>
+    </row>
+    <row r="357" spans="15:15">
+      <c r="O357" s="81"/>
+    </row>
+    <row r="358" spans="15:15">
+      <c r="O358" s="81"/>
+    </row>
+    <row r="359" spans="15:15">
+      <c r="O359" s="81"/>
+    </row>
+    <row r="360" spans="15:15">
+      <c r="O360" s="81"/>
+    </row>
+    <row r="361" spans="15:15">
+      <c r="O361" s="81"/>
+    </row>
+    <row r="362" spans="15:15">
+      <c r="O362" s="81"/>
+    </row>
+    <row r="363" spans="15:15">
+      <c r="O363" s="81"/>
+    </row>
+    <row r="364" spans="15:15">
+      <c r="O364" s="81"/>
+    </row>
+    <row r="365" spans="15:15">
+      <c r="O365" s="81"/>
+    </row>
+    <row r="366" spans="15:15">
+      <c r="O366" s="81"/>
+    </row>
+    <row r="367" spans="15:15">
+      <c r="O367" s="81"/>
+    </row>
+    <row r="368" spans="15:15">
+      <c r="O368" s="81"/>
+    </row>
+    <row r="369" spans="15:15">
+      <c r="O369" s="81"/>
+    </row>
+    <row r="370" spans="15:15">
+      <c r="O370" s="81"/>
+    </row>
+    <row r="371" spans="15:15">
+      <c r="O371" s="81"/>
+    </row>
+    <row r="372" spans="15:15">
+      <c r="O372" s="81"/>
+    </row>
+    <row r="373" spans="15:15">
+      <c r="O373" s="81"/>
+    </row>
+    <row r="374" spans="15:15">
+      <c r="O374" s="81"/>
+    </row>
+    <row r="375" spans="15:15">
+      <c r="O375" s="81"/>
+    </row>
+    <row r="376" spans="15:15">
+      <c r="O376" s="81"/>
+    </row>
+    <row r="377" spans="15:15">
+      <c r="O377" s="81"/>
+    </row>
+    <row r="378" spans="15:15">
+      <c r="O378" s="81"/>
+    </row>
+    <row r="379" spans="15:15">
+      <c r="O379" s="81"/>
+    </row>
+    <row r="380" spans="15:15">
+      <c r="O380" s="81"/>
+    </row>
+    <row r="381" spans="15:15">
+      <c r="O381" s="81"/>
+    </row>
+    <row r="382" spans="15:15">
+      <c r="O382" s="81"/>
+    </row>
+    <row r="383" spans="15:15">
+      <c r="O383" s="81"/>
+    </row>
+    <row r="384" spans="15:15">
+      <c r="O384" s="81"/>
+    </row>
+    <row r="385" spans="15:15">
+      <c r="O385" s="81"/>
+    </row>
+    <row r="386" spans="15:15">
+      <c r="O386" s="81"/>
+    </row>
+    <row r="387" spans="15:15">
+      <c r="O387" s="81"/>
+    </row>
+    <row r="388" spans="15:15">
+      <c r="O388" s="81"/>
+    </row>
+    <row r="389" spans="15:15">
+      <c r="O389" s="81"/>
+    </row>
+    <row r="390" spans="15:15">
+      <c r="O390" s="81"/>
+    </row>
+    <row r="391" spans="15:15">
+      <c r="O391" s="81"/>
+    </row>
+    <row r="392" spans="15:15">
+      <c r="O392" s="81"/>
+    </row>
+    <row r="393" spans="15:15">
+      <c r="O393" s="81"/>
+    </row>
+    <row r="394" spans="15:15">
+      <c r="O394" s="81"/>
+    </row>
+    <row r="395" spans="15:15">
+      <c r="O395" s="81"/>
+    </row>
+    <row r="396" spans="15:15">
+      <c r="O396" s="81"/>
+    </row>
+    <row r="397" spans="15:15">
+      <c r="O397" s="81"/>
+    </row>
+    <row r="398" spans="15:15">
+      <c r="O398" s="81"/>
+    </row>
+    <row r="399" spans="15:15">
+      <c r="O399" s="81"/>
+    </row>
+    <row r="400" spans="15:15">
+      <c r="O400" s="81"/>
+    </row>
+    <row r="401" spans="15:15">
+      <c r="O401" s="81"/>
+    </row>
+    <row r="402" spans="15:15">
+      <c r="O402" s="81"/>
+    </row>
+    <row r="403" spans="15:15">
+      <c r="O403" s="81"/>
+    </row>
+    <row r="404" spans="15:15">
+      <c r="O404" s="126"/>
+    </row>
+    <row r="405" spans="15:15">
+      <c r="O405" s="126"/>
+    </row>
+    <row r="406" spans="15:15">
+      <c r="O406" s="126"/>
+    </row>
+    <row r="407" spans="15:15">
+      <c r="O407" s="126"/>
+    </row>
+    <row r="408" spans="15:15">
+      <c r="O408" s="126"/>
+    </row>
+    <row r="409" spans="15:15">
+      <c r="O409" s="126"/>
+    </row>
+    <row r="410" spans="15:15">
+      <c r="O410" s="126"/>
+    </row>
+    <row r="411" spans="15:15">
+      <c r="O411" s="126"/>
+    </row>
+    <row r="412" spans="15:15">
+      <c r="O412" s="126"/>
+    </row>
+    <row r="413" spans="15:15">
+      <c r="O413" s="126"/>
+    </row>
+    <row r="414" spans="15:15">
+      <c r="O414" s="126"/>
+    </row>
+    <row r="415" spans="15:15">
+      <c r="O415" s="126"/>
+    </row>
+    <row r="416" spans="15:15">
+      <c r="O416" s="126"/>
+    </row>
+    <row r="417" spans="15:15">
+      <c r="O417" s="126"/>
+    </row>
+    <row r="418" spans="15:15">
+      <c r="O418" s="126"/>
+    </row>
+    <row r="419" spans="15:15">
+      <c r="O419" s="126"/>
+    </row>
+    <row r="420" spans="15:15">
+      <c r="O420" s="126"/>
+    </row>
+    <row r="421" spans="15:15">
+      <c r="O421" s="126"/>
+    </row>
+    <row r="422" spans="15:15">
+      <c r="O422" s="126"/>
+    </row>
+    <row r="423" spans="15:15">
+      <c r="O423" s="126"/>
+    </row>
+    <row r="424" spans="15:15">
+      <c r="O424" s="126"/>
+    </row>
+    <row r="425" spans="15:15">
+      <c r="O425" s="126"/>
+    </row>
+    <row r="426" spans="15:15">
+      <c r="O426" s="126"/>
+    </row>
+    <row r="427" spans="15:15">
+      <c r="O427" s="126"/>
+    </row>
+    <row r="428" spans="15:15">
+      <c r="O428" s="126"/>
+    </row>
+    <row r="429" spans="15:15">
+      <c r="O429" s="126"/>
+    </row>
+    <row r="430" spans="15:15">
+      <c r="O430" s="126"/>
+    </row>
+    <row r="431" spans="15:15">
+      <c r="O431" s="126"/>
+    </row>
+    <row r="432" spans="15:15">
+      <c r="O432" s="126"/>
+    </row>
+    <row r="433" spans="15:15">
+      <c r="O433" s="126"/>
+    </row>
+    <row r="434" spans="15:15">
+      <c r="O434" s="126"/>
+    </row>
+    <row r="435" spans="15:15">
+      <c r="O435" s="126"/>
+    </row>
+    <row r="436" spans="15:15">
+      <c r="O436" s="126"/>
+    </row>
+    <row r="437" spans="15:15">
+      <c r="O437" s="126"/>
+    </row>
+    <row r="438" spans="15:15">
+      <c r="O438" s="126"/>
+    </row>
+    <row r="439" spans="15:15">
+      <c r="O439" s="126"/>
+    </row>
+    <row r="440" spans="15:15">
+      <c r="O440" s="126"/>
+    </row>
+    <row r="441" spans="15:15">
+      <c r="O441" s="126"/>
+    </row>
+    <row r="442" spans="15:15">
+      <c r="O442" s="126"/>
+    </row>
+    <row r="443" spans="15:15">
+      <c r="O443" s="126"/>
+    </row>
+    <row r="444" spans="15:15">
+      <c r="O444" s="126"/>
+    </row>
+    <row r="445" spans="15:15">
+      <c r="O445" s="126"/>
+    </row>
+    <row r="446" spans="15:15">
+      <c r="O446" s="126"/>
+    </row>
+    <row r="447" spans="15:15">
+      <c r="O447" s="126"/>
+    </row>
+    <row r="448" spans="15:15">
+      <c r="O448" s="126"/>
+    </row>
+    <row r="449" spans="15:15">
+      <c r="O449" s="126"/>
+    </row>
+    <row r="450" spans="15:15">
+      <c r="O450" s="126"/>
+    </row>
+    <row r="451" spans="15:15">
+      <c r="O451" s="126"/>
+    </row>
+    <row r="452" spans="15:15">
+      <c r="O452" s="126"/>
+    </row>
+    <row r="453" spans="15:15">
+      <c r="O453" s="126"/>
+    </row>
+    <row r="454" spans="15:15">
+      <c r="O454" s="126"/>
+    </row>
+    <row r="455" spans="15:15">
+      <c r="O455" s="126"/>
+    </row>
+    <row r="456" spans="15:15">
+      <c r="O456" s="126"/>
+    </row>
+    <row r="457" spans="15:15">
+      <c r="O457" s="126"/>
+    </row>
+    <row r="458" spans="15:15">
+      <c r="O458" s="126"/>
+    </row>
+    <row r="459" spans="15:15">
+      <c r="O459" s="126"/>
+    </row>
+    <row r="460" spans="15:15">
+      <c r="O460" s="126"/>
+    </row>
+    <row r="461" spans="15:15">
+      <c r="O461" s="126"/>
+    </row>
+    <row r="462" spans="15:15">
+      <c r="O462" s="126"/>
+    </row>
+    <row r="463" spans="15:15">
+      <c r="O463" s="126"/>
+    </row>
+    <row r="464" spans="15:15">
+      <c r="O464" s="126"/>
+    </row>
+    <row r="465" spans="15:15">
+      <c r="O465" s="126"/>
+    </row>
+    <row r="466" spans="15:15">
+      <c r="O466" s="126"/>
+    </row>
+    <row r="467" spans="15:15">
+      <c r="O467" s="126"/>
+    </row>
+    <row r="468" spans="15:15">
+      <c r="O468" s="126"/>
+    </row>
+    <row r="469" spans="15:15">
+      <c r="O469" s="126"/>
+    </row>
+    <row r="470" spans="15:15">
+      <c r="O470" s="126"/>
+    </row>
+    <row r="471" spans="15:15">
+      <c r="O471" s="126"/>
+    </row>
+    <row r="472" spans="15:15">
+      <c r="O472" s="126"/>
+    </row>
+    <row r="473" spans="15:15">
+      <c r="O473" s="126"/>
+    </row>
+    <row r="474" spans="15:15">
+      <c r="O474" s="126"/>
+    </row>
+    <row r="475" spans="15:15">
+      <c r="O475" s="126"/>
+    </row>
+    <row r="476" spans="15:15">
+      <c r="O476" s="126"/>
+    </row>
+    <row r="477" spans="15:15">
+      <c r="O477" s="126"/>
+    </row>
+    <row r="478" spans="15:15">
+      <c r="O478" s="126"/>
+    </row>
+    <row r="479" spans="15:15">
+      <c r="O479" s="126"/>
+    </row>
+    <row r="480" spans="15:15">
+      <c r="O480" s="126"/>
+    </row>
+    <row r="481" spans="15:15">
+      <c r="O481" s="126"/>
+    </row>
+    <row r="482" spans="15:15">
+      <c r="O482" s="126"/>
+    </row>
+    <row r="483" spans="15:15">
+      <c r="O483" s="126"/>
+    </row>
+    <row r="484" spans="15:15">
+      <c r="O484" s="126"/>
+    </row>
+    <row r="485" spans="15:15">
+      <c r="O485" s="126"/>
+    </row>
+    <row r="486" spans="15:15">
+      <c r="O486" s="126"/>
+    </row>
+    <row r="487" spans="15:15">
+      <c r="O487" s="126"/>
+    </row>
+    <row r="488" spans="15:15">
+      <c r="O488" s="126"/>
+    </row>
+    <row r="489" spans="15:15">
+      <c r="O489" s="126"/>
+    </row>
+    <row r="490" spans="15:15">
+      <c r="O490" s="126"/>
+    </row>
+    <row r="491" spans="15:15">
+      <c r="O491" s="126"/>
+    </row>
+    <row r="492" spans="15:15">
+      <c r="O492" s="126"/>
+    </row>
+    <row r="493" spans="15:15">
+      <c r="O493" s="126"/>
+    </row>
+    <row r="494" spans="15:15">
+      <c r="O494" s="126"/>
+    </row>
+    <row r="495" spans="15:15">
+      <c r="O495" s="126"/>
+    </row>
+    <row r="496" spans="15:15">
+      <c r="O496" s="126"/>
+    </row>
+    <row r="497" spans="15:15">
+      <c r="O497" s="126"/>
+    </row>
+    <row r="498" spans="15:15">
+      <c r="O498" s="126"/>
+    </row>
+    <row r="499" spans="15:15">
+      <c r="O499" s="126"/>
+    </row>
+    <row r="500" spans="15:15">
+      <c r="O500" s="126"/>
+    </row>
+    <row r="501" spans="15:15">
+      <c r="O501" s="126"/>
+    </row>
+    <row r="502" spans="15:15">
+      <c r="O502" s="126"/>
+    </row>
+    <row r="503" spans="15:15">
+      <c r="O503" s="126"/>
+    </row>
+    <row r="504" spans="15:15">
+      <c r="O504" s="126"/>
+    </row>
+    <row r="505" spans="15:15">
+      <c r="O505" s="126"/>
+    </row>
+    <row r="506" spans="15:15">
+      <c r="O506" s="126"/>
+    </row>
+    <row r="507" spans="15:15">
+      <c r="O507" s="126"/>
+    </row>
+    <row r="508" spans="15:15">
+      <c r="O508" s="126"/>
+    </row>
+    <row r="509" spans="15:15">
+      <c r="O509" s="126"/>
+    </row>
+    <row r="510" spans="15:15">
+      <c r="O510" s="126"/>
+    </row>
+    <row r="511" spans="15:15">
+      <c r="O511" s="126"/>
+    </row>
+    <row r="512" spans="15:15">
+      <c r="O512" s="126"/>
+    </row>
+    <row r="513" spans="15:15">
+      <c r="O513" s="126"/>
+    </row>
+    <row r="514" spans="15:15">
+      <c r="O514" s="126"/>
+    </row>
+    <row r="515" spans="15:15">
+      <c r="O515" s="126"/>
+    </row>
+    <row r="516" spans="15:15">
+      <c r="O516" s="126"/>
+    </row>
+    <row r="517" spans="15:15">
+      <c r="O517" s="126"/>
+    </row>
+    <row r="518" spans="15:15">
+      <c r="O518" s="126"/>
+    </row>
+    <row r="519" spans="15:15">
+      <c r="O519" s="126"/>
+    </row>
+    <row r="520" spans="15:15">
+      <c r="O520" s="126"/>
+    </row>
+    <row r="521" spans="15:15">
+      <c r="O521" s="126"/>
+    </row>
+    <row r="522" spans="15:15">
+      <c r="O522" s="126"/>
+    </row>
+    <row r="523" spans="15:15">
+      <c r="O523" s="126"/>
+    </row>
+    <row r="524" spans="15:15">
+      <c r="O524" s="126"/>
+    </row>
+    <row r="525" spans="15:15">
+      <c r="O525" s="126"/>
+    </row>
+    <row r="526" spans="15:15">
+      <c r="O526" s="126"/>
+    </row>
+    <row r="527" spans="15:15">
+      <c r="O527" s="126"/>
+    </row>
+    <row r="528" spans="15:15">
+      <c r="O528" s="126"/>
+    </row>
+    <row r="529" spans="15:15">
+      <c r="O529" s="126"/>
+    </row>
+    <row r="530" spans="15:15">
+      <c r="O530" s="126"/>
+    </row>
+    <row r="531" spans="15:15">
+      <c r="O531" s="126"/>
+    </row>
+    <row r="532" spans="15:15">
+      <c r="O532" s="126"/>
+    </row>
+    <row r="533" spans="15:15">
+      <c r="O533" s="126"/>
+    </row>
+    <row r="534" spans="15:15">
+      <c r="O534" s="126"/>
+    </row>
+    <row r="535" spans="15:15">
+      <c r="O535" s="126"/>
+    </row>
+    <row r="536" spans="15:15">
+      <c r="O536" s="126"/>
+    </row>
+    <row r="537" spans="15:15">
+      <c r="O537" s="126"/>
+    </row>
+    <row r="538" spans="15:15">
+      <c r="O538" s="126"/>
+    </row>
+    <row r="539" spans="15:15">
+      <c r="O539" s="126"/>
+    </row>
+    <row r="540" spans="15:15">
+      <c r="O540" s="126"/>
+    </row>
+    <row r="541" spans="15:15">
+      <c r="O541" s="126"/>
+    </row>
+    <row r="542" spans="15:15">
+      <c r="O542" s="126"/>
+    </row>
+    <row r="543" spans="15:15">
+      <c r="O543" s="126"/>
+    </row>
+    <row r="544" spans="15:15">
+      <c r="O544" s="126"/>
+    </row>
+    <row r="545" spans="15:15">
+      <c r="O545" s="126"/>
+    </row>
+    <row r="546" spans="15:15">
+      <c r="O546" s="126"/>
+    </row>
+    <row r="547" spans="15:15">
+      <c r="O547" s="126"/>
+    </row>
+    <row r="548" spans="15:15">
+      <c r="O548" s="126"/>
+    </row>
+    <row r="549" spans="15:15">
+      <c r="O549" s="126"/>
+    </row>
+    <row r="550" spans="15:15">
+      <c r="O550" s="126"/>
+    </row>
+    <row r="551" spans="15:15">
+      <c r="O551" s="126"/>
+    </row>
+    <row r="552" spans="15:15">
+      <c r="O552" s="126"/>
+    </row>
+    <row r="553" spans="15:15">
+      <c r="O553" s="126"/>
+    </row>
+    <row r="554" spans="15:15">
+      <c r="O554" s="126"/>
+    </row>
+    <row r="555" spans="15:15">
+      <c r="O555" s="126"/>
+    </row>
+    <row r="556" spans="15:15">
+      <c r="O556" s="126"/>
+    </row>
+    <row r="557" spans="15:15">
+      <c r="O557" s="126"/>
+    </row>
+    <row r="558" spans="15:15">
+      <c r="O558" s="126"/>
+    </row>
+    <row r="559" spans="15:15">
+      <c r="O559" s="126"/>
+    </row>
+    <row r="560" spans="15:15">
+      <c r="O560" s="126"/>
+    </row>
+    <row r="561" spans="15:15">
+      <c r="O561" s="126"/>
+    </row>
+    <row r="562" spans="15:15">
+      <c r="O562" s="126"/>
+    </row>
+    <row r="563" spans="15:15">
+      <c r="O563" s="126"/>
+    </row>
+    <row r="564" spans="15:15">
+      <c r="O564" s="126"/>
+    </row>
+    <row r="565" spans="15:15">
+      <c r="O565" s="126"/>
+    </row>
+    <row r="566" spans="15:15">
+      <c r="O566" s="126"/>
+    </row>
+    <row r="567" spans="15:15">
+      <c r="O567" s="126"/>
+    </row>
+    <row r="568" spans="15:15">
+      <c r="O568" s="126"/>
+    </row>
+    <row r="569" spans="15:15">
+      <c r="O569" s="126"/>
+    </row>
+    <row r="570" spans="15:15">
+      <c r="O570" s="126"/>
+    </row>
+    <row r="571" spans="15:15">
+      <c r="O571" s="126"/>
+    </row>
+    <row r="572" spans="15:15">
+      <c r="O572" s="126"/>
+    </row>
+    <row r="573" spans="15:15">
+      <c r="O573" s="126"/>
+    </row>
+    <row r="574" spans="15:15">
+      <c r="O574" s="126"/>
+    </row>
+    <row r="575" spans="15:15">
+      <c r="O575" s="126"/>
+    </row>
+    <row r="576" spans="15:15">
+      <c r="O576" s="126"/>
+    </row>
+    <row r="577" spans="15:15">
+      <c r="O577" s="126"/>
+    </row>
+    <row r="578" spans="15:15">
+      <c r="O578" s="126"/>
+    </row>
+    <row r="579" spans="15:15">
+      <c r="O579" s="126"/>
+    </row>
+    <row r="580" spans="15:15">
+      <c r="O580" s="126"/>
+    </row>
+    <row r="581" spans="15:15">
+      <c r="O581" s="126"/>
+    </row>
+    <row r="582" spans="15:15">
+      <c r="O582" s="126"/>
+    </row>
+    <row r="583" spans="15:15">
+      <c r="O583" s="126"/>
+    </row>
+    <row r="584" spans="15:15">
+      <c r="O584" s="126"/>
+    </row>
+    <row r="585" spans="15:15">
+      <c r="O585" s="126"/>
+    </row>
+    <row r="586" spans="15:15">
+      <c r="O586" s="126"/>
+    </row>
+    <row r="587" spans="15:15">
+      <c r="O587" s="126"/>
+    </row>
+    <row r="588" spans="15:15">
+      <c r="O588" s="126"/>
+    </row>
+    <row r="589" spans="15:15">
+      <c r="O589" s="126"/>
+    </row>
+    <row r="590" spans="15:15">
+      <c r="O590" s="126"/>
+    </row>
+    <row r="591" spans="15:15">
+      <c r="O591" s="126"/>
+    </row>
+    <row r="592" spans="15:15">
+      <c r="O592" s="126"/>
+    </row>
+    <row r="593" spans="15:15">
+      <c r="O593" s="126"/>
+    </row>
+    <row r="594" spans="15:15">
+      <c r="O594" s="126"/>
+    </row>
+    <row r="595" spans="15:15">
+      <c r="O595" s="126"/>
+    </row>
+    <row r="596" spans="15:15">
+      <c r="O596" s="126"/>
+    </row>
+    <row r="597" spans="15:15">
+      <c r="O597" s="126"/>
+    </row>
+    <row r="598" spans="15:15">
+      <c r="O598" s="126"/>
+    </row>
+    <row r="599" spans="15:15">
+      <c r="O599" s="126"/>
+    </row>
+    <row r="600" spans="15:15">
+      <c r="O600" s="126"/>
+    </row>
+    <row r="601" spans="15:15">
+      <c r="O601" s="126"/>
+    </row>
+    <row r="602" spans="15:15">
+      <c r="O602" s="126"/>
+    </row>
+    <row r="603" spans="15:15">
+      <c r="O603" s="126"/>
+    </row>
+    <row r="604" spans="15:15">
+      <c r="O604" s="126"/>
+    </row>
+    <row r="605" spans="15:15">
+      <c r="O605" s="126"/>
+    </row>
+    <row r="606" spans="15:15">
+      <c r="O606" s="126"/>
+    </row>
+    <row r="607" spans="15:15">
+      <c r="O607" s="126"/>
+    </row>
+    <row r="608" spans="15:15">
+      <c r="O608" s="126"/>
+    </row>
+    <row r="609" spans="15:15">
+      <c r="O609" s="126"/>
+    </row>
+    <row r="610" spans="15:15">
+      <c r="O610" s="126"/>
+    </row>
+    <row r="611" spans="15:15">
+      <c r="O611" s="126"/>
+    </row>
+    <row r="612" spans="15:15">
+      <c r="O612" s="126"/>
+    </row>
+    <row r="613" spans="15:15">
+      <c r="O613" s="126"/>
+    </row>
+    <row r="614" spans="15:15">
+      <c r="O614" s="126"/>
+    </row>
+    <row r="615" spans="15:15">
+      <c r="O615" s="126"/>
+    </row>
+    <row r="616" spans="15:15">
+      <c r="O616" s="126"/>
+    </row>
+    <row r="617" spans="15:15">
+      <c r="O617" s="126"/>
+    </row>
+    <row r="618" spans="15:15">
+      <c r="O618" s="126"/>
+    </row>
+    <row r="619" spans="15:15">
+      <c r="O619" s="126"/>
+    </row>
+    <row r="620" spans="15:15">
+      <c r="O620" s="126"/>
+    </row>
+    <row r="621" spans="15:15">
+      <c r="O621" s="126"/>
+    </row>
+    <row r="622" spans="15:15">
+      <c r="O622" s="126"/>
+    </row>
+    <row r="623" spans="15:15">
+      <c r="O623" s="126"/>
+    </row>
+    <row r="624" spans="15:15">
+      <c r="O624" s="126"/>
+    </row>
+    <row r="625" spans="15:15">
+      <c r="O625" s="126"/>
+    </row>
+    <row r="626" spans="15:15">
+      <c r="O626" s="126"/>
+    </row>
+    <row r="627" spans="15:15">
+      <c r="O627" s="126"/>
+    </row>
+    <row r="628" spans="15:15">
+      <c r="O628" s="126"/>
+    </row>
+    <row r="629" spans="15:15">
+      <c r="O629" s="126"/>
+    </row>
+    <row r="630" spans="15:15">
+      <c r="O630" s="126"/>
+    </row>
+    <row r="631" spans="15:15">
+      <c r="O631" s="126"/>
+    </row>
+    <row r="632" spans="15:15">
+      <c r="O632" s="126"/>
+    </row>
+    <row r="633" spans="15:15">
+      <c r="O633" s="126"/>
+    </row>
+    <row r="634" spans="15:15">
+      <c r="O634" s="126"/>
+    </row>
+    <row r="635" spans="15:15">
+      <c r="O635" s="126"/>
+    </row>
+    <row r="636" spans="15:15">
+      <c r="O636" s="126"/>
+    </row>
+    <row r="637" spans="15:15">
+      <c r="O637" s="126"/>
+    </row>
+    <row r="638" spans="15:15">
+      <c r="O638" s="126"/>
+    </row>
+    <row r="639" spans="15:15">
+      <c r="O639" s="126"/>
+    </row>
+    <row r="640" spans="15:15">
+      <c r="O640" s="126"/>
+    </row>
+    <row r="641" spans="15:15">
+      <c r="O641" s="126"/>
+    </row>
+    <row r="642" spans="15:15">
+      <c r="O642" s="126"/>
+    </row>
+    <row r="643" spans="15:15">
+      <c r="O643" s="126"/>
+    </row>
+    <row r="644" spans="15:15">
+      <c r="O644" s="126"/>
+    </row>
+    <row r="645" spans="15:15">
+      <c r="O645" s="126"/>
+    </row>
+    <row r="646" spans="15:15">
+      <c r="O646" s="126"/>
+    </row>
+    <row r="647" spans="15:15">
+      <c r="O647" s="126"/>
+    </row>
+    <row r="648" spans="15:15">
+      <c r="O648" s="126"/>
+    </row>
+    <row r="649" spans="15:15">
+      <c r="O649" s="126"/>
+    </row>
+    <row r="650" spans="15:15">
+      <c r="O650" s="126"/>
+    </row>
+    <row r="651" spans="15:15">
+      <c r="O651" s="126"/>
+    </row>
+    <row r="652" spans="15:15">
+      <c r="O652" s="126"/>
+    </row>
+    <row r="653" spans="15:15">
+      <c r="O653" s="126"/>
+    </row>
+    <row r="654" spans="15:15">
+      <c r="O654" s="126"/>
+    </row>
+    <row r="655" spans="15:15">
+      <c r="O655" s="126"/>
+    </row>
+    <row r="656" spans="15:15">
+      <c r="O656" s="126"/>
+    </row>
+    <row r="657" spans="15:15">
+      <c r="O657" s="126"/>
+    </row>
+    <row r="658" spans="15:15">
+      <c r="O658" s="126"/>
+    </row>
+    <row r="659" spans="15:15">
+      <c r="O659" s="126"/>
+    </row>
+    <row r="660" spans="15:15">
+      <c r="O660" s="126"/>
+    </row>
+    <row r="661" spans="15:15">
+      <c r="O661" s="126"/>
+    </row>
+    <row r="662" spans="15:15">
+      <c r="O662" s="126"/>
+    </row>
+    <row r="663" spans="15:15">
+      <c r="O663" s="126"/>
+    </row>
+    <row r="664" spans="15:15">
+      <c r="O664" s="126"/>
+    </row>
+    <row r="665" spans="15:15">
+      <c r="O665" s="126"/>
+    </row>
+    <row r="666" spans="15:15">
+      <c r="O666" s="126"/>
+    </row>
+    <row r="667" spans="15:15">
+      <c r="O667" s="126"/>
+    </row>
+    <row r="668" spans="15:15">
+      <c r="O668" s="126"/>
+    </row>
+    <row r="669" spans="15:15">
+      <c r="O669" s="126"/>
+    </row>
+    <row r="670" spans="15:15">
+      <c r="O670" s="126"/>
+    </row>
+    <row r="671" spans="15:15">
+      <c r="O671" s="126"/>
+    </row>
+    <row r="672" spans="15:15">
+      <c r="O672" s="126"/>
+    </row>
+    <row r="673" spans="15:15">
+      <c r="O673" s="126"/>
+    </row>
+    <row r="674" spans="15:15">
+      <c r="O674" s="126"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10102,74 +9155,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="E9" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="E10" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="E11" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="E12" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="E13" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="F14" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="F15" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="4:6">
       <c r="E23" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="F24" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="4:6">
@@ -10179,7 +9232,7 @@
     </row>
     <row r="26" spans="4:6">
       <c r="E26" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="4:6">
@@ -10193,57 +9246,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="D3" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="D5" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="G6" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="D8" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="I9" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="D10" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="I11" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138AA5D2-12BE-42D7-AB82-E1C468B7657D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D626A6-C7AC-45AE-BDC3-2E19A953DADA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
     <sheet name="LoganPluginCore调用" sheetId="4" r:id="rId2"/>
     <sheet name="HMI Event注册" sheetId="8" r:id="rId3"/>
-    <sheet name="HMI Event调用" sheetId="6" r:id="rId4"/>
-    <sheet name="main" sheetId="7" r:id="rId5"/>
+    <sheet name="HMI Event调用 (2)" sheetId="9" r:id="rId4"/>
+    <sheet name="HMI Event调用" sheetId="6" r:id="rId5"/>
+    <sheet name="main" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="178">
   <si>
     <t>EventBusService::registerForEvent&lt;TnGetCountryListEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::AddressCaptureQueryCountry);</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1125,6 +1126,400 @@
   </si>
   <si>
     <r>
+      <t>explicit EventHandlerAdapter(TnWeakPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; wpHandler, void (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::*func)(const TnSharedPtr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&amp;), TnEventQueue * pQueue) : </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_handlers.insert(std::pair&lt;const std::string, TnSharedPtr&lt;EventHandlerAdapterBase&gt; &gt;(key, pAdapter));</t>
+  </si>
+  <si>
+    <t>m_eventListeners.insert(std::map&lt;std::string, TnSharedPtr&lt;void&gt; &gt;::value_type(key, pListener));</t>
+  </si>
+  <si>
+    <r>
+      <t>std::string key = typeid(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).name();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TnSharedPtr&lt;void&gt; pListener(new EventListener&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(this));</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pQueue(pQueue) </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template &lt;class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void subscribe( tn::function&lt;void(const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&amp;)&gt; handler, void* tag = NULL ) { </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tn::shared_ptr&lt;SubscriberForEvent&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &gt; s = tn::make_shared&lt;SubscriberForEvent&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &gt;();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;(boost::bind(static_cast&lt;void (EventListener::*)(const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;EventAdapter&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventAdapter&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
+    </r>
+  </si>
+  <si>
+    <t>注册步骤：</t>
+  </si>
+  <si>
+    <t>1. 注册一个EventT事件，注册时传入参数为func指针和func所在对象的弱引用</t>
+  </si>
+  <si>
+    <r>
+      <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(obj, memberFunction, this));</t>
+    </r>
+  </si>
+  <si>
+    <t>2. new一个EventHandlerAdapter对象的同时，以func指针、func所在对象的弱引用初始化其成员，并以func所在对象的句柄、func类型对应的str、EventQueue的this指针初始化其基类成员</t>
+  </si>
+  <si>
+    <t>3. 以EventT类型对应的str、刚才new的EventHandlerAdapter对象shareptr为键值对添加到multimap成员中</t>
+  </si>
+  <si>
+    <t>4. new一个EventListener对象的同时，以EventQueue的this指针初始化其成员</t>
+  </si>
+  <si>
+    <t>这里构建2个SubscriberForEvent，模板参数分别为EventT、EventAdapter&lt;EventT&gt;。后者所谓适配器是比前者多了EventQueue的this指针</t>
+  </si>
+  <si>
+    <t>5. 以EventT类型对应的str、刚才new的EventListener对象ptr为键值对添加到map成员中</t>
+  </si>
+  <si>
+    <t>在EventListener构造函数的内，调用Eventbus的subscribe方法以添加订阅者到subscriber中；订阅者为工厂函数创建的SubscriberForEvent，其成员指定为EventListener::handle和EventQueue的this指针</t>
+  </si>
+  <si>
+    <r>
       <t>AutoSDKService::eventQueue()-&gt;registerForEvent&lt;</t>
     </r>
     <r>
@@ -1169,86 +1564,28 @@
       </rPr>
       <t>&gt;(mAutoSDKService), &amp;AutoSDKService::handleCommonPluginInitCompleteEvent);</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>explicit EventHandlerAdapter(TnWeakPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; wpHandler, void (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>::*func)(const TnSharedPtr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;&amp;), TnEventQueue * pQueue) : </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_handlers.insert(std::pair&lt;const std::string, TnSharedPtr&lt;EventHandlerAdapterBase&gt; &gt;(key, pAdapter));</t>
-  </si>
-  <si>
-    <t>m_eventListeners.insert(std::map&lt;std::string, TnSharedPtr&lt;void&gt; &gt;::value_type(key, pListener));</t>
-  </si>
-  <si>
-    <r>
-      <t>std::string key = typeid(</t>
+  </si>
+  <si>
+    <t>调用步骤：</t>
+  </si>
+  <si>
+    <t>void LoganPluginCore::NotifyInitializeComplete(eTnStatus status, int stage)</t>
+  </si>
+  <si>
+    <t>TnCommonPluginInitializedEvent::ptr ptrEvent(new TnCommonPluginInitializedEvent);</t>
+  </si>
+  <si>
+    <t>Tn::EventBusService::broadcastEvent&lt;TnCommonPluginInitializedEvent&gt;(ptrEvent);</t>
+  </si>
+  <si>
+    <t>// broadcast to private bus</t>
+  </si>
+  <si>
+    <t>// broadcast to main bus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template &lt;typename </t>
     </r>
     <r>
       <rPr>
@@ -1269,12 +1606,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>).name();</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TnSharedPtr&lt;void&gt; pListener(new EventListener&lt;</t>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>static bool broadcastEvent(const boost::shared_ptr&lt;</t>
     </r>
     <r>
       <rPr>
@@ -1295,15 +1632,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt;(this));</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">m_pQueue(pQueue) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">template &lt;class </t>
+      <t>&gt; &amp; e) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m_instance.m_bus.broadcast&lt;</t>
     </r>
     <r>
       <rPr>
@@ -1324,12 +1658,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">void subscribe( tn::function&lt;void(const </t>
+      <t>&gt;(*e);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tn::EventManager::EventBus::getMain().broadcast&lt;</t>
     </r>
     <r>
       <rPr>
@@ -1350,12 +1684,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">&amp;)&gt; handler, void* tag = NULL ) { </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>tn::shared_ptr&lt;SubscriberForEvent&lt;</t>
+      <t>&gt;(*e);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void broadcast( const </t>
     </r>
     <r>
       <rPr>
@@ -1376,7 +1710,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt; &gt; s = tn::make_shared&lt;SubscriberForEvent&lt;</t>
+      <t xml:space="preserve"> &amp;event ) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>commands.schedule( tn::make_shared&lt;Dispatch&lt;</t>
     </r>
     <r>
       <rPr>
@@ -1397,180 +1736,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&gt; &gt;();</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;(boost::bind(static_cast&lt;void (EventListener::*)(const </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>/*Tn::EventManager::EventBus::*/getMain().subscribe&lt;EventAdapter&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; &gt;(boost::bind(static_cast&lt;void (EventListener::*)(const EventAdapter&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; &amp;)&gt;(&amp;EventListener::handle), this, _1), this);</t>
-    </r>
-  </si>
-  <si>
-    <t>注册步骤：</t>
-  </si>
-  <si>
-    <t>1. 注册一个EventT事件，注册时传入参数为func指针和func所在对象的弱引用</t>
-  </si>
-  <si>
-    <r>
-      <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(obj, memberFunction, this));</t>
-    </r>
-  </si>
-  <si>
-    <t>2. new一个EventHandlerAdapter对象的同时，以func指针、func所在对象的弱引用初始化其成员，并以func所在对象的句柄、func类型对应的str、EventQueue的this指针初始化其基类成员</t>
-  </si>
-  <si>
-    <t>3. 以EventT类型对应的str、刚才new的EventHandlerAdapter对象shareptr为键值对添加到multimap成员中</t>
-  </si>
-  <si>
-    <t>4. new一个EventListener对象的同时，以EventQueue的this指针初始化其成员</t>
-  </si>
-  <si>
-    <t>这里构建2个SubscriberForEvent，模板参数分别为EventT、EventAdapter&lt;EventT&gt;。后者所谓适配器是比前者多了EventQueue的this指针</t>
-  </si>
-  <si>
-    <t>4.1.在EventListener构造函数的内，调用Eventbus的subscribe方法以添加订阅者到subscriber中；订阅者为工厂函数创建的SubscriberForEvent，其成员指定为EventListener::handle和EventQueue的this指针</t>
-  </si>
-  <si>
-    <t>5. 以EventT类型对应的str、刚才new的EventListener对象ptr为键值对添加到map成员中</t>
+      <t>&gt; &gt;( *this, event, EventMetadata::getDefaultInstance() ) );</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1694,6 +1868,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2288,7 +2468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2433,6 +2613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5070,6 +5251,133 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7802880" y="7208969"/>
+          <a:ext cx="9593580" cy="1828799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2531ED7F-064F-4877-B7DE-E17178B11AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4549140"/>
+          <a:ext cx="12329160" cy="3398521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9702B5A6-77C7-4721-864C-ACDE93A31617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7013,10 +7321,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:P674"/>
+  <dimension ref="B2:Q674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7026,7 +7334,7 @@
         <v>143</v>
       </c>
       <c r="O2" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:16">
@@ -7034,13 +7342,13 @@
         <v>144</v>
       </c>
       <c r="O3" s="81" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="O4" s="81"/>
       <c r="P4" s="127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:16">
@@ -7052,16 +7360,16 @@
       </c>
       <c r="O6" s="81"/>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O7" s="81"/>
       <c r="P7" s="127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:16">
@@ -7070,7 +7378,7 @@
       </c>
       <c r="O8" s="81"/>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -7079,7 +7387,7 @@
       </c>
       <c r="O9" s="81"/>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:16">
@@ -7088,7 +7396,7 @@
       </c>
       <c r="O10" s="81"/>
       <c r="P10" s="127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="2:16">
@@ -7102,7 +7410,7 @@
         <v>140</v>
       </c>
       <c r="O12" s="81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -7111,7 +7419,7 @@
       </c>
       <c r="O13" s="81"/>
       <c r="P13" s="127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="2:16">
@@ -7120,7 +7428,7 @@
       </c>
       <c r="O14" s="81"/>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:16">
@@ -7135,90 +7443,90 @@
       </c>
       <c r="O16" s="81"/>
       <c r="P16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
       <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" s="81"/>
+      <c r="Q17" s="127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="O18" s="81"/>
+      <c r="Q18" s="127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" t="s">
         <v>151</v>
       </c>
-      <c r="O17" s="81"/>
-      <c r="P17" s="127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="O18" s="81"/>
-      <c r="P18" s="127" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" t="s">
+      <c r="O19" s="81"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" t="s">
         <v>152</v>
       </c>
-      <c r="O19" s="81"/>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" t="s">
+      <c r="O20" s="81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="C21" t="s">
         <v>153</v>
-      </c>
-      <c r="O20" s="81" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="C21" t="s">
-        <v>154</v>
       </c>
       <c r="O21" s="81"/>
       <c r="P21" s="127" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
       <c r="C22" t="s">
         <v>116</v>
       </c>
       <c r="O22" s="81"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:17">
       <c r="C23" t="s">
         <v>117</v>
       </c>
       <c r="O23" s="81"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:17">
       <c r="C24" t="s">
         <v>118</v>
       </c>
       <c r="O24" s="81"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:17">
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="O25" s="81"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:17">
       <c r="O26" s="81"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:17">
       <c r="O27" s="81"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:17">
       <c r="O28" s="81"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:17">
       <c r="O29" s="81"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:17">
       <c r="O30" s="81"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:17">
       <c r="O31" s="81"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:17">
       <c r="O32" s="81"/>
     </row>
     <row r="33" spans="15:15">
@@ -9156,6 +9464,2078 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07363CD5-6E40-4834-985C-143518003EEB}">
+  <dimension ref="B2:Q669"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="3:17">
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2" s="81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17">
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17">
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="81"/>
+      <c r="P4" s="128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17">
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O5" s="81"/>
+      <c r="P5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17">
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" s="81"/>
+    </row>
+    <row r="7" spans="3:17">
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7" s="81"/>
+      <c r="P7" s="127"/>
+    </row>
+    <row r="8" spans="3:17">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="81"/>
+      <c r="P8" s="127"/>
+    </row>
+    <row r="9" spans="3:17">
+      <c r="O9" s="81"/>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O10" s="81"/>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="O11" s="81"/>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="D12" t="s">
+        <v>177</v>
+      </c>
+      <c r="O12" s="81"/>
+      <c r="Q12" s="127"/>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="81"/>
+      <c r="Q13" s="127"/>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="O14" s="81"/>
+    </row>
+    <row r="15" spans="3:17">
+      <c r="O15" s="81"/>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="O16" s="81"/>
+      <c r="P16" s="127"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="O17" s="81"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="O18" s="81"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="O19" s="81"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="81"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="O21" s="81"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="O22" s="81"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="O23" s="81"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="O24" s="81"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="O25" s="81"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="O26" s="81"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="O27" s="81"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="O28" s="81"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="O29" s="81"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="O30" s="81"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="O31" s="81"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="O32" s="81"/>
+    </row>
+    <row r="33" spans="15:15">
+      <c r="O33" s="81"/>
+    </row>
+    <row r="34" spans="15:15">
+      <c r="O34" s="81"/>
+    </row>
+    <row r="35" spans="15:15">
+      <c r="O35" s="81"/>
+    </row>
+    <row r="36" spans="15:15">
+      <c r="O36" s="81"/>
+    </row>
+    <row r="37" spans="15:15">
+      <c r="O37" s="81"/>
+    </row>
+    <row r="38" spans="15:15">
+      <c r="O38" s="81"/>
+    </row>
+    <row r="39" spans="15:15">
+      <c r="O39" s="81"/>
+    </row>
+    <row r="40" spans="15:15">
+      <c r="O40" s="81"/>
+    </row>
+    <row r="41" spans="15:15">
+      <c r="O41" s="81"/>
+    </row>
+    <row r="42" spans="15:15">
+      <c r="O42" s="81"/>
+    </row>
+    <row r="43" spans="15:15">
+      <c r="O43" s="81"/>
+    </row>
+    <row r="44" spans="15:15">
+      <c r="O44" s="81"/>
+    </row>
+    <row r="45" spans="15:15">
+      <c r="O45" s="81"/>
+    </row>
+    <row r="46" spans="15:15">
+      <c r="O46" s="81"/>
+    </row>
+    <row r="47" spans="15:15">
+      <c r="O47" s="81"/>
+    </row>
+    <row r="48" spans="15:15">
+      <c r="O48" s="81"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="81"/>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" s="81"/>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" s="81"/>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" s="81"/>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" s="81"/>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" s="81"/>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" s="81"/>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" s="81"/>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" s="81"/>
+    </row>
+    <row r="58" spans="15:15">
+      <c r="O58" s="81"/>
+    </row>
+    <row r="59" spans="15:15">
+      <c r="O59" s="81"/>
+    </row>
+    <row r="60" spans="15:15">
+      <c r="O60" s="81"/>
+    </row>
+    <row r="61" spans="15:15">
+      <c r="O61" s="81"/>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" s="81"/>
+    </row>
+    <row r="63" spans="15:15">
+      <c r="O63" s="81"/>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" s="81"/>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" s="81"/>
+    </row>
+    <row r="66" spans="15:15">
+      <c r="O66" s="81"/>
+    </row>
+    <row r="67" spans="15:15">
+      <c r="O67" s="81"/>
+    </row>
+    <row r="68" spans="15:15">
+      <c r="O68" s="81"/>
+    </row>
+    <row r="69" spans="15:15">
+      <c r="O69" s="81"/>
+    </row>
+    <row r="70" spans="15:15">
+      <c r="O70" s="81"/>
+    </row>
+    <row r="71" spans="15:15">
+      <c r="O71" s="81"/>
+    </row>
+    <row r="72" spans="15:15">
+      <c r="O72" s="81"/>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" s="81"/>
+    </row>
+    <row r="74" spans="15:15">
+      <c r="O74" s="81"/>
+    </row>
+    <row r="75" spans="15:15">
+      <c r="O75" s="81"/>
+    </row>
+    <row r="76" spans="15:15">
+      <c r="O76" s="81"/>
+    </row>
+    <row r="77" spans="15:15">
+      <c r="O77" s="81"/>
+    </row>
+    <row r="78" spans="15:15">
+      <c r="O78" s="81"/>
+    </row>
+    <row r="79" spans="15:15">
+      <c r="O79" s="81"/>
+    </row>
+    <row r="80" spans="15:15">
+      <c r="O80" s="81"/>
+    </row>
+    <row r="81" spans="15:15">
+      <c r="O81" s="81"/>
+    </row>
+    <row r="82" spans="15:15">
+      <c r="O82" s="81"/>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" s="81"/>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" s="81"/>
+    </row>
+    <row r="85" spans="15:15">
+      <c r="O85" s="81"/>
+    </row>
+    <row r="86" spans="15:15">
+      <c r="O86" s="81"/>
+    </row>
+    <row r="87" spans="15:15">
+      <c r="O87" s="81"/>
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" s="81"/>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" s="81"/>
+    </row>
+    <row r="90" spans="15:15">
+      <c r="O90" s="81"/>
+    </row>
+    <row r="91" spans="15:15">
+      <c r="O91" s="81"/>
+    </row>
+    <row r="92" spans="15:15">
+      <c r="O92" s="81"/>
+    </row>
+    <row r="93" spans="15:15">
+      <c r="O93" s="81"/>
+    </row>
+    <row r="94" spans="15:15">
+      <c r="O94" s="81"/>
+    </row>
+    <row r="95" spans="15:15">
+      <c r="O95" s="81"/>
+    </row>
+    <row r="96" spans="15:15">
+      <c r="O96" s="81"/>
+    </row>
+    <row r="97" spans="15:15">
+      <c r="O97" s="81"/>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" s="81"/>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" s="81"/>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" s="81"/>
+    </row>
+    <row r="101" spans="15:15">
+      <c r="O101" s="81"/>
+    </row>
+    <row r="102" spans="15:15">
+      <c r="O102" s="81"/>
+    </row>
+    <row r="103" spans="15:15">
+      <c r="O103" s="81"/>
+    </row>
+    <row r="104" spans="15:15">
+      <c r="O104" s="81"/>
+    </row>
+    <row r="105" spans="15:15">
+      <c r="O105" s="81"/>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" s="81"/>
+    </row>
+    <row r="107" spans="15:15">
+      <c r="O107" s="81"/>
+    </row>
+    <row r="108" spans="15:15">
+      <c r="O108" s="81"/>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" s="81"/>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" s="81"/>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" s="81"/>
+    </row>
+    <row r="112" spans="15:15">
+      <c r="O112" s="81"/>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" s="81"/>
+    </row>
+    <row r="114" spans="15:15">
+      <c r="O114" s="81"/>
+    </row>
+    <row r="115" spans="15:15">
+      <c r="O115" s="81"/>
+    </row>
+    <row r="116" spans="15:15">
+      <c r="O116" s="81"/>
+    </row>
+    <row r="117" spans="15:15">
+      <c r="O117" s="81"/>
+    </row>
+    <row r="118" spans="15:15">
+      <c r="O118" s="81"/>
+    </row>
+    <row r="119" spans="15:15">
+      <c r="O119" s="81"/>
+    </row>
+    <row r="120" spans="15:15">
+      <c r="O120" s="81"/>
+    </row>
+    <row r="121" spans="15:15">
+      <c r="O121" s="81"/>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" s="81"/>
+    </row>
+    <row r="123" spans="15:15">
+      <c r="O123" s="81"/>
+    </row>
+    <row r="124" spans="15:15">
+      <c r="O124" s="81"/>
+    </row>
+    <row r="125" spans="15:15">
+      <c r="O125" s="81"/>
+    </row>
+    <row r="126" spans="15:15">
+      <c r="O126" s="81"/>
+    </row>
+    <row r="127" spans="15:15">
+      <c r="O127" s="81"/>
+    </row>
+    <row r="128" spans="15:15">
+      <c r="O128" s="81"/>
+    </row>
+    <row r="129" spans="15:15">
+      <c r="O129" s="81"/>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" s="81"/>
+    </row>
+    <row r="131" spans="15:15">
+      <c r="O131" s="81"/>
+    </row>
+    <row r="132" spans="15:15">
+      <c r="O132" s="81"/>
+    </row>
+    <row r="133" spans="15:15">
+      <c r="O133" s="81"/>
+    </row>
+    <row r="134" spans="15:15">
+      <c r="O134" s="81"/>
+    </row>
+    <row r="135" spans="15:15">
+      <c r="O135" s="81"/>
+    </row>
+    <row r="136" spans="15:15">
+      <c r="O136" s="81"/>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" s="81"/>
+    </row>
+    <row r="138" spans="15:15">
+      <c r="O138" s="81"/>
+    </row>
+    <row r="139" spans="15:15">
+      <c r="O139" s="81"/>
+    </row>
+    <row r="140" spans="15:15">
+      <c r="O140" s="81"/>
+    </row>
+    <row r="141" spans="15:15">
+      <c r="O141" s="81"/>
+    </row>
+    <row r="142" spans="15:15">
+      <c r="O142" s="81"/>
+    </row>
+    <row r="143" spans="15:15">
+      <c r="O143" s="81"/>
+    </row>
+    <row r="144" spans="15:15">
+      <c r="O144" s="81"/>
+    </row>
+    <row r="145" spans="15:15">
+      <c r="O145" s="81"/>
+    </row>
+    <row r="146" spans="15:15">
+      <c r="O146" s="81"/>
+    </row>
+    <row r="147" spans="15:15">
+      <c r="O147" s="81"/>
+    </row>
+    <row r="148" spans="15:15">
+      <c r="O148" s="81"/>
+    </row>
+    <row r="149" spans="15:15">
+      <c r="O149" s="81"/>
+    </row>
+    <row r="150" spans="15:15">
+      <c r="O150" s="81"/>
+    </row>
+    <row r="151" spans="15:15">
+      <c r="O151" s="81"/>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" s="81"/>
+    </row>
+    <row r="153" spans="15:15">
+      <c r="O153" s="81"/>
+    </row>
+    <row r="154" spans="15:15">
+      <c r="O154" s="81"/>
+    </row>
+    <row r="155" spans="15:15">
+      <c r="O155" s="81"/>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" s="81"/>
+    </row>
+    <row r="157" spans="15:15">
+      <c r="O157" s="81"/>
+    </row>
+    <row r="158" spans="15:15">
+      <c r="O158" s="81"/>
+    </row>
+    <row r="159" spans="15:15">
+      <c r="O159" s="81"/>
+    </row>
+    <row r="160" spans="15:15">
+      <c r="O160" s="81"/>
+    </row>
+    <row r="161" spans="15:15">
+      <c r="O161" s="81"/>
+    </row>
+    <row r="162" spans="15:15">
+      <c r="O162" s="81"/>
+    </row>
+    <row r="163" spans="15:15">
+      <c r="O163" s="81"/>
+    </row>
+    <row r="164" spans="15:15">
+      <c r="O164" s="81"/>
+    </row>
+    <row r="165" spans="15:15">
+      <c r="O165" s="81"/>
+    </row>
+    <row r="166" spans="15:15">
+      <c r="O166" s="81"/>
+    </row>
+    <row r="167" spans="15:15">
+      <c r="O167" s="81"/>
+    </row>
+    <row r="168" spans="15:15">
+      <c r="O168" s="81"/>
+    </row>
+    <row r="169" spans="15:15">
+      <c r="O169" s="81"/>
+    </row>
+    <row r="170" spans="15:15">
+      <c r="O170" s="81"/>
+    </row>
+    <row r="171" spans="15:15">
+      <c r="O171" s="81"/>
+    </row>
+    <row r="172" spans="15:15">
+      <c r="O172" s="81"/>
+    </row>
+    <row r="173" spans="15:15">
+      <c r="O173" s="81"/>
+    </row>
+    <row r="174" spans="15:15">
+      <c r="O174" s="81"/>
+    </row>
+    <row r="175" spans="15:15">
+      <c r="O175" s="81"/>
+    </row>
+    <row r="176" spans="15:15">
+      <c r="O176" s="81"/>
+    </row>
+    <row r="177" spans="15:15">
+      <c r="O177" s="81"/>
+    </row>
+    <row r="178" spans="15:15">
+      <c r="O178" s="81"/>
+    </row>
+    <row r="179" spans="15:15">
+      <c r="O179" s="81"/>
+    </row>
+    <row r="180" spans="15:15">
+      <c r="O180" s="81"/>
+    </row>
+    <row r="181" spans="15:15">
+      <c r="O181" s="81"/>
+    </row>
+    <row r="182" spans="15:15">
+      <c r="O182" s="81"/>
+    </row>
+    <row r="183" spans="15:15">
+      <c r="O183" s="81"/>
+    </row>
+    <row r="184" spans="15:15">
+      <c r="O184" s="81"/>
+    </row>
+    <row r="185" spans="15:15">
+      <c r="O185" s="81"/>
+    </row>
+    <row r="186" spans="15:15">
+      <c r="O186" s="81"/>
+    </row>
+    <row r="187" spans="15:15">
+      <c r="O187" s="81"/>
+    </row>
+    <row r="188" spans="15:15">
+      <c r="O188" s="81"/>
+    </row>
+    <row r="189" spans="15:15">
+      <c r="O189" s="81"/>
+    </row>
+    <row r="190" spans="15:15">
+      <c r="O190" s="81"/>
+    </row>
+    <row r="191" spans="15:15">
+      <c r="O191" s="81"/>
+    </row>
+    <row r="192" spans="15:15">
+      <c r="O192" s="81"/>
+    </row>
+    <row r="193" spans="15:15">
+      <c r="O193" s="81"/>
+    </row>
+    <row r="194" spans="15:15">
+      <c r="O194" s="81"/>
+    </row>
+    <row r="195" spans="15:15">
+      <c r="O195" s="81"/>
+    </row>
+    <row r="196" spans="15:15">
+      <c r="O196" s="81"/>
+    </row>
+    <row r="197" spans="15:15">
+      <c r="O197" s="81"/>
+    </row>
+    <row r="198" spans="15:15">
+      <c r="O198" s="81"/>
+    </row>
+    <row r="199" spans="15:15">
+      <c r="O199" s="81"/>
+    </row>
+    <row r="200" spans="15:15">
+      <c r="O200" s="81"/>
+    </row>
+    <row r="201" spans="15:15">
+      <c r="O201" s="81"/>
+    </row>
+    <row r="202" spans="15:15">
+      <c r="O202" s="81"/>
+    </row>
+    <row r="203" spans="15:15">
+      <c r="O203" s="81"/>
+    </row>
+    <row r="204" spans="15:15">
+      <c r="O204" s="81"/>
+    </row>
+    <row r="205" spans="15:15">
+      <c r="O205" s="81"/>
+    </row>
+    <row r="206" spans="15:15">
+      <c r="O206" s="81"/>
+    </row>
+    <row r="207" spans="15:15">
+      <c r="O207" s="81"/>
+    </row>
+    <row r="208" spans="15:15">
+      <c r="O208" s="81"/>
+    </row>
+    <row r="209" spans="15:15">
+      <c r="O209" s="81"/>
+    </row>
+    <row r="210" spans="15:15">
+      <c r="O210" s="81"/>
+    </row>
+    <row r="211" spans="15:15">
+      <c r="O211" s="81"/>
+    </row>
+    <row r="212" spans="15:15">
+      <c r="O212" s="81"/>
+    </row>
+    <row r="213" spans="15:15">
+      <c r="O213" s="81"/>
+    </row>
+    <row r="214" spans="15:15">
+      <c r="O214" s="81"/>
+    </row>
+    <row r="215" spans="15:15">
+      <c r="O215" s="81"/>
+    </row>
+    <row r="216" spans="15:15">
+      <c r="O216" s="81"/>
+    </row>
+    <row r="217" spans="15:15">
+      <c r="O217" s="81"/>
+    </row>
+    <row r="218" spans="15:15">
+      <c r="O218" s="81"/>
+    </row>
+    <row r="219" spans="15:15">
+      <c r="O219" s="81"/>
+    </row>
+    <row r="220" spans="15:15">
+      <c r="O220" s="81"/>
+    </row>
+    <row r="221" spans="15:15">
+      <c r="O221" s="81"/>
+    </row>
+    <row r="222" spans="15:15">
+      <c r="O222" s="81"/>
+    </row>
+    <row r="223" spans="15:15">
+      <c r="O223" s="81"/>
+    </row>
+    <row r="224" spans="15:15">
+      <c r="O224" s="81"/>
+    </row>
+    <row r="225" spans="15:15">
+      <c r="O225" s="81"/>
+    </row>
+    <row r="226" spans="15:15">
+      <c r="O226" s="81"/>
+    </row>
+    <row r="227" spans="15:15">
+      <c r="O227" s="81"/>
+    </row>
+    <row r="228" spans="15:15">
+      <c r="O228" s="81"/>
+    </row>
+    <row r="229" spans="15:15">
+      <c r="O229" s="81"/>
+    </row>
+    <row r="230" spans="15:15">
+      <c r="O230" s="81"/>
+    </row>
+    <row r="231" spans="15:15">
+      <c r="O231" s="81"/>
+    </row>
+    <row r="232" spans="15:15">
+      <c r="O232" s="81"/>
+    </row>
+    <row r="233" spans="15:15">
+      <c r="O233" s="81"/>
+    </row>
+    <row r="234" spans="15:15">
+      <c r="O234" s="81"/>
+    </row>
+    <row r="235" spans="15:15">
+      <c r="O235" s="81"/>
+    </row>
+    <row r="236" spans="15:15">
+      <c r="O236" s="81"/>
+    </row>
+    <row r="237" spans="15:15">
+      <c r="O237" s="81"/>
+    </row>
+    <row r="238" spans="15:15">
+      <c r="O238" s="81"/>
+    </row>
+    <row r="239" spans="15:15">
+      <c r="O239" s="81"/>
+    </row>
+    <row r="240" spans="15:15">
+      <c r="O240" s="81"/>
+    </row>
+    <row r="241" spans="15:15">
+      <c r="O241" s="81"/>
+    </row>
+    <row r="242" spans="15:15">
+      <c r="O242" s="81"/>
+    </row>
+    <row r="243" spans="15:15">
+      <c r="O243" s="81"/>
+    </row>
+    <row r="244" spans="15:15">
+      <c r="O244" s="81"/>
+    </row>
+    <row r="245" spans="15:15">
+      <c r="O245" s="81"/>
+    </row>
+    <row r="246" spans="15:15">
+      <c r="O246" s="81"/>
+    </row>
+    <row r="247" spans="15:15">
+      <c r="O247" s="81"/>
+    </row>
+    <row r="248" spans="15:15">
+      <c r="O248" s="81"/>
+    </row>
+    <row r="249" spans="15:15">
+      <c r="O249" s="81"/>
+    </row>
+    <row r="250" spans="15:15">
+      <c r="O250" s="81"/>
+    </row>
+    <row r="251" spans="15:15">
+      <c r="O251" s="81"/>
+    </row>
+    <row r="252" spans="15:15">
+      <c r="O252" s="81"/>
+    </row>
+    <row r="253" spans="15:15">
+      <c r="O253" s="81"/>
+    </row>
+    <row r="254" spans="15:15">
+      <c r="O254" s="81"/>
+    </row>
+    <row r="255" spans="15:15">
+      <c r="O255" s="81"/>
+    </row>
+    <row r="256" spans="15:15">
+      <c r="O256" s="81"/>
+    </row>
+    <row r="257" spans="15:15">
+      <c r="O257" s="81"/>
+    </row>
+    <row r="258" spans="15:15">
+      <c r="O258" s="81"/>
+    </row>
+    <row r="259" spans="15:15">
+      <c r="O259" s="81"/>
+    </row>
+    <row r="260" spans="15:15">
+      <c r="O260" s="81"/>
+    </row>
+    <row r="261" spans="15:15">
+      <c r="O261" s="81"/>
+    </row>
+    <row r="262" spans="15:15">
+      <c r="O262" s="81"/>
+    </row>
+    <row r="263" spans="15:15">
+      <c r="O263" s="81"/>
+    </row>
+    <row r="264" spans="15:15">
+      <c r="O264" s="81"/>
+    </row>
+    <row r="265" spans="15:15">
+      <c r="O265" s="81"/>
+    </row>
+    <row r="266" spans="15:15">
+      <c r="O266" s="81"/>
+    </row>
+    <row r="267" spans="15:15">
+      <c r="O267" s="81"/>
+    </row>
+    <row r="268" spans="15:15">
+      <c r="O268" s="81"/>
+    </row>
+    <row r="269" spans="15:15">
+      <c r="O269" s="81"/>
+    </row>
+    <row r="270" spans="15:15">
+      <c r="O270" s="81"/>
+    </row>
+    <row r="271" spans="15:15">
+      <c r="O271" s="81"/>
+    </row>
+    <row r="272" spans="15:15">
+      <c r="O272" s="81"/>
+    </row>
+    <row r="273" spans="15:15">
+      <c r="O273" s="81"/>
+    </row>
+    <row r="274" spans="15:15">
+      <c r="O274" s="81"/>
+    </row>
+    <row r="275" spans="15:15">
+      <c r="O275" s="81"/>
+    </row>
+    <row r="276" spans="15:15">
+      <c r="O276" s="81"/>
+    </row>
+    <row r="277" spans="15:15">
+      <c r="O277" s="81"/>
+    </row>
+    <row r="278" spans="15:15">
+      <c r="O278" s="81"/>
+    </row>
+    <row r="279" spans="15:15">
+      <c r="O279" s="81"/>
+    </row>
+    <row r="280" spans="15:15">
+      <c r="O280" s="81"/>
+    </row>
+    <row r="281" spans="15:15">
+      <c r="O281" s="81"/>
+    </row>
+    <row r="282" spans="15:15">
+      <c r="O282" s="81"/>
+    </row>
+    <row r="283" spans="15:15">
+      <c r="O283" s="81"/>
+    </row>
+    <row r="284" spans="15:15">
+      <c r="O284" s="81"/>
+    </row>
+    <row r="285" spans="15:15">
+      <c r="O285" s="81"/>
+    </row>
+    <row r="286" spans="15:15">
+      <c r="O286" s="81"/>
+    </row>
+    <row r="287" spans="15:15">
+      <c r="O287" s="81"/>
+    </row>
+    <row r="288" spans="15:15">
+      <c r="O288" s="81"/>
+    </row>
+    <row r="289" spans="15:15">
+      <c r="O289" s="81"/>
+    </row>
+    <row r="290" spans="15:15">
+      <c r="O290" s="81"/>
+    </row>
+    <row r="291" spans="15:15">
+      <c r="O291" s="81"/>
+    </row>
+    <row r="292" spans="15:15">
+      <c r="O292" s="81"/>
+    </row>
+    <row r="293" spans="15:15">
+      <c r="O293" s="81"/>
+    </row>
+    <row r="294" spans="15:15">
+      <c r="O294" s="81"/>
+    </row>
+    <row r="295" spans="15:15">
+      <c r="O295" s="81"/>
+    </row>
+    <row r="296" spans="15:15">
+      <c r="O296" s="81"/>
+    </row>
+    <row r="297" spans="15:15">
+      <c r="O297" s="81"/>
+    </row>
+    <row r="298" spans="15:15">
+      <c r="O298" s="81"/>
+    </row>
+    <row r="299" spans="15:15">
+      <c r="O299" s="81"/>
+    </row>
+    <row r="300" spans="15:15">
+      <c r="O300" s="81"/>
+    </row>
+    <row r="301" spans="15:15">
+      <c r="O301" s="81"/>
+    </row>
+    <row r="302" spans="15:15">
+      <c r="O302" s="81"/>
+    </row>
+    <row r="303" spans="15:15">
+      <c r="O303" s="81"/>
+    </row>
+    <row r="304" spans="15:15">
+      <c r="O304" s="81"/>
+    </row>
+    <row r="305" spans="15:15">
+      <c r="O305" s="81"/>
+    </row>
+    <row r="306" spans="15:15">
+      <c r="O306" s="81"/>
+    </row>
+    <row r="307" spans="15:15">
+      <c r="O307" s="81"/>
+    </row>
+    <row r="308" spans="15:15">
+      <c r="O308" s="81"/>
+    </row>
+    <row r="309" spans="15:15">
+      <c r="O309" s="81"/>
+    </row>
+    <row r="310" spans="15:15">
+      <c r="O310" s="81"/>
+    </row>
+    <row r="311" spans="15:15">
+      <c r="O311" s="81"/>
+    </row>
+    <row r="312" spans="15:15">
+      <c r="O312" s="81"/>
+    </row>
+    <row r="313" spans="15:15">
+      <c r="O313" s="81"/>
+    </row>
+    <row r="314" spans="15:15">
+      <c r="O314" s="81"/>
+    </row>
+    <row r="315" spans="15:15">
+      <c r="O315" s="81"/>
+    </row>
+    <row r="316" spans="15:15">
+      <c r="O316" s="81"/>
+    </row>
+    <row r="317" spans="15:15">
+      <c r="O317" s="81"/>
+    </row>
+    <row r="318" spans="15:15">
+      <c r="O318" s="81"/>
+    </row>
+    <row r="319" spans="15:15">
+      <c r="O319" s="81"/>
+    </row>
+    <row r="320" spans="15:15">
+      <c r="O320" s="81"/>
+    </row>
+    <row r="321" spans="15:15">
+      <c r="O321" s="81"/>
+    </row>
+    <row r="322" spans="15:15">
+      <c r="O322" s="81"/>
+    </row>
+    <row r="323" spans="15:15">
+      <c r="O323" s="81"/>
+    </row>
+    <row r="324" spans="15:15">
+      <c r="O324" s="81"/>
+    </row>
+    <row r="325" spans="15:15">
+      <c r="O325" s="81"/>
+    </row>
+    <row r="326" spans="15:15">
+      <c r="O326" s="81"/>
+    </row>
+    <row r="327" spans="15:15">
+      <c r="O327" s="81"/>
+    </row>
+    <row r="328" spans="15:15">
+      <c r="O328" s="81"/>
+    </row>
+    <row r="329" spans="15:15">
+      <c r="O329" s="81"/>
+    </row>
+    <row r="330" spans="15:15">
+      <c r="O330" s="81"/>
+    </row>
+    <row r="331" spans="15:15">
+      <c r="O331" s="81"/>
+    </row>
+    <row r="332" spans="15:15">
+      <c r="O332" s="81"/>
+    </row>
+    <row r="333" spans="15:15">
+      <c r="O333" s="81"/>
+    </row>
+    <row r="334" spans="15:15">
+      <c r="O334" s="81"/>
+    </row>
+    <row r="335" spans="15:15">
+      <c r="O335" s="81"/>
+    </row>
+    <row r="336" spans="15:15">
+      <c r="O336" s="81"/>
+    </row>
+    <row r="337" spans="15:15">
+      <c r="O337" s="81"/>
+    </row>
+    <row r="338" spans="15:15">
+      <c r="O338" s="81"/>
+    </row>
+    <row r="339" spans="15:15">
+      <c r="O339" s="81"/>
+    </row>
+    <row r="340" spans="15:15">
+      <c r="O340" s="81"/>
+    </row>
+    <row r="341" spans="15:15">
+      <c r="O341" s="81"/>
+    </row>
+    <row r="342" spans="15:15">
+      <c r="O342" s="81"/>
+    </row>
+    <row r="343" spans="15:15">
+      <c r="O343" s="81"/>
+    </row>
+    <row r="344" spans="15:15">
+      <c r="O344" s="81"/>
+    </row>
+    <row r="345" spans="15:15">
+      <c r="O345" s="81"/>
+    </row>
+    <row r="346" spans="15:15">
+      <c r="O346" s="81"/>
+    </row>
+    <row r="347" spans="15:15">
+      <c r="O347" s="81"/>
+    </row>
+    <row r="348" spans="15:15">
+      <c r="O348" s="81"/>
+    </row>
+    <row r="349" spans="15:15">
+      <c r="O349" s="81"/>
+    </row>
+    <row r="350" spans="15:15">
+      <c r="O350" s="81"/>
+    </row>
+    <row r="351" spans="15:15">
+      <c r="O351" s="81"/>
+    </row>
+    <row r="352" spans="15:15">
+      <c r="O352" s="81"/>
+    </row>
+    <row r="353" spans="15:15">
+      <c r="O353" s="81"/>
+    </row>
+    <row r="354" spans="15:15">
+      <c r="O354" s="81"/>
+    </row>
+    <row r="355" spans="15:15">
+      <c r="O355" s="81"/>
+    </row>
+    <row r="356" spans="15:15">
+      <c r="O356" s="81"/>
+    </row>
+    <row r="357" spans="15:15">
+      <c r="O357" s="81"/>
+    </row>
+    <row r="358" spans="15:15">
+      <c r="O358" s="81"/>
+    </row>
+    <row r="359" spans="15:15">
+      <c r="O359" s="81"/>
+    </row>
+    <row r="360" spans="15:15">
+      <c r="O360" s="81"/>
+    </row>
+    <row r="361" spans="15:15">
+      <c r="O361" s="81"/>
+    </row>
+    <row r="362" spans="15:15">
+      <c r="O362" s="81"/>
+    </row>
+    <row r="363" spans="15:15">
+      <c r="O363" s="81"/>
+    </row>
+    <row r="364" spans="15:15">
+      <c r="O364" s="81"/>
+    </row>
+    <row r="365" spans="15:15">
+      <c r="O365" s="81"/>
+    </row>
+    <row r="366" spans="15:15">
+      <c r="O366" s="81"/>
+    </row>
+    <row r="367" spans="15:15">
+      <c r="O367" s="81"/>
+    </row>
+    <row r="368" spans="15:15">
+      <c r="O368" s="81"/>
+    </row>
+    <row r="369" spans="15:15">
+      <c r="O369" s="81"/>
+    </row>
+    <row r="370" spans="15:15">
+      <c r="O370" s="81"/>
+    </row>
+    <row r="371" spans="15:15">
+      <c r="O371" s="81"/>
+    </row>
+    <row r="372" spans="15:15">
+      <c r="O372" s="81"/>
+    </row>
+    <row r="373" spans="15:15">
+      <c r="O373" s="81"/>
+    </row>
+    <row r="374" spans="15:15">
+      <c r="O374" s="81"/>
+    </row>
+    <row r="375" spans="15:15">
+      <c r="O375" s="81"/>
+    </row>
+    <row r="376" spans="15:15">
+      <c r="O376" s="81"/>
+    </row>
+    <row r="377" spans="15:15">
+      <c r="O377" s="81"/>
+    </row>
+    <row r="378" spans="15:15">
+      <c r="O378" s="81"/>
+    </row>
+    <row r="379" spans="15:15">
+      <c r="O379" s="81"/>
+    </row>
+    <row r="380" spans="15:15">
+      <c r="O380" s="81"/>
+    </row>
+    <row r="381" spans="15:15">
+      <c r="O381" s="81"/>
+    </row>
+    <row r="382" spans="15:15">
+      <c r="O382" s="81"/>
+    </row>
+    <row r="383" spans="15:15">
+      <c r="O383" s="81"/>
+    </row>
+    <row r="384" spans="15:15">
+      <c r="O384" s="81"/>
+    </row>
+    <row r="385" spans="15:15">
+      <c r="O385" s="81"/>
+    </row>
+    <row r="386" spans="15:15">
+      <c r="O386" s="81"/>
+    </row>
+    <row r="387" spans="15:15">
+      <c r="O387" s="81"/>
+    </row>
+    <row r="388" spans="15:15">
+      <c r="O388" s="81"/>
+    </row>
+    <row r="389" spans="15:15">
+      <c r="O389" s="81"/>
+    </row>
+    <row r="390" spans="15:15">
+      <c r="O390" s="81"/>
+    </row>
+    <row r="391" spans="15:15">
+      <c r="O391" s="81"/>
+    </row>
+    <row r="392" spans="15:15">
+      <c r="O392" s="81"/>
+    </row>
+    <row r="393" spans="15:15">
+      <c r="O393" s="81"/>
+    </row>
+    <row r="394" spans="15:15">
+      <c r="O394" s="81"/>
+    </row>
+    <row r="395" spans="15:15">
+      <c r="O395" s="81"/>
+    </row>
+    <row r="396" spans="15:15">
+      <c r="O396" s="81"/>
+    </row>
+    <row r="397" spans="15:15">
+      <c r="O397" s="81"/>
+    </row>
+    <row r="398" spans="15:15">
+      <c r="O398" s="81"/>
+    </row>
+    <row r="399" spans="15:15">
+      <c r="O399" s="126"/>
+    </row>
+    <row r="400" spans="15:15">
+      <c r="O400" s="126"/>
+    </row>
+    <row r="401" spans="15:15">
+      <c r="O401" s="126"/>
+    </row>
+    <row r="402" spans="15:15">
+      <c r="O402" s="126"/>
+    </row>
+    <row r="403" spans="15:15">
+      <c r="O403" s="126"/>
+    </row>
+    <row r="404" spans="15:15">
+      <c r="O404" s="126"/>
+    </row>
+    <row r="405" spans="15:15">
+      <c r="O405" s="126"/>
+    </row>
+    <row r="406" spans="15:15">
+      <c r="O406" s="126"/>
+    </row>
+    <row r="407" spans="15:15">
+      <c r="O407" s="126"/>
+    </row>
+    <row r="408" spans="15:15">
+      <c r="O408" s="126"/>
+    </row>
+    <row r="409" spans="15:15">
+      <c r="O409" s="126"/>
+    </row>
+    <row r="410" spans="15:15">
+      <c r="O410" s="126"/>
+    </row>
+    <row r="411" spans="15:15">
+      <c r="O411" s="126"/>
+    </row>
+    <row r="412" spans="15:15">
+      <c r="O412" s="126"/>
+    </row>
+    <row r="413" spans="15:15">
+      <c r="O413" s="126"/>
+    </row>
+    <row r="414" spans="15:15">
+      <c r="O414" s="126"/>
+    </row>
+    <row r="415" spans="15:15">
+      <c r="O415" s="126"/>
+    </row>
+    <row r="416" spans="15:15">
+      <c r="O416" s="126"/>
+    </row>
+    <row r="417" spans="15:15">
+      <c r="O417" s="126"/>
+    </row>
+    <row r="418" spans="15:15">
+      <c r="O418" s="126"/>
+    </row>
+    <row r="419" spans="15:15">
+      <c r="O419" s="126"/>
+    </row>
+    <row r="420" spans="15:15">
+      <c r="O420" s="126"/>
+    </row>
+    <row r="421" spans="15:15">
+      <c r="O421" s="126"/>
+    </row>
+    <row r="422" spans="15:15">
+      <c r="O422" s="126"/>
+    </row>
+    <row r="423" spans="15:15">
+      <c r="O423" s="126"/>
+    </row>
+    <row r="424" spans="15:15">
+      <c r="O424" s="126"/>
+    </row>
+    <row r="425" spans="15:15">
+      <c r="O425" s="126"/>
+    </row>
+    <row r="426" spans="15:15">
+      <c r="O426" s="126"/>
+    </row>
+    <row r="427" spans="15:15">
+      <c r="O427" s="126"/>
+    </row>
+    <row r="428" spans="15:15">
+      <c r="O428" s="126"/>
+    </row>
+    <row r="429" spans="15:15">
+      <c r="O429" s="126"/>
+    </row>
+    <row r="430" spans="15:15">
+      <c r="O430" s="126"/>
+    </row>
+    <row r="431" spans="15:15">
+      <c r="O431" s="126"/>
+    </row>
+    <row r="432" spans="15:15">
+      <c r="O432" s="126"/>
+    </row>
+    <row r="433" spans="15:15">
+      <c r="O433" s="126"/>
+    </row>
+    <row r="434" spans="15:15">
+      <c r="O434" s="126"/>
+    </row>
+    <row r="435" spans="15:15">
+      <c r="O435" s="126"/>
+    </row>
+    <row r="436" spans="15:15">
+      <c r="O436" s="126"/>
+    </row>
+    <row r="437" spans="15:15">
+      <c r="O437" s="126"/>
+    </row>
+    <row r="438" spans="15:15">
+      <c r="O438" s="126"/>
+    </row>
+    <row r="439" spans="15:15">
+      <c r="O439" s="126"/>
+    </row>
+    <row r="440" spans="15:15">
+      <c r="O440" s="126"/>
+    </row>
+    <row r="441" spans="15:15">
+      <c r="O441" s="126"/>
+    </row>
+    <row r="442" spans="15:15">
+      <c r="O442" s="126"/>
+    </row>
+    <row r="443" spans="15:15">
+      <c r="O443" s="126"/>
+    </row>
+    <row r="444" spans="15:15">
+      <c r="O444" s="126"/>
+    </row>
+    <row r="445" spans="15:15">
+      <c r="O445" s="126"/>
+    </row>
+    <row r="446" spans="15:15">
+      <c r="O446" s="126"/>
+    </row>
+    <row r="447" spans="15:15">
+      <c r="O447" s="126"/>
+    </row>
+    <row r="448" spans="15:15">
+      <c r="O448" s="126"/>
+    </row>
+    <row r="449" spans="15:15">
+      <c r="O449" s="126"/>
+    </row>
+    <row r="450" spans="15:15">
+      <c r="O450" s="126"/>
+    </row>
+    <row r="451" spans="15:15">
+      <c r="O451" s="126"/>
+    </row>
+    <row r="452" spans="15:15">
+      <c r="O452" s="126"/>
+    </row>
+    <row r="453" spans="15:15">
+      <c r="O453" s="126"/>
+    </row>
+    <row r="454" spans="15:15">
+      <c r="O454" s="126"/>
+    </row>
+    <row r="455" spans="15:15">
+      <c r="O455" s="126"/>
+    </row>
+    <row r="456" spans="15:15">
+      <c r="O456" s="126"/>
+    </row>
+    <row r="457" spans="15:15">
+      <c r="O457" s="126"/>
+    </row>
+    <row r="458" spans="15:15">
+      <c r="O458" s="126"/>
+    </row>
+    <row r="459" spans="15:15">
+      <c r="O459" s="126"/>
+    </row>
+    <row r="460" spans="15:15">
+      <c r="O460" s="126"/>
+    </row>
+    <row r="461" spans="15:15">
+      <c r="O461" s="126"/>
+    </row>
+    <row r="462" spans="15:15">
+      <c r="O462" s="126"/>
+    </row>
+    <row r="463" spans="15:15">
+      <c r="O463" s="126"/>
+    </row>
+    <row r="464" spans="15:15">
+      <c r="O464" s="126"/>
+    </row>
+    <row r="465" spans="15:15">
+      <c r="O465" s="126"/>
+    </row>
+    <row r="466" spans="15:15">
+      <c r="O466" s="126"/>
+    </row>
+    <row r="467" spans="15:15">
+      <c r="O467" s="126"/>
+    </row>
+    <row r="468" spans="15:15">
+      <c r="O468" s="126"/>
+    </row>
+    <row r="469" spans="15:15">
+      <c r="O469" s="126"/>
+    </row>
+    <row r="470" spans="15:15">
+      <c r="O470" s="126"/>
+    </row>
+    <row r="471" spans="15:15">
+      <c r="O471" s="126"/>
+    </row>
+    <row r="472" spans="15:15">
+      <c r="O472" s="126"/>
+    </row>
+    <row r="473" spans="15:15">
+      <c r="O473" s="126"/>
+    </row>
+    <row r="474" spans="15:15">
+      <c r="O474" s="126"/>
+    </row>
+    <row r="475" spans="15:15">
+      <c r="O475" s="126"/>
+    </row>
+    <row r="476" spans="15:15">
+      <c r="O476" s="126"/>
+    </row>
+    <row r="477" spans="15:15">
+      <c r="O477" s="126"/>
+    </row>
+    <row r="478" spans="15:15">
+      <c r="O478" s="126"/>
+    </row>
+    <row r="479" spans="15:15">
+      <c r="O479" s="126"/>
+    </row>
+    <row r="480" spans="15:15">
+      <c r="O480" s="126"/>
+    </row>
+    <row r="481" spans="15:15">
+      <c r="O481" s="126"/>
+    </row>
+    <row r="482" spans="15:15">
+      <c r="O482" s="126"/>
+    </row>
+    <row r="483" spans="15:15">
+      <c r="O483" s="126"/>
+    </row>
+    <row r="484" spans="15:15">
+      <c r="O484" s="126"/>
+    </row>
+    <row r="485" spans="15:15">
+      <c r="O485" s="126"/>
+    </row>
+    <row r="486" spans="15:15">
+      <c r="O486" s="126"/>
+    </row>
+    <row r="487" spans="15:15">
+      <c r="O487" s="126"/>
+    </row>
+    <row r="488" spans="15:15">
+      <c r="O488" s="126"/>
+    </row>
+    <row r="489" spans="15:15">
+      <c r="O489" s="126"/>
+    </row>
+    <row r="490" spans="15:15">
+      <c r="O490" s="126"/>
+    </row>
+    <row r="491" spans="15:15">
+      <c r="O491" s="126"/>
+    </row>
+    <row r="492" spans="15:15">
+      <c r="O492" s="126"/>
+    </row>
+    <row r="493" spans="15:15">
+      <c r="O493" s="126"/>
+    </row>
+    <row r="494" spans="15:15">
+      <c r="O494" s="126"/>
+    </row>
+    <row r="495" spans="15:15">
+      <c r="O495" s="126"/>
+    </row>
+    <row r="496" spans="15:15">
+      <c r="O496" s="126"/>
+    </row>
+    <row r="497" spans="15:15">
+      <c r="O497" s="126"/>
+    </row>
+    <row r="498" spans="15:15">
+      <c r="O498" s="126"/>
+    </row>
+    <row r="499" spans="15:15">
+      <c r="O499" s="126"/>
+    </row>
+    <row r="500" spans="15:15">
+      <c r="O500" s="126"/>
+    </row>
+    <row r="501" spans="15:15">
+      <c r="O501" s="126"/>
+    </row>
+    <row r="502" spans="15:15">
+      <c r="O502" s="126"/>
+    </row>
+    <row r="503" spans="15:15">
+      <c r="O503" s="126"/>
+    </row>
+    <row r="504" spans="15:15">
+      <c r="O504" s="126"/>
+    </row>
+    <row r="505" spans="15:15">
+      <c r="O505" s="126"/>
+    </row>
+    <row r="506" spans="15:15">
+      <c r="O506" s="126"/>
+    </row>
+    <row r="507" spans="15:15">
+      <c r="O507" s="126"/>
+    </row>
+    <row r="508" spans="15:15">
+      <c r="O508" s="126"/>
+    </row>
+    <row r="509" spans="15:15">
+      <c r="O509" s="126"/>
+    </row>
+    <row r="510" spans="15:15">
+      <c r="O510" s="126"/>
+    </row>
+    <row r="511" spans="15:15">
+      <c r="O511" s="126"/>
+    </row>
+    <row r="512" spans="15:15">
+      <c r="O512" s="126"/>
+    </row>
+    <row r="513" spans="15:15">
+      <c r="O513" s="126"/>
+    </row>
+    <row r="514" spans="15:15">
+      <c r="O514" s="126"/>
+    </row>
+    <row r="515" spans="15:15">
+      <c r="O515" s="126"/>
+    </row>
+    <row r="516" spans="15:15">
+      <c r="O516" s="126"/>
+    </row>
+    <row r="517" spans="15:15">
+      <c r="O517" s="126"/>
+    </row>
+    <row r="518" spans="15:15">
+      <c r="O518" s="126"/>
+    </row>
+    <row r="519" spans="15:15">
+      <c r="O519" s="126"/>
+    </row>
+    <row r="520" spans="15:15">
+      <c r="O520" s="126"/>
+    </row>
+    <row r="521" spans="15:15">
+      <c r="O521" s="126"/>
+    </row>
+    <row r="522" spans="15:15">
+      <c r="O522" s="126"/>
+    </row>
+    <row r="523" spans="15:15">
+      <c r="O523" s="126"/>
+    </row>
+    <row r="524" spans="15:15">
+      <c r="O524" s="126"/>
+    </row>
+    <row r="525" spans="15:15">
+      <c r="O525" s="126"/>
+    </row>
+    <row r="526" spans="15:15">
+      <c r="O526" s="126"/>
+    </row>
+    <row r="527" spans="15:15">
+      <c r="O527" s="126"/>
+    </row>
+    <row r="528" spans="15:15">
+      <c r="O528" s="126"/>
+    </row>
+    <row r="529" spans="15:15">
+      <c r="O529" s="126"/>
+    </row>
+    <row r="530" spans="15:15">
+      <c r="O530" s="126"/>
+    </row>
+    <row r="531" spans="15:15">
+      <c r="O531" s="126"/>
+    </row>
+    <row r="532" spans="15:15">
+      <c r="O532" s="126"/>
+    </row>
+    <row r="533" spans="15:15">
+      <c r="O533" s="126"/>
+    </row>
+    <row r="534" spans="15:15">
+      <c r="O534" s="126"/>
+    </row>
+    <row r="535" spans="15:15">
+      <c r="O535" s="126"/>
+    </row>
+    <row r="536" spans="15:15">
+      <c r="O536" s="126"/>
+    </row>
+    <row r="537" spans="15:15">
+      <c r="O537" s="126"/>
+    </row>
+    <row r="538" spans="15:15">
+      <c r="O538" s="126"/>
+    </row>
+    <row r="539" spans="15:15">
+      <c r="O539" s="126"/>
+    </row>
+    <row r="540" spans="15:15">
+      <c r="O540" s="126"/>
+    </row>
+    <row r="541" spans="15:15">
+      <c r="O541" s="126"/>
+    </row>
+    <row r="542" spans="15:15">
+      <c r="O542" s="126"/>
+    </row>
+    <row r="543" spans="15:15">
+      <c r="O543" s="126"/>
+    </row>
+    <row r="544" spans="15:15">
+      <c r="O544" s="126"/>
+    </row>
+    <row r="545" spans="15:15">
+      <c r="O545" s="126"/>
+    </row>
+    <row r="546" spans="15:15">
+      <c r="O546" s="126"/>
+    </row>
+    <row r="547" spans="15:15">
+      <c r="O547" s="126"/>
+    </row>
+    <row r="548" spans="15:15">
+      <c r="O548" s="126"/>
+    </row>
+    <row r="549" spans="15:15">
+      <c r="O549" s="126"/>
+    </row>
+    <row r="550" spans="15:15">
+      <c r="O550" s="126"/>
+    </row>
+    <row r="551" spans="15:15">
+      <c r="O551" s="126"/>
+    </row>
+    <row r="552" spans="15:15">
+      <c r="O552" s="126"/>
+    </row>
+    <row r="553" spans="15:15">
+      <c r="O553" s="126"/>
+    </row>
+    <row r="554" spans="15:15">
+      <c r="O554" s="126"/>
+    </row>
+    <row r="555" spans="15:15">
+      <c r="O555" s="126"/>
+    </row>
+    <row r="556" spans="15:15">
+      <c r="O556" s="126"/>
+    </row>
+    <row r="557" spans="15:15">
+      <c r="O557" s="126"/>
+    </row>
+    <row r="558" spans="15:15">
+      <c r="O558" s="126"/>
+    </row>
+    <row r="559" spans="15:15">
+      <c r="O559" s="126"/>
+    </row>
+    <row r="560" spans="15:15">
+      <c r="O560" s="126"/>
+    </row>
+    <row r="561" spans="15:15">
+      <c r="O561" s="126"/>
+    </row>
+    <row r="562" spans="15:15">
+      <c r="O562" s="126"/>
+    </row>
+    <row r="563" spans="15:15">
+      <c r="O563" s="126"/>
+    </row>
+    <row r="564" spans="15:15">
+      <c r="O564" s="126"/>
+    </row>
+    <row r="565" spans="15:15">
+      <c r="O565" s="126"/>
+    </row>
+    <row r="566" spans="15:15">
+      <c r="O566" s="126"/>
+    </row>
+    <row r="567" spans="15:15">
+      <c r="O567" s="126"/>
+    </row>
+    <row r="568" spans="15:15">
+      <c r="O568" s="126"/>
+    </row>
+    <row r="569" spans="15:15">
+      <c r="O569" s="126"/>
+    </row>
+    <row r="570" spans="15:15">
+      <c r="O570" s="126"/>
+    </row>
+    <row r="571" spans="15:15">
+      <c r="O571" s="126"/>
+    </row>
+    <row r="572" spans="15:15">
+      <c r="O572" s="126"/>
+    </row>
+    <row r="573" spans="15:15">
+      <c r="O573" s="126"/>
+    </row>
+    <row r="574" spans="15:15">
+      <c r="O574" s="126"/>
+    </row>
+    <row r="575" spans="15:15">
+      <c r="O575" s="126"/>
+    </row>
+    <row r="576" spans="15:15">
+      <c r="O576" s="126"/>
+    </row>
+    <row r="577" spans="15:15">
+      <c r="O577" s="126"/>
+    </row>
+    <row r="578" spans="15:15">
+      <c r="O578" s="126"/>
+    </row>
+    <row r="579" spans="15:15">
+      <c r="O579" s="126"/>
+    </row>
+    <row r="580" spans="15:15">
+      <c r="O580" s="126"/>
+    </row>
+    <row r="581" spans="15:15">
+      <c r="O581" s="126"/>
+    </row>
+    <row r="582" spans="15:15">
+      <c r="O582" s="126"/>
+    </row>
+    <row r="583" spans="15:15">
+      <c r="O583" s="126"/>
+    </row>
+    <row r="584" spans="15:15">
+      <c r="O584" s="126"/>
+    </row>
+    <row r="585" spans="15:15">
+      <c r="O585" s="126"/>
+    </row>
+    <row r="586" spans="15:15">
+      <c r="O586" s="126"/>
+    </row>
+    <row r="587" spans="15:15">
+      <c r="O587" s="126"/>
+    </row>
+    <row r="588" spans="15:15">
+      <c r="O588" s="126"/>
+    </row>
+    <row r="589" spans="15:15">
+      <c r="O589" s="126"/>
+    </row>
+    <row r="590" spans="15:15">
+      <c r="O590" s="126"/>
+    </row>
+    <row r="591" spans="15:15">
+      <c r="O591" s="126"/>
+    </row>
+    <row r="592" spans="15:15">
+      <c r="O592" s="126"/>
+    </row>
+    <row r="593" spans="15:15">
+      <c r="O593" s="126"/>
+    </row>
+    <row r="594" spans="15:15">
+      <c r="O594" s="126"/>
+    </row>
+    <row r="595" spans="15:15">
+      <c r="O595" s="126"/>
+    </row>
+    <row r="596" spans="15:15">
+      <c r="O596" s="126"/>
+    </row>
+    <row r="597" spans="15:15">
+      <c r="O597" s="126"/>
+    </row>
+    <row r="598" spans="15:15">
+      <c r="O598" s="126"/>
+    </row>
+    <row r="599" spans="15:15">
+      <c r="O599" s="126"/>
+    </row>
+    <row r="600" spans="15:15">
+      <c r="O600" s="126"/>
+    </row>
+    <row r="601" spans="15:15">
+      <c r="O601" s="126"/>
+    </row>
+    <row r="602" spans="15:15">
+      <c r="O602" s="126"/>
+    </row>
+    <row r="603" spans="15:15">
+      <c r="O603" s="126"/>
+    </row>
+    <row r="604" spans="15:15">
+      <c r="O604" s="126"/>
+    </row>
+    <row r="605" spans="15:15">
+      <c r="O605" s="126"/>
+    </row>
+    <row r="606" spans="15:15">
+      <c r="O606" s="126"/>
+    </row>
+    <row r="607" spans="15:15">
+      <c r="O607" s="126"/>
+    </row>
+    <row r="608" spans="15:15">
+      <c r="O608" s="126"/>
+    </row>
+    <row r="609" spans="15:15">
+      <c r="O609" s="126"/>
+    </row>
+    <row r="610" spans="15:15">
+      <c r="O610" s="126"/>
+    </row>
+    <row r="611" spans="15:15">
+      <c r="O611" s="126"/>
+    </row>
+    <row r="612" spans="15:15">
+      <c r="O612" s="126"/>
+    </row>
+    <row r="613" spans="15:15">
+      <c r="O613" s="126"/>
+    </row>
+    <row r="614" spans="15:15">
+      <c r="O614" s="126"/>
+    </row>
+    <row r="615" spans="15:15">
+      <c r="O615" s="126"/>
+    </row>
+    <row r="616" spans="15:15">
+      <c r="O616" s="126"/>
+    </row>
+    <row r="617" spans="15:15">
+      <c r="O617" s="126"/>
+    </row>
+    <row r="618" spans="15:15">
+      <c r="O618" s="126"/>
+    </row>
+    <row r="619" spans="15:15">
+      <c r="O619" s="126"/>
+    </row>
+    <row r="620" spans="15:15">
+      <c r="O620" s="126"/>
+    </row>
+    <row r="621" spans="15:15">
+      <c r="O621" s="126"/>
+    </row>
+    <row r="622" spans="15:15">
+      <c r="O622" s="126"/>
+    </row>
+    <row r="623" spans="15:15">
+      <c r="O623" s="126"/>
+    </row>
+    <row r="624" spans="15:15">
+      <c r="O624" s="126"/>
+    </row>
+    <row r="625" spans="15:15">
+      <c r="O625" s="126"/>
+    </row>
+    <row r="626" spans="15:15">
+      <c r="O626" s="126"/>
+    </row>
+    <row r="627" spans="15:15">
+      <c r="O627" s="126"/>
+    </row>
+    <row r="628" spans="15:15">
+      <c r="O628" s="126"/>
+    </row>
+    <row r="629" spans="15:15">
+      <c r="O629" s="126"/>
+    </row>
+    <row r="630" spans="15:15">
+      <c r="O630" s="126"/>
+    </row>
+    <row r="631" spans="15:15">
+      <c r="O631" s="126"/>
+    </row>
+    <row r="632" spans="15:15">
+      <c r="O632" s="126"/>
+    </row>
+    <row r="633" spans="15:15">
+      <c r="O633" s="126"/>
+    </row>
+    <row r="634" spans="15:15">
+      <c r="O634" s="126"/>
+    </row>
+    <row r="635" spans="15:15">
+      <c r="O635" s="126"/>
+    </row>
+    <row r="636" spans="15:15">
+      <c r="O636" s="126"/>
+    </row>
+    <row r="637" spans="15:15">
+      <c r="O637" s="126"/>
+    </row>
+    <row r="638" spans="15:15">
+      <c r="O638" s="126"/>
+    </row>
+    <row r="639" spans="15:15">
+      <c r="O639" s="126"/>
+    </row>
+    <row r="640" spans="15:15">
+      <c r="O640" s="126"/>
+    </row>
+    <row r="641" spans="15:15">
+      <c r="O641" s="126"/>
+    </row>
+    <row r="642" spans="15:15">
+      <c r="O642" s="126"/>
+    </row>
+    <row r="643" spans="15:15">
+      <c r="O643" s="126"/>
+    </row>
+    <row r="644" spans="15:15">
+      <c r="O644" s="126"/>
+    </row>
+    <row r="645" spans="15:15">
+      <c r="O645" s="126"/>
+    </row>
+    <row r="646" spans="15:15">
+      <c r="O646" s="126"/>
+    </row>
+    <row r="647" spans="15:15">
+      <c r="O647" s="126"/>
+    </row>
+    <row r="648" spans="15:15">
+      <c r="O648" s="126"/>
+    </row>
+    <row r="649" spans="15:15">
+      <c r="O649" s="126"/>
+    </row>
+    <row r="650" spans="15:15">
+      <c r="O650" s="126"/>
+    </row>
+    <row r="651" spans="15:15">
+      <c r="O651" s="126"/>
+    </row>
+    <row r="652" spans="15:15">
+      <c r="O652" s="126"/>
+    </row>
+    <row r="653" spans="15:15">
+      <c r="O653" s="126"/>
+    </row>
+    <row r="654" spans="15:15">
+      <c r="O654" s="126"/>
+    </row>
+    <row r="655" spans="15:15">
+      <c r="O655" s="126"/>
+    </row>
+    <row r="656" spans="15:15">
+      <c r="O656" s="126"/>
+    </row>
+    <row r="657" spans="15:15">
+      <c r="O657" s="126"/>
+    </row>
+    <row r="658" spans="15:15">
+      <c r="O658" s="126"/>
+    </row>
+    <row r="659" spans="15:15">
+      <c r="O659" s="126"/>
+    </row>
+    <row r="660" spans="15:15">
+      <c r="O660" s="126"/>
+    </row>
+    <row r="661" spans="15:15">
+      <c r="O661" s="126"/>
+    </row>
+    <row r="662" spans="15:15">
+      <c r="O662" s="126"/>
+    </row>
+    <row r="663" spans="15:15">
+      <c r="O663" s="126"/>
+    </row>
+    <row r="664" spans="15:15">
+      <c r="O664" s="126"/>
+    </row>
+    <row r="665" spans="15:15">
+      <c r="O665" s="126"/>
+    </row>
+    <row r="666" spans="15:15">
+      <c r="O666" s="126"/>
+    </row>
+    <row r="667" spans="15:15">
+      <c r="O667" s="126"/>
+    </row>
+    <row r="668" spans="15:15">
+      <c r="O668" s="126"/>
+    </row>
+    <row r="669" spans="15:15">
+      <c r="O669" s="126"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:F27"/>
   <sheetViews>
@@ -9246,7 +11626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:I11"/>
   <sheetViews>

--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D626A6-C7AC-45AE-BDC3-2E19A953DADA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="29040" windowHeight="16440" tabRatio="530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
@@ -16,8 +15,8 @@
     <sheet name="main" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="192">
   <si>
     <t>EventBusService::registerForEvent&lt;TnGetCountryListEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::AddressCaptureQueryCountry);</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -164,7 +163,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,7 +173,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -184,7 +183,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -194,7 +193,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -212,7 +211,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -222,7 +221,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,7 +231,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -242,7 +241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -257,7 +256,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -267,7 +266,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,7 +276,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,7 +286,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -306,7 +305,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -316,7 +315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -334,7 +333,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -344,7 +343,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -384,7 +383,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,7 +394,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -411,7 +410,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -422,7 +421,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -481,7 +480,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -491,7 +490,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -502,7 +501,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,7 +517,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -528,7 +527,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,7 +537,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,7 +547,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -558,7 +557,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -568,7 +567,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -638,7 +637,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -648,7 +647,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -668,7 +667,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,7 +677,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,7 +687,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,7 +697,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -708,7 +707,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -718,7 +717,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -735,7 +734,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -746,7 +745,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -757,7 +756,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -768,7 +767,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -854,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -864,7 +863,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1005,7 +1004,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1015,7 +1014,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1026,7 +1025,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1037,8 +1036,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -1047,7 +1046,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1064,8 +1063,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -1074,7 +1073,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1085,8 +1084,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -1095,7 +1094,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1106,7 +1105,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1116,7 +1115,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1133,8 +1132,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -1143,7 +1142,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1154,8 +1153,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -1164,7 +1163,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1175,8 +1174,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>EventT</t>
@@ -1185,7 +1184,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1208,7 +1207,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1218,7 +1217,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1234,7 +1233,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1244,7 +1243,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1263,7 +1262,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1273,7 +1272,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1289,7 +1288,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1299,7 +1298,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1315,7 +1314,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1325,7 +1324,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1336,7 +1335,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1346,7 +1345,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1362,7 +1361,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1372,7 +1371,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1383,7 +1382,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1393,7 +1392,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1409,7 +1408,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1419,7 +1418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1430,7 +1429,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1439,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1462,8 +1461,8 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>EventT</t>
@@ -1472,7 +1471,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1483,8 +1482,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>T</t>
@@ -1493,7 +1492,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1527,7 +1526,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1537,7 +1536,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1548,8 +1547,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>AutoSDKService</t>
@@ -1558,7 +1557,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1592,7 +1591,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1602,7 +1601,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1618,7 +1617,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1628,7 +1627,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1644,7 +1643,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1654,7 +1653,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1670,7 +1669,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1680,7 +1679,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1696,7 +1695,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1706,7 +1705,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1722,7 +1721,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1732,36 +1731,84 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>&gt; &gt;( *this, event, EventMetadata::getDefaultInstance() ) );</t>
     </r>
   </si>
+  <si>
+    <t>class TN_DLL_EXPORT EventBus</t>
+  </si>
+  <si>
+    <t>将上述shareptr参数继续传入单例EventBusService的成员EventBus的broadcast方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. new一个EventT，将其shareptr作为参数传入EventBusService的静态boardcastEvent方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">template&lt;class EventT&gt; </t>
+  </si>
+  <si>
+    <t>struct Dispatch : public Command {</t>
+  </si>
+  <si>
+    <t>eti.bus = &amp;bs;</t>
+  </si>
+  <si>
+    <t>eti.event = &amp;ev;</t>
+  </si>
+  <si>
+    <t>eti.metadata = &amp;metadata;</t>
+  </si>
+  <si>
+    <t>EventHooks&lt;EventT&gt;::onBroadcast( eti );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t>Dispatch( const EventBus&amp; bs, const EventT&amp; ev, const EventMetadata&amp; md ) : bus(bs),event(ev),metadata(md){</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以Eventbus的this指针、EventT的常引用和EventMetadata的默认单例对象先构建一个Dispatch对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTrackingInfo&lt;EventT&gt; eti;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时还在方法内构建临时EventTrackingInfo对象，以供EventHooks调用onBoardcast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1769,7 +1816,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1777,21 +1824,21 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1799,21 +1846,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1821,14 +1868,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1836,21 +1883,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1858,21 +1905,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2613,13 +2652,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2651,7 +2758,7 @@
         <xdr:cNvPr id="2" name="矩形标注 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2832,7 @@
         <xdr:cNvPr id="3" name="矩形标注 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2906,7 @@
         <xdr:cNvPr id="4" name="矩形标注 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2980,7 @@
         <xdr:cNvPr id="5" name="矩形标注 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,7 +3054,7 @@
         <xdr:cNvPr id="6" name="左大括号 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3008,7 +3115,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3061,7 +3168,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3114,7 +3221,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3167,7 +3274,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3327,7 @@
         <xdr:cNvPr id="15" name="直接箭头连接符 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3273,7 +3380,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,7 +3433,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3486,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3432,7 +3539,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,7 +3592,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3538,7 +3645,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3591,7 +3698,7 @@
         <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3671,7 +3778,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3746,7 +3853,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3799,7 +3906,7 @@
         <xdr:cNvPr id="7" name="Arrow: Right 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,7 +3966,7 @@
         <xdr:cNvPr id="9" name="Arrow: Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3919,7 +4026,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3972,7 +4079,7 @@
         <xdr:cNvPr id="14" name="Arrow: Right 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4032,7 +4139,7 @@
         <xdr:cNvPr id="15" name="Arrow: Right 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4092,7 +4199,7 @@
         <xdr:cNvPr id="18" name="Right Brace 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4150,7 +4257,7 @@
         <xdr:cNvPr id="40" name="Right Brace 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4211,7 +4318,7 @@
         <xdr:cNvPr id="43" name="Right Brace 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4272,7 +4379,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4325,7 +4432,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4378,7 +4485,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4431,7 +4538,7 @@
         <xdr:cNvPr id="47" name="直接箭头连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4484,7 +4591,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4537,7 +4644,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4590,7 +4697,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4643,7 +4750,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4696,7 +4803,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4749,7 +4856,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4802,7 +4909,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4855,7 +4962,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4908,7 +5015,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4961,7 +5068,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5014,7 +5121,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5067,7 +5174,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5120,7 +5227,7 @@
         <xdr:cNvPr id="66" name="直角上箭头 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5189,7 +5296,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5198,10 +5305,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5221,7 +5328,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5250,7 +5357,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5259,10 +5366,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5282,7 +5389,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5300,38 +5407,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66337</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2531ED7F-064F-4877-B7DE-E17178B11AD0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5339,83 +5434,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4549140"/>
-          <a:ext cx="12329160" cy="3398521"/>
+          <a:off x="1562100" y="5762625"/>
+          <a:ext cx="12906037" cy="4743450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76649</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76648</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9702B5A6-77C7-4721-864C-ACDE93A31617}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7802880" y="7208969"/>
-          <a:ext cx="9593580" cy="1828799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5431,7 +5456,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5678,26 +5703,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B5:V69"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:22">
@@ -5860,7 +5885,7 @@
       </c>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="3:22" ht="15" thickBot="1">
+    <row r="19" spans="3:22" ht="14.25" thickBot="1">
       <c r="C19" s="1"/>
       <c r="G19" s="10"/>
       <c r="H19" s="19"/>
@@ -5973,7 +5998,7 @@
       <c r="U23" s="30"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="3:22" ht="15" thickBot="1">
+    <row r="24" spans="3:22" ht="14.25" thickBot="1">
       <c r="C24" s="1"/>
       <c r="G24" s="10"/>
       <c r="H24" s="19"/>
@@ -6122,7 +6147,7 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
     </row>
-    <row r="33" spans="5:21" ht="15" thickBot="1">
+    <row r="33" spans="5:21" ht="14.25" thickBot="1">
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
@@ -6228,7 +6253,7 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
     </row>
-    <row r="38" spans="5:21" ht="15" thickBot="1">
+    <row r="38" spans="5:21" ht="14.25" thickBot="1">
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -6246,7 +6271,7 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
     </row>
-    <row r="43" spans="5:21" ht="15" hidden="1" thickBot="1"/>
+    <row r="43" spans="5:21" ht="14.25" hidden="1" thickBot="1"/>
     <row r="44" spans="5:21" hidden="1">
       <c r="F44" s="79" t="s">
         <v>67</v>
@@ -6285,7 +6310,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="82"/>
     </row>
-    <row r="50" spans="6:12" ht="15" hidden="1" thickBot="1">
+    <row r="50" spans="6:12" ht="14.25" hidden="1" thickBot="1">
       <c r="F50" s="81"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -6355,7 +6380,7 @@
       <c r="K57" s="81"/>
       <c r="L57" s="96"/>
     </row>
-    <row r="58" spans="6:12" ht="15" hidden="1" thickBot="1">
+    <row r="58" spans="6:12" ht="14.25" hidden="1" thickBot="1">
       <c r="F58" s="83"/>
       <c r="G58" s="94"/>
       <c r="H58" s="83"/>
@@ -6398,20 +6423,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AB80"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="9.375" customWidth="1"/>
+    <col min="19" max="19" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -6847,7 +6872,7 @@
       <c r="Q39" s="77"/>
       <c r="R39" s="77"/>
     </row>
-    <row r="40" spans="4:28" ht="15" thickBot="1">
+    <row r="40" spans="4:28" ht="14.25" thickBot="1">
       <c r="H40" t="s">
         <v>85</v>
       </c>
@@ -6858,7 +6883,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="4:28" ht="15" thickBot="1">
+    <row r="41" spans="4:28" ht="14.25" thickBot="1">
       <c r="O41" s="73"/>
       <c r="P41" s="74" t="s">
         <v>64</v>
@@ -6876,7 +6901,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="4:28" ht="15" thickBot="1"/>
+    <row r="42" spans="4:28" ht="14.25" thickBot="1"/>
     <row r="43" spans="4:28">
       <c r="P43" t="s">
         <v>54</v>
@@ -6892,13 +6917,13 @@
       </c>
       <c r="R44" s="87"/>
     </row>
-    <row r="45" spans="4:28" ht="15" thickBot="1">
+    <row r="45" spans="4:28" ht="14.25" thickBot="1">
       <c r="Q45" s="88" t="s">
         <v>57</v>
       </c>
       <c r="R45" s="89"/>
     </row>
-    <row r="47" spans="4:28" ht="15" thickBot="1">
+    <row r="47" spans="4:28" ht="14.25" thickBot="1">
       <c r="F47" t="s">
         <v>90</v>
       </c>
@@ -6940,7 +6965,7 @@
       <c r="R50" s="63"/>
       <c r="S50" s="64"/>
     </row>
-    <row r="51" spans="4:21" ht="15" thickBot="1">
+    <row r="51" spans="4:21" ht="14.25" thickBot="1">
       <c r="P51" s="65"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="67"/>
@@ -7092,7 +7117,7 @@
       <c r="R68" s="81"/>
       <c r="T68" s="82"/>
     </row>
-    <row r="69" spans="4:23" ht="15" thickBot="1">
+    <row r="69" spans="4:23" ht="14.25" thickBot="1">
       <c r="D69" s="106"/>
       <c r="E69" s="106" t="s">
         <v>59</v>
@@ -7116,7 +7141,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="4:23" ht="15" thickBot="1">
+    <row r="70" spans="4:23" ht="14.25" thickBot="1">
       <c r="D70" s="114" t="s">
         <v>58</v>
       </c>
@@ -7320,14 +7345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Q674"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:16">
       <c r="B2" t="s">
@@ -9464,157 +9489,196 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07363CD5-6E40-4834-985C-143518003EEB}">
-  <dimension ref="B2:Q669"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:R671"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="3:17">
-      <c r="C2" t="s">
+    <row r="2" spans="2:18">
+      <c r="B2" t="s">
         <v>172</v>
       </c>
       <c r="O2" s="81" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="3:17">
-      <c r="C3" t="s">
+    <row r="3" spans="2:18">
+      <c r="B3" t="s">
         <v>173</v>
       </c>
       <c r="O3" s="81" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="3:17">
-      <c r="D4" t="s">
-        <v>170</v>
+    <row r="4" spans="2:18">
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="O4" s="81"/>
       <c r="P4" s="128" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="3:17">
-      <c r="D5" t="s">
-        <v>174</v>
-      </c>
+    <row r="5" spans="2:18">
       <c r="O5" s="81"/>
       <c r="P5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="3:17">
-      <c r="D6" t="s">
-        <v>171</v>
-      </c>
+    <row r="6" spans="2:18">
       <c r="O6" s="81"/>
-    </row>
-    <row r="7" spans="3:17">
-      <c r="D7" t="s">
-        <v>175</v>
+      <c r="P6" s="127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" t="s">
+        <v>178</v>
       </c>
       <c r="O7" s="81"/>
       <c r="P7" s="127"/>
-    </row>
-    <row r="8" spans="3:17">
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="Q7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" t="s">
+        <v>151</v>
       </c>
       <c r="O8" s="81"/>
       <c r="P8" s="127"/>
-    </row>
-    <row r="9" spans="3:17">
+      <c r="Q8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" t="s">
+        <v>176</v>
+      </c>
       <c r="O9" s="81"/>
-    </row>
-    <row r="10" spans="3:17">
-      <c r="C10" t="s">
-        <v>151</v>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
       <c r="O10" s="81"/>
-    </row>
-    <row r="11" spans="3:17">
-      <c r="C11" t="s">
-        <v>176</v>
-      </c>
+      <c r="P10" s="127"/>
+      <c r="R10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
       <c r="O11" s="81"/>
-    </row>
-    <row r="12" spans="3:17">
-      <c r="D12" t="s">
-        <v>177</v>
+      <c r="R11" s="127" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" t="s">
+        <v>181</v>
       </c>
       <c r="O12" s="81"/>
-      <c r="Q12" s="127"/>
-    </row>
-    <row r="13" spans="3:17">
-      <c r="C13" t="s">
-        <v>14</v>
+      <c r="R12" s="127" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" t="s">
+        <v>182</v>
       </c>
       <c r="O13" s="81"/>
-      <c r="Q13" s="127"/>
-    </row>
-    <row r="14" spans="3:17">
+    </row>
+    <row r="14" spans="2:18">
+      <c r="C14" t="s">
+        <v>188</v>
+      </c>
       <c r="O14" s="81"/>
-    </row>
-    <row r="15" spans="3:17">
+      <c r="Q14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
       <c r="O15" s="81"/>
-    </row>
-    <row r="16" spans="3:17">
+      <c r="Q15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
       <c r="O16" s="81"/>
-      <c r="P16" s="127"/>
-    </row>
-    <row r="17" spans="2:15">
+    </row>
+    <row r="17" spans="3:16">
+      <c r="D17" t="s">
+        <v>184</v>
+      </c>
       <c r="O17" s="81"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="3:16">
+      <c r="D18" t="s">
+        <v>185</v>
+      </c>
       <c r="O18" s="81"/>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="P18" s="127"/>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="D19" t="s">
+        <v>186</v>
+      </c>
       <c r="O19" s="81"/>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" t="s">
-        <v>14</v>
+    <row r="20" spans="3:16">
+      <c r="C20" t="s">
+        <v>187</v>
       </c>
       <c r="O20" s="81"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="3:16">
       <c r="O21" s="81"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="3:16">
       <c r="O22" s="81"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="3:16">
       <c r="O23" s="81"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="3:16">
       <c r="O24" s="81"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="3:16">
       <c r="O25" s="81"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="3:16">
       <c r="O26" s="81"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="3:16">
       <c r="O27" s="81"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="3:16">
       <c r="O28" s="81"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="3:16">
       <c r="O29" s="81"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="3:16">
       <c r="O30" s="81"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="3:16">
       <c r="O31" s="81"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="3:16">
       <c r="O32" s="81"/>
     </row>
     <row r="33" spans="15:15">
@@ -10716,10 +10780,10 @@
       <c r="O398" s="81"/>
     </row>
     <row r="399" spans="15:15">
-      <c r="O399" s="126"/>
+      <c r="O399" s="81"/>
     </row>
     <row r="400" spans="15:15">
-      <c r="O400" s="126"/>
+      <c r="O400" s="81"/>
     </row>
     <row r="401" spans="15:15">
       <c r="O401" s="126"/>
@@ -11528,7 +11592,14 @@
     <row r="669" spans="15:15">
       <c r="O669" s="126"/>
     </row>
+    <row r="670" spans="15:15">
+      <c r="O670" s="126"/>
+    </row>
+    <row r="671" spans="15:15">
+      <c r="O671" s="126"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11536,14 +11607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D7:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
@@ -11627,14 +11698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">

--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="199">
   <si>
     <t>EventBusService::registerForEvent&lt;TnGetCountryListEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::AddressCaptureQueryCountry);</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1568,13 +1568,7 @@
     <t>调用步骤：</t>
   </si>
   <si>
-    <t>void LoganPluginCore::NotifyInitializeComplete(eTnStatus status, int stage)</t>
-  </si>
-  <si>
     <t>TnCommonPluginInitializedEvent::ptr ptrEvent(new TnCommonPluginInitializedEvent);</t>
-  </si>
-  <si>
-    <t>Tn::EventBusService::broadcastEvent&lt;TnCommonPluginInitializedEvent&gt;(ptrEvent);</t>
   </si>
   <si>
     <t>// broadcast to private bus</t>
@@ -1713,6 +1707,54 @@
     </r>
   </si>
   <si>
+    <t>class TN_DLL_EXPORT EventBus</t>
+  </si>
+  <si>
+    <t>将上述shareptr参数继续传入单例EventBusService的成员EventBus的broadcast方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. new一个EventT，将其shareptr作为参数传入EventBusService的静态boardcastEvent方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">template&lt;class EventT&gt; </t>
+  </si>
+  <si>
+    <t>struct Dispatch : public Command {</t>
+  </si>
+  <si>
+    <t>eti.bus = &amp;bs;</t>
+  </si>
+  <si>
+    <t>eti.event = &amp;ev;</t>
+  </si>
+  <si>
+    <t>eti.metadata = &amp;metadata;</t>
+  </si>
+  <si>
+    <t>EventHooks&lt;EventT&gt;::onBroadcast( eti );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t>Dispatch( const EventBus&amp; bs, const EventT&amp; ev, const EventMetadata&amp; md ) : bus(bs),event(ev),metadata(md){</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以Eventbus的this指针、EventT的常引用和EventMetadata的默认单例对象先构建一个Dispatch对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTrackingInfo&lt;EventT&gt; eti;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时还在方法内构建临时EventTrackingInfo对象，以供EventHooks调用onBoardcast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>commands.schedule( tn::make_shared&lt;Dispatch&lt;</t>
     </r>
@@ -1737,53 +1779,37 @@
       </rPr>
       <t>&gt; &gt;( *this, event, EventMetadata::getDefaultInstance() ) );</t>
     </r>
-  </si>
-  <si>
-    <t>class TN_DLL_EXPORT EventBus</t>
-  </si>
-  <si>
-    <t>将上述shareptr参数继续传入单例EventBusService的成员EventBus的broadcast方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. new一个EventT，将其shareptr作为参数传入EventBusService的静态boardcastEvent方法</t>
+    <t>void LoganPluginCore::NotifyInitializeComplete(eTnStatus status, int stage)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">template&lt;class EventT&gt; </t>
-  </si>
-  <si>
-    <t>struct Dispatch : public Command {</t>
-  </si>
-  <si>
-    <t>eti.bus = &amp;bs;</t>
-  </si>
-  <si>
-    <t>eti.event = &amp;ev;</t>
-  </si>
-  <si>
-    <t>eti.metadata = &amp;metadata;</t>
-  </si>
-  <si>
-    <t>EventHooks&lt;EventT&gt;::onBroadcast( eti );</t>
-  </si>
-  <si>
-    <t xml:space="preserve">} </t>
-  </si>
-  <si>
-    <t>Dispatch( const EventBus&amp; bs, const EventT&amp; ev, const EventMetadata&amp; md ) : bus(bs),event(ev),metadata(md){</t>
+    <t>以上述Dispatch的shareptr为参数调用EventBus的CommandLoop成员的shedule方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>以Eventbus的this指针、EventT的常引用和EventMetadata的默认单例对象先构建一个Dispatch对象</t>
+    <t xml:space="preserve">   void CommandLoop::schedule( const boost::shared_ptr&lt;Command&gt; &amp;cmd ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tn::lock_guard&lt;tn::mutex&gt; lock(queue_mutex);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  queue.push_back( cmd );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  command_available_or_stopped.notify_all();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EventTrackingInfo&lt;EventT&gt; eti;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时还在方法内构建临时EventTrackingInfo对象，以供EventHooks调用onBoardcast</t>
+    <t>Tn::EventBusService::broadcastEvent&lt;TnCommonPluginInitializedEvent&gt;(ptrEvent);</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2758,7 +2784,7 @@
         <xdr:cNvPr id="2" name="矩形标注 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2858,7 @@
         <xdr:cNvPr id="3" name="矩形标注 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2906,7 +2932,7 @@
         <xdr:cNvPr id="4" name="矩形标注 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,7 +3006,7 @@
         <xdr:cNvPr id="5" name="矩形标注 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,7 +3080,7 @@
         <xdr:cNvPr id="6" name="左大括号 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3115,7 +3141,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,7 +3194,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3221,7 +3247,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3274,7 +3300,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3327,7 +3353,7 @@
         <xdr:cNvPr id="15" name="直接箭头连接符 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3380,7 +3406,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3459,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3512,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3539,7 +3565,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3592,7 +3618,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,7 +3671,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3724,7 @@
         <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3778,7 +3804,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,7 +3879,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3906,7 +3932,7 @@
         <xdr:cNvPr id="7" name="Arrow: Right 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3966,7 +3992,7 @@
         <xdr:cNvPr id="9" name="Arrow: Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4026,7 +4052,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4079,7 +4105,7 @@
         <xdr:cNvPr id="14" name="Arrow: Right 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +4165,7 @@
         <xdr:cNvPr id="15" name="Arrow: Right 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4199,7 +4225,7 @@
         <xdr:cNvPr id="18" name="Right Brace 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4257,7 +4283,7 @@
         <xdr:cNvPr id="40" name="Right Brace 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4318,7 +4344,7 @@
         <xdr:cNvPr id="43" name="Right Brace 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4379,7 +4405,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4432,7 +4458,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4485,7 +4511,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4538,7 +4564,7 @@
         <xdr:cNvPr id="47" name="直接箭头连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4591,7 +4617,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4644,7 +4670,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4697,7 +4723,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4750,7 +4776,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4803,7 +4829,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4856,7 +4882,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4909,7 +4935,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4962,7 +4988,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5015,7 +5041,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +5094,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5121,7 +5147,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5174,7 +5200,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5227,7 +5253,7 @@
         <xdr:cNvPr id="66" name="直角上箭头 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5296,7 +5322,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5308,7 +5334,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5328,7 +5354,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5357,7 +5383,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5369,7 +5395,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5389,7 +5415,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5408,15 +5434,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>66337</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>437812</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5434,7 +5460,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1562100" y="5762625"/>
+          <a:off x="1933575" y="4867275"/>
           <a:ext cx="12906037" cy="4743450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5703,7 +5729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9493,14 +9519,14 @@
   <dimension ref="B2:R671"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:18">
       <c r="B2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O2" s="81" t="s">
         <v>166</v>
@@ -9508,10 +9534,10 @@
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O3" s="81" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:18">
@@ -9520,29 +9546,29 @@
       </c>
       <c r="O4" s="81"/>
       <c r="P4" s="128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="O5" s="81"/>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="2:18">
       <c r="O6" s="81"/>
       <c r="P6" s="127" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O7" s="81"/>
       <c r="P7" s="127"/>
       <c r="Q7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -9552,17 +9578,17 @@
       <c r="O8" s="81"/>
       <c r="P8" s="127"/>
       <c r="Q8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O9" s="81"/>
       <c r="P9" s="127"/>
       <c r="Q9" s="127" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -9572,113 +9598,134 @@
       <c r="O10" s="81"/>
       <c r="P10" s="127"/>
       <c r="R10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="O11" s="81"/>
       <c r="R11" s="127" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O12" s="81"/>
       <c r="R12" s="127" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O13" s="81"/>
     </row>
     <row r="14" spans="2:18">
       <c r="C14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O14" s="81"/>
-      <c r="Q14" t="s">
-        <v>171</v>
+      <c r="R14" s="127" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="D15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O15" s="81"/>
-      <c r="Q15" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="16" spans="2:18">
       <c r="D16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O16" s="81"/>
     </row>
-    <row r="17" spans="3:16">
+    <row r="17" spans="2:17">
       <c r="D17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O17" s="81"/>
     </row>
-    <row r="18" spans="3:16">
+    <row r="18" spans="2:17">
       <c r="D18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O18" s="81"/>
       <c r="P18" s="127"/>
     </row>
-    <row r="19" spans="3:16">
+    <row r="19" spans="2:17">
       <c r="D19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O19" s="81"/>
-    </row>
-    <row r="20" spans="3:16">
+      <c r="Q19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
       <c r="C20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O20" s="81"/>
-    </row>
-    <row r="21" spans="3:16">
+      <c r="Q20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
       <c r="O21" s="81"/>
     </row>
-    <row r="22" spans="3:16">
+    <row r="22" spans="2:17">
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
       <c r="O22" s="81"/>
     </row>
-    <row r="23" spans="3:16">
+    <row r="23" spans="2:17">
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
       <c r="O23" s="81"/>
     </row>
-    <row r="24" spans="3:16">
+    <row r="24" spans="2:17">
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
       <c r="O24" s="81"/>
     </row>
-    <row r="25" spans="3:16">
+    <row r="25" spans="2:17">
+      <c r="C25" t="s">
+        <v>195</v>
+      </c>
       <c r="O25" s="81"/>
     </row>
-    <row r="26" spans="3:16">
+    <row r="26" spans="2:17">
+      <c r="C26" t="s">
+        <v>196</v>
+      </c>
       <c r="O26" s="81"/>
     </row>
-    <row r="27" spans="3:16">
+    <row r="27" spans="2:17">
       <c r="O27" s="81"/>
     </row>
-    <row r="28" spans="3:16">
+    <row r="28" spans="2:17">
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
       <c r="O28" s="81"/>
     </row>
-    <row r="29" spans="3:16">
+    <row r="29" spans="2:17">
       <c r="O29" s="81"/>
     </row>
-    <row r="30" spans="3:16">
+    <row r="30" spans="2:17">
       <c r="O30" s="81"/>
     </row>
-    <row r="31" spans="3:16">
+    <row r="31" spans="2:17">
       <c r="O31" s="81"/>
     </row>
-    <row r="32" spans="3:16">
+    <row r="32" spans="2:17">
       <c r="O32" s="81"/>
     </row>
     <row r="33" spans="15:15">

--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="29040" windowHeight="16440" tabRatio="530" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="29040" windowHeight="16440" tabRatio="530" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="203">
   <si>
     <t>EventBusService::registerForEvent&lt;TnGetCountryListEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::AddressCaptureQueryCountry);</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -924,13 +924,7 @@
     <t>subscribers.insert( SubscriberMapT::value_type( typeName&lt;EventT&gt;(), s ));</t>
   </si>
   <si>
-    <t>void LoganPluginCore::Run()</t>
-  </si>
-  <si>
     <t>{</t>
-  </si>
-  <si>
-    <t>//Call Run Function (will quit when quit event is received)</t>
   </si>
   <si>
     <t>//guomin: we should make sure the scheduler and event manager run in the same thread, otherwise, we will have lots of thread confision issues.</t>
@@ -1811,6 +1805,26 @@
   <si>
     <t>Tn::EventBusService::broadcastEvent&lt;TnCommonPluginInitializedEvent&gt;(ptrEvent);</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void LoganPluginCore::Run()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//Call Run Function (will quit when quit event is received)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorCode AutoSDKService::enable(bool enabled)</t>
+  </si>
+  <si>
+    <t>mSDKThread.start();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    virtual void run()</t>
+  </si>
+  <si>
+    <t>void NavContext::Startup(const char* configPath)</t>
   </si>
 </sst>
 </file>
@@ -2784,7 +2798,7 @@
         <xdr:cNvPr id="2" name="矩形标注 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2872,7 @@
         <xdr:cNvPr id="3" name="矩形标注 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +2946,7 @@
         <xdr:cNvPr id="4" name="矩形标注 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,7 +3020,7 @@
         <xdr:cNvPr id="5" name="矩形标注 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3094,7 @@
         <xdr:cNvPr id="6" name="左大括号 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3155,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3208,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3247,7 +3261,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3300,7 +3314,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3367,7 @@
         <xdr:cNvPr id="15" name="直接箭头连接符 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3420,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3459,7 +3473,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3526,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3565,7 +3579,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,7 +3632,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3671,7 +3685,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3724,7 +3738,7 @@
         <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3804,7 +3818,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3879,7 +3893,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3932,7 +3946,7 @@
         <xdr:cNvPr id="7" name="Arrow: Right 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3992,7 +4006,7 @@
         <xdr:cNvPr id="9" name="Arrow: Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4052,7 +4066,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4105,7 +4119,7 @@
         <xdr:cNvPr id="14" name="Arrow: Right 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4165,7 +4179,7 @@
         <xdr:cNvPr id="15" name="Arrow: Right 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4225,7 +4239,7 @@
         <xdr:cNvPr id="18" name="Right Brace 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4283,7 +4297,7 @@
         <xdr:cNvPr id="40" name="Right Brace 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4344,7 +4358,7 @@
         <xdr:cNvPr id="43" name="Right Brace 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4405,7 +4419,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4458,7 +4472,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4511,7 +4525,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4564,7 +4578,7 @@
         <xdr:cNvPr id="47" name="直接箭头连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4617,7 +4631,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4670,7 +4684,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4723,7 +4737,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4776,7 +4790,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4829,7 +4843,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,7 +4896,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4935,7 +4949,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4988,7 +5002,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5041,7 +5055,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5094,7 +5108,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5147,7 +5161,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5200,7 +5214,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5253,7 +5267,7 @@
         <xdr:cNvPr id="66" name="直角上箭头 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5322,7 +5336,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5334,7 +5348,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5354,7 +5368,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5383,7 +5397,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5395,7 +5409,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5415,7 +5429,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5729,7 +5743,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7382,24 +7396,24 @@
   <sheetData>
     <row r="2" spans="2:16">
       <c r="B2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O2" s="81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O3" s="81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="2:16">
       <c r="O4" s="81"/>
       <c r="P4" s="127" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:16">
@@ -7407,20 +7421,20 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O6" s="81"/>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O7" s="81"/>
       <c r="P7" s="127" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:16">
@@ -7429,7 +7443,7 @@
       </c>
       <c r="O8" s="81"/>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -7438,7 +7452,7 @@
       </c>
       <c r="O9" s="81"/>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:16">
@@ -7447,39 +7461,39 @@
       </c>
       <c r="O10" s="81"/>
       <c r="P10" s="127" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O11" s="81"/>
     </row>
     <row r="12" spans="2:16">
       <c r="C12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O12" s="81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:16">
       <c r="C13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O13" s="81"/>
       <c r="P13" s="127" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:16">
       <c r="C14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O14" s="81"/>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:16">
@@ -7494,45 +7508,45 @@
       </c>
       <c r="O16" s="81"/>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="2:17">
       <c r="C17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O17" s="81"/>
       <c r="Q17" s="127" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="O18" s="81"/>
       <c r="Q18" s="127" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O19" s="81"/>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O20" s="81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="C21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O21" s="81"/>
       <c r="P21" s="127" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -9518,26 +9532,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:R671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:18">
       <c r="B2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O2" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O3" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:18">
@@ -9546,49 +9560,49 @@
       </c>
       <c r="O4" s="81"/>
       <c r="P4" s="128" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="O5" s="81"/>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:18">
       <c r="O6" s="81"/>
       <c r="P6" s="127" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O7" s="81"/>
       <c r="P7" s="127"/>
       <c r="Q7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O8" s="81"/>
       <c r="P8" s="127"/>
       <c r="Q8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O9" s="81"/>
       <c r="P9" s="127"/>
       <c r="Q9" s="127" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -9598,80 +9612,80 @@
       <c r="O10" s="81"/>
       <c r="P10" s="127"/>
       <c r="R10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="O11" s="81"/>
       <c r="R11" s="127" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O12" s="81"/>
       <c r="R12" s="127" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O13" s="81"/>
     </row>
     <row r="14" spans="2:18">
       <c r="C14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O14" s="81"/>
       <c r="R14" s="127" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="D15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O15" s="81"/>
     </row>
     <row r="16" spans="2:18">
       <c r="D16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O16" s="81"/>
     </row>
     <row r="17" spans="2:17">
       <c r="D17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O17" s="81"/>
     </row>
     <row r="18" spans="2:17">
       <c r="D18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O18" s="81"/>
       <c r="P18" s="127"/>
     </row>
     <row r="19" spans="2:17">
       <c r="D19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O19" s="81"/>
       <c r="Q19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="C20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O20" s="81"/>
       <c r="Q20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="2:17">
@@ -9679,31 +9693,31 @@
     </row>
     <row r="22" spans="2:17">
       <c r="B22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O22" s="81"/>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O23" s="81"/>
     </row>
     <row r="24" spans="2:17">
       <c r="C24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O24" s="81"/>
     </row>
     <row r="25" spans="2:17">
       <c r="C25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O25" s="81"/>
     </row>
     <row r="26" spans="2:17">
       <c r="C26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O26" s="81"/>
     </row>
@@ -9712,7 +9726,7 @@
     </row>
     <row r="28" spans="2:17">
       <c r="B28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O28" s="81"/>
     </row>
@@ -11655,85 +11669,100 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D7:F27"/>
+  <dimension ref="D7:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="4:6">
       <c r="E9" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="E10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="E11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="E12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="E13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="F14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="F15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21">
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21">
+      <c r="E23" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="4:6">
-      <c r="D22" t="s">
+      <c r="M23" t="s">
+        <v>201</v>
+      </c>
+      <c r="U23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21">
+      <c r="F24" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="E23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="F24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
+      <c r="N24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21">
       <c r="E25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="4:6">
+      <c r="O25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="4:21">
       <c r="E26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21">
       <c r="D27" t="s">
         <v>14</v>
       </c>
@@ -11741,6 +11770,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11756,45 +11786,45 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="D3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="G6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="D8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="I9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="D10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="I11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="29040" windowHeight="16440" tabRatio="530" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="29040" windowHeight="16440" tabRatio="530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
@@ -1447,8 +1447,85 @@
     <t>1. 注册一个EventT事件，注册时传入参数为func指针和func所在对象的弱引用</t>
   </si>
   <si>
-    <r>
-      <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;</t>
+    <t>2. new一个EventHandlerAdapter对象的同时，以func指针、func所在对象的弱引用初始化其成员，并以func所在对象的句柄、func类型对应的str、EventQueue的this指针初始化其基类成员</t>
+  </si>
+  <si>
+    <t>3. 以EventT类型对应的str、刚才new的EventHandlerAdapter对象shareptr为键值对添加到multimap成员中</t>
+  </si>
+  <si>
+    <t>4. new一个EventListener对象的同时，以EventQueue的this指针初始化其成员</t>
+  </si>
+  <si>
+    <t>这里构建2个SubscriberForEvent，模板参数分别为EventT、EventAdapter&lt;EventT&gt;。后者所谓适配器是比前者多了EventQueue的this指针</t>
+  </si>
+  <si>
+    <t>5. 以EventT类型对应的str、刚才new的EventListener对象ptr为键值对添加到map成员中</t>
+  </si>
+  <si>
+    <t>在EventListener构造函数的内，调用Eventbus的subscribe方法以添加订阅者到subscriber中；订阅者为工厂函数创建的SubscriberForEvent，其成员指定为EventListener::handle和EventQueue的this指针</t>
+  </si>
+  <si>
+    <r>
+      <t>AutoSDKService::eventQueue()-&gt;registerForEvent&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TnCommonPluginInitializedEvent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(boost::weak_ptr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AutoSDKService</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(mAutoSDKService), &amp;AutoSDKService::handleCommonPluginInitCompleteEvent);</t>
+    </r>
+  </si>
+  <si>
+    <t>调用步骤：</t>
+  </si>
+  <si>
+    <t>TnCommonPluginInitializedEvent::ptr ptrEvent(new TnCommonPluginInitializedEvent);</t>
+  </si>
+  <si>
+    <t>// broadcast to private bus</t>
+  </si>
+  <si>
+    <t>// broadcast to main bus</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template &lt;typename </t>
     </r>
     <r>
       <rPr>
@@ -1469,6 +1546,262 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>static bool broadcastEvent(const boost::shared_ptr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &amp; e) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m_instance.m_bus.broadcast&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(*e);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tn::EventManager::EventBus::getMain().broadcast&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(*e);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void broadcast( const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &amp;event ) {</t>
+    </r>
+  </si>
+  <si>
+    <t>class TN_DLL_EXPORT EventBus</t>
+  </si>
+  <si>
+    <t>将上述shareptr参数继续传入单例EventBusService的成员EventBus的broadcast方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. new一个EventT，将其shareptr作为参数传入EventBusService的静态boardcastEvent方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">template&lt;class EventT&gt; </t>
+  </si>
+  <si>
+    <t>struct Dispatch : public Command {</t>
+  </si>
+  <si>
+    <t>eti.bus = &amp;bs;</t>
+  </si>
+  <si>
+    <t>eti.event = &amp;ev;</t>
+  </si>
+  <si>
+    <t>eti.metadata = &amp;metadata;</t>
+  </si>
+  <si>
+    <t>EventHooks&lt;EventT&gt;::onBroadcast( eti );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">} </t>
+  </si>
+  <si>
+    <t>Dispatch( const EventBus&amp; bs, const EventT&amp; ev, const EventMetadata&amp; md ) : bus(bs),event(ev),metadata(md){</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以Eventbus的this指针、EventT的常引用和EventMetadata的默认单例对象先构建一个Dispatch对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventTrackingInfo&lt;EventT&gt; eti;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时还在方法内构建临时EventTrackingInfo对象，以供EventHooks调用onBoardcast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>commands.schedule( tn::make_shared&lt;Dispatch&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &gt;( *this, event, EventMetadata::getDefaultInstance() ) );</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void LoganPluginCore::NotifyInitializeComplete(eTnStatus status, int stage)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上述Dispatch的shareptr为参数调用EventBus的CommandLoop成员的shedule方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   void CommandLoop::schedule( const boost::shared_ptr&lt;Command&gt; &amp;cmd ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tn::lock_guard&lt;tn::mutex&gt; lock(queue_mutex);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  queue.push_back( cmd );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  command_available_or_stopped.notify_all();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tn::EventBusService::broadcastEvent&lt;TnCommonPluginInitializedEvent&gt;(ptrEvent);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void LoganPluginCore::Run()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//Call Run Function (will quit when quit event is received)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorCode AutoSDKService::enable(bool enabled)</t>
+  </si>
+  <si>
+    <t>mSDKThread.start();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    virtual void run()</t>
+  </si>
+  <si>
+    <t>void NavContext::Startup(const char* configPath)</t>
+  </si>
+  <si>
+    <r>
+      <t>TnSharedPtr&lt;EventHandlerAdapterBase&gt; pAdapter(new EventHandlerAdapter&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
@@ -1492,339 +1825,7 @@
       </rPr>
       <t>&gt;(obj, memberFunction, this));</t>
     </r>
-  </si>
-  <si>
-    <t>2. new一个EventHandlerAdapter对象的同时，以func指针、func所在对象的弱引用初始化其成员，并以func所在对象的句柄、func类型对应的str、EventQueue的this指针初始化其基类成员</t>
-  </si>
-  <si>
-    <t>3. 以EventT类型对应的str、刚才new的EventHandlerAdapter对象shareptr为键值对添加到multimap成员中</t>
-  </si>
-  <si>
-    <t>4. new一个EventListener对象的同时，以EventQueue的this指针初始化其成员</t>
-  </si>
-  <si>
-    <t>这里构建2个SubscriberForEvent，模板参数分别为EventT、EventAdapter&lt;EventT&gt;。后者所谓适配器是比前者多了EventQueue的this指针</t>
-  </si>
-  <si>
-    <t>5. 以EventT类型对应的str、刚才new的EventListener对象ptr为键值对添加到map成员中</t>
-  </si>
-  <si>
-    <t>在EventListener构造函数的内，调用Eventbus的subscribe方法以添加订阅者到subscriber中；订阅者为工厂函数创建的SubscriberForEvent，其成员指定为EventListener::handle和EventQueue的this指针</t>
-  </si>
-  <si>
-    <r>
-      <t>AutoSDKService::eventQueue()-&gt;registerForEvent&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TnCommonPluginInitializedEvent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(boost::weak_ptr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AutoSDKService</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(mAutoSDKService), &amp;AutoSDKService::handleCommonPluginInitCompleteEvent);</t>
-    </r>
-  </si>
-  <si>
-    <t>调用步骤：</t>
-  </si>
-  <si>
-    <t>TnCommonPluginInitializedEvent::ptr ptrEvent(new TnCommonPluginInitializedEvent);</t>
-  </si>
-  <si>
-    <t>// broadcast to private bus</t>
-  </si>
-  <si>
-    <t>// broadcast to main bus</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">template &lt;typename </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>static bool broadcastEvent(const boost::shared_ptr&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; &amp; e) {</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>m_instance.m_bus.broadcast&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(*e);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Tn::EventManager::EventBus::getMain().broadcast&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;(*e);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">void broadcast( const </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &amp;event ) {</t>
-    </r>
-  </si>
-  <si>
-    <t>class TN_DLL_EXPORT EventBus</t>
-  </si>
-  <si>
-    <t>将上述shareptr参数继续传入单例EventBusService的成员EventBus的broadcast方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. new一个EventT，将其shareptr作为参数传入EventBusService的静态boardcastEvent方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">template&lt;class EventT&gt; </t>
-  </si>
-  <si>
-    <t>struct Dispatch : public Command {</t>
-  </si>
-  <si>
-    <t>eti.bus = &amp;bs;</t>
-  </si>
-  <si>
-    <t>eti.event = &amp;ev;</t>
-  </si>
-  <si>
-    <t>eti.metadata = &amp;metadata;</t>
-  </si>
-  <si>
-    <t>EventHooks&lt;EventT&gt;::onBroadcast( eti );</t>
-  </si>
-  <si>
-    <t xml:space="preserve">} </t>
-  </si>
-  <si>
-    <t>Dispatch( const EventBus&amp; bs, const EventT&amp; ev, const EventMetadata&amp; md ) : bus(bs),event(ev),metadata(md){</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以Eventbus的this指针、EventT的常引用和EventMetadata的默认单例对象先构建一个Dispatch对象</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventTrackingInfo&lt;EventT&gt; eti;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时还在方法内构建临时EventTrackingInfo对象，以供EventHooks调用onBoardcast</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>commands.schedule( tn::make_shared&lt;Dispatch&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EventT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; &gt;( *this, event, EventMetadata::getDefaultInstance() ) );</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void LoganPluginCore::NotifyInitializeComplete(eTnStatus status, int stage)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上述Dispatch的shareptr为参数调用EventBus的CommandLoop成员的shedule方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   void CommandLoop::schedule( const boost::shared_ptr&lt;Command&gt; &amp;cmd ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  tn::lock_guard&lt;tn::mutex&gt; lock(queue_mutex);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  queue.push_back( cmd );</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  command_available_or_stopped.notify_all();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tn::EventBusService::broadcastEvent&lt;TnCommonPluginInitializedEvent&gt;(ptrEvent);</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>void LoganPluginCore::Run()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//Call Run Function (will quit when quit event is received)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ErrorCode AutoSDKService::enable(bool enabled)</t>
-  </si>
-  <si>
-    <t>mSDKThread.start();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    virtual void run()</t>
-  </si>
-  <si>
-    <t>void NavContext::Startup(const char* configPath)</t>
   </si>
 </sst>
 </file>
@@ -2798,7 +2799,7 @@
         <xdr:cNvPr id="2" name="矩形标注 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2873,7 @@
         <xdr:cNvPr id="3" name="矩形标注 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2946,7 +2947,7 @@
         <xdr:cNvPr id="4" name="矩形标注 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3021,7 @@
         <xdr:cNvPr id="5" name="矩形标注 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,7 +3095,7 @@
         <xdr:cNvPr id="6" name="左大括号 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +3156,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3209,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3261,7 +3262,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3314,7 +3315,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3367,7 +3368,7 @@
         <xdr:cNvPr id="15" name="直接箭头连接符 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3421,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3473,7 +3474,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3526,7 +3527,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3579,7 +3580,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3633,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3686,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3738,7 +3739,7 @@
         <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3818,7 +3819,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3893,7 +3894,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3946,7 +3947,7 @@
         <xdr:cNvPr id="7" name="Arrow: Right 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4006,7 +4007,7 @@
         <xdr:cNvPr id="9" name="Arrow: Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4066,7 +4067,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4119,7 +4120,7 @@
         <xdr:cNvPr id="14" name="Arrow: Right 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4179,7 +4180,7 @@
         <xdr:cNvPr id="15" name="Arrow: Right 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4239,7 +4240,7 @@
         <xdr:cNvPr id="18" name="Right Brace 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4297,7 +4298,7 @@
         <xdr:cNvPr id="40" name="Right Brace 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4358,7 +4359,7 @@
         <xdr:cNvPr id="43" name="Right Brace 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4419,7 +4420,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +4473,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4525,7 +4526,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4578,7 +4579,7 @@
         <xdr:cNvPr id="47" name="直接箭头连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4631,7 +4632,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4684,7 +4685,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4737,7 +4738,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,7 +4791,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4843,7 +4844,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4896,7 +4897,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4949,7 +4950,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5002,7 +5003,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5055,7 +5056,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5108,7 +5109,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5161,7 +5162,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5214,7 +5215,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5267,7 +5268,7 @@
         <xdr:cNvPr id="66" name="直角上箭头 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5336,7 +5337,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5348,7 +5349,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5368,7 +5369,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5397,7 +5398,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5409,7 +5410,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5429,7 +5430,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5743,7 +5744,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7388,8 +7389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Q674"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7407,7 +7408,7 @@
         <v>142</v>
       </c>
       <c r="O3" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -7425,7 +7426,7 @@
       </c>
       <c r="O6" s="81"/>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -7434,7 +7435,7 @@
       </c>
       <c r="O7" s="81"/>
       <c r="P7" s="127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:16">
@@ -7461,7 +7462,7 @@
       </c>
       <c r="O10" s="81"/>
       <c r="P10" s="127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="2:16">
@@ -7484,7 +7485,7 @@
       </c>
       <c r="O13" s="81"/>
       <c r="P13" s="127" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:16">
@@ -7517,13 +7518,13 @@
       </c>
       <c r="O17" s="81"/>
       <c r="Q17" s="127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="O18" s="81"/>
       <c r="Q18" s="127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:17">
@@ -7546,7 +7547,7 @@
       </c>
       <c r="O21" s="81"/>
       <c r="P21" s="127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:17">
@@ -9540,18 +9541,18 @@
   <sheetData>
     <row r="2" spans="2:18">
       <c r="B2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O2" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:18">
       <c r="B3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O3" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:18">
@@ -9560,29 +9561,29 @@
       </c>
       <c r="O4" s="81"/>
       <c r="P4" s="128" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="O5" s="81"/>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:18">
       <c r="O6" s="81"/>
       <c r="P6" s="127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O7" s="81"/>
       <c r="P7" s="127"/>
       <c r="Q7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -9592,17 +9593,17 @@
       <c r="O8" s="81"/>
       <c r="P8" s="127"/>
       <c r="Q8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O9" s="81"/>
       <c r="P9" s="127"/>
       <c r="Q9" s="127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -9612,80 +9613,80 @@
       <c r="O10" s="81"/>
       <c r="P10" s="127"/>
       <c r="R10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="O11" s="81"/>
       <c r="R11" s="127" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O12" s="81"/>
       <c r="R12" s="127" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O13" s="81"/>
     </row>
     <row r="14" spans="2:18">
       <c r="C14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O14" s="81"/>
       <c r="R14" s="127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="D15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O15" s="81"/>
     </row>
     <row r="16" spans="2:18">
       <c r="D16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O16" s="81"/>
     </row>
     <row r="17" spans="2:17">
       <c r="D17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O17" s="81"/>
     </row>
     <row r="18" spans="2:17">
       <c r="D18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O18" s="81"/>
       <c r="P18" s="127"/>
     </row>
     <row r="19" spans="2:17">
       <c r="D19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O19" s="81"/>
       <c r="Q19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="C20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O20" s="81"/>
       <c r="Q20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:17">
@@ -9693,31 +9694,31 @@
     </row>
     <row r="22" spans="2:17">
       <c r="B22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O22" s="81"/>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O23" s="81"/>
     </row>
     <row r="24" spans="2:17">
       <c r="C24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O24" s="81"/>
     </row>
     <row r="25" spans="2:17">
       <c r="C25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O25" s="81"/>
     </row>
     <row r="26" spans="2:17">
       <c r="C26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O26" s="81"/>
     </row>
@@ -9726,7 +9727,7 @@
     </row>
     <row r="28" spans="2:17">
       <c r="B28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O28" s="81"/>
     </row>
@@ -11671,15 +11672,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D7:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="4:6">
@@ -11689,7 +11690,7 @@
     </row>
     <row r="9" spans="4:6">
       <c r="E9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="4:6">
@@ -11727,7 +11728,7 @@
         <v>125</v>
       </c>
       <c r="M22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="4:21">
@@ -11735,10 +11736,10 @@
         <v>126</v>
       </c>
       <c r="M23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="4:21">
@@ -11746,7 +11747,7 @@
         <v>127</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="4:21">
@@ -11754,7 +11755,7 @@
         <v>14</v>
       </c>
       <c r="O25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="4:21">

--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE64BE1F-AB37-4ED6-8E67-747FFDE7D679}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="29040" windowHeight="16440" tabRatio="530" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
@@ -15,8 +16,8 @@
     <sheet name="main" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -163,7 +164,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -173,7 +174,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -183,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -193,7 +194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -211,7 +212,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -221,7 +222,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -231,7 +232,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -241,7 +242,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -256,7 +257,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -266,7 +267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,7 +277,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -286,7 +287,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,7 +306,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,7 +316,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,7 +334,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -343,7 +344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -383,7 +384,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -394,7 +395,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -410,7 +411,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -421,7 +422,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -480,7 +481,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -490,7 +491,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,7 +502,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -517,7 +518,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -527,7 +528,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -537,7 +538,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -547,7 +548,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -557,7 +558,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -567,7 +568,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -637,7 +638,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -647,7 +648,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -667,7 +668,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,7 +678,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,7 +688,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -697,7 +698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -707,7 +708,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -717,7 +718,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -734,7 +735,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -745,7 +746,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -756,7 +757,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -767,7 +768,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -853,7 +854,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -863,7 +864,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -998,7 +999,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1008,7 +1009,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1019,7 +1020,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1030,7 +1031,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1040,7 +1041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1057,7 +1058,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1067,7 +1068,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1078,7 +1079,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1088,7 +1089,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1099,7 +1100,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1109,7 +1110,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1126,7 +1127,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1136,7 +1137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1147,7 +1148,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1158,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1169,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1178,7 +1179,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1201,7 +1202,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1211,7 +1212,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,7 +1228,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1237,7 +1238,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1256,7 +1257,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1266,7 +1267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1282,7 +1283,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1292,7 +1293,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1308,7 +1309,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1318,7 +1319,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1329,7 +1330,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1339,7 +1340,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1355,7 +1356,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1365,7 +1366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1376,7 +1377,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1386,7 +1387,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1402,7 +1403,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1412,7 +1413,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1423,7 +1424,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1433,7 +1434,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1473,7 +1474,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1483,7 +1484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1494,7 +1495,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1504,7 +1505,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1532,7 +1533,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1542,7 +1543,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1558,7 +1559,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1568,7 +1569,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1584,7 +1585,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1594,7 +1595,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1610,7 +1611,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1620,7 +1621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1636,7 +1637,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1646,7 +1647,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1710,7 +1711,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1720,7 +1721,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1788,7 +1789,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1798,7 +1799,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1809,7 +1810,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1819,7 +1820,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1831,25 +1832,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1857,7 +1858,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1865,21 +1866,21 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1887,21 +1888,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1909,14 +1910,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1924,21 +1925,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1946,13 +1947,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2696,78 +2697,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2799,7 +2732,7 @@
         <xdr:cNvPr id="2" name="矩形标注 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2806,7 @@
         <xdr:cNvPr id="3" name="矩形标注 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,7 +2880,7 @@
         <xdr:cNvPr id="4" name="矩形标注 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +2954,7 @@
         <xdr:cNvPr id="5" name="矩形标注 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3028,7 @@
         <xdr:cNvPr id="6" name="左大括号 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,7 +3089,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3209,7 +3142,7 @@
         <xdr:cNvPr id="9" name="直接箭头连接符 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +3195,7 @@
         <xdr:cNvPr id="12" name="直接箭头连接符 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3315,7 +3248,7 @@
         <xdr:cNvPr id="14" name="直接箭头连接符 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3368,7 +3301,7 @@
         <xdr:cNvPr id="15" name="直接箭头连接符 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3421,7 +3354,7 @@
         <xdr:cNvPr id="16" name="直接箭头连接符 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3474,7 +3407,7 @@
         <xdr:cNvPr id="17" name="直接箭头连接符 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3460,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3580,7 +3513,7 @@
         <xdr:cNvPr id="24" name="直接箭头连接符 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +3566,7 @@
         <xdr:cNvPr id="26" name="直接箭头连接符 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3686,7 +3619,7 @@
         <xdr:cNvPr id="29" name="直接箭头连接符 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3739,7 +3672,7 @@
         <xdr:cNvPr id="7" name="Speech Bubble: Rectangle with Corners Rounded 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3819,7 +3752,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle with Corners Rounded 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3894,7 +3827,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3947,7 +3880,7 @@
         <xdr:cNvPr id="7" name="Arrow: Right 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,7 +3940,7 @@
         <xdr:cNvPr id="9" name="Arrow: Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4067,7 +4000,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4120,7 +4053,7 @@
         <xdr:cNvPr id="14" name="Arrow: Right 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4180,7 +4113,7 @@
         <xdr:cNvPr id="15" name="Arrow: Right 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4240,7 +4173,7 @@
         <xdr:cNvPr id="18" name="Right Brace 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4298,7 +4231,7 @@
         <xdr:cNvPr id="40" name="Right Brace 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4359,7 +4292,7 @@
         <xdr:cNvPr id="43" name="Right Brace 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4420,7 +4353,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4473,7 +4406,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4526,7 +4459,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4579,7 +4512,7 @@
         <xdr:cNvPr id="47" name="直接箭头连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4632,7 +4565,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4685,7 +4618,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4738,7 +4671,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4791,7 +4724,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4844,7 +4777,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4897,7 +4830,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4950,7 +4883,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5003,7 +4936,7 @@
         <xdr:cNvPr id="31" name="直接箭头连接符 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5056,7 +4989,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5109,7 +5042,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5162,7 +5095,7 @@
         <xdr:cNvPr id="34" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5215,7 +5148,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5268,7 +5201,7 @@
         <xdr:cNvPr id="66" name="直角上箭头 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5337,7 +5270,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB0A60A-8E62-4008-BBEA-63F9FA436B85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5349,7 +5282,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5369,7 +5302,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5398,7 +5331,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F1345D-44D1-467F-B195-81141B0AAD51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,7 +5343,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5430,7 +5363,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5461,7 +5394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPr id="2050" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5497,7 +5436,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5744,26 +5683,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:V69"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:22">
@@ -5926,7 +5865,7 @@
       </c>
       <c r="V18" s="10"/>
     </row>
-    <row r="19" spans="3:22" ht="14.25" thickBot="1">
+    <row r="19" spans="3:22" ht="15" thickBot="1">
       <c r="C19" s="1"/>
       <c r="G19" s="10"/>
       <c r="H19" s="19"/>
@@ -6039,7 +5978,7 @@
       <c r="U23" s="30"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="3:22" ht="14.25" thickBot="1">
+    <row r="24" spans="3:22" ht="15" thickBot="1">
       <c r="C24" s="1"/>
       <c r="G24" s="10"/>
       <c r="H24" s="19"/>
@@ -6188,7 +6127,7 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
     </row>
-    <row r="33" spans="5:21" ht="14.25" thickBot="1">
+    <row r="33" spans="5:21" ht="15" thickBot="1">
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
       <c r="G33" s="54"/>
@@ -6294,7 +6233,7 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
     </row>
-    <row r="38" spans="5:21" ht="14.25" thickBot="1">
+    <row r="38" spans="5:21" ht="15" thickBot="1">
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -6312,7 +6251,7 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
     </row>
-    <row r="43" spans="5:21" ht="14.25" hidden="1" thickBot="1"/>
+    <row r="43" spans="5:21" ht="15" hidden="1" thickBot="1"/>
     <row r="44" spans="5:21" hidden="1">
       <c r="F44" s="79" t="s">
         <v>67</v>
@@ -6351,7 +6290,7 @@
       <c r="H49" s="10"/>
       <c r="I49" s="82"/>
     </row>
-    <row r="50" spans="6:12" ht="14.25" hidden="1" thickBot="1">
+    <row r="50" spans="6:12" ht="15" hidden="1" thickBot="1">
       <c r="F50" s="81"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
@@ -6421,7 +6360,7 @@
       <c r="K57" s="81"/>
       <c r="L57" s="96"/>
     </row>
-    <row r="58" spans="6:12" ht="14.25" hidden="1" thickBot="1">
+    <row r="58" spans="6:12" ht="15" hidden="1" thickBot="1">
       <c r="F58" s="83"/>
       <c r="G58" s="94"/>
       <c r="H58" s="83"/>
@@ -6464,20 +6403,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AB80"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="14" width="9.375" customWidth="1"/>
-    <col min="19" max="19" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -6913,7 +6852,7 @@
       <c r="Q39" s="77"/>
       <c r="R39" s="77"/>
     </row>
-    <row r="40" spans="4:28" ht="14.25" thickBot="1">
+    <row r="40" spans="4:28" ht="15" thickBot="1">
       <c r="H40" t="s">
         <v>85</v>
       </c>
@@ -6924,7 +6863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="4:28" ht="14.25" thickBot="1">
+    <row r="41" spans="4:28" ht="15" thickBot="1">
       <c r="O41" s="73"/>
       <c r="P41" s="74" t="s">
         <v>64</v>
@@ -6942,7 +6881,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="4:28" ht="14.25" thickBot="1"/>
+    <row r="42" spans="4:28" ht="15" thickBot="1"/>
     <row r="43" spans="4:28">
       <c r="P43" t="s">
         <v>54</v>
@@ -6958,13 +6897,13 @@
       </c>
       <c r="R44" s="87"/>
     </row>
-    <row r="45" spans="4:28" ht="14.25" thickBot="1">
+    <row r="45" spans="4:28" ht="15" thickBot="1">
       <c r="Q45" s="88" t="s">
         <v>57</v>
       </c>
       <c r="R45" s="89"/>
     </row>
-    <row r="47" spans="4:28" ht="14.25" thickBot="1">
+    <row r="47" spans="4:28" ht="15" thickBot="1">
       <c r="F47" t="s">
         <v>90</v>
       </c>
@@ -7006,7 +6945,7 @@
       <c r="R50" s="63"/>
       <c r="S50" s="64"/>
     </row>
-    <row r="51" spans="4:21" ht="14.25" thickBot="1">
+    <row r="51" spans="4:21" ht="15" thickBot="1">
       <c r="P51" s="65"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="67"/>
@@ -7158,7 +7097,7 @@
       <c r="R68" s="81"/>
       <c r="T68" s="82"/>
     </row>
-    <row r="69" spans="4:23" ht="14.25" thickBot="1">
+    <row r="69" spans="4:23" ht="15" thickBot="1">
       <c r="D69" s="106"/>
       <c r="E69" s="106" t="s">
         <v>59</v>
@@ -7182,7 +7121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="4:23" ht="14.25" thickBot="1">
+    <row r="70" spans="4:23" ht="15" thickBot="1">
       <c r="D70" s="114" t="s">
         <v>58</v>
       </c>
@@ -7386,14 +7325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:Q674"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:16">
       <c r="B2" t="s">
@@ -9530,14 +9469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R671"/>
   <sheetViews>
     <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:18">
       <c r="B2" t="s">
@@ -11669,14 +11608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
@@ -11776,14 +11715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">

--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE64BE1F-AB37-4ED6-8E67-747FFDE7D679}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF58AA3-35AE-4699-99AF-13BE3A3C109C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16560" yWindow="2897" windowWidth="16663" windowHeight="8863" tabRatio="530" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
     <sheet name="LoganPluginCore调用" sheetId="4" r:id="rId2"/>
     <sheet name="HMI Event注册" sheetId="8" r:id="rId3"/>
-    <sheet name="HMI Event调用 (2)" sheetId="9" r:id="rId4"/>
-    <sheet name="HMI Event调用" sheetId="6" r:id="rId5"/>
-    <sheet name="main" sheetId="7" r:id="rId6"/>
+    <sheet name="HMI Event注册 (2)" sheetId="10" r:id="rId4"/>
+    <sheet name="HMI Event调用 (2)" sheetId="9" r:id="rId5"/>
+    <sheet name="HMI Event调用" sheetId="6" r:id="rId6"/>
+    <sheet name="main" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="229">
   <si>
     <t>EventBusService::registerForEvent&lt;TnGetCountryListEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::AddressCaptureQueryCountry);</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1828,12 +1829,304 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>m_pBusService-&gt;registerForEvent&lt;TnGPSPositionEvent&gt;(m_wpEventReceiver, &amp;LoganEventReceiver::processTnGPSPositionEvent);</t>
+  </si>
+  <si>
+    <t>subscribe&lt;EventT, T&gt;(boost::bind(memberFunction, obj.lock().get(), _1), obj.lock().get());</t>
+  </si>
+  <si>
+    <t>m_bus.subscribe&lt;EventT&gt;(handler, tag);</t>
+  </si>
+  <si>
+    <t>// here, we need to make sure do not subscribe handle more than once</t>
+  </si>
+  <si>
+    <t>if (m_keys.find(typeid(EventT).name()) == m_keys.end()) {</t>
+  </si>
+  <si>
+    <t>void (&amp;func)(const EventT &amp;) = EventBusService::handle;</t>
+  </si>
+  <si>
+    <t>Tn::EventManager::EventBus::getMain().subscribe&lt;EventT&gt;(boost::bind(func, _1), tag);</t>
+  </si>
+  <si>
+    <t>m_keys.insert(typeid(EventT).name());</t>
+  </si>
+  <si>
+    <t>m_tags.insert(std::multimap&lt;void*, std::string&gt;::value_type(tag, typeid(EventT).name()));</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template &lt;typename </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, typename</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bool registerForEvent(boost::weak_ptr&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; obj, void (T::*memberFunction)(const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;))</t>
+    </r>
+  </si>
+  <si>
+    <t>1. 注册一个EventT事件，注册时传入参数为func指针和func所在对象（LoganEventReceiver）的弱引用</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void subscribe(boost::function&lt;void(const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;)&gt; handler, void* tag = NULL )</t>
+    </r>
+  </si>
+  <si>
+    <t>tn::shared_ptr&lt;SubscriberForEvent&lt;EventT&gt; &gt; s = tn::make_shared&lt;SubscriberForEvent&lt;EventT&gt; &gt;();</t>
+  </si>
+  <si>
+    <t>struct SubscriberForEvent : public Subscriber {</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void subscribe( tn::function&lt;void(const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;)&gt; handler, void* tag = NULL )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">template&lt;class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">virtual void call( const void *event, const EventMetadata&amp; ) { handler( *reinterpret_cast&lt;const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*&gt;( event ) ); }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tn::function&lt;void(const </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EventT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;)&gt; handler;</t>
+    </r>
+  </si>
+  <si>
+    <t>用工厂函数构建一个SubscriberForEvent空对象，以handler和tag对其填充。</t>
+  </si>
+  <si>
+    <t>将Event的类型str和刚才的SubscriberForEvent对象作为键值对插入到subscribers中（value_type即std::pair&lt;const Key, T&gt;）</t>
+  </si>
+  <si>
+    <t>typedef std::multimap&lt;std::string, tn::shared_ptr&lt;Subscriber&gt; &gt; SubscriberMapT ;</t>
+  </si>
+  <si>
+    <t>subscribers.insert(SubscriberMapT::value_type( typeName&lt;EventT&gt;(), s ));</t>
+  </si>
+  <si>
+    <t>注册到主bus（EventManager命名空间的静态EventBus对象），流程和注册私有bus相同。同时将Event的类型str和tag、Event的类型str构成的键值对存入Eventbus的m_keys和m_tags成员中</t>
+  </si>
+  <si>
+    <t>注册到私有bus（EventBusService的私有m_bus成员）。Subscribe的形参handler为function类型以容纳bind得到函数对象，形参tag容纳func所在对象的ptr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1953,6 +2246,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2549,7 +2850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2695,6 +2996,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5381,16 +5683,82 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514598</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>574467</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1F125C-B20E-41CC-A69D-5A14BEBB0729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2355273" y="4957949"/>
+          <a:ext cx="12331038" cy="4874820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>564152</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>68852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>437812</xdr:colOff>
+      <xdr:colOff>438901</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>2994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5414,8 +5782,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1933575" y="4867275"/>
-          <a:ext cx="12906037" cy="4743450"/>
+          <a:off x="1788795" y="5402852"/>
+          <a:ext cx="11508856" cy="5272496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7328,8 +7696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:Q674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9469,11 +9837,2146 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F949A5-5DBA-4DBB-AF53-2FB4E97C73C7}">
+  <dimension ref="B2:R674"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" s="81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="O4" s="81"/>
+      <c r="P4" s="127" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="O5" s="81"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="O6" s="81"/>
+      <c r="P6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="O7" s="81"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="129" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="O8" s="81"/>
+      <c r="Q8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" s="81"/>
+      <c r="R9" s="127" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" t="s">
+        <v>219</v>
+      </c>
+      <c r="O10" s="81"/>
+      <c r="P10" s="127"/>
+      <c r="R10" s="127" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="O11" s="81"/>
+      <c r="R11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+      <c r="O12" s="81"/>
+      <c r="R12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="O13" s="81"/>
+      <c r="P13" s="127"/>
+      <c r="R13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="C14" t="s">
+        <v>221</v>
+      </c>
+      <c r="O14" s="81"/>
+      <c r="R14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="C15" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" s="81"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="O16" s="81"/>
+      <c r="Q16" s="127" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="O17" s="81"/>
+      <c r="Q17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
+      <c r="O18" s="81"/>
+      <c r="Q18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="O19" s="81"/>
+      <c r="R19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="O20" s="81"/>
+      <c r="R20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="O21" s="81"/>
+      <c r="P21" s="127"/>
+      <c r="R21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="O22" s="81"/>
+      <c r="R22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="O23" s="81"/>
+      <c r="Q23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="O24" s="81"/>
+      <c r="Q24" s="127"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="O25" s="81"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="O26" s="81"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="O27" s="81"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="O28" s="81"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="O29" s="81"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="O30" s="81"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="O31" s="81"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="O32" s="81"/>
+    </row>
+    <row r="33" spans="15:15">
+      <c r="O33" s="81"/>
+    </row>
+    <row r="34" spans="15:15">
+      <c r="O34" s="81"/>
+    </row>
+    <row r="35" spans="15:15">
+      <c r="O35" s="81"/>
+    </row>
+    <row r="36" spans="15:15">
+      <c r="O36" s="81"/>
+    </row>
+    <row r="37" spans="15:15">
+      <c r="O37" s="81"/>
+    </row>
+    <row r="38" spans="15:15">
+      <c r="O38" s="81"/>
+    </row>
+    <row r="39" spans="15:15">
+      <c r="O39" s="81"/>
+    </row>
+    <row r="40" spans="15:15">
+      <c r="O40" s="81"/>
+    </row>
+    <row r="41" spans="15:15">
+      <c r="O41" s="81"/>
+    </row>
+    <row r="42" spans="15:15">
+      <c r="O42" s="81"/>
+    </row>
+    <row r="43" spans="15:15">
+      <c r="O43" s="81"/>
+    </row>
+    <row r="44" spans="15:15">
+      <c r="O44" s="81"/>
+    </row>
+    <row r="45" spans="15:15">
+      <c r="O45" s="81"/>
+    </row>
+    <row r="46" spans="15:15">
+      <c r="O46" s="81"/>
+    </row>
+    <row r="47" spans="15:15">
+      <c r="O47" s="81"/>
+    </row>
+    <row r="48" spans="15:15">
+      <c r="O48" s="81"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="81"/>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" s="81"/>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" s="81"/>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" s="81"/>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" s="81"/>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" s="81"/>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" s="81"/>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" s="81"/>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" s="81"/>
+    </row>
+    <row r="58" spans="15:15">
+      <c r="O58" s="81"/>
+    </row>
+    <row r="59" spans="15:15">
+      <c r="O59" s="81"/>
+    </row>
+    <row r="60" spans="15:15">
+      <c r="O60" s="81"/>
+    </row>
+    <row r="61" spans="15:15">
+      <c r="O61" s="81"/>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" s="81"/>
+    </row>
+    <row r="63" spans="15:15">
+      <c r="O63" s="81"/>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" s="81"/>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" s="81"/>
+    </row>
+    <row r="66" spans="15:15">
+      <c r="O66" s="81"/>
+    </row>
+    <row r="67" spans="15:15">
+      <c r="O67" s="81"/>
+    </row>
+    <row r="68" spans="15:15">
+      <c r="O68" s="81"/>
+    </row>
+    <row r="69" spans="15:15">
+      <c r="O69" s="81"/>
+    </row>
+    <row r="70" spans="15:15">
+      <c r="O70" s="81"/>
+    </row>
+    <row r="71" spans="15:15">
+      <c r="O71" s="81"/>
+    </row>
+    <row r="72" spans="15:15">
+      <c r="O72" s="81"/>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" s="81"/>
+    </row>
+    <row r="74" spans="15:15">
+      <c r="O74" s="81"/>
+    </row>
+    <row r="75" spans="15:15">
+      <c r="O75" s="81"/>
+    </row>
+    <row r="76" spans="15:15">
+      <c r="O76" s="81"/>
+    </row>
+    <row r="77" spans="15:15">
+      <c r="O77" s="81"/>
+    </row>
+    <row r="78" spans="15:15">
+      <c r="O78" s="81"/>
+    </row>
+    <row r="79" spans="15:15">
+      <c r="O79" s="81"/>
+    </row>
+    <row r="80" spans="15:15">
+      <c r="O80" s="81"/>
+    </row>
+    <row r="81" spans="15:15">
+      <c r="O81" s="81"/>
+    </row>
+    <row r="82" spans="15:15">
+      <c r="O82" s="81"/>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" s="81"/>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" s="81"/>
+    </row>
+    <row r="85" spans="15:15">
+      <c r="O85" s="81"/>
+    </row>
+    <row r="86" spans="15:15">
+      <c r="O86" s="81"/>
+    </row>
+    <row r="87" spans="15:15">
+      <c r="O87" s="81"/>
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" s="81"/>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" s="81"/>
+    </row>
+    <row r="90" spans="15:15">
+      <c r="O90" s="81"/>
+    </row>
+    <row r="91" spans="15:15">
+      <c r="O91" s="81"/>
+    </row>
+    <row r="92" spans="15:15">
+      <c r="O92" s="81"/>
+    </row>
+    <row r="93" spans="15:15">
+      <c r="O93" s="81"/>
+    </row>
+    <row r="94" spans="15:15">
+      <c r="O94" s="81"/>
+    </row>
+    <row r="95" spans="15:15">
+      <c r="O95" s="81"/>
+    </row>
+    <row r="96" spans="15:15">
+      <c r="O96" s="81"/>
+    </row>
+    <row r="97" spans="15:15">
+      <c r="O97" s="81"/>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" s="81"/>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" s="81"/>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" s="81"/>
+    </row>
+    <row r="101" spans="15:15">
+      <c r="O101" s="81"/>
+    </row>
+    <row r="102" spans="15:15">
+      <c r="O102" s="81"/>
+    </row>
+    <row r="103" spans="15:15">
+      <c r="O103" s="81"/>
+    </row>
+    <row r="104" spans="15:15">
+      <c r="O104" s="81"/>
+    </row>
+    <row r="105" spans="15:15">
+      <c r="O105" s="81"/>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" s="81"/>
+    </row>
+    <row r="107" spans="15:15">
+      <c r="O107" s="81"/>
+    </row>
+    <row r="108" spans="15:15">
+      <c r="O108" s="81"/>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" s="81"/>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" s="81"/>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" s="81"/>
+    </row>
+    <row r="112" spans="15:15">
+      <c r="O112" s="81"/>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" s="81"/>
+    </row>
+    <row r="114" spans="15:15">
+      <c r="O114" s="81"/>
+    </row>
+    <row r="115" spans="15:15">
+      <c r="O115" s="81"/>
+    </row>
+    <row r="116" spans="15:15">
+      <c r="O116" s="81"/>
+    </row>
+    <row r="117" spans="15:15">
+      <c r="O117" s="81"/>
+    </row>
+    <row r="118" spans="15:15">
+      <c r="O118" s="81"/>
+    </row>
+    <row r="119" spans="15:15">
+      <c r="O119" s="81"/>
+    </row>
+    <row r="120" spans="15:15">
+      <c r="O120" s="81"/>
+    </row>
+    <row r="121" spans="15:15">
+      <c r="O121" s="81"/>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" s="81"/>
+    </row>
+    <row r="123" spans="15:15">
+      <c r="O123" s="81"/>
+    </row>
+    <row r="124" spans="15:15">
+      <c r="O124" s="81"/>
+    </row>
+    <row r="125" spans="15:15">
+      <c r="O125" s="81"/>
+    </row>
+    <row r="126" spans="15:15">
+      <c r="O126" s="81"/>
+    </row>
+    <row r="127" spans="15:15">
+      <c r="O127" s="81"/>
+    </row>
+    <row r="128" spans="15:15">
+      <c r="O128" s="81"/>
+    </row>
+    <row r="129" spans="15:15">
+      <c r="O129" s="81"/>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" s="81"/>
+    </row>
+    <row r="131" spans="15:15">
+      <c r="O131" s="81"/>
+    </row>
+    <row r="132" spans="15:15">
+      <c r="O132" s="81"/>
+    </row>
+    <row r="133" spans="15:15">
+      <c r="O133" s="81"/>
+    </row>
+    <row r="134" spans="15:15">
+      <c r="O134" s="81"/>
+    </row>
+    <row r="135" spans="15:15">
+      <c r="O135" s="81"/>
+    </row>
+    <row r="136" spans="15:15">
+      <c r="O136" s="81"/>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" s="81"/>
+    </row>
+    <row r="138" spans="15:15">
+      <c r="O138" s="81"/>
+    </row>
+    <row r="139" spans="15:15">
+      <c r="O139" s="81"/>
+    </row>
+    <row r="140" spans="15:15">
+      <c r="O140" s="81"/>
+    </row>
+    <row r="141" spans="15:15">
+      <c r="O141" s="81"/>
+    </row>
+    <row r="142" spans="15:15">
+      <c r="O142" s="81"/>
+    </row>
+    <row r="143" spans="15:15">
+      <c r="O143" s="81"/>
+    </row>
+    <row r="144" spans="15:15">
+      <c r="O144" s="81"/>
+    </row>
+    <row r="145" spans="15:15">
+      <c r="O145" s="81"/>
+    </row>
+    <row r="146" spans="15:15">
+      <c r="O146" s="81"/>
+    </row>
+    <row r="147" spans="15:15">
+      <c r="O147" s="81"/>
+    </row>
+    <row r="148" spans="15:15">
+      <c r="O148" s="81"/>
+    </row>
+    <row r="149" spans="15:15">
+      <c r="O149" s="81"/>
+    </row>
+    <row r="150" spans="15:15">
+      <c r="O150" s="81"/>
+    </row>
+    <row r="151" spans="15:15">
+      <c r="O151" s="81"/>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" s="81"/>
+    </row>
+    <row r="153" spans="15:15">
+      <c r="O153" s="81"/>
+    </row>
+    <row r="154" spans="15:15">
+      <c r="O154" s="81"/>
+    </row>
+    <row r="155" spans="15:15">
+      <c r="O155" s="81"/>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" s="81"/>
+    </row>
+    <row r="157" spans="15:15">
+      <c r="O157" s="81"/>
+    </row>
+    <row r="158" spans="15:15">
+      <c r="O158" s="81"/>
+    </row>
+    <row r="159" spans="15:15">
+      <c r="O159" s="81"/>
+    </row>
+    <row r="160" spans="15:15">
+      <c r="O160" s="81"/>
+    </row>
+    <row r="161" spans="15:15">
+      <c r="O161" s="81"/>
+    </row>
+    <row r="162" spans="15:15">
+      <c r="O162" s="81"/>
+    </row>
+    <row r="163" spans="15:15">
+      <c r="O163" s="81"/>
+    </row>
+    <row r="164" spans="15:15">
+      <c r="O164" s="81"/>
+    </row>
+    <row r="165" spans="15:15">
+      <c r="O165" s="81"/>
+    </row>
+    <row r="166" spans="15:15">
+      <c r="O166" s="81"/>
+    </row>
+    <row r="167" spans="15:15">
+      <c r="O167" s="81"/>
+    </row>
+    <row r="168" spans="15:15">
+      <c r="O168" s="81"/>
+    </row>
+    <row r="169" spans="15:15">
+      <c r="O169" s="81"/>
+    </row>
+    <row r="170" spans="15:15">
+      <c r="O170" s="81"/>
+    </row>
+    <row r="171" spans="15:15">
+      <c r="O171" s="81"/>
+    </row>
+    <row r="172" spans="15:15">
+      <c r="O172" s="81"/>
+    </row>
+    <row r="173" spans="15:15">
+      <c r="O173" s="81"/>
+    </row>
+    <row r="174" spans="15:15">
+      <c r="O174" s="81"/>
+    </row>
+    <row r="175" spans="15:15">
+      <c r="O175" s="81"/>
+    </row>
+    <row r="176" spans="15:15">
+      <c r="O176" s="81"/>
+    </row>
+    <row r="177" spans="15:15">
+      <c r="O177" s="81"/>
+    </row>
+    <row r="178" spans="15:15">
+      <c r="O178" s="81"/>
+    </row>
+    <row r="179" spans="15:15">
+      <c r="O179" s="81"/>
+    </row>
+    <row r="180" spans="15:15">
+      <c r="O180" s="81"/>
+    </row>
+    <row r="181" spans="15:15">
+      <c r="O181" s="81"/>
+    </row>
+    <row r="182" spans="15:15">
+      <c r="O182" s="81"/>
+    </row>
+    <row r="183" spans="15:15">
+      <c r="O183" s="81"/>
+    </row>
+    <row r="184" spans="15:15">
+      <c r="O184" s="81"/>
+    </row>
+    <row r="185" spans="15:15">
+      <c r="O185" s="81"/>
+    </row>
+    <row r="186" spans="15:15">
+      <c r="O186" s="81"/>
+    </row>
+    <row r="187" spans="15:15">
+      <c r="O187" s="81"/>
+    </row>
+    <row r="188" spans="15:15">
+      <c r="O188" s="81"/>
+    </row>
+    <row r="189" spans="15:15">
+      <c r="O189" s="81"/>
+    </row>
+    <row r="190" spans="15:15">
+      <c r="O190" s="81"/>
+    </row>
+    <row r="191" spans="15:15">
+      <c r="O191" s="81"/>
+    </row>
+    <row r="192" spans="15:15">
+      <c r="O192" s="81"/>
+    </row>
+    <row r="193" spans="15:15">
+      <c r="O193" s="81"/>
+    </row>
+    <row r="194" spans="15:15">
+      <c r="O194" s="81"/>
+    </row>
+    <row r="195" spans="15:15">
+      <c r="O195" s="81"/>
+    </row>
+    <row r="196" spans="15:15">
+      <c r="O196" s="81"/>
+    </row>
+    <row r="197" spans="15:15">
+      <c r="O197" s="81"/>
+    </row>
+    <row r="198" spans="15:15">
+      <c r="O198" s="81"/>
+    </row>
+    <row r="199" spans="15:15">
+      <c r="O199" s="81"/>
+    </row>
+    <row r="200" spans="15:15">
+      <c r="O200" s="81"/>
+    </row>
+    <row r="201" spans="15:15">
+      <c r="O201" s="81"/>
+    </row>
+    <row r="202" spans="15:15">
+      <c r="O202" s="81"/>
+    </row>
+    <row r="203" spans="15:15">
+      <c r="O203" s="81"/>
+    </row>
+    <row r="204" spans="15:15">
+      <c r="O204" s="81"/>
+    </row>
+    <row r="205" spans="15:15">
+      <c r="O205" s="81"/>
+    </row>
+    <row r="206" spans="15:15">
+      <c r="O206" s="81"/>
+    </row>
+    <row r="207" spans="15:15">
+      <c r="O207" s="81"/>
+    </row>
+    <row r="208" spans="15:15">
+      <c r="O208" s="81"/>
+    </row>
+    <row r="209" spans="15:15">
+      <c r="O209" s="81"/>
+    </row>
+    <row r="210" spans="15:15">
+      <c r="O210" s="81"/>
+    </row>
+    <row r="211" spans="15:15">
+      <c r="O211" s="81"/>
+    </row>
+    <row r="212" spans="15:15">
+      <c r="O212" s="81"/>
+    </row>
+    <row r="213" spans="15:15">
+      <c r="O213" s="81"/>
+    </row>
+    <row r="214" spans="15:15">
+      <c r="O214" s="81"/>
+    </row>
+    <row r="215" spans="15:15">
+      <c r="O215" s="81"/>
+    </row>
+    <row r="216" spans="15:15">
+      <c r="O216" s="81"/>
+    </row>
+    <row r="217" spans="15:15">
+      <c r="O217" s="81"/>
+    </row>
+    <row r="218" spans="15:15">
+      <c r="O218" s="81"/>
+    </row>
+    <row r="219" spans="15:15">
+      <c r="O219" s="81"/>
+    </row>
+    <row r="220" spans="15:15">
+      <c r="O220" s="81"/>
+    </row>
+    <row r="221" spans="15:15">
+      <c r="O221" s="81"/>
+    </row>
+    <row r="222" spans="15:15">
+      <c r="O222" s="81"/>
+    </row>
+    <row r="223" spans="15:15">
+      <c r="O223" s="81"/>
+    </row>
+    <row r="224" spans="15:15">
+      <c r="O224" s="81"/>
+    </row>
+    <row r="225" spans="15:15">
+      <c r="O225" s="81"/>
+    </row>
+    <row r="226" spans="15:15">
+      <c r="O226" s="81"/>
+    </row>
+    <row r="227" spans="15:15">
+      <c r="O227" s="81"/>
+    </row>
+    <row r="228" spans="15:15">
+      <c r="O228" s="81"/>
+    </row>
+    <row r="229" spans="15:15">
+      <c r="O229" s="81"/>
+    </row>
+    <row r="230" spans="15:15">
+      <c r="O230" s="81"/>
+    </row>
+    <row r="231" spans="15:15">
+      <c r="O231" s="81"/>
+    </row>
+    <row r="232" spans="15:15">
+      <c r="O232" s="81"/>
+    </row>
+    <row r="233" spans="15:15">
+      <c r="O233" s="81"/>
+    </row>
+    <row r="234" spans="15:15">
+      <c r="O234" s="81"/>
+    </row>
+    <row r="235" spans="15:15">
+      <c r="O235" s="81"/>
+    </row>
+    <row r="236" spans="15:15">
+      <c r="O236" s="81"/>
+    </row>
+    <row r="237" spans="15:15">
+      <c r="O237" s="81"/>
+    </row>
+    <row r="238" spans="15:15">
+      <c r="O238" s="81"/>
+    </row>
+    <row r="239" spans="15:15">
+      <c r="O239" s="81"/>
+    </row>
+    <row r="240" spans="15:15">
+      <c r="O240" s="81"/>
+    </row>
+    <row r="241" spans="15:15">
+      <c r="O241" s="81"/>
+    </row>
+    <row r="242" spans="15:15">
+      <c r="O242" s="81"/>
+    </row>
+    <row r="243" spans="15:15">
+      <c r="O243" s="81"/>
+    </row>
+    <row r="244" spans="15:15">
+      <c r="O244" s="81"/>
+    </row>
+    <row r="245" spans="15:15">
+      <c r="O245" s="81"/>
+    </row>
+    <row r="246" spans="15:15">
+      <c r="O246" s="81"/>
+    </row>
+    <row r="247" spans="15:15">
+      <c r="O247" s="81"/>
+    </row>
+    <row r="248" spans="15:15">
+      <c r="O248" s="81"/>
+    </row>
+    <row r="249" spans="15:15">
+      <c r="O249" s="81"/>
+    </row>
+    <row r="250" spans="15:15">
+      <c r="O250" s="81"/>
+    </row>
+    <row r="251" spans="15:15">
+      <c r="O251" s="81"/>
+    </row>
+    <row r="252" spans="15:15">
+      <c r="O252" s="81"/>
+    </row>
+    <row r="253" spans="15:15">
+      <c r="O253" s="81"/>
+    </row>
+    <row r="254" spans="15:15">
+      <c r="O254" s="81"/>
+    </row>
+    <row r="255" spans="15:15">
+      <c r="O255" s="81"/>
+    </row>
+    <row r="256" spans="15:15">
+      <c r="O256" s="81"/>
+    </row>
+    <row r="257" spans="15:15">
+      <c r="O257" s="81"/>
+    </row>
+    <row r="258" spans="15:15">
+      <c r="O258" s="81"/>
+    </row>
+    <row r="259" spans="15:15">
+      <c r="O259" s="81"/>
+    </row>
+    <row r="260" spans="15:15">
+      <c r="O260" s="81"/>
+    </row>
+    <row r="261" spans="15:15">
+      <c r="O261" s="81"/>
+    </row>
+    <row r="262" spans="15:15">
+      <c r="O262" s="81"/>
+    </row>
+    <row r="263" spans="15:15">
+      <c r="O263" s="81"/>
+    </row>
+    <row r="264" spans="15:15">
+      <c r="O264" s="81"/>
+    </row>
+    <row r="265" spans="15:15">
+      <c r="O265" s="81"/>
+    </row>
+    <row r="266" spans="15:15">
+      <c r="O266" s="81"/>
+    </row>
+    <row r="267" spans="15:15">
+      <c r="O267" s="81"/>
+    </row>
+    <row r="268" spans="15:15">
+      <c r="O268" s="81"/>
+    </row>
+    <row r="269" spans="15:15">
+      <c r="O269" s="81"/>
+    </row>
+    <row r="270" spans="15:15">
+      <c r="O270" s="81"/>
+    </row>
+    <row r="271" spans="15:15">
+      <c r="O271" s="81"/>
+    </row>
+    <row r="272" spans="15:15">
+      <c r="O272" s="81"/>
+    </row>
+    <row r="273" spans="15:15">
+      <c r="O273" s="81"/>
+    </row>
+    <row r="274" spans="15:15">
+      <c r="O274" s="81"/>
+    </row>
+    <row r="275" spans="15:15">
+      <c r="O275" s="81"/>
+    </row>
+    <row r="276" spans="15:15">
+      <c r="O276" s="81"/>
+    </row>
+    <row r="277" spans="15:15">
+      <c r="O277" s="81"/>
+    </row>
+    <row r="278" spans="15:15">
+      <c r="O278" s="81"/>
+    </row>
+    <row r="279" spans="15:15">
+      <c r="O279" s="81"/>
+    </row>
+    <row r="280" spans="15:15">
+      <c r="O280" s="81"/>
+    </row>
+    <row r="281" spans="15:15">
+      <c r="O281" s="81"/>
+    </row>
+    <row r="282" spans="15:15">
+      <c r="O282" s="81"/>
+    </row>
+    <row r="283" spans="15:15">
+      <c r="O283" s="81"/>
+    </row>
+    <row r="284" spans="15:15">
+      <c r="O284" s="81"/>
+    </row>
+    <row r="285" spans="15:15">
+      <c r="O285" s="81"/>
+    </row>
+    <row r="286" spans="15:15">
+      <c r="O286" s="81"/>
+    </row>
+    <row r="287" spans="15:15">
+      <c r="O287" s="81"/>
+    </row>
+    <row r="288" spans="15:15">
+      <c r="O288" s="81"/>
+    </row>
+    <row r="289" spans="15:15">
+      <c r="O289" s="81"/>
+    </row>
+    <row r="290" spans="15:15">
+      <c r="O290" s="81"/>
+    </row>
+    <row r="291" spans="15:15">
+      <c r="O291" s="81"/>
+    </row>
+    <row r="292" spans="15:15">
+      <c r="O292" s="81"/>
+    </row>
+    <row r="293" spans="15:15">
+      <c r="O293" s="81"/>
+    </row>
+    <row r="294" spans="15:15">
+      <c r="O294" s="81"/>
+    </row>
+    <row r="295" spans="15:15">
+      <c r="O295" s="81"/>
+    </row>
+    <row r="296" spans="15:15">
+      <c r="O296" s="81"/>
+    </row>
+    <row r="297" spans="15:15">
+      <c r="O297" s="81"/>
+    </row>
+    <row r="298" spans="15:15">
+      <c r="O298" s="81"/>
+    </row>
+    <row r="299" spans="15:15">
+      <c r="O299" s="81"/>
+    </row>
+    <row r="300" spans="15:15">
+      <c r="O300" s="81"/>
+    </row>
+    <row r="301" spans="15:15">
+      <c r="O301" s="81"/>
+    </row>
+    <row r="302" spans="15:15">
+      <c r="O302" s="81"/>
+    </row>
+    <row r="303" spans="15:15">
+      <c r="O303" s="81"/>
+    </row>
+    <row r="304" spans="15:15">
+      <c r="O304" s="81"/>
+    </row>
+    <row r="305" spans="15:15">
+      <c r="O305" s="81"/>
+    </row>
+    <row r="306" spans="15:15">
+      <c r="O306" s="81"/>
+    </row>
+    <row r="307" spans="15:15">
+      <c r="O307" s="81"/>
+    </row>
+    <row r="308" spans="15:15">
+      <c r="O308" s="81"/>
+    </row>
+    <row r="309" spans="15:15">
+      <c r="O309" s="81"/>
+    </row>
+    <row r="310" spans="15:15">
+      <c r="O310" s="81"/>
+    </row>
+    <row r="311" spans="15:15">
+      <c r="O311" s="81"/>
+    </row>
+    <row r="312" spans="15:15">
+      <c r="O312" s="81"/>
+    </row>
+    <row r="313" spans="15:15">
+      <c r="O313" s="81"/>
+    </row>
+    <row r="314" spans="15:15">
+      <c r="O314" s="81"/>
+    </row>
+    <row r="315" spans="15:15">
+      <c r="O315" s="81"/>
+    </row>
+    <row r="316" spans="15:15">
+      <c r="O316" s="81"/>
+    </row>
+    <row r="317" spans="15:15">
+      <c r="O317" s="81"/>
+    </row>
+    <row r="318" spans="15:15">
+      <c r="O318" s="81"/>
+    </row>
+    <row r="319" spans="15:15">
+      <c r="O319" s="81"/>
+    </row>
+    <row r="320" spans="15:15">
+      <c r="O320" s="81"/>
+    </row>
+    <row r="321" spans="15:15">
+      <c r="O321" s="81"/>
+    </row>
+    <row r="322" spans="15:15">
+      <c r="O322" s="81"/>
+    </row>
+    <row r="323" spans="15:15">
+      <c r="O323" s="81"/>
+    </row>
+    <row r="324" spans="15:15">
+      <c r="O324" s="81"/>
+    </row>
+    <row r="325" spans="15:15">
+      <c r="O325" s="81"/>
+    </row>
+    <row r="326" spans="15:15">
+      <c r="O326" s="81"/>
+    </row>
+    <row r="327" spans="15:15">
+      <c r="O327" s="81"/>
+    </row>
+    <row r="328" spans="15:15">
+      <c r="O328" s="81"/>
+    </row>
+    <row r="329" spans="15:15">
+      <c r="O329" s="81"/>
+    </row>
+    <row r="330" spans="15:15">
+      <c r="O330" s="81"/>
+    </row>
+    <row r="331" spans="15:15">
+      <c r="O331" s="81"/>
+    </row>
+    <row r="332" spans="15:15">
+      <c r="O332" s="81"/>
+    </row>
+    <row r="333" spans="15:15">
+      <c r="O333" s="81"/>
+    </row>
+    <row r="334" spans="15:15">
+      <c r="O334" s="81"/>
+    </row>
+    <row r="335" spans="15:15">
+      <c r="O335" s="81"/>
+    </row>
+    <row r="336" spans="15:15">
+      <c r="O336" s="81"/>
+    </row>
+    <row r="337" spans="15:15">
+      <c r="O337" s="81"/>
+    </row>
+    <row r="338" spans="15:15">
+      <c r="O338" s="81"/>
+    </row>
+    <row r="339" spans="15:15">
+      <c r="O339" s="81"/>
+    </row>
+    <row r="340" spans="15:15">
+      <c r="O340" s="81"/>
+    </row>
+    <row r="341" spans="15:15">
+      <c r="O341" s="81"/>
+    </row>
+    <row r="342" spans="15:15">
+      <c r="O342" s="81"/>
+    </row>
+    <row r="343" spans="15:15">
+      <c r="O343" s="81"/>
+    </row>
+    <row r="344" spans="15:15">
+      <c r="O344" s="81"/>
+    </row>
+    <row r="345" spans="15:15">
+      <c r="O345" s="81"/>
+    </row>
+    <row r="346" spans="15:15">
+      <c r="O346" s="81"/>
+    </row>
+    <row r="347" spans="15:15">
+      <c r="O347" s="81"/>
+    </row>
+    <row r="348" spans="15:15">
+      <c r="O348" s="81"/>
+    </row>
+    <row r="349" spans="15:15">
+      <c r="O349" s="81"/>
+    </row>
+    <row r="350" spans="15:15">
+      <c r="O350" s="81"/>
+    </row>
+    <row r="351" spans="15:15">
+      <c r="O351" s="81"/>
+    </row>
+    <row r="352" spans="15:15">
+      <c r="O352" s="81"/>
+    </row>
+    <row r="353" spans="15:15">
+      <c r="O353" s="81"/>
+    </row>
+    <row r="354" spans="15:15">
+      <c r="O354" s="81"/>
+    </row>
+    <row r="355" spans="15:15">
+      <c r="O355" s="81"/>
+    </row>
+    <row r="356" spans="15:15">
+      <c r="O356" s="81"/>
+    </row>
+    <row r="357" spans="15:15">
+      <c r="O357" s="81"/>
+    </row>
+    <row r="358" spans="15:15">
+      <c r="O358" s="81"/>
+    </row>
+    <row r="359" spans="15:15">
+      <c r="O359" s="81"/>
+    </row>
+    <row r="360" spans="15:15">
+      <c r="O360" s="81"/>
+    </row>
+    <row r="361" spans="15:15">
+      <c r="O361" s="81"/>
+    </row>
+    <row r="362" spans="15:15">
+      <c r="O362" s="81"/>
+    </row>
+    <row r="363" spans="15:15">
+      <c r="O363" s="81"/>
+    </row>
+    <row r="364" spans="15:15">
+      <c r="O364" s="81"/>
+    </row>
+    <row r="365" spans="15:15">
+      <c r="O365" s="81"/>
+    </row>
+    <row r="366" spans="15:15">
+      <c r="O366" s="81"/>
+    </row>
+    <row r="367" spans="15:15">
+      <c r="O367" s="81"/>
+    </row>
+    <row r="368" spans="15:15">
+      <c r="O368" s="81"/>
+    </row>
+    <row r="369" spans="15:15">
+      <c r="O369" s="81"/>
+    </row>
+    <row r="370" spans="15:15">
+      <c r="O370" s="81"/>
+    </row>
+    <row r="371" spans="15:15">
+      <c r="O371" s="81"/>
+    </row>
+    <row r="372" spans="15:15">
+      <c r="O372" s="81"/>
+    </row>
+    <row r="373" spans="15:15">
+      <c r="O373" s="81"/>
+    </row>
+    <row r="374" spans="15:15">
+      <c r="O374" s="81"/>
+    </row>
+    <row r="375" spans="15:15">
+      <c r="O375" s="81"/>
+    </row>
+    <row r="376" spans="15:15">
+      <c r="O376" s="81"/>
+    </row>
+    <row r="377" spans="15:15">
+      <c r="O377" s="81"/>
+    </row>
+    <row r="378" spans="15:15">
+      <c r="O378" s="81"/>
+    </row>
+    <row r="379" spans="15:15">
+      <c r="O379" s="81"/>
+    </row>
+    <row r="380" spans="15:15">
+      <c r="O380" s="81"/>
+    </row>
+    <row r="381" spans="15:15">
+      <c r="O381" s="81"/>
+    </row>
+    <row r="382" spans="15:15">
+      <c r="O382" s="81"/>
+    </row>
+    <row r="383" spans="15:15">
+      <c r="O383" s="81"/>
+    </row>
+    <row r="384" spans="15:15">
+      <c r="O384" s="81"/>
+    </row>
+    <row r="385" spans="15:15">
+      <c r="O385" s="81"/>
+    </row>
+    <row r="386" spans="15:15">
+      <c r="O386" s="81"/>
+    </row>
+    <row r="387" spans="15:15">
+      <c r="O387" s="81"/>
+    </row>
+    <row r="388" spans="15:15">
+      <c r="O388" s="81"/>
+    </row>
+    <row r="389" spans="15:15">
+      <c r="O389" s="81"/>
+    </row>
+    <row r="390" spans="15:15">
+      <c r="O390" s="81"/>
+    </row>
+    <row r="391" spans="15:15">
+      <c r="O391" s="81"/>
+    </row>
+    <row r="392" spans="15:15">
+      <c r="O392" s="81"/>
+    </row>
+    <row r="393" spans="15:15">
+      <c r="O393" s="81"/>
+    </row>
+    <row r="394" spans="15:15">
+      <c r="O394" s="81"/>
+    </row>
+    <row r="395" spans="15:15">
+      <c r="O395" s="81"/>
+    </row>
+    <row r="396" spans="15:15">
+      <c r="O396" s="81"/>
+    </row>
+    <row r="397" spans="15:15">
+      <c r="O397" s="81"/>
+    </row>
+    <row r="398" spans="15:15">
+      <c r="O398" s="81"/>
+    </row>
+    <row r="399" spans="15:15">
+      <c r="O399" s="81"/>
+    </row>
+    <row r="400" spans="15:15">
+      <c r="O400" s="81"/>
+    </row>
+    <row r="401" spans="15:15">
+      <c r="O401" s="81"/>
+    </row>
+    <row r="402" spans="15:15">
+      <c r="O402" s="81"/>
+    </row>
+    <row r="403" spans="15:15">
+      <c r="O403" s="81"/>
+    </row>
+    <row r="404" spans="15:15">
+      <c r="O404" s="126"/>
+    </row>
+    <row r="405" spans="15:15">
+      <c r="O405" s="126"/>
+    </row>
+    <row r="406" spans="15:15">
+      <c r="O406" s="126"/>
+    </row>
+    <row r="407" spans="15:15">
+      <c r="O407" s="126"/>
+    </row>
+    <row r="408" spans="15:15">
+      <c r="O408" s="126"/>
+    </row>
+    <row r="409" spans="15:15">
+      <c r="O409" s="126"/>
+    </row>
+    <row r="410" spans="15:15">
+      <c r="O410" s="126"/>
+    </row>
+    <row r="411" spans="15:15">
+      <c r="O411" s="126"/>
+    </row>
+    <row r="412" spans="15:15">
+      <c r="O412" s="126"/>
+    </row>
+    <row r="413" spans="15:15">
+      <c r="O413" s="126"/>
+    </row>
+    <row r="414" spans="15:15">
+      <c r="O414" s="126"/>
+    </row>
+    <row r="415" spans="15:15">
+      <c r="O415" s="126"/>
+    </row>
+    <row r="416" spans="15:15">
+      <c r="O416" s="126"/>
+    </row>
+    <row r="417" spans="15:15">
+      <c r="O417" s="126"/>
+    </row>
+    <row r="418" spans="15:15">
+      <c r="O418" s="126"/>
+    </row>
+    <row r="419" spans="15:15">
+      <c r="O419" s="126"/>
+    </row>
+    <row r="420" spans="15:15">
+      <c r="O420" s="126"/>
+    </row>
+    <row r="421" spans="15:15">
+      <c r="O421" s="126"/>
+    </row>
+    <row r="422" spans="15:15">
+      <c r="O422" s="126"/>
+    </row>
+    <row r="423" spans="15:15">
+      <c r="O423" s="126"/>
+    </row>
+    <row r="424" spans="15:15">
+      <c r="O424" s="126"/>
+    </row>
+    <row r="425" spans="15:15">
+      <c r="O425" s="126"/>
+    </row>
+    <row r="426" spans="15:15">
+      <c r="O426" s="126"/>
+    </row>
+    <row r="427" spans="15:15">
+      <c r="O427" s="126"/>
+    </row>
+    <row r="428" spans="15:15">
+      <c r="O428" s="126"/>
+    </row>
+    <row r="429" spans="15:15">
+      <c r="O429" s="126"/>
+    </row>
+    <row r="430" spans="15:15">
+      <c r="O430" s="126"/>
+    </row>
+    <row r="431" spans="15:15">
+      <c r="O431" s="126"/>
+    </row>
+    <row r="432" spans="15:15">
+      <c r="O432" s="126"/>
+    </row>
+    <row r="433" spans="15:15">
+      <c r="O433" s="126"/>
+    </row>
+    <row r="434" spans="15:15">
+      <c r="O434" s="126"/>
+    </row>
+    <row r="435" spans="15:15">
+      <c r="O435" s="126"/>
+    </row>
+    <row r="436" spans="15:15">
+      <c r="O436" s="126"/>
+    </row>
+    <row r="437" spans="15:15">
+      <c r="O437" s="126"/>
+    </row>
+    <row r="438" spans="15:15">
+      <c r="O438" s="126"/>
+    </row>
+    <row r="439" spans="15:15">
+      <c r="O439" s="126"/>
+    </row>
+    <row r="440" spans="15:15">
+      <c r="O440" s="126"/>
+    </row>
+    <row r="441" spans="15:15">
+      <c r="O441" s="126"/>
+    </row>
+    <row r="442" spans="15:15">
+      <c r="O442" s="126"/>
+    </row>
+    <row r="443" spans="15:15">
+      <c r="O443" s="126"/>
+    </row>
+    <row r="444" spans="15:15">
+      <c r="O444" s="126"/>
+    </row>
+    <row r="445" spans="15:15">
+      <c r="O445" s="126"/>
+    </row>
+    <row r="446" spans="15:15">
+      <c r="O446" s="126"/>
+    </row>
+    <row r="447" spans="15:15">
+      <c r="O447" s="126"/>
+    </row>
+    <row r="448" spans="15:15">
+      <c r="O448" s="126"/>
+    </row>
+    <row r="449" spans="15:15">
+      <c r="O449" s="126"/>
+    </row>
+    <row r="450" spans="15:15">
+      <c r="O450" s="126"/>
+    </row>
+    <row r="451" spans="15:15">
+      <c r="O451" s="126"/>
+    </row>
+    <row r="452" spans="15:15">
+      <c r="O452" s="126"/>
+    </row>
+    <row r="453" spans="15:15">
+      <c r="O453" s="126"/>
+    </row>
+    <row r="454" spans="15:15">
+      <c r="O454" s="126"/>
+    </row>
+    <row r="455" spans="15:15">
+      <c r="O455" s="126"/>
+    </row>
+    <row r="456" spans="15:15">
+      <c r="O456" s="126"/>
+    </row>
+    <row r="457" spans="15:15">
+      <c r="O457" s="126"/>
+    </row>
+    <row r="458" spans="15:15">
+      <c r="O458" s="126"/>
+    </row>
+    <row r="459" spans="15:15">
+      <c r="O459" s="126"/>
+    </row>
+    <row r="460" spans="15:15">
+      <c r="O460" s="126"/>
+    </row>
+    <row r="461" spans="15:15">
+      <c r="O461" s="126"/>
+    </row>
+    <row r="462" spans="15:15">
+      <c r="O462" s="126"/>
+    </row>
+    <row r="463" spans="15:15">
+      <c r="O463" s="126"/>
+    </row>
+    <row r="464" spans="15:15">
+      <c r="O464" s="126"/>
+    </row>
+    <row r="465" spans="15:15">
+      <c r="O465" s="126"/>
+    </row>
+    <row r="466" spans="15:15">
+      <c r="O466" s="126"/>
+    </row>
+    <row r="467" spans="15:15">
+      <c r="O467" s="126"/>
+    </row>
+    <row r="468" spans="15:15">
+      <c r="O468" s="126"/>
+    </row>
+    <row r="469" spans="15:15">
+      <c r="O469" s="126"/>
+    </row>
+    <row r="470" spans="15:15">
+      <c r="O470" s="126"/>
+    </row>
+    <row r="471" spans="15:15">
+      <c r="O471" s="126"/>
+    </row>
+    <row r="472" spans="15:15">
+      <c r="O472" s="126"/>
+    </row>
+    <row r="473" spans="15:15">
+      <c r="O473" s="126"/>
+    </row>
+    <row r="474" spans="15:15">
+      <c r="O474" s="126"/>
+    </row>
+    <row r="475" spans="15:15">
+      <c r="O475" s="126"/>
+    </row>
+    <row r="476" spans="15:15">
+      <c r="O476" s="126"/>
+    </row>
+    <row r="477" spans="15:15">
+      <c r="O477" s="126"/>
+    </row>
+    <row r="478" spans="15:15">
+      <c r="O478" s="126"/>
+    </row>
+    <row r="479" spans="15:15">
+      <c r="O479" s="126"/>
+    </row>
+    <row r="480" spans="15:15">
+      <c r="O480" s="126"/>
+    </row>
+    <row r="481" spans="15:15">
+      <c r="O481" s="126"/>
+    </row>
+    <row r="482" spans="15:15">
+      <c r="O482" s="126"/>
+    </row>
+    <row r="483" spans="15:15">
+      <c r="O483" s="126"/>
+    </row>
+    <row r="484" spans="15:15">
+      <c r="O484" s="126"/>
+    </row>
+    <row r="485" spans="15:15">
+      <c r="O485" s="126"/>
+    </row>
+    <row r="486" spans="15:15">
+      <c r="O486" s="126"/>
+    </row>
+    <row r="487" spans="15:15">
+      <c r="O487" s="126"/>
+    </row>
+    <row r="488" spans="15:15">
+      <c r="O488" s="126"/>
+    </row>
+    <row r="489" spans="15:15">
+      <c r="O489" s="126"/>
+    </row>
+    <row r="490" spans="15:15">
+      <c r="O490" s="126"/>
+    </row>
+    <row r="491" spans="15:15">
+      <c r="O491" s="126"/>
+    </row>
+    <row r="492" spans="15:15">
+      <c r="O492" s="126"/>
+    </row>
+    <row r="493" spans="15:15">
+      <c r="O493" s="126"/>
+    </row>
+    <row r="494" spans="15:15">
+      <c r="O494" s="126"/>
+    </row>
+    <row r="495" spans="15:15">
+      <c r="O495" s="126"/>
+    </row>
+    <row r="496" spans="15:15">
+      <c r="O496" s="126"/>
+    </row>
+    <row r="497" spans="15:15">
+      <c r="O497" s="126"/>
+    </row>
+    <row r="498" spans="15:15">
+      <c r="O498" s="126"/>
+    </row>
+    <row r="499" spans="15:15">
+      <c r="O499" s="126"/>
+    </row>
+    <row r="500" spans="15:15">
+      <c r="O500" s="126"/>
+    </row>
+    <row r="501" spans="15:15">
+      <c r="O501" s="126"/>
+    </row>
+    <row r="502" spans="15:15">
+      <c r="O502" s="126"/>
+    </row>
+    <row r="503" spans="15:15">
+      <c r="O503" s="126"/>
+    </row>
+    <row r="504" spans="15:15">
+      <c r="O504" s="126"/>
+    </row>
+    <row r="505" spans="15:15">
+      <c r="O505" s="126"/>
+    </row>
+    <row r="506" spans="15:15">
+      <c r="O506" s="126"/>
+    </row>
+    <row r="507" spans="15:15">
+      <c r="O507" s="126"/>
+    </row>
+    <row r="508" spans="15:15">
+      <c r="O508" s="126"/>
+    </row>
+    <row r="509" spans="15:15">
+      <c r="O509" s="126"/>
+    </row>
+    <row r="510" spans="15:15">
+      <c r="O510" s="126"/>
+    </row>
+    <row r="511" spans="15:15">
+      <c r="O511" s="126"/>
+    </row>
+    <row r="512" spans="15:15">
+      <c r="O512" s="126"/>
+    </row>
+    <row r="513" spans="15:15">
+      <c r="O513" s="126"/>
+    </row>
+    <row r="514" spans="15:15">
+      <c r="O514" s="126"/>
+    </row>
+    <row r="515" spans="15:15">
+      <c r="O515" s="126"/>
+    </row>
+    <row r="516" spans="15:15">
+      <c r="O516" s="126"/>
+    </row>
+    <row r="517" spans="15:15">
+      <c r="O517" s="126"/>
+    </row>
+    <row r="518" spans="15:15">
+      <c r="O518" s="126"/>
+    </row>
+    <row r="519" spans="15:15">
+      <c r="O519" s="126"/>
+    </row>
+    <row r="520" spans="15:15">
+      <c r="O520" s="126"/>
+    </row>
+    <row r="521" spans="15:15">
+      <c r="O521" s="126"/>
+    </row>
+    <row r="522" spans="15:15">
+      <c r="O522" s="126"/>
+    </row>
+    <row r="523" spans="15:15">
+      <c r="O523" s="126"/>
+    </row>
+    <row r="524" spans="15:15">
+      <c r="O524" s="126"/>
+    </row>
+    <row r="525" spans="15:15">
+      <c r="O525" s="126"/>
+    </row>
+    <row r="526" spans="15:15">
+      <c r="O526" s="126"/>
+    </row>
+    <row r="527" spans="15:15">
+      <c r="O527" s="126"/>
+    </row>
+    <row r="528" spans="15:15">
+      <c r="O528" s="126"/>
+    </row>
+    <row r="529" spans="15:15">
+      <c r="O529" s="126"/>
+    </row>
+    <row r="530" spans="15:15">
+      <c r="O530" s="126"/>
+    </row>
+    <row r="531" spans="15:15">
+      <c r="O531" s="126"/>
+    </row>
+    <row r="532" spans="15:15">
+      <c r="O532" s="126"/>
+    </row>
+    <row r="533" spans="15:15">
+      <c r="O533" s="126"/>
+    </row>
+    <row r="534" spans="15:15">
+      <c r="O534" s="126"/>
+    </row>
+    <row r="535" spans="15:15">
+      <c r="O535" s="126"/>
+    </row>
+    <row r="536" spans="15:15">
+      <c r="O536" s="126"/>
+    </row>
+    <row r="537" spans="15:15">
+      <c r="O537" s="126"/>
+    </row>
+    <row r="538" spans="15:15">
+      <c r="O538" s="126"/>
+    </row>
+    <row r="539" spans="15:15">
+      <c r="O539" s="126"/>
+    </row>
+    <row r="540" spans="15:15">
+      <c r="O540" s="126"/>
+    </row>
+    <row r="541" spans="15:15">
+      <c r="O541" s="126"/>
+    </row>
+    <row r="542" spans="15:15">
+      <c r="O542" s="126"/>
+    </row>
+    <row r="543" spans="15:15">
+      <c r="O543" s="126"/>
+    </row>
+    <row r="544" spans="15:15">
+      <c r="O544" s="126"/>
+    </row>
+    <row r="545" spans="15:15">
+      <c r="O545" s="126"/>
+    </row>
+    <row r="546" spans="15:15">
+      <c r="O546" s="126"/>
+    </row>
+    <row r="547" spans="15:15">
+      <c r="O547" s="126"/>
+    </row>
+    <row r="548" spans="15:15">
+      <c r="O548" s="126"/>
+    </row>
+    <row r="549" spans="15:15">
+      <c r="O549" s="126"/>
+    </row>
+    <row r="550" spans="15:15">
+      <c r="O550" s="126"/>
+    </row>
+    <row r="551" spans="15:15">
+      <c r="O551" s="126"/>
+    </row>
+    <row r="552" spans="15:15">
+      <c r="O552" s="126"/>
+    </row>
+    <row r="553" spans="15:15">
+      <c r="O553" s="126"/>
+    </row>
+    <row r="554" spans="15:15">
+      <c r="O554" s="126"/>
+    </row>
+    <row r="555" spans="15:15">
+      <c r="O555" s="126"/>
+    </row>
+    <row r="556" spans="15:15">
+      <c r="O556" s="126"/>
+    </row>
+    <row r="557" spans="15:15">
+      <c r="O557" s="126"/>
+    </row>
+    <row r="558" spans="15:15">
+      <c r="O558" s="126"/>
+    </row>
+    <row r="559" spans="15:15">
+      <c r="O559" s="126"/>
+    </row>
+    <row r="560" spans="15:15">
+      <c r="O560" s="126"/>
+    </row>
+    <row r="561" spans="15:15">
+      <c r="O561" s="126"/>
+    </row>
+    <row r="562" spans="15:15">
+      <c r="O562" s="126"/>
+    </row>
+    <row r="563" spans="15:15">
+      <c r="O563" s="126"/>
+    </row>
+    <row r="564" spans="15:15">
+      <c r="O564" s="126"/>
+    </row>
+    <row r="565" spans="15:15">
+      <c r="O565" s="126"/>
+    </row>
+    <row r="566" spans="15:15">
+      <c r="O566" s="126"/>
+    </row>
+    <row r="567" spans="15:15">
+      <c r="O567" s="126"/>
+    </row>
+    <row r="568" spans="15:15">
+      <c r="O568" s="126"/>
+    </row>
+    <row r="569" spans="15:15">
+      <c r="O569" s="126"/>
+    </row>
+    <row r="570" spans="15:15">
+      <c r="O570" s="126"/>
+    </row>
+    <row r="571" spans="15:15">
+      <c r="O571" s="126"/>
+    </row>
+    <row r="572" spans="15:15">
+      <c r="O572" s="126"/>
+    </row>
+    <row r="573" spans="15:15">
+      <c r="O573" s="126"/>
+    </row>
+    <row r="574" spans="15:15">
+      <c r="O574" s="126"/>
+    </row>
+    <row r="575" spans="15:15">
+      <c r="O575" s="126"/>
+    </row>
+    <row r="576" spans="15:15">
+      <c r="O576" s="126"/>
+    </row>
+    <row r="577" spans="15:15">
+      <c r="O577" s="126"/>
+    </row>
+    <row r="578" spans="15:15">
+      <c r="O578" s="126"/>
+    </row>
+    <row r="579" spans="15:15">
+      <c r="O579" s="126"/>
+    </row>
+    <row r="580" spans="15:15">
+      <c r="O580" s="126"/>
+    </row>
+    <row r="581" spans="15:15">
+      <c r="O581" s="126"/>
+    </row>
+    <row r="582" spans="15:15">
+      <c r="O582" s="126"/>
+    </row>
+    <row r="583" spans="15:15">
+      <c r="O583" s="126"/>
+    </row>
+    <row r="584" spans="15:15">
+      <c r="O584" s="126"/>
+    </row>
+    <row r="585" spans="15:15">
+      <c r="O585" s="126"/>
+    </row>
+    <row r="586" spans="15:15">
+      <c r="O586" s="126"/>
+    </row>
+    <row r="587" spans="15:15">
+      <c r="O587" s="126"/>
+    </row>
+    <row r="588" spans="15:15">
+      <c r="O588" s="126"/>
+    </row>
+    <row r="589" spans="15:15">
+      <c r="O589" s="126"/>
+    </row>
+    <row r="590" spans="15:15">
+      <c r="O590" s="126"/>
+    </row>
+    <row r="591" spans="15:15">
+      <c r="O591" s="126"/>
+    </row>
+    <row r="592" spans="15:15">
+      <c r="O592" s="126"/>
+    </row>
+    <row r="593" spans="15:15">
+      <c r="O593" s="126"/>
+    </row>
+    <row r="594" spans="15:15">
+      <c r="O594" s="126"/>
+    </row>
+    <row r="595" spans="15:15">
+      <c r="O595" s="126"/>
+    </row>
+    <row r="596" spans="15:15">
+      <c r="O596" s="126"/>
+    </row>
+    <row r="597" spans="15:15">
+      <c r="O597" s="126"/>
+    </row>
+    <row r="598" spans="15:15">
+      <c r="O598" s="126"/>
+    </row>
+    <row r="599" spans="15:15">
+      <c r="O599" s="126"/>
+    </row>
+    <row r="600" spans="15:15">
+      <c r="O600" s="126"/>
+    </row>
+    <row r="601" spans="15:15">
+      <c r="O601" s="126"/>
+    </row>
+    <row r="602" spans="15:15">
+      <c r="O602" s="126"/>
+    </row>
+    <row r="603" spans="15:15">
+      <c r="O603" s="126"/>
+    </row>
+    <row r="604" spans="15:15">
+      <c r="O604" s="126"/>
+    </row>
+    <row r="605" spans="15:15">
+      <c r="O605" s="126"/>
+    </row>
+    <row r="606" spans="15:15">
+      <c r="O606" s="126"/>
+    </row>
+    <row r="607" spans="15:15">
+      <c r="O607" s="126"/>
+    </row>
+    <row r="608" spans="15:15">
+      <c r="O608" s="126"/>
+    </row>
+    <row r="609" spans="15:15">
+      <c r="O609" s="126"/>
+    </row>
+    <row r="610" spans="15:15">
+      <c r="O610" s="126"/>
+    </row>
+    <row r="611" spans="15:15">
+      <c r="O611" s="126"/>
+    </row>
+    <row r="612" spans="15:15">
+      <c r="O612" s="126"/>
+    </row>
+    <row r="613" spans="15:15">
+      <c r="O613" s="126"/>
+    </row>
+    <row r="614" spans="15:15">
+      <c r="O614" s="126"/>
+    </row>
+    <row r="615" spans="15:15">
+      <c r="O615" s="126"/>
+    </row>
+    <row r="616" spans="15:15">
+      <c r="O616" s="126"/>
+    </row>
+    <row r="617" spans="15:15">
+      <c r="O617" s="126"/>
+    </row>
+    <row r="618" spans="15:15">
+      <c r="O618" s="126"/>
+    </row>
+    <row r="619" spans="15:15">
+      <c r="O619" s="126"/>
+    </row>
+    <row r="620" spans="15:15">
+      <c r="O620" s="126"/>
+    </row>
+    <row r="621" spans="15:15">
+      <c r="O621" s="126"/>
+    </row>
+    <row r="622" spans="15:15">
+      <c r="O622" s="126"/>
+    </row>
+    <row r="623" spans="15:15">
+      <c r="O623" s="126"/>
+    </row>
+    <row r="624" spans="15:15">
+      <c r="O624" s="126"/>
+    </row>
+    <row r="625" spans="15:15">
+      <c r="O625" s="126"/>
+    </row>
+    <row r="626" spans="15:15">
+      <c r="O626" s="126"/>
+    </row>
+    <row r="627" spans="15:15">
+      <c r="O627" s="126"/>
+    </row>
+    <row r="628" spans="15:15">
+      <c r="O628" s="126"/>
+    </row>
+    <row r="629" spans="15:15">
+      <c r="O629" s="126"/>
+    </row>
+    <row r="630" spans="15:15">
+      <c r="O630" s="126"/>
+    </row>
+    <row r="631" spans="15:15">
+      <c r="O631" s="126"/>
+    </row>
+    <row r="632" spans="15:15">
+      <c r="O632" s="126"/>
+    </row>
+    <row r="633" spans="15:15">
+      <c r="O633" s="126"/>
+    </row>
+    <row r="634" spans="15:15">
+      <c r="O634" s="126"/>
+    </row>
+    <row r="635" spans="15:15">
+      <c r="O635" s="126"/>
+    </row>
+    <row r="636" spans="15:15">
+      <c r="O636" s="126"/>
+    </row>
+    <row r="637" spans="15:15">
+      <c r="O637" s="126"/>
+    </row>
+    <row r="638" spans="15:15">
+      <c r="O638" s="126"/>
+    </row>
+    <row r="639" spans="15:15">
+      <c r="O639" s="126"/>
+    </row>
+    <row r="640" spans="15:15">
+      <c r="O640" s="126"/>
+    </row>
+    <row r="641" spans="15:15">
+      <c r="O641" s="126"/>
+    </row>
+    <row r="642" spans="15:15">
+      <c r="O642" s="126"/>
+    </row>
+    <row r="643" spans="15:15">
+      <c r="O643" s="126"/>
+    </row>
+    <row r="644" spans="15:15">
+      <c r="O644" s="126"/>
+    </row>
+    <row r="645" spans="15:15">
+      <c r="O645" s="126"/>
+    </row>
+    <row r="646" spans="15:15">
+      <c r="O646" s="126"/>
+    </row>
+    <row r="647" spans="15:15">
+      <c r="O647" s="126"/>
+    </row>
+    <row r="648" spans="15:15">
+      <c r="O648" s="126"/>
+    </row>
+    <row r="649" spans="15:15">
+      <c r="O649" s="126"/>
+    </row>
+    <row r="650" spans="15:15">
+      <c r="O650" s="126"/>
+    </row>
+    <row r="651" spans="15:15">
+      <c r="O651" s="126"/>
+    </row>
+    <row r="652" spans="15:15">
+      <c r="O652" s="126"/>
+    </row>
+    <row r="653" spans="15:15">
+      <c r="O653" s="126"/>
+    </row>
+    <row r="654" spans="15:15">
+      <c r="O654" s="126"/>
+    </row>
+    <row r="655" spans="15:15">
+      <c r="O655" s="126"/>
+    </row>
+    <row r="656" spans="15:15">
+      <c r="O656" s="126"/>
+    </row>
+    <row r="657" spans="15:15">
+      <c r="O657" s="126"/>
+    </row>
+    <row r="658" spans="15:15">
+      <c r="O658" s="126"/>
+    </row>
+    <row r="659" spans="15:15">
+      <c r="O659" s="126"/>
+    </row>
+    <row r="660" spans="15:15">
+      <c r="O660" s="126"/>
+    </row>
+    <row r="661" spans="15:15">
+      <c r="O661" s="126"/>
+    </row>
+    <row r="662" spans="15:15">
+      <c r="O662" s="126"/>
+    </row>
+    <row r="663" spans="15:15">
+      <c r="O663" s="126"/>
+    </row>
+    <row r="664" spans="15:15">
+      <c r="O664" s="126"/>
+    </row>
+    <row r="665" spans="15:15">
+      <c r="O665" s="126"/>
+    </row>
+    <row r="666" spans="15:15">
+      <c r="O666" s="126"/>
+    </row>
+    <row r="667" spans="15:15">
+      <c r="O667" s="126"/>
+    </row>
+    <row r="668" spans="15:15">
+      <c r="O668" s="126"/>
+    </row>
+    <row r="669" spans="15:15">
+      <c r="O669" s="126"/>
+    </row>
+    <row r="670" spans="15:15">
+      <c r="O670" s="126"/>
+    </row>
+    <row r="671" spans="15:15">
+      <c r="O671" s="126"/>
+    </row>
+    <row r="672" spans="15:15">
+      <c r="O672" s="126"/>
+    </row>
+    <row r="673" spans="15:15">
+      <c r="O673" s="126"/>
+    </row>
+    <row r="674" spans="15:15">
+      <c r="O674" s="126"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R671"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11607,12 +14110,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11714,12 +14217,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/analysis & research/QT_rhine_arch/Analysis.xlsx
+++ b/analysis & research/QT_rhine_arch/Analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF58AA3-35AE-4699-99AF-13BE3A3C109C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0779D6EF-7D91-4A31-AEC4-51542047295A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16560" yWindow="2897" windowWidth="16663" windowHeight="8863" tabRatio="530" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16560" yWindow="2897" windowWidth="16663" windowHeight="8863" tabRatio="530" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoganPluginCore注册" sheetId="3" r:id="rId1"/>
@@ -7696,8 +7696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:Q674"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9840,8 +9840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F949A5-5DBA-4DBB-AF53-2FB4E97C73C7}">
   <dimension ref="B2:R674"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11975,7 +11975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:R671"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -14114,7 +14114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
